--- a/Input Data - Resources 1.xlsx
+++ b/Input Data - Resources 1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hugo.serrano\PycharmProjects1\CRETE_VALLEY_T.4.3\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{06C53DE9-1890-410D-8A63-069C17A7190E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F1D735A8-80B2-448C-9A06-598E98DFAD0B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="907" activeTab="3" xr2:uid="{A643D732-D500-40EC-92C3-BB1380872BE9}"/>
+    <workbookView xWindow="67080" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="907" activeTab="3" xr2:uid="{A643D732-D500-40EC-92C3-BB1380872BE9}"/>
   </bookViews>
   <sheets>
     <sheet name="Electrical load" sheetId="1" r:id="rId1"/>
@@ -242,7 +242,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="13" x14ac:knownFonts="1">
+  <fonts count="15" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -332,6 +332,17 @@
     <font>
       <sz val="15"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -440,7 +451,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="61">
+  <cellXfs count="62">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -594,6 +605,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -912,8 +926,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{293146E6-8E2D-4ADC-82E7-CE7DA50FFBD7}">
   <dimension ref="A2:Z43"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:Z41"/>
+    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="W27" sqref="W27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.90625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1005,76 +1019,76 @@
       <c r="B3" s="6">
         <v>1</v>
       </c>
-      <c r="C3" s="2">
+      <c r="C3" s="61">
         <v>62.746000000000002</v>
       </c>
-      <c r="D3" s="2">
+      <c r="D3" s="61">
         <v>62.271999999999998</v>
       </c>
-      <c r="E3" s="2">
+      <c r="E3" s="61">
         <v>58.021999999999998</v>
       </c>
-      <c r="F3" s="2">
+      <c r="F3" s="61">
         <v>60.991999999999997</v>
       </c>
-      <c r="G3" s="2">
+      <c r="G3" s="61">
         <v>57.664000000000001</v>
       </c>
-      <c r="H3" s="2">
+      <c r="H3" s="61">
         <v>60.212000000000003</v>
       </c>
-      <c r="I3" s="2">
-        <v>60.850999999999999</v>
-      </c>
-      <c r="J3" s="2">
+      <c r="I3" s="61">
+        <v>97.36160000000001</v>
+      </c>
+      <c r="J3" s="61">
         <v>80.2</v>
       </c>
-      <c r="K3" s="2">
+      <c r="K3" s="61">
         <v>95.13</v>
       </c>
-      <c r="L3" s="2">
+      <c r="L3" s="61">
         <v>115.042</v>
       </c>
-      <c r="M3" s="2">
+      <c r="M3" s="61">
         <v>128.63999999999999</v>
       </c>
-      <c r="N3" s="2">
+      <c r="N3" s="61">
         <v>128.959</v>
       </c>
-      <c r="O3" s="2">
+      <c r="O3" s="61">
         <v>129.79599999999999</v>
       </c>
-      <c r="P3" s="2">
+      <c r="P3" s="61">
         <v>136.333</v>
       </c>
-      <c r="Q3" s="2">
+      <c r="Q3" s="61">
         <v>131.06800000000001</v>
       </c>
-      <c r="R3" s="2">
+      <c r="R3" s="61">
         <v>126.88800000000001</v>
       </c>
-      <c r="S3" s="2">
+      <c r="S3" s="61">
         <v>124.343</v>
       </c>
-      <c r="T3" s="2">
-        <v>108.12</v>
-      </c>
-      <c r="U3" s="2">
+      <c r="T3" s="61">
+        <v>114.15599999999999</v>
+      </c>
+      <c r="U3" s="61">
         <v>94.757999999999996</v>
       </c>
-      <c r="V3" s="2">
+      <c r="V3" s="61">
         <v>84.965000000000003</v>
       </c>
-      <c r="W3" s="2">
+      <c r="W3" s="61">
         <v>78.438000000000002</v>
       </c>
-      <c r="X3" s="2">
+      <c r="X3" s="61">
         <v>63.18</v>
       </c>
-      <c r="Y3" s="2">
+      <c r="Y3" s="61">
         <v>60.569000000000003</v>
       </c>
-      <c r="Z3" s="2">
+      <c r="Z3" s="61">
         <v>59.994</v>
       </c>
     </row>
@@ -1082,76 +1096,76 @@
       <c r="B4" s="7">
         <v>2</v>
       </c>
-      <c r="C4" s="2">
+      <c r="C4" s="61">
         <v>44.9</v>
       </c>
-      <c r="D4" s="2">
+      <c r="D4" s="61">
         <v>43.4</v>
       </c>
-      <c r="E4" s="2">
+      <c r="E4" s="61">
         <v>42.3</v>
       </c>
-      <c r="F4" s="2">
+      <c r="F4" s="61">
         <v>40.9</v>
       </c>
-      <c r="G4" s="2">
+      <c r="G4" s="61">
         <v>41</v>
       </c>
-      <c r="H4" s="2">
+      <c r="H4" s="61">
         <v>41</v>
       </c>
-      <c r="I4" s="2">
-        <v>40.4</v>
-      </c>
-      <c r="J4" s="2">
+      <c r="I4" s="61">
+        <v>64.64</v>
+      </c>
+      <c r="J4" s="61">
         <v>49.6</v>
       </c>
-      <c r="K4" s="2">
+      <c r="K4" s="61">
         <v>49.7</v>
       </c>
-      <c r="L4" s="2">
+      <c r="L4" s="61">
         <v>64.2</v>
       </c>
-      <c r="M4" s="2">
+      <c r="M4" s="61">
         <v>67.8</v>
       </c>
-      <c r="N4" s="2">
+      <c r="N4" s="61">
         <v>66</v>
       </c>
-      <c r="O4" s="2">
+      <c r="O4" s="61">
         <v>65.900000000000006</v>
       </c>
-      <c r="P4" s="2">
+      <c r="P4" s="61">
         <v>66</v>
       </c>
-      <c r="Q4" s="2">
+      <c r="Q4" s="61">
         <v>61.7</v>
       </c>
-      <c r="R4" s="2">
+      <c r="R4" s="61">
         <v>65.2</v>
       </c>
-      <c r="S4" s="2">
+      <c r="S4" s="61">
         <v>68</v>
       </c>
-      <c r="T4" s="2">
-        <v>67.599999999999994</v>
-      </c>
-      <c r="U4" s="2">
-        <v>68.400000000000006</v>
-      </c>
-      <c r="V4" s="2">
-        <v>68.599999999999994</v>
-      </c>
-      <c r="W4" s="2">
-        <v>68</v>
-      </c>
-      <c r="X4" s="2">
+      <c r="T4" s="61">
+        <v>79.3</v>
+      </c>
+      <c r="U4" s="61">
+        <v>78.400000000000006</v>
+      </c>
+      <c r="V4" s="61">
+        <v>78.599999999999994</v>
+      </c>
+      <c r="W4" s="61">
+        <v>78</v>
+      </c>
+      <c r="X4" s="61">
         <v>52.8</v>
       </c>
-      <c r="Y4" s="2">
+      <c r="Y4" s="61">
         <v>49.5</v>
       </c>
-      <c r="Z4" s="2">
+      <c r="Z4" s="61">
         <v>48.3</v>
       </c>
     </row>
@@ -1159,76 +1173,76 @@
       <c r="B5" s="6">
         <v>3</v>
       </c>
-      <c r="C5" s="2">
+      <c r="C5" s="61">
         <v>5</v>
       </c>
-      <c r="D5" s="2">
+      <c r="D5" s="61">
         <v>6</v>
       </c>
-      <c r="E5" s="2">
+      <c r="E5" s="61">
         <v>5</v>
       </c>
-      <c r="F5" s="2">
+      <c r="F5" s="61">
         <v>6</v>
       </c>
-      <c r="G5" s="2">
+      <c r="G5" s="61">
         <v>6</v>
       </c>
-      <c r="H5" s="2">
+      <c r="H5" s="61">
         <v>6</v>
       </c>
-      <c r="I5" s="2">
+      <c r="I5" s="61">
+        <v>9.6000000000000014</v>
+      </c>
+      <c r="J5" s="61">
+        <v>11</v>
+      </c>
+      <c r="K5" s="61">
+        <v>23</v>
+      </c>
+      <c r="L5" s="61">
+        <v>25</v>
+      </c>
+      <c r="M5" s="61">
+        <v>24</v>
+      </c>
+      <c r="N5" s="61">
+        <v>25</v>
+      </c>
+      <c r="O5" s="61">
+        <v>27</v>
+      </c>
+      <c r="P5" s="61">
+        <v>23</v>
+      </c>
+      <c r="Q5" s="61">
+        <v>21</v>
+      </c>
+      <c r="R5" s="61">
+        <v>21</v>
+      </c>
+      <c r="S5" s="61">
+        <v>17</v>
+      </c>
+      <c r="T5" s="61">
+        <v>34.5</v>
+      </c>
+      <c r="U5" s="61">
+        <v>30</v>
+      </c>
+      <c r="V5" s="61">
+        <v>31</v>
+      </c>
+      <c r="W5" s="61">
+        <v>28</v>
+      </c>
+      <c r="X5" s="61">
+        <v>7</v>
+      </c>
+      <c r="Y5" s="61">
         <v>6</v>
       </c>
-      <c r="J5" s="2">
-        <v>11</v>
-      </c>
-      <c r="K5" s="2">
-        <v>23</v>
-      </c>
-      <c r="L5" s="2">
-        <v>25</v>
-      </c>
-      <c r="M5" s="2">
-        <v>24</v>
-      </c>
-      <c r="N5" s="2">
-        <v>25</v>
-      </c>
-      <c r="O5" s="2">
-        <v>27</v>
-      </c>
-      <c r="P5" s="2">
-        <v>23</v>
-      </c>
-      <c r="Q5" s="2">
-        <v>21</v>
-      </c>
-      <c r="R5" s="2">
-        <v>21</v>
-      </c>
-      <c r="S5" s="2">
-        <v>17</v>
-      </c>
-      <c r="T5" s="2">
-        <v>13</v>
-      </c>
-      <c r="U5" s="2">
-        <v>8</v>
-      </c>
-      <c r="V5" s="2">
-        <v>7</v>
-      </c>
-      <c r="W5" s="2">
-        <v>6</v>
-      </c>
-      <c r="X5" s="2">
-        <v>7</v>
-      </c>
-      <c r="Y5" s="2">
-        <v>6</v>
-      </c>
-      <c r="Z5" s="2">
+      <c r="Z5" s="61">
         <v>5</v>
       </c>
     </row>
@@ -1236,76 +1250,76 @@
       <c r="B6" s="7">
         <v>4</v>
       </c>
-      <c r="C6" s="2">
+      <c r="C6" s="61">
         <v>17.2</v>
       </c>
-      <c r="D6" s="2">
+      <c r="D6" s="61">
         <v>18.399999999999999</v>
       </c>
-      <c r="E6" s="2">
+      <c r="E6" s="61">
         <v>18.399999999999999</v>
       </c>
-      <c r="F6" s="2">
+      <c r="F6" s="61">
         <v>22.3</v>
       </c>
-      <c r="G6" s="2">
+      <c r="G6" s="61">
         <v>21.2</v>
       </c>
-      <c r="H6" s="2">
+      <c r="H6" s="61">
         <v>21</v>
       </c>
-      <c r="I6" s="2">
-        <v>18</v>
-      </c>
-      <c r="J6" s="2">
+      <c r="I6" s="61">
+        <v>28.8</v>
+      </c>
+      <c r="J6" s="61">
         <v>20.5</v>
       </c>
-      <c r="K6" s="2">
+      <c r="K6" s="61">
         <v>37.700000000000003</v>
       </c>
-      <c r="L6" s="2">
+      <c r="L6" s="61">
         <v>38.299999999999997</v>
       </c>
-      <c r="M6" s="2">
+      <c r="M6" s="61">
         <v>42</v>
       </c>
-      <c r="N6" s="2">
+      <c r="N6" s="61">
         <v>40.799999999999997</v>
       </c>
-      <c r="O6" s="2">
+      <c r="O6" s="61">
         <v>38.200000000000003</v>
       </c>
-      <c r="P6" s="2">
+      <c r="P6" s="61">
         <v>39.299999999999997</v>
       </c>
-      <c r="Q6" s="2">
+      <c r="Q6" s="61">
         <v>43.5</v>
       </c>
-      <c r="R6" s="2">
+      <c r="R6" s="61">
         <v>44.9</v>
       </c>
-      <c r="S6" s="2">
+      <c r="S6" s="61">
         <v>39.9</v>
       </c>
-      <c r="T6" s="2">
-        <v>28.3</v>
-      </c>
-      <c r="U6" s="2">
-        <v>19.8</v>
-      </c>
-      <c r="V6" s="2">
+      <c r="T6" s="61">
+        <v>45.24</v>
+      </c>
+      <c r="U6" s="61">
+        <v>29.8</v>
+      </c>
+      <c r="V6" s="61">
         <v>20</v>
       </c>
-      <c r="W6" s="2">
+      <c r="W6" s="61">
         <v>17.5</v>
       </c>
-      <c r="X6" s="2">
+      <c r="X6" s="61">
         <v>16.7</v>
       </c>
-      <c r="Y6" s="2">
+      <c r="Y6" s="61">
         <v>13.1</v>
       </c>
-      <c r="Z6" s="2">
+      <c r="Z6" s="61">
         <v>17.399999999999999</v>
       </c>
     </row>
@@ -1313,76 +1327,76 @@
       <c r="B7" s="6">
         <v>5</v>
       </c>
-      <c r="C7" s="2">
-        <v>0</v>
-      </c>
-      <c r="D7" s="2">
-        <v>0</v>
-      </c>
-      <c r="E7" s="2">
-        <v>0</v>
-      </c>
-      <c r="F7" s="2">
-        <v>0</v>
-      </c>
-      <c r="G7" s="2">
-        <v>0</v>
-      </c>
-      <c r="H7" s="2">
-        <v>0</v>
-      </c>
-      <c r="I7" s="2">
-        <v>0</v>
-      </c>
-      <c r="J7" s="2">
-        <v>0</v>
-      </c>
-      <c r="K7" s="2">
-        <v>0</v>
-      </c>
-      <c r="L7" s="2">
-        <v>0</v>
-      </c>
-      <c r="M7" s="2">
-        <v>0</v>
-      </c>
-      <c r="N7" s="2">
-        <v>0</v>
-      </c>
-      <c r="O7" s="2">
-        <v>0</v>
-      </c>
-      <c r="P7" s="2">
-        <v>0</v>
-      </c>
-      <c r="Q7" s="2">
-        <v>0</v>
-      </c>
-      <c r="R7" s="2">
-        <v>0</v>
-      </c>
-      <c r="S7" s="2">
-        <v>0</v>
-      </c>
-      <c r="T7" s="2">
-        <v>0</v>
-      </c>
-      <c r="U7" s="2">
-        <v>0</v>
-      </c>
-      <c r="V7" s="2">
-        <v>0</v>
-      </c>
-      <c r="W7" s="2">
-        <v>0</v>
-      </c>
-      <c r="X7" s="2">
-        <v>0</v>
-      </c>
-      <c r="Y7" s="2">
-        <v>0</v>
-      </c>
-      <c r="Z7" s="2">
+      <c r="C7" s="61">
+        <v>0</v>
+      </c>
+      <c r="D7" s="61">
+        <v>0</v>
+      </c>
+      <c r="E7" s="61">
+        <v>0</v>
+      </c>
+      <c r="F7" s="61">
+        <v>0</v>
+      </c>
+      <c r="G7" s="61">
+        <v>0</v>
+      </c>
+      <c r="H7" s="61">
+        <v>0</v>
+      </c>
+      <c r="I7" s="61">
+        <v>0</v>
+      </c>
+      <c r="J7" s="61">
+        <v>0</v>
+      </c>
+      <c r="K7" s="61">
+        <v>0</v>
+      </c>
+      <c r="L7" s="61">
+        <v>0</v>
+      </c>
+      <c r="M7" s="61">
+        <v>0</v>
+      </c>
+      <c r="N7" s="61">
+        <v>0</v>
+      </c>
+      <c r="O7" s="61">
+        <v>0</v>
+      </c>
+      <c r="P7" s="61">
+        <v>0</v>
+      </c>
+      <c r="Q7" s="61">
+        <v>0</v>
+      </c>
+      <c r="R7" s="61">
+        <v>0</v>
+      </c>
+      <c r="S7" s="61">
+        <v>0</v>
+      </c>
+      <c r="T7" s="61">
+        <v>0</v>
+      </c>
+      <c r="U7" s="61">
+        <v>0</v>
+      </c>
+      <c r="V7" s="61">
+        <v>0</v>
+      </c>
+      <c r="W7" s="61">
+        <v>0</v>
+      </c>
+      <c r="X7" s="61">
+        <v>0</v>
+      </c>
+      <c r="Y7" s="61">
+        <v>0</v>
+      </c>
+      <c r="Z7" s="61">
         <v>0</v>
       </c>
     </row>
@@ -1390,76 +1404,76 @@
       <c r="B8" s="7">
         <v>6</v>
       </c>
-      <c r="C8" s="2">
+      <c r="C8" s="61">
         <v>3.7250000000000001</v>
       </c>
-      <c r="D8" s="2">
+      <c r="D8" s="61">
         <v>3.7559999999999998</v>
       </c>
-      <c r="E8" s="2">
+      <c r="E8" s="61">
         <v>3.9430000000000001</v>
       </c>
-      <c r="F8" s="2">
+      <c r="F8" s="61">
         <v>3.7389999999999999</v>
       </c>
-      <c r="G8" s="2">
+      <c r="G8" s="61">
         <v>3.895</v>
       </c>
-      <c r="H8" s="2">
+      <c r="H8" s="61">
         <v>3.7589999999999999</v>
       </c>
-      <c r="I8" s="2">
-        <v>3.6230000000000002</v>
-      </c>
-      <c r="J8" s="2">
+      <c r="I8" s="61">
+        <v>5.7968000000000011</v>
+      </c>
+      <c r="J8" s="61">
         <v>3.82</v>
       </c>
-      <c r="K8" s="2">
+      <c r="K8" s="61">
         <v>15.278</v>
       </c>
-      <c r="L8" s="2">
+      <c r="L8" s="61">
         <v>22.006</v>
       </c>
-      <c r="M8" s="2">
+      <c r="M8" s="61">
         <v>21.306000000000001</v>
       </c>
-      <c r="N8" s="2">
-        <v>24.446000000000002</v>
-      </c>
-      <c r="O8" s="2">
-        <v>23.196999999999999</v>
-      </c>
-      <c r="P8" s="2">
-        <v>25.722000000000001</v>
-      </c>
-      <c r="Q8" s="2">
+      <c r="N8" s="61">
+        <v>14.446</v>
+      </c>
+      <c r="O8" s="61">
+        <v>13.196999999999999</v>
+      </c>
+      <c r="P8" s="61">
+        <v>15.722</v>
+      </c>
+      <c r="Q8" s="61">
+        <v>16.175999999999998</v>
+      </c>
+      <c r="R8" s="61">
+        <v>24.818000000000001</v>
+      </c>
+      <c r="S8" s="61">
+        <v>21.86</v>
+      </c>
+      <c r="T8" s="61">
+        <v>26.444800000000001</v>
+      </c>
+      <c r="U8" s="61">
         <v>26.175999999999998</v>
       </c>
-      <c r="R8" s="2">
-        <v>24.818000000000001</v>
-      </c>
-      <c r="S8" s="2">
-        <v>21.86</v>
-      </c>
-      <c r="T8" s="2">
-        <v>19.271999999999998</v>
-      </c>
-      <c r="U8" s="2">
-        <v>13.757999999999999</v>
-      </c>
-      <c r="V8" s="2">
-        <v>10.837999999999999</v>
-      </c>
-      <c r="W8" s="2">
-        <v>6.806</v>
-      </c>
-      <c r="X8" s="2">
+      <c r="V8" s="61">
+        <v>20.838000000000001</v>
+      </c>
+      <c r="W8" s="61">
+        <v>16.806000000000001</v>
+      </c>
+      <c r="X8" s="61">
         <v>4.4710000000000001</v>
       </c>
-      <c r="Y8" s="2">
+      <c r="Y8" s="61">
         <v>3.36</v>
       </c>
-      <c r="Z8" s="2">
+      <c r="Z8" s="61">
         <v>3.238</v>
       </c>
     </row>
@@ -1467,76 +1481,76 @@
       <c r="B9" s="6">
         <v>7</v>
       </c>
-      <c r="C9" s="2">
+      <c r="C9" s="61">
         <v>6</v>
       </c>
-      <c r="D9" s="2">
+      <c r="D9" s="61">
         <v>6</v>
       </c>
-      <c r="E9" s="2">
+      <c r="E9" s="61">
         <v>6</v>
       </c>
-      <c r="F9" s="2">
+      <c r="F9" s="61">
         <v>6</v>
       </c>
-      <c r="G9" s="2">
+      <c r="G9" s="61">
         <v>6</v>
       </c>
-      <c r="H9" s="2">
+      <c r="H9" s="61">
         <v>6</v>
       </c>
-      <c r="I9" s="2">
+      <c r="I9" s="61">
+        <v>9.6000000000000014</v>
+      </c>
+      <c r="J9" s="61">
+        <v>17</v>
+      </c>
+      <c r="K9" s="61">
+        <v>22</v>
+      </c>
+      <c r="L9" s="61">
+        <v>27</v>
+      </c>
+      <c r="M9" s="61">
+        <v>30</v>
+      </c>
+      <c r="N9" s="61">
+        <v>33</v>
+      </c>
+      <c r="O9" s="61">
+        <v>33</v>
+      </c>
+      <c r="P9" s="61">
+        <v>32</v>
+      </c>
+      <c r="Q9" s="61">
+        <v>20</v>
+      </c>
+      <c r="R9" s="61">
+        <v>23</v>
+      </c>
+      <c r="S9" s="61">
+        <v>27</v>
+      </c>
+      <c r="T9" s="61">
+        <v>26.4</v>
+      </c>
+      <c r="U9" s="61">
+        <v>24</v>
+      </c>
+      <c r="V9" s="61">
+        <v>22</v>
+      </c>
+      <c r="W9" s="61">
+        <v>21</v>
+      </c>
+      <c r="X9" s="61">
         <v>6</v>
       </c>
-      <c r="J9" s="2">
-        <v>17</v>
-      </c>
-      <c r="K9" s="2">
-        <v>22</v>
-      </c>
-      <c r="L9" s="2">
-        <v>27</v>
-      </c>
-      <c r="M9" s="2">
-        <v>30</v>
-      </c>
-      <c r="N9" s="2">
-        <v>33</v>
-      </c>
-      <c r="O9" s="2">
-        <v>33</v>
-      </c>
-      <c r="P9" s="2">
-        <v>32</v>
-      </c>
-      <c r="Q9" s="2">
-        <v>35</v>
-      </c>
-      <c r="R9" s="2">
-        <v>33</v>
-      </c>
-      <c r="S9" s="2">
-        <v>27</v>
-      </c>
-      <c r="T9" s="2">
-        <v>20</v>
-      </c>
-      <c r="U9" s="2">
-        <v>12</v>
-      </c>
-      <c r="V9" s="2">
-        <v>8</v>
-      </c>
-      <c r="W9" s="2">
-        <v>7</v>
-      </c>
-      <c r="X9" s="2">
+      <c r="Y9" s="61">
         <v>6</v>
       </c>
-      <c r="Y9" s="2">
-        <v>6</v>
-      </c>
-      <c r="Z9" s="2">
+      <c r="Z9" s="61">
         <v>6</v>
       </c>
     </row>
@@ -1544,76 +1558,76 @@
       <c r="B10" s="7">
         <v>8</v>
       </c>
-      <c r="C10" s="2">
+      <c r="C10" s="61">
         <v>23.675000000000001</v>
       </c>
-      <c r="D10" s="2">
+      <c r="D10" s="61">
         <v>20.654</v>
       </c>
-      <c r="E10" s="2">
+      <c r="E10" s="61">
         <v>23.811</v>
       </c>
-      <c r="F10" s="2">
+      <c r="F10" s="61">
         <v>20.562999999999999</v>
       </c>
-      <c r="G10" s="2">
+      <c r="G10" s="61">
         <v>22.475000000000001</v>
       </c>
-      <c r="H10" s="2">
+      <c r="H10" s="61">
         <v>19.798999999999999</v>
       </c>
-      <c r="I10" s="2">
-        <v>26.75</v>
-      </c>
-      <c r="J10" s="2">
+      <c r="I10" s="61">
+        <v>42.800000000000004</v>
+      </c>
+      <c r="J10" s="61">
         <v>28.559000000000001</v>
       </c>
-      <c r="K10" s="2">
+      <c r="K10" s="61">
         <v>35.484000000000002</v>
       </c>
-      <c r="L10" s="2">
+      <c r="L10" s="61">
         <v>37.094999999999999</v>
       </c>
-      <c r="M10" s="2">
+      <c r="M10" s="61">
         <v>39.68</v>
       </c>
-      <c r="N10" s="2">
+      <c r="N10" s="61">
         <v>39.232999999999997</v>
       </c>
-      <c r="O10" s="2">
+      <c r="O10" s="61">
         <v>39.654000000000003</v>
       </c>
-      <c r="P10" s="2">
+      <c r="P10" s="61">
         <v>37.860999999999997</v>
       </c>
-      <c r="Q10" s="2">
+      <c r="Q10" s="61">
         <v>36.348999999999997</v>
       </c>
-      <c r="R10" s="2">
+      <c r="R10" s="61">
         <v>37.350999999999999</v>
       </c>
-      <c r="S10" s="2">
+      <c r="S10" s="61">
         <v>33.853000000000002</v>
       </c>
-      <c r="T10" s="2">
-        <v>35.631</v>
-      </c>
-      <c r="U10" s="2">
-        <v>33.957999999999998</v>
-      </c>
-      <c r="V10" s="2">
-        <v>33.92</v>
-      </c>
-      <c r="W10" s="2">
-        <v>33.769999999999897</v>
-      </c>
-      <c r="X10" s="2">
+      <c r="T10" s="61">
+        <v>42.580800000000004</v>
+      </c>
+      <c r="U10" s="61">
+        <v>43.957999999999998</v>
+      </c>
+      <c r="V10" s="61">
+        <v>43.92</v>
+      </c>
+      <c r="W10" s="61">
+        <v>43.769999999999897</v>
+      </c>
+      <c r="X10" s="61">
         <v>29.481999999999999</v>
       </c>
-      <c r="Y10" s="2">
+      <c r="Y10" s="61">
         <v>24.21</v>
       </c>
-      <c r="Z10" s="2">
+      <c r="Z10" s="61">
         <v>24.244</v>
       </c>
     </row>
@@ -1621,76 +1635,76 @@
       <c r="B11" s="6">
         <v>9</v>
       </c>
-      <c r="C11" s="2">
-        <v>0</v>
-      </c>
-      <c r="D11" s="2">
-        <v>0</v>
-      </c>
-      <c r="E11" s="2">
-        <v>0</v>
-      </c>
-      <c r="F11" s="2">
-        <v>0</v>
-      </c>
-      <c r="G11" s="2">
-        <v>0</v>
-      </c>
-      <c r="H11" s="2">
-        <v>0</v>
-      </c>
-      <c r="I11" s="2">
-        <v>0</v>
-      </c>
-      <c r="J11" s="2">
-        <v>0</v>
-      </c>
-      <c r="K11" s="2">
-        <v>0</v>
-      </c>
-      <c r="L11" s="2">
-        <v>0</v>
-      </c>
-      <c r="M11" s="2">
-        <v>0</v>
-      </c>
-      <c r="N11" s="2">
-        <v>0</v>
-      </c>
-      <c r="O11" s="2">
-        <v>0</v>
-      </c>
-      <c r="P11" s="2">
-        <v>0</v>
-      </c>
-      <c r="Q11" s="2">
-        <v>0</v>
-      </c>
-      <c r="R11" s="2">
-        <v>0</v>
-      </c>
-      <c r="S11" s="2">
-        <v>0</v>
-      </c>
-      <c r="T11" s="2">
-        <v>0</v>
-      </c>
-      <c r="U11" s="2">
-        <v>0</v>
-      </c>
-      <c r="V11" s="2">
-        <v>0</v>
-      </c>
-      <c r="W11" s="2">
-        <v>0</v>
-      </c>
-      <c r="X11" s="2">
-        <v>0</v>
-      </c>
-      <c r="Y11" s="2">
-        <v>0</v>
-      </c>
-      <c r="Z11" s="2">
+      <c r="C11" s="61">
+        <v>0</v>
+      </c>
+      <c r="D11" s="61">
+        <v>0</v>
+      </c>
+      <c r="E11" s="61">
+        <v>0</v>
+      </c>
+      <c r="F11" s="61">
+        <v>0</v>
+      </c>
+      <c r="G11" s="61">
+        <v>0</v>
+      </c>
+      <c r="H11" s="61">
+        <v>0</v>
+      </c>
+      <c r="I11" s="61">
+        <v>0</v>
+      </c>
+      <c r="J11" s="61">
+        <v>0</v>
+      </c>
+      <c r="K11" s="61">
+        <v>0</v>
+      </c>
+      <c r="L11" s="61">
+        <v>0</v>
+      </c>
+      <c r="M11" s="61">
+        <v>0</v>
+      </c>
+      <c r="N11" s="61">
+        <v>0</v>
+      </c>
+      <c r="O11" s="61">
+        <v>0</v>
+      </c>
+      <c r="P11" s="61">
+        <v>0</v>
+      </c>
+      <c r="Q11" s="61">
+        <v>0</v>
+      </c>
+      <c r="R11" s="61">
+        <v>0</v>
+      </c>
+      <c r="S11" s="61">
+        <v>0</v>
+      </c>
+      <c r="T11" s="61">
+        <v>0</v>
+      </c>
+      <c r="U11" s="61">
+        <v>0</v>
+      </c>
+      <c r="V11" s="61">
+        <v>0</v>
+      </c>
+      <c r="W11" s="61">
+        <v>0</v>
+      </c>
+      <c r="X11" s="61">
+        <v>0</v>
+      </c>
+      <c r="Y11" s="61">
+        <v>0</v>
+      </c>
+      <c r="Z11" s="61">
         <v>0</v>
       </c>
     </row>
@@ -1698,76 +1712,76 @@
       <c r="B12" s="7">
         <v>10</v>
       </c>
-      <c r="C12" s="2">
-        <v>0</v>
-      </c>
-      <c r="D12" s="2">
-        <v>0</v>
-      </c>
-      <c r="E12" s="2">
-        <v>0</v>
-      </c>
-      <c r="F12" s="2">
-        <v>0</v>
-      </c>
-      <c r="G12" s="2">
-        <v>0</v>
-      </c>
-      <c r="H12" s="2">
-        <v>0</v>
-      </c>
-      <c r="I12" s="2">
-        <v>0</v>
-      </c>
-      <c r="J12" s="2">
-        <v>0</v>
-      </c>
-      <c r="K12" s="2">
-        <v>0</v>
-      </c>
-      <c r="L12" s="2">
-        <v>0</v>
-      </c>
-      <c r="M12" s="2">
-        <v>0</v>
-      </c>
-      <c r="N12" s="2">
-        <v>0</v>
-      </c>
-      <c r="O12" s="2">
-        <v>0</v>
-      </c>
-      <c r="P12" s="2">
-        <v>0</v>
-      </c>
-      <c r="Q12" s="2">
-        <v>0</v>
-      </c>
-      <c r="R12" s="2">
-        <v>0</v>
-      </c>
-      <c r="S12" s="2">
-        <v>0</v>
-      </c>
-      <c r="T12" s="2">
-        <v>0</v>
-      </c>
-      <c r="U12" s="2">
-        <v>0</v>
-      </c>
-      <c r="V12" s="2">
-        <v>0</v>
-      </c>
-      <c r="W12" s="2">
-        <v>0</v>
-      </c>
-      <c r="X12" s="2">
-        <v>0</v>
-      </c>
-      <c r="Y12" s="2">
-        <v>0</v>
-      </c>
-      <c r="Z12" s="2">
+      <c r="C12" s="61">
+        <v>0</v>
+      </c>
+      <c r="D12" s="61">
+        <v>0</v>
+      </c>
+      <c r="E12" s="61">
+        <v>0</v>
+      </c>
+      <c r="F12" s="61">
+        <v>0</v>
+      </c>
+      <c r="G12" s="61">
+        <v>0</v>
+      </c>
+      <c r="H12" s="61">
+        <v>0</v>
+      </c>
+      <c r="I12" s="61">
+        <v>0</v>
+      </c>
+      <c r="J12" s="61">
+        <v>0</v>
+      </c>
+      <c r="K12" s="61">
+        <v>0</v>
+      </c>
+      <c r="L12" s="61">
+        <v>0</v>
+      </c>
+      <c r="M12" s="61">
+        <v>0</v>
+      </c>
+      <c r="N12" s="61">
+        <v>0</v>
+      </c>
+      <c r="O12" s="61">
+        <v>0</v>
+      </c>
+      <c r="P12" s="61">
+        <v>0</v>
+      </c>
+      <c r="Q12" s="61">
+        <v>0</v>
+      </c>
+      <c r="R12" s="61">
+        <v>0</v>
+      </c>
+      <c r="S12" s="61">
+        <v>0</v>
+      </c>
+      <c r="T12" s="61">
+        <v>0</v>
+      </c>
+      <c r="U12" s="61">
+        <v>0</v>
+      </c>
+      <c r="V12" s="61">
+        <v>0</v>
+      </c>
+      <c r="W12" s="61">
+        <v>0</v>
+      </c>
+      <c r="X12" s="61">
+        <v>0</v>
+      </c>
+      <c r="Y12" s="61">
+        <v>0</v>
+      </c>
+      <c r="Z12" s="61">
         <v>0</v>
       </c>
     </row>
@@ -1775,76 +1789,76 @@
       <c r="B13" s="6">
         <v>11</v>
       </c>
-      <c r="C13" s="2">
+      <c r="C13" s="61">
         <v>25.347000000000001</v>
       </c>
-      <c r="D13" s="2">
+      <c r="D13" s="61">
         <v>25.552</v>
       </c>
-      <c r="E13" s="2">
+      <c r="E13" s="61">
         <v>24.72</v>
       </c>
-      <c r="F13" s="2">
+      <c r="F13" s="61">
         <v>24.783999999999999</v>
       </c>
-      <c r="G13" s="2">
+      <c r="G13" s="61">
         <v>25.861999999999998</v>
       </c>
-      <c r="H13" s="2">
+      <c r="H13" s="61">
         <v>25.306000000000001</v>
       </c>
-      <c r="I13" s="2">
-        <v>25.161999999999999</v>
-      </c>
-      <c r="J13" s="2">
+      <c r="I13" s="61">
+        <v>40.2592</v>
+      </c>
+      <c r="J13" s="61">
         <v>33.139000000000003</v>
       </c>
-      <c r="K13" s="2">
+      <c r="K13" s="61">
         <v>36.621000000000002</v>
       </c>
-      <c r="L13" s="2">
+      <c r="L13" s="61">
         <v>44.304000000000002</v>
       </c>
-      <c r="M13" s="2">
+      <c r="M13" s="61">
         <v>53.628999999999998</v>
       </c>
-      <c r="N13" s="2">
+      <c r="N13" s="61">
         <v>57.616999999999997</v>
       </c>
-      <c r="O13" s="2">
+      <c r="O13" s="61">
         <v>55.176000000000002</v>
       </c>
-      <c r="P13" s="2">
+      <c r="P13" s="61">
         <v>58.177</v>
       </c>
-      <c r="Q13" s="2">
+      <c r="Q13" s="61">
         <v>58.219000000000001</v>
       </c>
-      <c r="R13" s="2">
+      <c r="R13" s="61">
         <v>54.584000000000003</v>
       </c>
-      <c r="S13" s="2">
+      <c r="S13" s="61">
         <v>51.578000000000003</v>
       </c>
-      <c r="T13" s="2">
-        <v>40.770000000000003</v>
-      </c>
-      <c r="U13" s="2">
-        <v>33.375999999999998</v>
-      </c>
-      <c r="V13" s="2">
-        <v>29.558</v>
-      </c>
-      <c r="W13" s="2">
-        <v>28.349</v>
-      </c>
-      <c r="X13" s="2">
+      <c r="T13" s="61">
+        <v>65.9178</v>
+      </c>
+      <c r="U13" s="61">
+        <v>63.375999999999998</v>
+      </c>
+      <c r="V13" s="61">
+        <v>69.558000000000007</v>
+      </c>
+      <c r="W13" s="61">
+        <v>68.349000000000004</v>
+      </c>
+      <c r="X13" s="61">
         <v>26.768000000000001</v>
       </c>
-      <c r="Y13" s="2">
+      <c r="Y13" s="61">
         <v>26.358000000000001</v>
       </c>
-      <c r="Z13" s="2">
+      <c r="Z13" s="61">
         <v>25.446000000000002</v>
       </c>
     </row>
@@ -1852,76 +1866,76 @@
       <c r="B14" s="7">
         <v>12</v>
       </c>
-      <c r="C14" s="2">
+      <c r="C14" s="61">
         <v>13.183999999999999</v>
       </c>
-      <c r="D14" s="2">
+      <c r="D14" s="61">
         <v>13.337999999999999</v>
       </c>
-      <c r="E14" s="2">
+      <c r="E14" s="61">
         <v>12.992000000000001</v>
       </c>
-      <c r="F14" s="2">
+      <c r="F14" s="61">
         <v>13.183999999999999</v>
       </c>
-      <c r="G14" s="2">
+      <c r="G14" s="61">
         <v>13.247999999999999</v>
       </c>
-      <c r="H14" s="2">
+      <c r="H14" s="61">
         <v>13.504</v>
       </c>
-      <c r="I14" s="2">
-        <v>13.375999999999999</v>
-      </c>
-      <c r="J14" s="2">
+      <c r="I14" s="61">
+        <v>21.401600000000002</v>
+      </c>
+      <c r="J14" s="61">
         <v>13.491</v>
       </c>
-      <c r="K14" s="2">
+      <c r="K14" s="61">
         <v>20.172999999999998</v>
       </c>
-      <c r="L14" s="2">
+      <c r="L14" s="61">
         <v>32.064</v>
       </c>
-      <c r="M14" s="2">
+      <c r="M14" s="61">
         <v>40.524999999999999</v>
       </c>
-      <c r="N14" s="2">
+      <c r="N14" s="61">
         <v>44.274999999999999</v>
       </c>
-      <c r="O14" s="2">
+      <c r="O14" s="61">
         <v>43.622</v>
       </c>
-      <c r="P14" s="2">
+      <c r="P14" s="61">
         <v>41.088000000000001</v>
       </c>
-      <c r="Q14" s="2">
+      <c r="Q14" s="61">
         <v>44.762</v>
       </c>
-      <c r="R14" s="2">
+      <c r="R14" s="61">
         <v>44.351999999999997</v>
       </c>
-      <c r="S14" s="2">
+      <c r="S14" s="61">
         <v>40.448</v>
       </c>
-      <c r="T14" s="2">
-        <v>36.378</v>
-      </c>
-      <c r="U14" s="2">
-        <v>33.268000000000001</v>
-      </c>
-      <c r="V14" s="2">
-        <v>23.36</v>
-      </c>
-      <c r="W14" s="2">
-        <v>21.452999999999999</v>
-      </c>
-      <c r="X14" s="2">
+      <c r="T14" s="61">
+        <v>54.467100000000002</v>
+      </c>
+      <c r="U14" s="61">
+        <v>53.268000000000001</v>
+      </c>
+      <c r="V14" s="61">
+        <v>53.36</v>
+      </c>
+      <c r="W14" s="61">
+        <v>51.453000000000003</v>
+      </c>
+      <c r="X14" s="61">
         <v>19.315000000000001</v>
       </c>
-      <c r="Y14" s="2">
+      <c r="Y14" s="61">
         <v>16.55</v>
       </c>
-      <c r="Z14" s="2">
+      <c r="Z14" s="61">
         <v>16.754999999999999</v>
       </c>
     </row>
@@ -1929,76 +1943,76 @@
       <c r="B15" s="6">
         <v>13</v>
       </c>
-      <c r="C15" s="2">
+      <c r="C15" s="61">
         <v>35.29</v>
       </c>
-      <c r="D15" s="2">
+      <c r="D15" s="61">
         <v>35.283000000000001</v>
       </c>
-      <c r="E15" s="2">
+      <c r="E15" s="61">
         <v>35.066000000000003</v>
       </c>
-      <c r="F15" s="2">
+      <c r="F15" s="61">
         <v>34.362000000000002</v>
       </c>
-      <c r="G15" s="2">
+      <c r="G15" s="61">
         <v>37.843000000000004</v>
       </c>
-      <c r="H15" s="2">
+      <c r="H15" s="61">
         <v>35.731000000000002</v>
       </c>
-      <c r="I15" s="2">
-        <v>35.508000000000003</v>
-      </c>
-      <c r="J15" s="2">
+      <c r="I15" s="61">
+        <v>56.81280000000001</v>
+      </c>
+      <c r="J15" s="61">
         <v>40.051000000000002</v>
       </c>
-      <c r="K15" s="2">
+      <c r="K15" s="61">
         <v>50.094999999999999</v>
       </c>
-      <c r="L15" s="2">
+      <c r="L15" s="61">
         <v>69.704999999999998</v>
       </c>
-      <c r="M15" s="2">
+      <c r="M15" s="61">
         <v>76.09</v>
       </c>
-      <c r="N15" s="2">
+      <c r="N15" s="61">
         <v>79.25</v>
       </c>
-      <c r="O15" s="2">
+      <c r="O15" s="61">
         <v>79.834999999999994</v>
       </c>
-      <c r="P15" s="2">
+      <c r="P15" s="61">
         <v>76.680000000000007</v>
       </c>
-      <c r="Q15" s="2">
+      <c r="Q15" s="61">
         <v>75.89</v>
       </c>
-      <c r="R15" s="2">
+      <c r="R15" s="61">
         <v>74.709999999999994</v>
       </c>
-      <c r="S15" s="2">
+      <c r="S15" s="61">
         <v>72.704999999999998</v>
       </c>
-      <c r="T15" s="2">
-        <v>54.784999999999997</v>
-      </c>
-      <c r="U15" s="2">
-        <v>45.152000000000001</v>
-      </c>
-      <c r="V15" s="2">
-        <v>42.886000000000003</v>
-      </c>
-      <c r="W15" s="2">
-        <v>45.835999999999999</v>
-      </c>
-      <c r="X15" s="2">
+      <c r="T15" s="61">
+        <v>95.180499999999995</v>
+      </c>
+      <c r="U15" s="61">
+        <v>95.152000000000001</v>
+      </c>
+      <c r="V15" s="61">
+        <v>92.885999999999996</v>
+      </c>
+      <c r="W15" s="61">
+        <v>95.835999999999999</v>
+      </c>
+      <c r="X15" s="61">
         <v>36.985999999999997</v>
       </c>
-      <c r="Y15" s="2">
+      <c r="Y15" s="61">
         <v>36.991999999999997</v>
       </c>
-      <c r="Z15" s="2">
+      <c r="Z15" s="61">
         <v>34.981999999999999</v>
       </c>
     </row>
@@ -2006,76 +2020,76 @@
       <c r="B16" s="7">
         <v>14</v>
       </c>
-      <c r="C16" s="2">
+      <c r="C16" s="61">
         <v>45</v>
       </c>
-      <c r="D16" s="2">
+      <c r="D16" s="61">
         <v>45</v>
       </c>
-      <c r="E16" s="2">
+      <c r="E16" s="61">
         <v>52</v>
       </c>
-      <c r="F16" s="2">
+      <c r="F16" s="61">
         <v>47</v>
       </c>
-      <c r="G16" s="2">
+      <c r="G16" s="61">
         <v>46</v>
       </c>
-      <c r="H16" s="2">
+      <c r="H16" s="61">
         <v>48</v>
       </c>
-      <c r="I16" s="2">
-        <v>47</v>
-      </c>
-      <c r="J16" s="2">
+      <c r="I16" s="61">
+        <v>75.2</v>
+      </c>
+      <c r="J16" s="61">
         <v>62</v>
       </c>
-      <c r="K16" s="2">
+      <c r="K16" s="61">
         <v>60</v>
       </c>
-      <c r="L16" s="2">
+      <c r="L16" s="61">
         <v>62</v>
       </c>
-      <c r="M16" s="2">
+      <c r="M16" s="61">
         <v>68</v>
       </c>
-      <c r="N16" s="2">
+      <c r="N16" s="61">
         <v>62</v>
       </c>
-      <c r="O16" s="2">
+      <c r="O16" s="61">
         <v>76</v>
       </c>
-      <c r="P16" s="2">
+      <c r="P16" s="61">
         <v>82</v>
       </c>
-      <c r="Q16" s="2">
+      <c r="Q16" s="61">
         <v>82</v>
       </c>
-      <c r="R16" s="2">
+      <c r="R16" s="61">
         <v>66</v>
       </c>
-      <c r="S16" s="2">
+      <c r="S16" s="61">
         <v>75</v>
       </c>
-      <c r="T16" s="2">
-        <v>56</v>
-      </c>
-      <c r="U16" s="2">
-        <v>49</v>
-      </c>
-      <c r="V16" s="2">
-        <v>47</v>
-      </c>
-      <c r="W16" s="2">
+      <c r="T16" s="61">
+        <v>102</v>
+      </c>
+      <c r="U16" s="61">
+        <v>100</v>
+      </c>
+      <c r="V16" s="61">
+        <v>97</v>
+      </c>
+      <c r="W16" s="61">
+        <v>98</v>
+      </c>
+      <c r="X16" s="61">
         <v>48</v>
       </c>
-      <c r="X16" s="2">
+      <c r="Y16" s="61">
         <v>48</v>
       </c>
-      <c r="Y16" s="2">
-        <v>48</v>
-      </c>
-      <c r="Z16" s="2">
+      <c r="Z16" s="61">
         <v>50</v>
       </c>
     </row>
@@ -2083,76 +2097,76 @@
       <c r="B17" s="6">
         <v>15</v>
       </c>
-      <c r="C17" s="2">
+      <c r="C17" s="61">
         <v>12.898999999999999</v>
       </c>
-      <c r="D17" s="2">
+      <c r="D17" s="61">
         <v>13.391</v>
       </c>
-      <c r="E17" s="2">
+      <c r="E17" s="61">
         <v>13.13</v>
       </c>
-      <c r="F17" s="2">
+      <c r="F17" s="61">
         <v>13.082000000000001</v>
       </c>
-      <c r="G17" s="2">
+      <c r="G17" s="61">
         <v>13.225</v>
       </c>
-      <c r="H17" s="2">
+      <c r="H17" s="61">
         <v>12.996</v>
       </c>
-      <c r="I17" s="2">
-        <v>13.467000000000001</v>
-      </c>
-      <c r="J17" s="2">
+      <c r="I17" s="61">
+        <v>21.547200000000004</v>
+      </c>
+      <c r="J17" s="61">
         <v>20.986000000000001</v>
       </c>
-      <c r="K17" s="2">
+      <c r="K17" s="61">
         <v>26.523</v>
       </c>
-      <c r="L17" s="2">
+      <c r="L17" s="61">
         <v>35.148000000000003</v>
       </c>
-      <c r="M17" s="2">
+      <c r="M17" s="61">
         <v>48.595999999999997</v>
       </c>
-      <c r="N17" s="2">
+      <c r="N17" s="61">
         <v>55.664999999999999</v>
       </c>
-      <c r="O17" s="2">
+      <c r="O17" s="61">
         <v>57.247</v>
       </c>
-      <c r="P17" s="2">
+      <c r="P17" s="61">
         <v>50.24</v>
       </c>
-      <c r="Q17" s="2">
+      <c r="Q17" s="61">
         <v>50.064</v>
       </c>
-      <c r="R17" s="2">
+      <c r="R17" s="61">
         <v>50.204999999999998</v>
       </c>
-      <c r="S17" s="2">
+      <c r="S17" s="61">
         <v>45.692999999999998</v>
       </c>
-      <c r="T17" s="2">
-        <v>41.07</v>
-      </c>
-      <c r="U17" s="2">
-        <v>27.050999999999998</v>
-      </c>
-      <c r="V17" s="2">
-        <v>16.698</v>
-      </c>
-      <c r="W17" s="2">
-        <v>13.057</v>
-      </c>
-      <c r="X17" s="2">
+      <c r="T17" s="61">
+        <v>63.655199999999994</v>
+      </c>
+      <c r="U17" s="61">
+        <v>67.051000000000002</v>
+      </c>
+      <c r="V17" s="61">
+        <v>66.697999999999993</v>
+      </c>
+      <c r="W17" s="61">
+        <v>63.057000000000002</v>
+      </c>
+      <c r="X17" s="61">
         <v>11.282999999999999</v>
       </c>
-      <c r="Y17" s="2">
+      <c r="Y17" s="61">
         <v>9.8279999999999994</v>
       </c>
-      <c r="Z17" s="2">
+      <c r="Z17" s="61">
         <v>9.2119999999999997</v>
       </c>
     </row>
@@ -2160,76 +2174,76 @@
       <c r="B18" s="7">
         <v>16</v>
       </c>
-      <c r="C18" s="2">
+      <c r="C18" s="61">
         <v>98</v>
       </c>
-      <c r="D18" s="2">
+      <c r="D18" s="61">
         <v>92</v>
       </c>
-      <c r="E18" s="2">
+      <c r="E18" s="61">
         <v>90</v>
       </c>
-      <c r="F18" s="2">
+      <c r="F18" s="61">
         <v>91</v>
       </c>
-      <c r="G18" s="2">
+      <c r="G18" s="61">
         <v>90</v>
       </c>
-      <c r="H18" s="2">
+      <c r="H18" s="61">
         <v>97</v>
       </c>
-      <c r="I18" s="2">
-        <v>159</v>
-      </c>
-      <c r="J18" s="2">
+      <c r="I18" s="61">
+        <v>254.4</v>
+      </c>
+      <c r="J18" s="61">
         <v>206</v>
       </c>
-      <c r="K18" s="2">
+      <c r="K18" s="61">
         <v>240</v>
       </c>
-      <c r="L18" s="2">
+      <c r="L18" s="61">
         <v>291</v>
       </c>
-      <c r="M18" s="2">
+      <c r="M18" s="61">
         <v>318</v>
       </c>
-      <c r="N18" s="2">
+      <c r="N18" s="61">
         <v>323</v>
       </c>
-      <c r="O18" s="2">
+      <c r="O18" s="61">
         <v>322</v>
       </c>
-      <c r="P18" s="2">
+      <c r="P18" s="61">
         <v>308</v>
       </c>
-      <c r="Q18" s="2">
+      <c r="Q18" s="61">
         <v>303</v>
       </c>
-      <c r="R18" s="2">
+      <c r="R18" s="61">
         <v>299</v>
       </c>
-      <c r="S18" s="2">
+      <c r="S18" s="61">
         <v>289</v>
       </c>
-      <c r="T18" s="2">
-        <v>252</v>
-      </c>
-      <c r="U18" s="2">
-        <v>236</v>
-      </c>
-      <c r="V18" s="2">
-        <v>229</v>
-      </c>
-      <c r="W18" s="2">
-        <v>195</v>
-      </c>
-      <c r="X18" s="2">
+      <c r="T18" s="61">
+        <v>408</v>
+      </c>
+      <c r="U18" s="61">
+        <v>436</v>
+      </c>
+      <c r="V18" s="61">
+        <v>429</v>
+      </c>
+      <c r="W18" s="61">
+        <v>395</v>
+      </c>
+      <c r="X18" s="61">
         <v>191</v>
       </c>
-      <c r="Y18" s="2">
+      <c r="Y18" s="61">
         <v>186</v>
       </c>
-      <c r="Z18" s="2">
+      <c r="Z18" s="61">
         <v>179</v>
       </c>
     </row>
@@ -2237,76 +2251,76 @@
       <c r="B19" s="6">
         <v>17</v>
       </c>
-      <c r="C19" s="2">
-        <v>0</v>
-      </c>
-      <c r="D19" s="2">
-        <v>0</v>
-      </c>
-      <c r="E19" s="2">
-        <v>0</v>
-      </c>
-      <c r="F19" s="2">
-        <v>0</v>
-      </c>
-      <c r="G19" s="2">
-        <v>0</v>
-      </c>
-      <c r="H19" s="2">
-        <v>0</v>
-      </c>
-      <c r="I19" s="2">
-        <v>0</v>
-      </c>
-      <c r="J19" s="2">
-        <v>0</v>
-      </c>
-      <c r="K19" s="2">
-        <v>0</v>
-      </c>
-      <c r="L19" s="2">
-        <v>0</v>
-      </c>
-      <c r="M19" s="2">
-        <v>0</v>
-      </c>
-      <c r="N19" s="2">
-        <v>0</v>
-      </c>
-      <c r="O19" s="2">
-        <v>0</v>
-      </c>
-      <c r="P19" s="2">
-        <v>0</v>
-      </c>
-      <c r="Q19" s="2">
-        <v>0</v>
-      </c>
-      <c r="R19" s="2">
-        <v>0</v>
-      </c>
-      <c r="S19" s="2">
-        <v>0</v>
-      </c>
-      <c r="T19" s="2">
-        <v>0</v>
-      </c>
-      <c r="U19" s="2">
-        <v>0</v>
-      </c>
-      <c r="V19" s="2">
-        <v>0</v>
-      </c>
-      <c r="W19" s="2">
-        <v>0</v>
-      </c>
-      <c r="X19" s="2">
-        <v>0</v>
-      </c>
-      <c r="Y19" s="2">
-        <v>0</v>
-      </c>
-      <c r="Z19" s="2">
+      <c r="C19" s="61">
+        <v>0</v>
+      </c>
+      <c r="D19" s="61">
+        <v>0</v>
+      </c>
+      <c r="E19" s="61">
+        <v>0</v>
+      </c>
+      <c r="F19" s="61">
+        <v>0</v>
+      </c>
+      <c r="G19" s="61">
+        <v>0</v>
+      </c>
+      <c r="H19" s="61">
+        <v>0</v>
+      </c>
+      <c r="I19" s="61">
+        <v>0</v>
+      </c>
+      <c r="J19" s="61">
+        <v>0</v>
+      </c>
+      <c r="K19" s="61">
+        <v>0</v>
+      </c>
+      <c r="L19" s="61">
+        <v>0</v>
+      </c>
+      <c r="M19" s="61">
+        <v>0</v>
+      </c>
+      <c r="N19" s="61">
+        <v>0</v>
+      </c>
+      <c r="O19" s="61">
+        <v>0</v>
+      </c>
+      <c r="P19" s="61">
+        <v>0</v>
+      </c>
+      <c r="Q19" s="61">
+        <v>0</v>
+      </c>
+      <c r="R19" s="61">
+        <v>0</v>
+      </c>
+      <c r="S19" s="61">
+        <v>0</v>
+      </c>
+      <c r="T19" s="61">
+        <v>0</v>
+      </c>
+      <c r="U19" s="61">
+        <v>0</v>
+      </c>
+      <c r="V19" s="61">
+        <v>0</v>
+      </c>
+      <c r="W19" s="61">
+        <v>0</v>
+      </c>
+      <c r="X19" s="61">
+        <v>0</v>
+      </c>
+      <c r="Y19" s="61">
+        <v>0</v>
+      </c>
+      <c r="Z19" s="61">
         <v>0</v>
       </c>
     </row>
@@ -2314,76 +2328,76 @@
       <c r="B20" s="7">
         <v>18</v>
       </c>
-      <c r="C20" s="2">
+      <c r="C20" s="61">
         <v>16.492999999999999</v>
       </c>
-      <c r="D20" s="2">
+      <c r="D20" s="61">
         <v>17.914000000000001</v>
       </c>
-      <c r="E20" s="2">
+      <c r="E20" s="61">
         <v>16.55</v>
       </c>
-      <c r="F20" s="2">
+      <c r="F20" s="61">
         <v>16.23</v>
       </c>
-      <c r="G20" s="2">
+      <c r="G20" s="61">
         <v>17.062000000000001</v>
       </c>
-      <c r="H20" s="2">
+      <c r="H20" s="61">
         <v>16.306999999999999</v>
       </c>
-      <c r="I20" s="2">
-        <v>17.754000000000001</v>
-      </c>
-      <c r="J20" s="2">
+      <c r="I20" s="61">
+        <v>28.406400000000005</v>
+      </c>
+      <c r="J20" s="61">
         <v>20.742000000000001</v>
       </c>
-      <c r="K20" s="2">
+      <c r="K20" s="61">
         <v>22.885999999999999</v>
       </c>
-      <c r="L20" s="2">
+      <c r="L20" s="61">
         <v>28.082999999999998</v>
       </c>
-      <c r="M20" s="2">
+      <c r="M20" s="61">
         <v>31.545999999999999</v>
       </c>
-      <c r="N20" s="2">
+      <c r="N20" s="61">
         <v>30.617999999999999</v>
       </c>
-      <c r="O20" s="2">
+      <c r="O20" s="61">
         <v>31.891999999999999</v>
       </c>
-      <c r="P20" s="2">
+      <c r="P20" s="61">
         <v>28.826000000000001</v>
       </c>
-      <c r="Q20" s="2">
+      <c r="Q20" s="61">
         <v>29.478000000000002</v>
       </c>
-      <c r="R20" s="2">
+      <c r="R20" s="61">
         <v>29.216000000000001</v>
       </c>
-      <c r="S20" s="2">
+      <c r="S20" s="61">
         <v>31.667000000000002</v>
       </c>
-      <c r="T20" s="2">
-        <v>26.795999999999999</v>
-      </c>
-      <c r="U20" s="2">
-        <v>23.04</v>
-      </c>
-      <c r="V20" s="2">
-        <v>21.555</v>
-      </c>
-      <c r="W20" s="2">
-        <v>20.07</v>
-      </c>
-      <c r="X20" s="2">
+      <c r="T20" s="61">
+        <v>43.483399999999996</v>
+      </c>
+      <c r="U20" s="61">
+        <v>43.04</v>
+      </c>
+      <c r="V20" s="61">
+        <v>41.555</v>
+      </c>
+      <c r="W20" s="61">
+        <v>40.07</v>
+      </c>
+      <c r="X20" s="61">
         <v>20.652999999999999</v>
       </c>
-      <c r="Y20" s="2">
+      <c r="Y20" s="61">
         <v>18.931000000000001</v>
       </c>
-      <c r="Z20" s="2">
+      <c r="Z20" s="61">
         <v>18.292000000000002</v>
       </c>
     </row>
@@ -2391,76 +2405,76 @@
       <c r="B21" s="6">
         <v>19</v>
       </c>
-      <c r="C21" s="2">
+      <c r="C21" s="61">
         <v>34</v>
       </c>
-      <c r="D21" s="2">
+      <c r="D21" s="61">
         <v>34</v>
       </c>
-      <c r="E21" s="2">
+      <c r="E21" s="61">
         <v>34</v>
       </c>
-      <c r="F21" s="2">
+      <c r="F21" s="61">
         <v>35</v>
       </c>
-      <c r="G21" s="2">
+      <c r="G21" s="61">
         <v>34</v>
       </c>
-      <c r="H21" s="2">
+      <c r="H21" s="61">
         <v>34</v>
       </c>
-      <c r="I21" s="2">
-        <v>36</v>
-      </c>
-      <c r="J21" s="2">
+      <c r="I21" s="61">
+        <v>57.6</v>
+      </c>
+      <c r="J21" s="61">
         <v>44</v>
       </c>
-      <c r="K21" s="2">
+      <c r="K21" s="61">
         <v>74</v>
       </c>
-      <c r="L21" s="2">
-        <v>90</v>
-      </c>
-      <c r="M21" s="2">
-        <v>96</v>
-      </c>
-      <c r="N21" s="2">
-        <v>95</v>
-      </c>
-      <c r="O21" s="2">
-        <v>99</v>
-      </c>
-      <c r="P21" s="2">
-        <v>99</v>
-      </c>
-      <c r="Q21" s="2">
-        <v>107</v>
-      </c>
-      <c r="R21" s="2">
+      <c r="L21" s="61">
+        <v>60</v>
+      </c>
+      <c r="M21" s="61">
+        <v>66</v>
+      </c>
+      <c r="N21" s="61">
+        <v>65</v>
+      </c>
+      <c r="O21" s="61">
+        <v>69</v>
+      </c>
+      <c r="P21" s="61">
+        <v>70</v>
+      </c>
+      <c r="Q21" s="61">
+        <v>76</v>
+      </c>
+      <c r="R21" s="61">
+        <v>80</v>
+      </c>
+      <c r="S21" s="61">
+        <v>93</v>
+      </c>
+      <c r="T21" s="61">
         <v>100</v>
       </c>
-      <c r="S21" s="2">
-        <v>93</v>
-      </c>
-      <c r="T21" s="2">
-        <v>68</v>
-      </c>
-      <c r="U21" s="2">
+      <c r="U21" s="61">
+        <v>108.8</v>
+      </c>
+      <c r="V21" s="61">
+        <v>103.4</v>
+      </c>
+      <c r="W21" s="61">
+        <v>97</v>
+      </c>
+      <c r="X21" s="61">
         <v>41</v>
       </c>
-      <c r="V21" s="2">
-        <v>40</v>
-      </c>
-      <c r="W21" s="2">
-        <v>42</v>
-      </c>
-      <c r="X21" s="2">
-        <v>41</v>
-      </c>
-      <c r="Y21" s="2">
+      <c r="Y21" s="61">
         <v>38</v>
       </c>
-      <c r="Z21" s="2">
+      <c r="Z21" s="61">
         <v>40</v>
       </c>
     </row>
@@ -2468,76 +2482,76 @@
       <c r="B22" s="7">
         <v>20</v>
       </c>
-      <c r="C22" s="2">
+      <c r="C22" s="61">
         <v>31.617999999999999</v>
       </c>
-      <c r="D22" s="2">
+      <c r="D22" s="61">
         <v>30.722999999999999</v>
       </c>
-      <c r="E22" s="2">
+      <c r="E22" s="61">
         <v>30.815000000000001</v>
       </c>
-      <c r="F22" s="2">
+      <c r="F22" s="61">
         <v>30.852</v>
       </c>
-      <c r="G22" s="2">
+      <c r="G22" s="61">
         <v>31.236999999999998</v>
       </c>
-      <c r="H22" s="2">
+      <c r="H22" s="61">
         <v>32.924999999999997</v>
       </c>
-      <c r="I22" s="2">
-        <v>35.298000000000002</v>
-      </c>
-      <c r="J22" s="2">
+      <c r="I22" s="61">
+        <v>56.476800000000004</v>
+      </c>
+      <c r="J22" s="61">
         <v>41.997</v>
       </c>
-      <c r="K22" s="2">
+      <c r="K22" s="61">
         <v>42.552999999999997</v>
       </c>
-      <c r="L22" s="2">
+      <c r="L22" s="61">
         <v>52.878999999999998</v>
       </c>
-      <c r="M22" s="2">
+      <c r="M22" s="61">
         <v>60.825000000000003</v>
       </c>
-      <c r="N22" s="2">
+      <c r="N22" s="61">
         <v>60.029000000000003</v>
       </c>
-      <c r="O22" s="2">
+      <c r="O22" s="61">
         <v>58.927</v>
       </c>
-      <c r="P22" s="2">
+      <c r="P22" s="61">
         <v>56.993000000000002</v>
       </c>
-      <c r="Q22" s="2">
+      <c r="Q22" s="61">
         <v>56.582000000000001</v>
       </c>
-      <c r="R22" s="2">
+      <c r="R22" s="61">
         <v>49.71</v>
       </c>
-      <c r="S22" s="2">
+      <c r="S22" s="61">
         <v>46.195</v>
       </c>
-      <c r="T22" s="2">
-        <v>44.061</v>
-      </c>
-      <c r="U22" s="2">
-        <v>36.432000000000002</v>
-      </c>
-      <c r="V22" s="2">
-        <v>34.298999999999999</v>
-      </c>
-      <c r="W22" s="2">
-        <v>37.567999999999998</v>
-      </c>
-      <c r="X22" s="2">
+      <c r="T22" s="61">
+        <v>71.063599999999994</v>
+      </c>
+      <c r="U22" s="61">
+        <v>76.432000000000002</v>
+      </c>
+      <c r="V22" s="61">
+        <v>64.299000000000007</v>
+      </c>
+      <c r="W22" s="61">
+        <v>57.567999999999998</v>
+      </c>
+      <c r="X22" s="61">
         <v>36.878</v>
       </c>
-      <c r="Y22" s="2">
+      <c r="Y22" s="61">
         <v>34.994999999999997</v>
       </c>
-      <c r="Z22" s="2">
+      <c r="Z22" s="61">
         <v>33.369999999999997</v>
       </c>
     </row>
@@ -2545,76 +2559,76 @@
       <c r="B23" s="6">
         <v>21</v>
       </c>
-      <c r="C23" s="2">
-        <v>0</v>
-      </c>
-      <c r="D23" s="2">
-        <v>0</v>
-      </c>
-      <c r="E23" s="2">
-        <v>0</v>
-      </c>
-      <c r="F23" s="2">
-        <v>0</v>
-      </c>
-      <c r="G23" s="2">
-        <v>0</v>
-      </c>
-      <c r="H23" s="2">
-        <v>0</v>
-      </c>
-      <c r="I23" s="2">
-        <v>0</v>
-      </c>
-      <c r="J23" s="2">
-        <v>0</v>
-      </c>
-      <c r="K23" s="2">
-        <v>0</v>
-      </c>
-      <c r="L23" s="2">
-        <v>0</v>
-      </c>
-      <c r="M23" s="2">
-        <v>0</v>
-      </c>
-      <c r="N23" s="2">
-        <v>0</v>
-      </c>
-      <c r="O23" s="2">
-        <v>0</v>
-      </c>
-      <c r="P23" s="2">
-        <v>0</v>
-      </c>
-      <c r="Q23" s="2">
-        <v>0</v>
-      </c>
-      <c r="R23" s="2">
-        <v>0</v>
-      </c>
-      <c r="S23" s="2">
-        <v>0</v>
-      </c>
-      <c r="T23" s="2">
-        <v>0</v>
-      </c>
-      <c r="U23" s="2">
-        <v>0</v>
-      </c>
-      <c r="V23" s="2">
-        <v>0</v>
-      </c>
-      <c r="W23" s="2">
-        <v>0</v>
-      </c>
-      <c r="X23" s="2">
-        <v>0</v>
-      </c>
-      <c r="Y23" s="2">
-        <v>0</v>
-      </c>
-      <c r="Z23" s="2">
+      <c r="C23" s="61">
+        <v>0</v>
+      </c>
+      <c r="D23" s="61">
+        <v>0</v>
+      </c>
+      <c r="E23" s="61">
+        <v>0</v>
+      </c>
+      <c r="F23" s="61">
+        <v>0</v>
+      </c>
+      <c r="G23" s="61">
+        <v>0</v>
+      </c>
+      <c r="H23" s="61">
+        <v>0</v>
+      </c>
+      <c r="I23" s="61">
+        <v>0</v>
+      </c>
+      <c r="J23" s="61">
+        <v>0</v>
+      </c>
+      <c r="K23" s="61">
+        <v>0</v>
+      </c>
+      <c r="L23" s="61">
+        <v>0</v>
+      </c>
+      <c r="M23" s="61">
+        <v>0</v>
+      </c>
+      <c r="N23" s="61">
+        <v>0</v>
+      </c>
+      <c r="O23" s="61">
+        <v>0</v>
+      </c>
+      <c r="P23" s="61">
+        <v>0</v>
+      </c>
+      <c r="Q23" s="61">
+        <v>0</v>
+      </c>
+      <c r="R23" s="61">
+        <v>0</v>
+      </c>
+      <c r="S23" s="61">
+        <v>0</v>
+      </c>
+      <c r="T23" s="61">
+        <v>0</v>
+      </c>
+      <c r="U23" s="61">
+        <v>0</v>
+      </c>
+      <c r="V23" s="61">
+        <v>0</v>
+      </c>
+      <c r="W23" s="61">
+        <v>0</v>
+      </c>
+      <c r="X23" s="61">
+        <v>0</v>
+      </c>
+      <c r="Y23" s="61">
+        <v>0</v>
+      </c>
+      <c r="Z23" s="61">
         <v>0</v>
       </c>
     </row>
@@ -2622,76 +2636,76 @@
       <c r="B24" s="7">
         <v>22</v>
       </c>
-      <c r="C24" s="2">
-        <v>0</v>
-      </c>
-      <c r="D24" s="2">
-        <v>0</v>
-      </c>
-      <c r="E24" s="2">
-        <v>0</v>
-      </c>
-      <c r="F24" s="2">
-        <v>0</v>
-      </c>
-      <c r="G24" s="2">
-        <v>0</v>
-      </c>
-      <c r="H24" s="2">
-        <v>0</v>
-      </c>
-      <c r="I24" s="2">
-        <v>0</v>
-      </c>
-      <c r="J24" s="2">
-        <v>0</v>
-      </c>
-      <c r="K24" s="2">
-        <v>0</v>
-      </c>
-      <c r="L24" s="2">
-        <v>0</v>
-      </c>
-      <c r="M24" s="2">
-        <v>0</v>
-      </c>
-      <c r="N24" s="2">
-        <v>0</v>
-      </c>
-      <c r="O24" s="2">
-        <v>0</v>
-      </c>
-      <c r="P24" s="2">
-        <v>0</v>
-      </c>
-      <c r="Q24" s="2">
-        <v>0</v>
-      </c>
-      <c r="R24" s="2">
-        <v>0</v>
-      </c>
-      <c r="S24" s="2">
-        <v>0</v>
-      </c>
-      <c r="T24" s="2">
-        <v>0</v>
-      </c>
-      <c r="U24" s="2">
-        <v>0</v>
-      </c>
-      <c r="V24" s="2">
-        <v>0</v>
-      </c>
-      <c r="W24" s="2">
-        <v>0</v>
-      </c>
-      <c r="X24" s="2">
-        <v>0</v>
-      </c>
-      <c r="Y24" s="2">
-        <v>0</v>
-      </c>
-      <c r="Z24" s="2">
+      <c r="C24" s="61">
+        <v>0</v>
+      </c>
+      <c r="D24" s="61">
+        <v>0</v>
+      </c>
+      <c r="E24" s="61">
+        <v>0</v>
+      </c>
+      <c r="F24" s="61">
+        <v>0</v>
+      </c>
+      <c r="G24" s="61">
+        <v>0</v>
+      </c>
+      <c r="H24" s="61">
+        <v>0</v>
+      </c>
+      <c r="I24" s="61">
+        <v>0</v>
+      </c>
+      <c r="J24" s="61">
+        <v>0</v>
+      </c>
+      <c r="K24" s="61">
+        <v>0</v>
+      </c>
+      <c r="L24" s="61">
+        <v>0</v>
+      </c>
+      <c r="M24" s="61">
+        <v>0</v>
+      </c>
+      <c r="N24" s="61">
+        <v>0</v>
+      </c>
+      <c r="O24" s="61">
+        <v>0</v>
+      </c>
+      <c r="P24" s="61">
+        <v>0</v>
+      </c>
+      <c r="Q24" s="61">
+        <v>0</v>
+      </c>
+      <c r="R24" s="61">
+        <v>0</v>
+      </c>
+      <c r="S24" s="61">
+        <v>0</v>
+      </c>
+      <c r="T24" s="61">
+        <v>0</v>
+      </c>
+      <c r="U24" s="61">
+        <v>0</v>
+      </c>
+      <c r="V24" s="61">
+        <v>0</v>
+      </c>
+      <c r="W24" s="61">
+        <v>0</v>
+      </c>
+      <c r="X24" s="61">
+        <v>0</v>
+      </c>
+      <c r="Y24" s="61">
+        <v>0</v>
+      </c>
+      <c r="Z24" s="61">
         <v>0</v>
       </c>
     </row>
@@ -2699,76 +2713,76 @@
       <c r="B25" s="6">
         <v>23</v>
       </c>
-      <c r="C25" s="2">
+      <c r="C25" s="61">
         <v>3.7759999999999998</v>
       </c>
-      <c r="D25" s="2">
+      <c r="D25" s="61">
         <v>3.7429999999999999</v>
       </c>
-      <c r="E25" s="2">
+      <c r="E25" s="61">
         <v>3.6789999999999998</v>
       </c>
-      <c r="F25" s="2">
+      <c r="F25" s="61">
         <v>3.7169999999999899</v>
       </c>
-      <c r="G25" s="2">
+      <c r="G25" s="61">
         <v>3.7530000000000001</v>
       </c>
-      <c r="H25" s="2">
+      <c r="H25" s="61">
         <v>3.7570000000000001</v>
       </c>
-      <c r="I25" s="2">
-        <v>3.758</v>
-      </c>
-      <c r="J25" s="2">
-        <v>3.69999999999999</v>
-      </c>
-      <c r="K25" s="2">
+      <c r="I25" s="61">
+        <v>6.0128000000000004</v>
+      </c>
+      <c r="J25" s="61">
+        <v>4.6999999999999904</v>
+      </c>
+      <c r="K25" s="61">
         <v>1.702</v>
       </c>
-      <c r="L25" s="2">
+      <c r="L25" s="61">
         <v>1.0860000000000001</v>
       </c>
-      <c r="M25" s="2">
+      <c r="M25" s="61">
         <v>1.0349999999999999</v>
       </c>
-      <c r="N25" s="2">
+      <c r="N25" s="61">
         <v>1.0249999999999999</v>
       </c>
-      <c r="O25" s="2">
+      <c r="O25" s="61">
         <v>1.22</v>
       </c>
-      <c r="P25" s="2">
+      <c r="P25" s="61">
         <v>1.018</v>
       </c>
-      <c r="Q25" s="2">
+      <c r="Q25" s="61">
         <v>0.8</v>
       </c>
-      <c r="R25" s="2">
+      <c r="R25" s="61">
         <v>0.41699999999999998</v>
       </c>
-      <c r="S25" s="2">
+      <c r="S25" s="61">
         <v>1.6479999999999999</v>
       </c>
-      <c r="T25" s="2">
-        <v>3.823</v>
-      </c>
-      <c r="U25" s="2">
+      <c r="T25" s="61">
+        <v>3.0636000000000001</v>
+      </c>
+      <c r="U25" s="61">
         <v>3.9169999999999998</v>
       </c>
-      <c r="V25" s="2">
+      <c r="V25" s="61">
         <v>3.9679999999999902</v>
       </c>
-      <c r="W25" s="2">
+      <c r="W25" s="61">
         <v>3.9289999999999998</v>
       </c>
-      <c r="X25" s="2">
+      <c r="X25" s="61">
         <v>3.98599999999999</v>
       </c>
-      <c r="Y25" s="2">
+      <c r="Y25" s="61">
         <v>3.9159999999999999</v>
       </c>
-      <c r="Z25" s="2">
+      <c r="Z25" s="61">
         <v>3.944</v>
       </c>
     </row>
@@ -2776,76 +2790,76 @@
       <c r="B26" s="7">
         <v>24</v>
       </c>
-      <c r="C26" s="2">
+      <c r="C26" s="61">
         <v>16.748999999999999</v>
       </c>
-      <c r="D26" s="2">
+      <c r="D26" s="61">
         <v>16.358000000000001</v>
       </c>
-      <c r="E26" s="2">
+      <c r="E26" s="61">
         <v>17.152000000000001</v>
       </c>
-      <c r="F26" s="2">
+      <c r="F26" s="61">
         <v>16.262</v>
       </c>
-      <c r="G26" s="2">
+      <c r="G26" s="61">
         <v>16.262</v>
       </c>
-      <c r="H26" s="2">
+      <c r="H26" s="61">
         <v>15.162000000000001</v>
       </c>
-      <c r="I26" s="2">
-        <v>16.762</v>
-      </c>
-      <c r="J26" s="2">
+      <c r="I26" s="61">
+        <v>26.819200000000002</v>
+      </c>
+      <c r="J26" s="61">
         <v>22.725999999999999</v>
       </c>
-      <c r="K26" s="2">
+      <c r="K26" s="61">
         <v>31.956</v>
       </c>
-      <c r="L26" s="2">
+      <c r="L26" s="61">
         <v>34.283999999999999</v>
       </c>
-      <c r="M26" s="2">
+      <c r="M26" s="61">
         <v>39.628</v>
       </c>
-      <c r="N26" s="2">
+      <c r="N26" s="61">
         <v>39.994</v>
       </c>
-      <c r="O26" s="2">
+      <c r="O26" s="61">
         <v>37.19</v>
       </c>
-      <c r="P26" s="2">
+      <c r="P26" s="61">
         <v>35.718000000000004</v>
       </c>
-      <c r="Q26" s="2">
+      <c r="Q26" s="61">
         <v>44.25</v>
       </c>
-      <c r="R26" s="2">
+      <c r="R26" s="61">
         <v>45.012</v>
       </c>
-      <c r="S26" s="2">
+      <c r="S26" s="61">
         <v>37.542000000000002</v>
       </c>
-      <c r="T26" s="2">
-        <v>29.491</v>
-      </c>
-      <c r="U26" s="2">
-        <v>25.523</v>
-      </c>
-      <c r="V26" s="2">
-        <v>25.202999999999999</v>
-      </c>
-      <c r="W26" s="2">
-        <v>24.364999999999998</v>
-      </c>
-      <c r="X26" s="2">
+      <c r="T26" s="61">
+        <v>60.716399999999993</v>
+      </c>
+      <c r="U26" s="61">
+        <v>65.522999999999996</v>
+      </c>
+      <c r="V26" s="61">
+        <v>65.203000000000003</v>
+      </c>
+      <c r="W26" s="61">
+        <v>64.364999999999995</v>
+      </c>
+      <c r="X26" s="61">
         <v>24.992000000000001</v>
       </c>
-      <c r="Y26" s="2">
+      <c r="Y26" s="61">
         <v>23.622</v>
       </c>
-      <c r="Z26" s="2">
+      <c r="Z26" s="61">
         <v>22.783999999999999</v>
       </c>
     </row>
@@ -2853,76 +2867,76 @@
       <c r="B27" s="6">
         <v>25</v>
       </c>
-      <c r="C27" s="2">
+      <c r="C27" s="61">
         <v>6.38</v>
       </c>
-      <c r="D27" s="2">
+      <c r="D27" s="61">
         <v>6.5220000000000002</v>
       </c>
-      <c r="E27" s="2">
+      <c r="E27" s="61">
         <v>6.9660000000000002</v>
       </c>
-      <c r="F27" s="2">
+      <c r="F27" s="61">
         <v>6.383</v>
       </c>
-      <c r="G27" s="2">
+      <c r="G27" s="61">
         <v>6.819</v>
       </c>
-      <c r="H27" s="2">
+      <c r="H27" s="61">
         <v>7.3259999999999996</v>
       </c>
-      <c r="I27" s="2">
-        <v>6.5460000000000003</v>
-      </c>
-      <c r="J27" s="2">
+      <c r="I27" s="61">
+        <v>10.473600000000001</v>
+      </c>
+      <c r="J27" s="61">
         <v>6.5190000000000001</v>
       </c>
-      <c r="K27" s="2">
+      <c r="K27" s="61">
         <v>9.3490000000000002</v>
       </c>
-      <c r="L27" s="2">
+      <c r="L27" s="61">
         <v>14.715999999999999</v>
       </c>
-      <c r="M27" s="2">
+      <c r="M27" s="61">
         <v>21.486999999999998</v>
       </c>
-      <c r="N27" s="2">
+      <c r="N27" s="61">
         <v>27.184000000000001</v>
       </c>
-      <c r="O27" s="2">
+      <c r="O27" s="61">
         <v>27.388999999999999</v>
       </c>
-      <c r="P27" s="2">
+      <c r="P27" s="61">
         <v>25.375</v>
       </c>
-      <c r="Q27" s="2">
+      <c r="Q27" s="61">
         <v>27.244</v>
       </c>
-      <c r="R27" s="2">
+      <c r="R27" s="61">
         <v>28.068999999999999</v>
       </c>
-      <c r="S27" s="2">
+      <c r="S27" s="61">
         <v>25.295999999999999</v>
       </c>
-      <c r="T27" s="2">
-        <v>23.222000000000001</v>
-      </c>
-      <c r="U27" s="2">
-        <v>16.593</v>
-      </c>
-      <c r="V27" s="2">
-        <v>8.2029999999999994</v>
-      </c>
-      <c r="W27" s="2">
-        <v>5.38</v>
-      </c>
-      <c r="X27" s="2">
+      <c r="T27" s="61">
+        <v>39.265800000000006</v>
+      </c>
+      <c r="U27" s="61">
+        <v>46.593000000000004</v>
+      </c>
+      <c r="V27" s="61">
+        <v>38.203000000000003</v>
+      </c>
+      <c r="W27" s="61">
+        <v>35.380000000000003</v>
+      </c>
+      <c r="X27" s="61">
         <v>5.306</v>
       </c>
-      <c r="Y27" s="2">
+      <c r="Y27" s="61">
         <v>5.1420000000000003</v>
       </c>
-      <c r="Z27" s="2">
+      <c r="Z27" s="61">
         <v>5.2510000000000003</v>
       </c>
     </row>
@@ -2930,76 +2944,76 @@
       <c r="B28" s="7">
         <v>26</v>
       </c>
-      <c r="C28" s="2">
+      <c r="C28" s="61">
         <v>77.081639600000003</v>
       </c>
-      <c r="D28" s="2">
+      <c r="D28" s="61">
         <v>76.205639599999998</v>
       </c>
-      <c r="E28" s="2">
+      <c r="E28" s="61">
         <v>77.573806099999999</v>
       </c>
-      <c r="F28" s="2">
+      <c r="F28" s="61">
         <v>75.894639600000005</v>
       </c>
-      <c r="G28" s="2">
+      <c r="G28" s="61">
         <v>76.521139499999904</v>
       </c>
-      <c r="H28" s="2">
+      <c r="H28" s="61">
         <v>78.041639599999996</v>
       </c>
-      <c r="I28" s="2">
-        <v>86.813472700000005</v>
-      </c>
-      <c r="J28" s="2">
+      <c r="I28" s="61">
+        <v>138.90155632000003</v>
+      </c>
+      <c r="J28" s="61">
         <v>107.0398029</v>
       </c>
-      <c r="K28" s="2">
+      <c r="K28" s="61">
         <v>141.36430200000001</v>
       </c>
-      <c r="L28" s="2">
+      <c r="L28" s="61">
         <v>174.7566344</v>
       </c>
-      <c r="M28" s="2">
+      <c r="M28" s="61">
         <v>176.8601353</v>
       </c>
-      <c r="N28" s="2">
+      <c r="N28" s="61">
         <v>176.50713210000001</v>
       </c>
-      <c r="O28" s="2">
+      <c r="O28" s="61">
         <v>176.68196620000001</v>
       </c>
-      <c r="P28" s="2">
+      <c r="P28" s="61">
         <v>177.60013069999999</v>
       </c>
-      <c r="Q28" s="2">
+      <c r="Q28" s="61">
         <v>173.07829939999999</v>
       </c>
-      <c r="R28" s="2">
+      <c r="R28" s="61">
         <v>172.9864657</v>
       </c>
-      <c r="S28" s="2">
+      <c r="S28" s="61">
         <v>171.86096659999899</v>
       </c>
-      <c r="T28" s="2">
-        <v>156.3207993</v>
-      </c>
-      <c r="U28" s="2">
-        <v>113.2741353</v>
-      </c>
-      <c r="V28" s="2">
-        <v>101.42347030000001</v>
-      </c>
-      <c r="W28" s="2">
-        <v>93.4893036</v>
-      </c>
-      <c r="X28" s="2">
+      <c r="T28" s="61">
+        <v>254.45574360000003</v>
+      </c>
+      <c r="U28" s="61">
+        <v>213.27413530000001</v>
+      </c>
+      <c r="V28" s="61">
+        <v>201.42347029999999</v>
+      </c>
+      <c r="W28" s="61">
+        <v>193.4893036</v>
+      </c>
+      <c r="X28" s="61">
         <v>90.646970199999998</v>
       </c>
-      <c r="Y28" s="2">
+      <c r="Y28" s="61">
         <v>86.497136900000001</v>
       </c>
-      <c r="Z28" s="2">
+      <c r="Z28" s="61">
         <v>84.372804500000001</v>
       </c>
     </row>
@@ -3007,76 +3021,76 @@
       <c r="B29" s="6">
         <v>27</v>
       </c>
-      <c r="C29" s="2">
+      <c r="C29" s="61">
         <v>20.623999999999999</v>
       </c>
-      <c r="D29" s="2">
+      <c r="D29" s="61">
         <v>20.085999999999999</v>
       </c>
-      <c r="E29" s="2">
+      <c r="E29" s="61">
         <v>19.088000000000001</v>
       </c>
-      <c r="F29" s="2">
+      <c r="F29" s="61">
         <v>19.175000000000001</v>
       </c>
-      <c r="G29" s="2">
+      <c r="G29" s="61">
         <v>20.492000000000001</v>
       </c>
-      <c r="H29" s="2">
+      <c r="H29" s="61">
         <v>18.806000000000001</v>
       </c>
-      <c r="I29" s="2">
-        <v>33.344000000000001</v>
-      </c>
-      <c r="J29" s="2">
+      <c r="I29" s="61">
+        <v>53.350400000000008</v>
+      </c>
+      <c r="J29" s="61">
         <v>52.994999999999997</v>
       </c>
-      <c r="K29" s="2">
+      <c r="K29" s="61">
         <v>58.415999999999997</v>
       </c>
-      <c r="L29" s="2">
+      <c r="L29" s="61">
         <v>64.850999999999999</v>
       </c>
-      <c r="M29" s="2">
+      <c r="M29" s="61">
         <v>67.192999999999998</v>
       </c>
-      <c r="N29" s="2">
+      <c r="N29" s="61">
         <v>71.822999999999993</v>
       </c>
-      <c r="O29" s="2">
+      <c r="O29" s="61">
         <v>77.346000000000004</v>
       </c>
-      <c r="P29" s="2">
+      <c r="P29" s="61">
         <v>76.403000000000006</v>
       </c>
-      <c r="Q29" s="2">
+      <c r="Q29" s="61">
         <v>73.195999999999998</v>
       </c>
-      <c r="R29" s="2">
+      <c r="R29" s="61">
         <v>69.915000000000006</v>
       </c>
-      <c r="S29" s="2">
+      <c r="S29" s="61">
         <v>65.506</v>
       </c>
-      <c r="T29" s="2">
-        <v>52.557000000000002</v>
-      </c>
-      <c r="U29" s="2">
-        <v>43.906999999999996</v>
-      </c>
-      <c r="V29" s="2">
-        <v>41.228000000000002</v>
-      </c>
-      <c r="W29" s="2">
-        <v>29.984000000000002</v>
-      </c>
-      <c r="X29" s="2">
+      <c r="T29" s="61">
+        <v>93.465599999999995</v>
+      </c>
+      <c r="U29" s="61">
+        <v>93.906999999999996</v>
+      </c>
+      <c r="V29" s="61">
+        <v>91.227999999999994</v>
+      </c>
+      <c r="W29" s="61">
+        <v>89.983999999999995</v>
+      </c>
+      <c r="X29" s="61">
         <v>24.771000000000001</v>
       </c>
-      <c r="Y29" s="2">
+      <c r="Y29" s="61">
         <v>20.452000000000002</v>
       </c>
-      <c r="Z29" s="2">
+      <c r="Z29" s="61">
         <v>20.364999999999998</v>
       </c>
     </row>
@@ -3084,76 +3098,76 @@
       <c r="B30" s="7">
         <v>28</v>
       </c>
-      <c r="C30" s="2">
-        <v>0</v>
-      </c>
-      <c r="D30" s="2">
-        <v>0</v>
-      </c>
-      <c r="E30" s="2">
-        <v>0</v>
-      </c>
-      <c r="F30" s="2">
-        <v>0</v>
-      </c>
-      <c r="G30" s="2">
-        <v>0</v>
-      </c>
-      <c r="H30" s="2">
-        <v>0</v>
-      </c>
-      <c r="I30" s="2">
-        <v>0</v>
-      </c>
-      <c r="J30" s="2">
-        <v>0</v>
-      </c>
-      <c r="K30" s="2">
-        <v>0</v>
-      </c>
-      <c r="L30" s="2">
-        <v>0</v>
-      </c>
-      <c r="M30" s="2">
-        <v>0</v>
-      </c>
-      <c r="N30" s="2">
-        <v>0</v>
-      </c>
-      <c r="O30" s="2">
-        <v>0</v>
-      </c>
-      <c r="P30" s="2">
-        <v>0</v>
-      </c>
-      <c r="Q30" s="2">
-        <v>0</v>
-      </c>
-      <c r="R30" s="2">
-        <v>0</v>
-      </c>
-      <c r="S30" s="2">
-        <v>0</v>
-      </c>
-      <c r="T30" s="2">
-        <v>0</v>
-      </c>
-      <c r="U30" s="2">
-        <v>0</v>
-      </c>
-      <c r="V30" s="2">
-        <v>0</v>
-      </c>
-      <c r="W30" s="2">
-        <v>0</v>
-      </c>
-      <c r="X30" s="2">
-        <v>0</v>
-      </c>
-      <c r="Y30" s="2">
-        <v>0</v>
-      </c>
-      <c r="Z30" s="2">
+      <c r="C30" s="61">
+        <v>0</v>
+      </c>
+      <c r="D30" s="61">
+        <v>0</v>
+      </c>
+      <c r="E30" s="61">
+        <v>0</v>
+      </c>
+      <c r="F30" s="61">
+        <v>0</v>
+      </c>
+      <c r="G30" s="61">
+        <v>0</v>
+      </c>
+      <c r="H30" s="61">
+        <v>0</v>
+      </c>
+      <c r="I30" s="61">
+        <v>0</v>
+      </c>
+      <c r="J30" s="61">
+        <v>0</v>
+      </c>
+      <c r="K30" s="61">
+        <v>0</v>
+      </c>
+      <c r="L30" s="61">
+        <v>0</v>
+      </c>
+      <c r="M30" s="61">
+        <v>0</v>
+      </c>
+      <c r="N30" s="61">
+        <v>0</v>
+      </c>
+      <c r="O30" s="61">
+        <v>0</v>
+      </c>
+      <c r="P30" s="61">
+        <v>0</v>
+      </c>
+      <c r="Q30" s="61">
+        <v>0</v>
+      </c>
+      <c r="R30" s="61">
+        <v>0</v>
+      </c>
+      <c r="S30" s="61">
+        <v>0</v>
+      </c>
+      <c r="T30" s="61">
+        <v>0</v>
+      </c>
+      <c r="U30" s="61">
+        <v>0</v>
+      </c>
+      <c r="V30" s="61">
+        <v>0</v>
+      </c>
+      <c r="W30" s="61">
+        <v>0</v>
+      </c>
+      <c r="X30" s="61">
+        <v>0</v>
+      </c>
+      <c r="Y30" s="61">
+        <v>0</v>
+      </c>
+      <c r="Z30" s="61">
         <v>0</v>
       </c>
     </row>
@@ -3161,76 +3175,76 @@
       <c r="B31" s="6">
         <v>29</v>
       </c>
-      <c r="C31" s="2">
+      <c r="C31" s="61">
         <v>40.029000000000003</v>
       </c>
-      <c r="D31" s="2">
+      <c r="D31" s="61">
         <v>39.034999999999997</v>
       </c>
-      <c r="E31" s="2">
+      <c r="E31" s="61">
         <v>37.847999999999999</v>
       </c>
-      <c r="F31" s="2">
+      <c r="F31" s="61">
         <v>37.956000000000003</v>
       </c>
-      <c r="G31" s="2">
+      <c r="G31" s="61">
         <v>39.93</v>
       </c>
-      <c r="H31" s="2">
+      <c r="H31" s="61">
         <v>38.511000000000003</v>
       </c>
-      <c r="I31" s="2">
-        <v>40.064</v>
-      </c>
-      <c r="J31" s="2">
+      <c r="I31" s="61">
+        <v>64.102400000000003</v>
+      </c>
+      <c r="J31" s="61">
         <v>58.801000000000002</v>
       </c>
-      <c r="K31" s="2">
+      <c r="K31" s="61">
         <v>76.986000000000004</v>
       </c>
-      <c r="L31" s="2">
+      <c r="L31" s="61">
         <v>93.853999999999999</v>
       </c>
-      <c r="M31" s="2">
+      <c r="M31" s="61">
         <v>103.98</v>
       </c>
-      <c r="N31" s="2">
+      <c r="N31" s="61">
         <v>104.878</v>
       </c>
-      <c r="O31" s="2">
+      <c r="O31" s="61">
         <v>107.895</v>
       </c>
-      <c r="P31" s="2">
+      <c r="P31" s="61">
         <v>104.22</v>
       </c>
-      <c r="Q31" s="2">
+      <c r="Q31" s="61">
         <v>101.08</v>
       </c>
-      <c r="R31" s="2">
+      <c r="R31" s="61">
         <v>98.18</v>
       </c>
-      <c r="S31" s="2">
+      <c r="S31" s="61">
         <v>88.63</v>
       </c>
-      <c r="T31" s="2">
-        <v>73.19</v>
-      </c>
-      <c r="U31" s="2">
-        <v>61.848999999999997</v>
-      </c>
-      <c r="V31" s="2">
-        <v>58.57</v>
-      </c>
-      <c r="W31" s="2">
-        <v>55.847999999999999</v>
-      </c>
-      <c r="X31" s="2">
+      <c r="T31" s="61">
+        <v>123.17760000000001</v>
+      </c>
+      <c r="U31" s="61">
+        <v>121.849</v>
+      </c>
+      <c r="V31" s="61">
+        <v>128.57</v>
+      </c>
+      <c r="W31" s="61">
+        <v>118.848</v>
+      </c>
+      <c r="X31" s="61">
         <v>45.923999999999999</v>
       </c>
-      <c r="Y31" s="2">
+      <c r="Y31" s="61">
         <v>43.6</v>
       </c>
-      <c r="Z31" s="2">
+      <c r="Z31" s="61">
         <v>41.851999999999997</v>
       </c>
     </row>
@@ -3238,76 +3252,76 @@
       <c r="B32" s="7">
         <v>30</v>
       </c>
-      <c r="C32" s="2">
-        <v>0</v>
-      </c>
-      <c r="D32" s="2">
-        <v>0</v>
-      </c>
-      <c r="E32" s="2">
-        <v>0</v>
-      </c>
-      <c r="F32" s="2">
-        <v>0</v>
-      </c>
-      <c r="G32" s="2">
-        <v>0</v>
-      </c>
-      <c r="H32" s="2">
-        <v>0</v>
-      </c>
-      <c r="I32" s="2">
-        <v>0</v>
-      </c>
-      <c r="J32" s="2">
-        <v>0</v>
-      </c>
-      <c r="K32" s="2">
-        <v>0</v>
-      </c>
-      <c r="L32" s="2">
-        <v>0</v>
-      </c>
-      <c r="M32" s="2">
-        <v>0</v>
-      </c>
-      <c r="N32" s="2">
-        <v>0</v>
-      </c>
-      <c r="O32" s="2">
-        <v>0</v>
-      </c>
-      <c r="P32" s="2">
-        <v>0</v>
-      </c>
-      <c r="Q32" s="2">
-        <v>0</v>
-      </c>
-      <c r="R32" s="2">
-        <v>0</v>
-      </c>
-      <c r="S32" s="2">
-        <v>0</v>
-      </c>
-      <c r="T32" s="2">
-        <v>0</v>
-      </c>
-      <c r="U32" s="2">
-        <v>0</v>
-      </c>
-      <c r="V32" s="2">
-        <v>0</v>
-      </c>
-      <c r="W32" s="2">
-        <v>0</v>
-      </c>
-      <c r="X32" s="2">
-        <v>0</v>
-      </c>
-      <c r="Y32" s="2">
-        <v>0</v>
-      </c>
-      <c r="Z32" s="2">
+      <c r="C32" s="61">
+        <v>0</v>
+      </c>
+      <c r="D32" s="61">
+        <v>0</v>
+      </c>
+      <c r="E32" s="61">
+        <v>0</v>
+      </c>
+      <c r="F32" s="61">
+        <v>0</v>
+      </c>
+      <c r="G32" s="61">
+        <v>0</v>
+      </c>
+      <c r="H32" s="61">
+        <v>0</v>
+      </c>
+      <c r="I32" s="61">
+        <v>0</v>
+      </c>
+      <c r="J32" s="61">
+        <v>0</v>
+      </c>
+      <c r="K32" s="61">
+        <v>0</v>
+      </c>
+      <c r="L32" s="61">
+        <v>0</v>
+      </c>
+      <c r="M32" s="61">
+        <v>0</v>
+      </c>
+      <c r="N32" s="61">
+        <v>0</v>
+      </c>
+      <c r="O32" s="61">
+        <v>0</v>
+      </c>
+      <c r="P32" s="61">
+        <v>0</v>
+      </c>
+      <c r="Q32" s="61">
+        <v>0</v>
+      </c>
+      <c r="R32" s="61">
+        <v>0</v>
+      </c>
+      <c r="S32" s="61">
+        <v>0</v>
+      </c>
+      <c r="T32" s="61">
+        <v>0</v>
+      </c>
+      <c r="U32" s="61">
+        <v>0</v>
+      </c>
+      <c r="V32" s="61">
+        <v>0</v>
+      </c>
+      <c r="W32" s="61">
+        <v>0</v>
+      </c>
+      <c r="X32" s="61">
+        <v>0</v>
+      </c>
+      <c r="Y32" s="61">
+        <v>0</v>
+      </c>
+      <c r="Z32" s="61">
         <v>0</v>
       </c>
     </row>
@@ -3315,76 +3329,76 @@
       <c r="B33" s="6">
         <v>31</v>
       </c>
-      <c r="C33" s="2">
+      <c r="C33" s="61">
         <v>506.14800000000002</v>
       </c>
-      <c r="D33" s="2">
+      <c r="D33" s="61">
         <v>494.697</v>
       </c>
-      <c r="E33" s="2">
+      <c r="E33" s="61">
         <v>500.779</v>
       </c>
-      <c r="F33" s="2">
+      <c r="F33" s="61">
         <v>497.77699999999999</v>
       </c>
-      <c r="G33" s="2">
+      <c r="G33" s="61">
         <v>501.40800000000002</v>
       </c>
-      <c r="H33" s="2">
+      <c r="H33" s="61">
         <v>508.61700000000002</v>
       </c>
-      <c r="I33" s="2">
-        <v>519.60400000000004</v>
-      </c>
-      <c r="J33" s="2">
+      <c r="I33" s="61">
+        <v>831.36640000000011</v>
+      </c>
+      <c r="J33" s="61">
         <v>593.13</v>
       </c>
-      <c r="K33" s="2">
+      <c r="K33" s="61">
         <v>699.33799999999997</v>
       </c>
-      <c r="L33" s="2">
+      <c r="L33" s="61">
         <v>796.60400000000004</v>
       </c>
-      <c r="M33" s="2">
+      <c r="M33" s="61">
         <v>877.86599999999999</v>
       </c>
-      <c r="N33" s="2">
+      <c r="N33" s="61">
         <v>893.30700000000002</v>
       </c>
-      <c r="O33" s="2">
+      <c r="O33" s="61">
         <v>896.11</v>
       </c>
-      <c r="P33" s="2">
+      <c r="P33" s="61">
         <v>873.53300000000002</v>
       </c>
-      <c r="Q33" s="2">
+      <c r="Q33" s="61">
         <v>868.63400000000001</v>
       </c>
-      <c r="R33" s="2">
+      <c r="R33" s="61">
         <v>862.76599999999996</v>
       </c>
-      <c r="S33" s="2">
+      <c r="S33" s="61">
         <v>787.52700000000004</v>
       </c>
-      <c r="T33" s="2">
-        <v>646.94899999999996</v>
-      </c>
-      <c r="U33" s="2">
-        <v>572.96600000000001</v>
-      </c>
-      <c r="V33" s="2">
-        <v>539.98199999999997</v>
-      </c>
-      <c r="W33" s="2">
-        <v>521.26300000000003</v>
-      </c>
-      <c r="X33" s="2">
+      <c r="T33" s="61">
+        <v>1678.4111999999998</v>
+      </c>
+      <c r="U33" s="61">
+        <v>1572.9659999999999</v>
+      </c>
+      <c r="V33" s="61">
+        <v>1539.982</v>
+      </c>
+      <c r="W33" s="61">
+        <v>1521.2629999999999</v>
+      </c>
+      <c r="X33" s="61">
         <v>509.49599999999998</v>
       </c>
-      <c r="Y33" s="2">
+      <c r="Y33" s="61">
         <v>503.91399999999999</v>
       </c>
-      <c r="Z33" s="2">
+      <c r="Z33" s="61">
         <v>499.52600000000001</v>
       </c>
     </row>
@@ -3392,76 +3406,76 @@
       <c r="B34" s="7">
         <v>32</v>
       </c>
-      <c r="C34" s="2">
+      <c r="C34" s="61">
         <v>16.690999999999999</v>
       </c>
-      <c r="D34" s="2">
+      <c r="D34" s="61">
         <v>15.164999999999999</v>
       </c>
-      <c r="E34" s="2">
+      <c r="E34" s="61">
         <v>16.762</v>
       </c>
-      <c r="F34" s="2">
+      <c r="F34" s="61">
         <v>14.853999999999999</v>
       </c>
-      <c r="G34" s="2">
+      <c r="G34" s="61">
         <v>16.309999999999999</v>
       </c>
-      <c r="H34" s="2">
+      <c r="H34" s="61">
         <v>14.26</v>
       </c>
-      <c r="I34" s="2">
-        <v>19.466000000000001</v>
-      </c>
-      <c r="J34" s="2">
+      <c r="I34" s="61">
+        <v>31.145600000000002</v>
+      </c>
+      <c r="J34" s="61">
         <v>26.259</v>
       </c>
-      <c r="K34" s="2">
+      <c r="K34" s="61">
         <v>41.033999999999999</v>
       </c>
-      <c r="L34" s="2">
+      <c r="L34" s="61">
         <v>37.875999999999998</v>
       </c>
-      <c r="M34" s="2">
+      <c r="M34" s="61">
         <v>51.1</v>
       </c>
-      <c r="N34" s="2">
+      <c r="N34" s="61">
         <v>57.341999999999999</v>
       </c>
-      <c r="O34" s="2">
+      <c r="O34" s="61">
         <v>79.995000000000005</v>
       </c>
-      <c r="P34" s="2">
+      <c r="P34" s="61">
         <v>75.28</v>
       </c>
-      <c r="Q34" s="2">
+      <c r="Q34" s="61">
         <v>70.260000000000005</v>
       </c>
-      <c r="R34" s="2">
+      <c r="R34" s="61">
         <v>74.97</v>
       </c>
-      <c r="S34" s="2">
+      <c r="S34" s="61">
         <v>61.26</v>
       </c>
-      <c r="T34" s="2">
-        <v>55.71</v>
-      </c>
-      <c r="U34" s="2">
-        <v>30.541</v>
-      </c>
-      <c r="V34" s="2">
-        <v>27.37</v>
-      </c>
-      <c r="W34" s="2">
-        <v>26.111999999999998</v>
-      </c>
-      <c r="X34" s="2">
+      <c r="T34" s="61">
+        <v>102.58499999999999</v>
+      </c>
+      <c r="U34" s="61">
+        <v>103.541</v>
+      </c>
+      <c r="V34" s="61">
+        <v>97.37</v>
+      </c>
+      <c r="W34" s="61">
+        <v>96.111999999999995</v>
+      </c>
+      <c r="X34" s="61">
         <v>25.716000000000001</v>
       </c>
-      <c r="Y34" s="2">
+      <c r="Y34" s="61">
         <v>18.66</v>
       </c>
-      <c r="Z34" s="2">
+      <c r="Z34" s="61">
         <v>19.068000000000001</v>
       </c>
     </row>
@@ -3469,76 +3483,76 @@
       <c r="B35" s="6">
         <v>33</v>
       </c>
-      <c r="C35" s="2">
+      <c r="C35" s="61">
         <v>118</v>
       </c>
-      <c r="D35" s="2">
+      <c r="D35" s="61">
         <v>117</v>
       </c>
-      <c r="E35" s="2">
+      <c r="E35" s="61">
         <v>116</v>
       </c>
-      <c r="F35" s="2">
+      <c r="F35" s="61">
         <v>116</v>
       </c>
-      <c r="G35" s="2">
+      <c r="G35" s="61">
         <v>115</v>
       </c>
-      <c r="H35" s="2">
+      <c r="H35" s="61">
         <v>114</v>
       </c>
-      <c r="I35" s="2">
-        <v>114</v>
-      </c>
-      <c r="J35" s="2">
+      <c r="I35" s="61">
+        <v>182.4</v>
+      </c>
+      <c r="J35" s="61">
         <v>120</v>
       </c>
-      <c r="K35" s="2">
+      <c r="K35" s="61">
         <v>135</v>
       </c>
-      <c r="L35" s="2">
+      <c r="L35" s="61">
         <v>157</v>
       </c>
-      <c r="M35" s="2">
+      <c r="M35" s="61">
         <v>174</v>
       </c>
-      <c r="N35" s="2">
+      <c r="N35" s="61">
         <v>178</v>
       </c>
-      <c r="O35" s="2">
+      <c r="O35" s="61">
         <v>178</v>
       </c>
-      <c r="P35" s="2">
+      <c r="P35" s="61">
         <v>177</v>
       </c>
-      <c r="Q35" s="2">
+      <c r="Q35" s="61">
         <v>180</v>
       </c>
-      <c r="R35" s="2">
+      <c r="R35" s="61">
         <v>182</v>
       </c>
-      <c r="S35" s="2">
+      <c r="S35" s="61">
         <v>171</v>
       </c>
-      <c r="T35" s="2">
-        <v>158</v>
-      </c>
-      <c r="U35" s="2">
-        <v>148</v>
-      </c>
-      <c r="V35" s="2">
-        <v>141</v>
-      </c>
-      <c r="W35" s="2">
-        <v>132</v>
-      </c>
-      <c r="X35" s="2">
+      <c r="T35" s="61">
+        <v>216</v>
+      </c>
+      <c r="U35" s="61">
+        <v>178</v>
+      </c>
+      <c r="V35" s="61">
+        <v>171</v>
+      </c>
+      <c r="W35" s="61">
+        <v>172</v>
+      </c>
+      <c r="X35" s="61">
         <v>131</v>
       </c>
-      <c r="Y35" s="2">
+      <c r="Y35" s="61">
         <v>127</v>
       </c>
-      <c r="Z35" s="2">
+      <c r="Z35" s="61">
         <v>127</v>
       </c>
     </row>
@@ -3546,76 +3560,76 @@
       <c r="B36" s="7">
         <v>34</v>
       </c>
-      <c r="C36" s="2">
+      <c r="C36" s="61">
         <v>99.894999999999996</v>
       </c>
-      <c r="D36" s="2">
+      <c r="D36" s="61">
         <v>80.106999999999999</v>
       </c>
-      <c r="E36" s="2">
+      <c r="E36" s="61">
         <v>67.613</v>
       </c>
-      <c r="F36" s="2">
+      <c r="F36" s="61">
         <v>45.598999999999997</v>
       </c>
-      <c r="G36" s="2">
+      <c r="G36" s="61">
         <v>41.491</v>
       </c>
-      <c r="H36" s="2">
+      <c r="H36" s="61">
         <v>42.502000000000002</v>
       </c>
-      <c r="I36" s="2">
-        <v>51.673999999999999</v>
-      </c>
-      <c r="J36" s="2">
+      <c r="I36" s="61">
+        <v>82.678400000000011</v>
+      </c>
+      <c r="J36" s="61">
         <v>55.398000000000003</v>
       </c>
-      <c r="K36" s="2">
+      <c r="K36" s="61">
         <v>84.432000000000002</v>
       </c>
-      <c r="L36" s="2">
+      <c r="L36" s="61">
         <v>101.02</v>
       </c>
-      <c r="M36" s="2">
+      <c r="M36" s="61">
         <v>104.41</v>
       </c>
-      <c r="N36" s="2">
+      <c r="N36" s="61">
         <v>108.95</v>
       </c>
-      <c r="O36" s="2">
+      <c r="O36" s="61">
         <v>117.32599999999999</v>
       </c>
-      <c r="P36" s="2">
+      <c r="P36" s="61">
         <v>108.941</v>
       </c>
-      <c r="Q36" s="2">
+      <c r="Q36" s="61">
         <v>107.072</v>
       </c>
-      <c r="R36" s="2">
+      <c r="R36" s="61">
         <v>95.1</v>
       </c>
-      <c r="S36" s="2">
+      <c r="S36" s="61">
         <v>92.683999999999997</v>
       </c>
-      <c r="T36" s="2">
-        <v>98.12</v>
-      </c>
-      <c r="U36" s="2">
-        <v>95.667000000000002</v>
-      </c>
-      <c r="V36" s="2">
+      <c r="T36" s="61">
+        <v>135.09120000000001</v>
+      </c>
+      <c r="U36" s="61">
+        <v>105.667</v>
+      </c>
+      <c r="V36" s="61">
         <v>102.72499999999999</v>
       </c>
-      <c r="W36" s="2">
+      <c r="W36" s="61">
         <v>108.17400000000001</v>
       </c>
-      <c r="X36" s="2">
+      <c r="X36" s="61">
         <v>120.72</v>
       </c>
-      <c r="Y36" s="2">
+      <c r="Y36" s="61">
         <v>116.45399999999999</v>
       </c>
-      <c r="Z36" s="2">
+      <c r="Z36" s="61">
         <v>113.819</v>
       </c>
     </row>
@@ -3623,76 +3637,76 @@
       <c r="B37" s="6">
         <v>35</v>
       </c>
-      <c r="C37" s="2">
-        <v>0</v>
-      </c>
-      <c r="D37" s="2">
-        <v>0</v>
-      </c>
-      <c r="E37" s="2">
-        <v>0</v>
-      </c>
-      <c r="F37" s="2">
-        <v>0</v>
-      </c>
-      <c r="G37" s="2">
-        <v>0</v>
-      </c>
-      <c r="H37" s="2">
-        <v>0</v>
-      </c>
-      <c r="I37" s="2">
-        <v>0</v>
-      </c>
-      <c r="J37" s="2">
-        <v>0</v>
-      </c>
-      <c r="K37" s="2">
-        <v>0</v>
-      </c>
-      <c r="L37" s="2">
-        <v>0</v>
-      </c>
-      <c r="M37" s="2">
-        <v>0</v>
-      </c>
-      <c r="N37" s="2">
-        <v>0</v>
-      </c>
-      <c r="O37" s="2">
-        <v>0</v>
-      </c>
-      <c r="P37" s="2">
-        <v>0</v>
-      </c>
-      <c r="Q37" s="2">
-        <v>0</v>
-      </c>
-      <c r="R37" s="2">
-        <v>0</v>
-      </c>
-      <c r="S37" s="2">
-        <v>0</v>
-      </c>
-      <c r="T37" s="2">
-        <v>0</v>
-      </c>
-      <c r="U37" s="2">
-        <v>0</v>
-      </c>
-      <c r="V37" s="2">
-        <v>0</v>
-      </c>
-      <c r="W37" s="2">
-        <v>0</v>
-      </c>
-      <c r="X37" s="2">
-        <v>0</v>
-      </c>
-      <c r="Y37" s="2">
-        <v>0</v>
-      </c>
-      <c r="Z37" s="2">
+      <c r="C37" s="61">
+        <v>0</v>
+      </c>
+      <c r="D37" s="61">
+        <v>0</v>
+      </c>
+      <c r="E37" s="61">
+        <v>0</v>
+      </c>
+      <c r="F37" s="61">
+        <v>0</v>
+      </c>
+      <c r="G37" s="61">
+        <v>0</v>
+      </c>
+      <c r="H37" s="61">
+        <v>0</v>
+      </c>
+      <c r="I37" s="61">
+        <v>0</v>
+      </c>
+      <c r="J37" s="61">
+        <v>0</v>
+      </c>
+      <c r="K37" s="61">
+        <v>0</v>
+      </c>
+      <c r="L37" s="61">
+        <v>0</v>
+      </c>
+      <c r="M37" s="61">
+        <v>0</v>
+      </c>
+      <c r="N37" s="61">
+        <v>0</v>
+      </c>
+      <c r="O37" s="61">
+        <v>0</v>
+      </c>
+      <c r="P37" s="61">
+        <v>0</v>
+      </c>
+      <c r="Q37" s="61">
+        <v>0</v>
+      </c>
+      <c r="R37" s="61">
+        <v>0</v>
+      </c>
+      <c r="S37" s="61">
+        <v>0</v>
+      </c>
+      <c r="T37" s="61">
+        <v>0</v>
+      </c>
+      <c r="U37" s="61">
+        <v>0</v>
+      </c>
+      <c r="V37" s="61">
+        <v>0</v>
+      </c>
+      <c r="W37" s="61">
+        <v>0</v>
+      </c>
+      <c r="X37" s="61">
+        <v>0</v>
+      </c>
+      <c r="Y37" s="61">
+        <v>0</v>
+      </c>
+      <c r="Z37" s="61">
         <v>0</v>
       </c>
     </row>
@@ -3700,76 +3714,76 @@
       <c r="B38" s="7">
         <v>36</v>
       </c>
-      <c r="C38" s="2">
+      <c r="C38" s="61">
         <v>0.96899999999999997</v>
       </c>
-      <c r="D38" s="2">
+      <c r="D38" s="61">
         <v>0.90600000000000003</v>
       </c>
-      <c r="E38" s="2">
+      <c r="E38" s="61">
         <v>0.84899999999999998</v>
       </c>
-      <c r="F38" s="2">
+      <c r="F38" s="61">
         <v>0.85199999999999998</v>
       </c>
-      <c r="G38" s="2">
+      <c r="G38" s="61">
         <v>1.091</v>
       </c>
-      <c r="H38" s="2">
+      <c r="H38" s="61">
         <v>0.85499999999999998</v>
       </c>
-      <c r="I38" s="2">
-        <v>1.228</v>
-      </c>
-      <c r="J38" s="2">
+      <c r="I38" s="61">
+        <v>1.9648000000000001</v>
+      </c>
+      <c r="J38" s="61">
         <v>1.36</v>
       </c>
-      <c r="K38" s="2">
+      <c r="K38" s="61">
         <v>3.121</v>
       </c>
-      <c r="L38" s="2">
+      <c r="L38" s="61">
         <v>5.806</v>
       </c>
-      <c r="M38" s="2">
+      <c r="M38" s="61">
         <v>7.1559999999999997</v>
       </c>
-      <c r="N38" s="2">
+      <c r="N38" s="61">
         <v>7.0659999999999998</v>
       </c>
-      <c r="O38" s="2">
+      <c r="O38" s="61">
         <v>6.91</v>
       </c>
-      <c r="P38" s="2">
+      <c r="P38" s="61">
         <v>7.0880000000000001</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="Q38" s="61">
         <v>6.9249999999999998</v>
       </c>
-      <c r="R38" s="2">
+      <c r="R38" s="61">
         <v>6.952</v>
       </c>
-      <c r="S38" s="2">
+      <c r="S38" s="61">
         <v>6.6790000000000003</v>
       </c>
-      <c r="T38" s="2">
-        <v>6.7380000000000004</v>
-      </c>
-      <c r="U38" s="2">
+      <c r="T38" s="61">
+        <v>10.923500000000001</v>
+      </c>
+      <c r="U38" s="61">
         <v>11.63</v>
       </c>
-      <c r="V38" s="2">
+      <c r="V38" s="61">
         <v>10.836</v>
       </c>
-      <c r="W38" s="2">
+      <c r="W38" s="61">
         <v>6.3019999999999996</v>
       </c>
-      <c r="X38" s="2">
+      <c r="X38" s="61">
         <v>1.3129999999999999</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="Y38" s="61">
         <v>1.2809999999999999</v>
       </c>
-      <c r="Z38" s="2">
+      <c r="Z38" s="61">
         <v>0.81299999999999994</v>
       </c>
     </row>
@@ -3777,76 +3791,76 @@
       <c r="B39" s="6">
         <v>37</v>
       </c>
-      <c r="C39" s="2">
+      <c r="C39" s="61">
         <v>12.79</v>
       </c>
-      <c r="D39" s="2">
+      <c r="D39" s="61">
         <v>12.586</v>
       </c>
-      <c r="E39" s="2">
+      <c r="E39" s="61">
         <v>11.808</v>
       </c>
-      <c r="F39" s="2">
+      <c r="F39" s="61">
         <v>12.016</v>
       </c>
-      <c r="G39" s="2">
+      <c r="G39" s="61">
         <v>12.204000000000001</v>
       </c>
-      <c r="H39" s="2">
+      <c r="H39" s="61">
         <v>11.8</v>
       </c>
-      <c r="I39" s="2">
-        <v>11.896000000000001</v>
-      </c>
-      <c r="J39" s="2">
+      <c r="I39" s="61">
+        <v>19.033600000000003</v>
+      </c>
+      <c r="J39" s="61">
         <v>12.353999999999999</v>
       </c>
-      <c r="K39" s="2">
+      <c r="K39" s="61">
         <v>12.52</v>
       </c>
-      <c r="L39" s="2">
+      <c r="L39" s="61">
         <v>12.579000000000001</v>
       </c>
-      <c r="M39" s="2">
+      <c r="M39" s="61">
         <v>12.308</v>
       </c>
-      <c r="N39" s="2">
+      <c r="N39" s="61">
         <v>14.196</v>
       </c>
-      <c r="O39" s="2">
+      <c r="O39" s="61">
         <v>12.574</v>
       </c>
-      <c r="P39" s="2">
+      <c r="P39" s="61">
         <v>13.568</v>
       </c>
-      <c r="Q39" s="2">
+      <c r="Q39" s="61">
         <v>15.1</v>
       </c>
-      <c r="R39" s="2">
+      <c r="R39" s="61">
         <v>15.92</v>
       </c>
-      <c r="S39" s="2">
+      <c r="S39" s="61">
         <v>14.545999999999999</v>
       </c>
-      <c r="T39" s="2">
-        <v>16.14</v>
-      </c>
-      <c r="U39" s="2">
+      <c r="T39" s="61">
+        <v>20.032</v>
+      </c>
+      <c r="U39" s="61">
         <v>16.931000000000001</v>
       </c>
-      <c r="V39" s="2">
+      <c r="V39" s="61">
         <v>17.257999999999999</v>
       </c>
-      <c r="W39" s="2">
+      <c r="W39" s="61">
         <v>15.586</v>
       </c>
-      <c r="X39" s="2">
+      <c r="X39" s="61">
         <v>16.45</v>
       </c>
-      <c r="Y39" s="2">
+      <c r="Y39" s="61">
         <v>15.144</v>
       </c>
-      <c r="Z39" s="2">
+      <c r="Z39" s="61">
         <v>15.302</v>
       </c>
     </row>
@@ -3854,76 +3868,76 @@
       <c r="B40" s="7">
         <v>38</v>
       </c>
-      <c r="C40" s="2">
-        <v>0</v>
-      </c>
-      <c r="D40" s="2">
-        <v>0</v>
-      </c>
-      <c r="E40" s="2">
-        <v>0</v>
-      </c>
-      <c r="F40" s="2">
-        <v>0</v>
-      </c>
-      <c r="G40" s="2">
-        <v>0</v>
-      </c>
-      <c r="H40" s="2">
-        <v>0</v>
-      </c>
-      <c r="I40" s="2">
-        <v>0</v>
-      </c>
-      <c r="J40" s="2">
-        <v>0</v>
-      </c>
-      <c r="K40" s="2">
-        <v>0</v>
-      </c>
-      <c r="L40" s="2">
-        <v>0</v>
-      </c>
-      <c r="M40" s="2">
-        <v>0</v>
-      </c>
-      <c r="N40" s="2">
-        <v>0</v>
-      </c>
-      <c r="O40" s="2">
-        <v>0</v>
-      </c>
-      <c r="P40" s="2">
-        <v>0</v>
-      </c>
-      <c r="Q40" s="2">
-        <v>0</v>
-      </c>
-      <c r="R40" s="2">
-        <v>0</v>
-      </c>
-      <c r="S40" s="2">
-        <v>0</v>
-      </c>
-      <c r="T40" s="2">
-        <v>0</v>
-      </c>
-      <c r="U40" s="2">
-        <v>0</v>
-      </c>
-      <c r="V40" s="2">
-        <v>0</v>
-      </c>
-      <c r="W40" s="2">
-        <v>0</v>
-      </c>
-      <c r="X40" s="2">
-        <v>0</v>
-      </c>
-      <c r="Y40" s="2">
-        <v>0</v>
-      </c>
-      <c r="Z40" s="2">
+      <c r="C40" s="61">
+        <v>0</v>
+      </c>
+      <c r="D40" s="61">
+        <v>0</v>
+      </c>
+      <c r="E40" s="61">
+        <v>0</v>
+      </c>
+      <c r="F40" s="61">
+        <v>0</v>
+      </c>
+      <c r="G40" s="61">
+        <v>0</v>
+      </c>
+      <c r="H40" s="61">
+        <v>0</v>
+      </c>
+      <c r="I40" s="61">
+        <v>0</v>
+      </c>
+      <c r="J40" s="61">
+        <v>0</v>
+      </c>
+      <c r="K40" s="61">
+        <v>0</v>
+      </c>
+      <c r="L40" s="61">
+        <v>0</v>
+      </c>
+      <c r="M40" s="61">
+        <v>0</v>
+      </c>
+      <c r="N40" s="61">
+        <v>0</v>
+      </c>
+      <c r="O40" s="61">
+        <v>0</v>
+      </c>
+      <c r="P40" s="61">
+        <v>0</v>
+      </c>
+      <c r="Q40" s="61">
+        <v>0</v>
+      </c>
+      <c r="R40" s="61">
+        <v>0</v>
+      </c>
+      <c r="S40" s="61">
+        <v>0</v>
+      </c>
+      <c r="T40" s="61">
+        <v>0</v>
+      </c>
+      <c r="U40" s="61">
+        <v>0</v>
+      </c>
+      <c r="V40" s="61">
+        <v>0</v>
+      </c>
+      <c r="W40" s="61">
+        <v>0</v>
+      </c>
+      <c r="X40" s="61">
+        <v>0</v>
+      </c>
+      <c r="Y40" s="61">
+        <v>0</v>
+      </c>
+      <c r="Z40" s="61">
         <v>0</v>
       </c>
     </row>
@@ -3931,76 +3945,76 @@
       <c r="B41" s="6">
         <v>39</v>
       </c>
-      <c r="C41" s="2">
-        <v>0</v>
-      </c>
-      <c r="D41" s="2">
-        <v>0</v>
-      </c>
-      <c r="E41" s="2">
-        <v>0</v>
-      </c>
-      <c r="F41" s="2">
-        <v>0</v>
-      </c>
-      <c r="G41" s="2">
-        <v>0</v>
-      </c>
-      <c r="H41" s="2">
-        <v>0</v>
-      </c>
-      <c r="I41" s="2">
-        <v>0</v>
-      </c>
-      <c r="J41" s="2">
-        <v>0</v>
-      </c>
-      <c r="K41" s="2">
-        <v>0</v>
-      </c>
-      <c r="L41" s="2">
-        <v>0</v>
-      </c>
-      <c r="M41" s="2">
-        <v>0</v>
-      </c>
-      <c r="N41" s="2">
-        <v>0</v>
-      </c>
-      <c r="O41" s="2">
-        <v>0</v>
-      </c>
-      <c r="P41" s="2">
-        <v>0</v>
-      </c>
-      <c r="Q41" s="2">
-        <v>0</v>
-      </c>
-      <c r="R41" s="2">
-        <v>0</v>
-      </c>
-      <c r="S41" s="2">
-        <v>0</v>
-      </c>
-      <c r="T41" s="2">
-        <v>0</v>
-      </c>
-      <c r="U41" s="2">
-        <v>0</v>
-      </c>
-      <c r="V41" s="2">
-        <v>0</v>
-      </c>
-      <c r="W41" s="2">
-        <v>0</v>
-      </c>
-      <c r="X41" s="2">
-        <v>0</v>
-      </c>
-      <c r="Y41" s="2">
-        <v>0</v>
-      </c>
-      <c r="Z41" s="2">
+      <c r="C41" s="61">
+        <v>0</v>
+      </c>
+      <c r="D41" s="61">
+        <v>0</v>
+      </c>
+      <c r="E41" s="61">
+        <v>0</v>
+      </c>
+      <c r="F41" s="61">
+        <v>0</v>
+      </c>
+      <c r="G41" s="61">
+        <v>0</v>
+      </c>
+      <c r="H41" s="61">
+        <v>0</v>
+      </c>
+      <c r="I41" s="61">
+        <v>0</v>
+      </c>
+      <c r="J41" s="61">
+        <v>0</v>
+      </c>
+      <c r="K41" s="61">
+        <v>0</v>
+      </c>
+      <c r="L41" s="61">
+        <v>0</v>
+      </c>
+      <c r="M41" s="61">
+        <v>0</v>
+      </c>
+      <c r="N41" s="61">
+        <v>0</v>
+      </c>
+      <c r="O41" s="61">
+        <v>0</v>
+      </c>
+      <c r="P41" s="61">
+        <v>0</v>
+      </c>
+      <c r="Q41" s="61">
+        <v>0</v>
+      </c>
+      <c r="R41" s="61">
+        <v>0</v>
+      </c>
+      <c r="S41" s="61">
+        <v>0</v>
+      </c>
+      <c r="T41" s="61">
+        <v>0</v>
+      </c>
+      <c r="U41" s="61">
+        <v>0</v>
+      </c>
+      <c r="V41" s="61">
+        <v>0</v>
+      </c>
+      <c r="W41" s="61">
+        <v>0</v>
+      </c>
+      <c r="X41" s="61">
+        <v>0</v>
+      </c>
+      <c r="Y41" s="61">
+        <v>0</v>
+      </c>
+      <c r="Z41" s="61">
         <v>0</v>
       </c>
     </row>
@@ -4008,6 +4022,7 @@
       <c r="B43" s="1"/>
     </row>
   </sheetData>
+  <phoneticPr fontId="14" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
@@ -4017,8 +4032,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A6FD6103-A9EE-4309-90E6-57003CAE8224}">
   <dimension ref="B2:Z41"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3:Z41"/>
+    <sheetView topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="K27" sqref="K27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.90625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -4134,16 +4149,16 @@
         <v>10.833299999999999</v>
       </c>
       <c r="K3" s="8">
-        <v>10.833299999999999</v>
+        <v>11.833299999999999</v>
       </c>
       <c r="L3" s="8">
-        <v>10.833299999999999</v>
+        <v>13.833299999999999</v>
       </c>
       <c r="M3" s="8">
-        <v>10.833299999999999</v>
+        <v>12.833299999999999</v>
       </c>
       <c r="N3" s="8">
-        <v>10.833299999999999</v>
+        <v>14.833299999999999</v>
       </c>
       <c r="O3" s="8">
         <v>21.666599999999999</v>
@@ -4161,16 +4176,16 @@
         <v>0</v>
       </c>
       <c r="T3" s="8">
-        <v>10.833299999999999</v>
+        <v>26.833300000000001</v>
       </c>
       <c r="U3" s="8">
-        <v>10.833299999999999</v>
+        <v>27.833300000000001</v>
       </c>
       <c r="V3" s="8">
         <v>0</v>
       </c>
       <c r="W3" s="8">
-        <v>10.833299999999999</v>
+        <v>14.833299999999999</v>
       </c>
       <c r="X3" s="8">
         <v>0</v>
@@ -5111,13 +5126,13 @@
         <v>14</v>
       </c>
       <c r="C16" s="8">
-        <v>1.0833299999999999</v>
+        <v>2.0833300000000001</v>
       </c>
       <c r="D16" s="8">
         <v>1.0833299999999999</v>
       </c>
       <c r="E16" s="8">
-        <v>1.0833299999999999</v>
+        <v>1.9</v>
       </c>
       <c r="F16" s="8">
         <v>1.0833299999999999</v>
@@ -5138,10 +5153,10 @@
         <v>1.0833299999999999</v>
       </c>
       <c r="L16" s="8">
-        <v>1.0833299999999999</v>
+        <v>0</v>
       </c>
       <c r="M16" s="8">
-        <v>1.0833299999999999</v>
+        <v>0</v>
       </c>
       <c r="N16" s="8">
         <v>2.1666599999999998</v>
@@ -5159,16 +5174,16 @@
         <v>1.0833299999999999</v>
       </c>
       <c r="S16" s="8">
-        <v>0</v>
+        <v>4.55</v>
       </c>
       <c r="T16" s="8">
-        <v>0</v>
+        <v>3.9</v>
       </c>
       <c r="U16" s="8">
-        <v>1.0833299999999999</v>
+        <v>2.0833300000000001</v>
       </c>
       <c r="V16" s="8">
-        <v>1.0833299999999999</v>
+        <v>2.0833300000000001</v>
       </c>
       <c r="W16" s="8">
         <v>1.0833299999999999</v>
@@ -10263,8 +10278,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F55E9F5A-A300-40CA-B4B1-E8AE734BE43C}">
   <dimension ref="A2:IE70"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A49" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B16" sqref="B16"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A37" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="I72" sqref="I72"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.90625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -15043,7 +15058,7 @@
         <v>3</v>
       </c>
       <c r="C39" s="8">
-        <v>100</v>
+        <v>250</v>
       </c>
       <c r="D39" s="8">
         <v>0</v>
@@ -15100,7 +15115,7 @@
         <v>0</v>
       </c>
       <c r="V39" s="8">
-        <v>100</v>
+        <v>250</v>
       </c>
       <c r="W39" s="8">
         <v>0</v>
@@ -15112,7 +15127,7 @@
         <v>0</v>
       </c>
       <c r="Z39" s="8">
-        <v>100</v>
+        <v>250</v>
       </c>
       <c r="AA39" s="8">
         <v>0</v>
@@ -17584,121 +17599,121 @@
         <v>46</v>
       </c>
       <c r="C58" s="47">
-        <v>500</v>
+        <v>50</v>
       </c>
       <c r="D58" s="47">
-        <v>500</v>
+        <v>50</v>
       </c>
       <c r="E58" s="47">
-        <v>500</v>
+        <v>50</v>
       </c>
       <c r="F58" s="47">
-        <v>500</v>
+        <v>50</v>
       </c>
       <c r="G58" s="47">
-        <v>500</v>
+        <v>50</v>
       </c>
       <c r="H58" s="47">
-        <v>500</v>
+        <v>50</v>
       </c>
       <c r="I58" s="47">
-        <v>500</v>
+        <v>50</v>
       </c>
       <c r="J58" s="47">
-        <v>500</v>
+        <v>50</v>
       </c>
       <c r="K58" s="47">
-        <v>500</v>
+        <v>50</v>
       </c>
       <c r="L58" s="47">
-        <v>500</v>
+        <v>50</v>
       </c>
       <c r="M58" s="47">
-        <v>500</v>
+        <v>50</v>
       </c>
       <c r="N58" s="47">
-        <v>500</v>
+        <v>50</v>
       </c>
       <c r="O58" s="47">
-        <v>500</v>
+        <v>50</v>
       </c>
       <c r="P58" s="47">
-        <v>500</v>
+        <v>50</v>
       </c>
       <c r="Q58" s="47">
-        <v>500</v>
+        <v>50</v>
       </c>
       <c r="R58" s="47">
-        <v>500</v>
+        <v>50</v>
       </c>
       <c r="S58" s="47">
-        <v>500</v>
+        <v>50</v>
       </c>
       <c r="T58" s="47">
-        <v>500</v>
+        <v>50</v>
       </c>
       <c r="U58" s="47">
-        <v>500</v>
+        <v>50</v>
       </c>
       <c r="V58" s="47">
-        <v>500</v>
+        <v>50</v>
       </c>
       <c r="W58" s="47">
-        <v>500</v>
+        <v>50</v>
       </c>
       <c r="X58" s="47">
-        <v>500</v>
+        <v>50</v>
       </c>
       <c r="Y58" s="47">
-        <v>500</v>
+        <v>50</v>
       </c>
       <c r="Z58" s="47">
-        <v>500</v>
+        <v>50</v>
       </c>
       <c r="AA58" s="47">
-        <v>500</v>
+        <v>50</v>
       </c>
       <c r="AB58" s="47">
-        <v>500</v>
+        <v>50</v>
       </c>
       <c r="AC58" s="47">
-        <v>500</v>
+        <v>50</v>
       </c>
       <c r="AD58" s="47">
-        <v>500</v>
+        <v>50</v>
       </c>
       <c r="AE58" s="47">
-        <v>500</v>
+        <v>50</v>
       </c>
       <c r="AF58" s="47">
-        <v>500</v>
+        <v>50</v>
       </c>
       <c r="AG58" s="47">
-        <v>500</v>
+        <v>50</v>
       </c>
       <c r="AH58" s="47">
-        <v>500</v>
+        <v>50</v>
       </c>
       <c r="AI58" s="47">
-        <v>500</v>
+        <v>50</v>
       </c>
       <c r="AJ58" s="47">
-        <v>500</v>
+        <v>50</v>
       </c>
       <c r="AK58" s="47">
-        <v>500</v>
+        <v>50</v>
       </c>
       <c r="AL58" s="47">
-        <v>500</v>
+        <v>50</v>
       </c>
       <c r="AM58" s="47">
-        <v>500</v>
+        <v>50</v>
       </c>
       <c r="AN58" s="47">
-        <v>500</v>
+        <v>50</v>
       </c>
       <c r="AO58" s="47">
-        <v>500</v>
+        <v>50</v>
       </c>
     </row>
     <row r="59" spans="1:41" x14ac:dyDescent="0.35">
@@ -19092,8 +19107,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F5A29F17-D94C-4A81-8A6D-42D62B17E419}">
   <dimension ref="A1:AO41"/>
   <sheetViews>
-    <sheetView zoomScale="61" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3:Y41"/>
+    <sheetView topLeftCell="A17" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="A32" sqref="A32:Y33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.90625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -19243,40 +19258,40 @@
         <v>1</v>
       </c>
       <c r="B3" s="27">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C3" s="27">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D3" s="27">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="E3" s="27">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="F3" s="27">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="G3" s="27">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="H3" s="27">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="I3" s="27">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="J3" s="27">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="K3" s="27">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="L3" s="27">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="M3" s="27">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="N3" s="27">
         <v>22</v>
@@ -19372,40 +19387,40 @@
         <v>22</v>
       </c>
       <c r="N4" s="27">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="O4" s="27">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="P4" s="27">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="Q4" s="27">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="R4" s="27">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="S4" s="27">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="T4" s="27">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="U4" s="27">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="V4" s="27">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="W4" s="27">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="X4" s="27">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="Y4" s="27">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="Z4" s="25"/>
       <c r="AA4" s="25"/>
@@ -19429,40 +19444,40 @@
         <v>3</v>
       </c>
       <c r="B5" s="27">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C5" s="27">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D5" s="27">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="E5" s="27">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="F5" s="27">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="G5" s="27">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="H5" s="27">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="I5" s="27">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="J5" s="27">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="K5" s="27">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="L5" s="27">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="M5" s="27">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="N5" s="27">
         <v>22</v>
@@ -19558,40 +19573,40 @@
         <v>22</v>
       </c>
       <c r="N6" s="27">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="O6" s="27">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="P6" s="27">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="Q6" s="27">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="R6" s="27">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="S6" s="27">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="T6" s="27">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="U6" s="27">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="V6" s="27">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="W6" s="27">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="X6" s="27">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="Y6" s="27">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="Z6" s="25"/>
       <c r="AA6" s="25"/>
@@ -19615,40 +19630,40 @@
         <v>5</v>
       </c>
       <c r="B7" s="27">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C7" s="27">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D7" s="27">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="E7" s="27">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="F7" s="27">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="G7" s="27">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="H7" s="27">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="I7" s="27">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="J7" s="27">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="K7" s="27">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="L7" s="27">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="M7" s="27">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="N7" s="27">
         <v>22</v>
@@ -19728,40 +19743,40 @@
         <v>22</v>
       </c>
       <c r="N8" s="27">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="O8" s="27">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="P8" s="27">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="Q8" s="27">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="R8" s="27">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="S8" s="27">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="T8" s="27">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="U8" s="27">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="V8" s="27">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="W8" s="27">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="X8" s="27">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="Y8" s="27">
-        <v>22</v>
+        <v>24</v>
       </c>
     </row>
     <row r="9" spans="1:41" ht="21" x14ac:dyDescent="0.5">
@@ -19769,40 +19784,40 @@
         <v>7</v>
       </c>
       <c r="B9" s="27">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C9" s="27">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D9" s="27">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="E9" s="27">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="F9" s="27">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="G9" s="27">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="H9" s="27">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="I9" s="27">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="J9" s="27">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="K9" s="27">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="L9" s="27">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="M9" s="27">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="N9" s="27">
         <v>22</v>
@@ -19882,40 +19897,40 @@
         <v>22</v>
       </c>
       <c r="N10" s="27">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="O10" s="27">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="P10" s="27">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="Q10" s="27">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="R10" s="27">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="S10" s="27">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="T10" s="27">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="U10" s="27">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="V10" s="27">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="W10" s="27">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="X10" s="27">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="Y10" s="27">
-        <v>22</v>
+        <v>24</v>
       </c>
     </row>
     <row r="11" spans="1:41" ht="21" x14ac:dyDescent="0.5">
@@ -19923,40 +19938,40 @@
         <v>9</v>
       </c>
       <c r="B11" s="27">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C11" s="27">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D11" s="27">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="E11" s="27">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="F11" s="27">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="G11" s="27">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="H11" s="27">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="I11" s="27">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="J11" s="27">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="K11" s="27">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="L11" s="27">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="M11" s="27">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="N11" s="27">
         <v>22</v>
@@ -20036,40 +20051,40 @@
         <v>22</v>
       </c>
       <c r="N12" s="27">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="O12" s="27">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="P12" s="27">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="Q12" s="27">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="R12" s="27">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="S12" s="27">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="T12" s="27">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="U12" s="27">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="V12" s="27">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="W12" s="27">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="X12" s="27">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="Y12" s="27">
-        <v>22</v>
+        <v>24</v>
       </c>
     </row>
     <row r="13" spans="1:41" ht="21" x14ac:dyDescent="0.5">
@@ -20077,40 +20092,40 @@
         <v>11</v>
       </c>
       <c r="B13" s="27">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C13" s="27">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D13" s="27">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="E13" s="27">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="F13" s="27">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="G13" s="27">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="H13" s="27">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="I13" s="27">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="J13" s="27">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="K13" s="27">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="L13" s="27">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="M13" s="27">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="N13" s="27">
         <v>22</v>
@@ -20190,40 +20205,40 @@
         <v>22</v>
       </c>
       <c r="N14" s="27">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="O14" s="27">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="P14" s="27">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="Q14" s="27">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="R14" s="27">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="S14" s="27">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="T14" s="27">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="U14" s="27">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="V14" s="27">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="W14" s="27">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="X14" s="27">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="Y14" s="27">
-        <v>22</v>
+        <v>24</v>
       </c>
     </row>
     <row r="15" spans="1:41" ht="21" x14ac:dyDescent="0.5">
@@ -20231,40 +20246,40 @@
         <v>13</v>
       </c>
       <c r="B15" s="27">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C15" s="27">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D15" s="27">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="E15" s="27">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="F15" s="27">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="G15" s="27">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="H15" s="27">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="I15" s="27">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="J15" s="27">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="K15" s="27">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="L15" s="27">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="M15" s="27">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="N15" s="27">
         <v>22</v>
@@ -20344,40 +20359,40 @@
         <v>22</v>
       </c>
       <c r="N16" s="27">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="O16" s="27">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="P16" s="27">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="Q16" s="27">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="R16" s="27">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="S16" s="27">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="T16" s="27">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="U16" s="27">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="V16" s="27">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="W16" s="27">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="X16" s="27">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="Y16" s="27">
-        <v>22</v>
+        <v>24</v>
       </c>
     </row>
     <row r="17" spans="1:25" ht="21" x14ac:dyDescent="0.5">
@@ -20385,40 +20400,40 @@
         <v>15</v>
       </c>
       <c r="B17" s="27">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C17" s="27">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D17" s="27">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="E17" s="27">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="F17" s="27">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="G17" s="27">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="H17" s="27">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="I17" s="27">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="J17" s="27">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="K17" s="27">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="L17" s="27">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="M17" s="27">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="N17" s="27">
         <v>22</v>
@@ -20539,40 +20554,40 @@
         <v>17</v>
       </c>
       <c r="B19" s="27">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C19" s="27">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D19" s="27">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="E19" s="27">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="F19" s="27">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="G19" s="27">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="H19" s="27">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="I19" s="27">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="J19" s="27">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="K19" s="27">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="L19" s="27">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="M19" s="27">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="N19" s="27">
         <v>22</v>
@@ -20693,40 +20708,40 @@
         <v>19</v>
       </c>
       <c r="B21" s="27">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C21" s="27">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D21" s="27">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="E21" s="27">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="F21" s="27">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="G21" s="27">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="H21" s="27">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="I21" s="27">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="J21" s="27">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="K21" s="27">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="L21" s="27">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="M21" s="27">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="N21" s="27">
         <v>22</v>
@@ -20847,40 +20862,40 @@
         <v>21</v>
       </c>
       <c r="B23" s="27">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C23" s="27">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D23" s="27">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="E23" s="27">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="F23" s="27">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="G23" s="27">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="H23" s="27">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="I23" s="27">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="J23" s="27">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="K23" s="27">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="L23" s="27">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="M23" s="27">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="N23" s="27">
         <v>22</v>
@@ -21345,40 +21360,40 @@
         <v>22</v>
       </c>
       <c r="N29" s="27">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="O29" s="27">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="P29" s="27">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="Q29" s="27">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="R29" s="27">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="S29" s="27">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="T29" s="27">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="U29" s="27">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="V29" s="27">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="W29" s="27">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="X29" s="27">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="Y29" s="27">
-        <v>22</v>
+        <v>24</v>
       </c>
     </row>
     <row r="30" spans="1:25" ht="21" x14ac:dyDescent="0.5">
@@ -21401,40 +21416,40 @@
         <v>22</v>
       </c>
       <c r="G30" s="27">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="H30" s="27">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="I30" s="27">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="J30" s="27">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="K30" s="27">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="L30" s="27">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="M30" s="27">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="N30" s="27">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="O30" s="27">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="P30" s="27">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="Q30" s="27">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="R30" s="27">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="S30" s="27">
         <v>22</v>
@@ -21795,40 +21810,40 @@
         <v>22</v>
       </c>
       <c r="J35" s="27">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="K35" s="27">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="L35" s="27">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="M35" s="27">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="N35" s="27">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="O35" s="27">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="P35" s="27">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="Q35" s="27">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="R35" s="27">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="S35" s="27">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="T35" s="27">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="U35" s="27">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="V35" s="27">
         <v>22</v>
@@ -22029,40 +22044,40 @@
         <v>22</v>
       </c>
       <c r="K38" s="27">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="L38" s="27">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="M38" s="27">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="N38" s="27">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="O38" s="27">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="P38" s="27">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="Q38" s="27">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="R38" s="27">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="S38" s="27">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="T38" s="27">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="U38" s="27">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="V38" s="27">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="W38" s="27">
         <v>22</v>
@@ -22168,40 +22183,40 @@
         <v>22</v>
       </c>
       <c r="F40" s="27">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="G40" s="27">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="H40" s="27">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="I40" s="27">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="J40" s="27">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="K40" s="27">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="L40" s="27">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="M40" s="27">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="N40" s="27">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="O40" s="27">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="P40" s="27">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="Q40" s="27">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="R40" s="27">
         <v>22</v>
@@ -22314,7 +22329,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4C742ACB-40D4-44BC-8A87-48DA43DF8DC5}">
   <dimension ref="A2:AN42"/>
   <sheetViews>
-    <sheetView zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="B3" sqref="B3:Y41"/>
     </sheetView>
   </sheetViews>
@@ -32020,18 +32035,18 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
   <Edit>DocumentLibraryForm</Edit>
   <New>DocumentLibraryForm</New>
 </FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
@@ -32246,6 +32261,14 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{00860459-9AB3-404C-9E09-2F98C31A67E6}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{47108D9C-9F22-4BF8-A049-F9C9D73243DC}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
@@ -32258,14 +32281,6 @@
     <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
     <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
     <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{00860459-9AB3-404C-9E09-2F98C31A67E6}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>

--- a/Input Data - Resources 1.xlsx
+++ b/Input Data - Resources 1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hugo.serrano\PycharmProjects1\CRETE_VALLEY_T.4.3\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F1D735A8-80B2-448C-9A06-598E98DFAD0B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B1756455-D92F-4386-BDD0-A1E0EF9BAFED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="67080" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="907" activeTab="3" xr2:uid="{A643D732-D500-40EC-92C3-BB1380872BE9}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="38640" windowHeight="21120" tabRatio="907" activeTab="3" xr2:uid="{A643D732-D500-40EC-92C3-BB1380872BE9}"/>
   </bookViews>
   <sheets>
     <sheet name="Electrical load" sheetId="1" r:id="rId1"/>
@@ -451,7 +451,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="62">
+  <cellXfs count="64">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -565,9 +565,6 @@
     <xf numFmtId="0" fontId="12" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -589,6 +586,9 @@
     <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -607,7 +607,13 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1019,76 +1025,76 @@
       <c r="B3" s="6">
         <v>1</v>
       </c>
-      <c r="C3" s="61">
+      <c r="C3" s="54">
         <v>62.746000000000002</v>
       </c>
-      <c r="D3" s="61">
+      <c r="D3" s="54">
         <v>62.271999999999998</v>
       </c>
-      <c r="E3" s="61">
+      <c r="E3" s="54">
         <v>58.021999999999998</v>
       </c>
-      <c r="F3" s="61">
+      <c r="F3" s="54">
         <v>60.991999999999997</v>
       </c>
-      <c r="G3" s="61">
+      <c r="G3" s="54">
         <v>57.664000000000001</v>
       </c>
-      <c r="H3" s="61">
+      <c r="H3" s="54">
         <v>60.212000000000003</v>
       </c>
-      <c r="I3" s="61">
+      <c r="I3" s="54">
         <v>97.36160000000001</v>
       </c>
-      <c r="J3" s="61">
+      <c r="J3" s="54">
         <v>80.2</v>
       </c>
-      <c r="K3" s="61">
+      <c r="K3" s="54">
         <v>95.13</v>
       </c>
-      <c r="L3" s="61">
+      <c r="L3" s="54">
         <v>115.042</v>
       </c>
-      <c r="M3" s="61">
+      <c r="M3" s="54">
         <v>128.63999999999999</v>
       </c>
-      <c r="N3" s="61">
+      <c r="N3" s="54">
         <v>128.959</v>
       </c>
-      <c r="O3" s="61">
+      <c r="O3" s="54">
         <v>129.79599999999999</v>
       </c>
-      <c r="P3" s="61">
+      <c r="P3" s="54">
         <v>136.333</v>
       </c>
-      <c r="Q3" s="61">
+      <c r="Q3" s="54">
         <v>131.06800000000001</v>
       </c>
-      <c r="R3" s="61">
+      <c r="R3" s="54">
         <v>126.88800000000001</v>
       </c>
-      <c r="S3" s="61">
+      <c r="S3" s="54">
         <v>124.343</v>
       </c>
-      <c r="T3" s="61">
+      <c r="T3" s="54">
         <v>114.15599999999999</v>
       </c>
-      <c r="U3" s="61">
+      <c r="U3" s="54">
         <v>94.757999999999996</v>
       </c>
-      <c r="V3" s="61">
+      <c r="V3" s="54">
         <v>84.965000000000003</v>
       </c>
-      <c r="W3" s="61">
+      <c r="W3" s="54">
         <v>78.438000000000002</v>
       </c>
-      <c r="X3" s="61">
+      <c r="X3" s="54">
         <v>63.18</v>
       </c>
-      <c r="Y3" s="61">
+      <c r="Y3" s="54">
         <v>60.569000000000003</v>
       </c>
-      <c r="Z3" s="61">
+      <c r="Z3" s="54">
         <v>59.994</v>
       </c>
     </row>
@@ -1096,76 +1102,76 @@
       <c r="B4" s="7">
         <v>2</v>
       </c>
-      <c r="C4" s="61">
+      <c r="C4" s="54">
         <v>44.9</v>
       </c>
-      <c r="D4" s="61">
+      <c r="D4" s="54">
         <v>43.4</v>
       </c>
-      <c r="E4" s="61">
+      <c r="E4" s="54">
         <v>42.3</v>
       </c>
-      <c r="F4" s="61">
+      <c r="F4" s="54">
         <v>40.9</v>
       </c>
-      <c r="G4" s="61">
+      <c r="G4" s="54">
         <v>41</v>
       </c>
-      <c r="H4" s="61">
+      <c r="H4" s="54">
         <v>41</v>
       </c>
-      <c r="I4" s="61">
+      <c r="I4" s="54">
         <v>64.64</v>
       </c>
-      <c r="J4" s="61">
+      <c r="J4" s="54">
         <v>49.6</v>
       </c>
-      <c r="K4" s="61">
+      <c r="K4" s="54">
         <v>49.7</v>
       </c>
-      <c r="L4" s="61">
+      <c r="L4" s="54">
         <v>64.2</v>
       </c>
-      <c r="M4" s="61">
+      <c r="M4" s="54">
         <v>67.8</v>
       </c>
-      <c r="N4" s="61">
+      <c r="N4" s="54">
         <v>66</v>
       </c>
-      <c r="O4" s="61">
+      <c r="O4" s="54">
         <v>65.900000000000006</v>
       </c>
-      <c r="P4" s="61">
+      <c r="P4" s="54">
         <v>66</v>
       </c>
-      <c r="Q4" s="61">
+      <c r="Q4" s="54">
         <v>61.7</v>
       </c>
-      <c r="R4" s="61">
+      <c r="R4" s="54">
         <v>65.2</v>
       </c>
-      <c r="S4" s="61">
+      <c r="S4" s="54">
         <v>68</v>
       </c>
-      <c r="T4" s="61">
+      <c r="T4" s="54">
         <v>79.3</v>
       </c>
-      <c r="U4" s="61">
+      <c r="U4" s="54">
         <v>78.400000000000006</v>
       </c>
-      <c r="V4" s="61">
+      <c r="V4" s="54">
         <v>78.599999999999994</v>
       </c>
-      <c r="W4" s="61">
+      <c r="W4" s="54">
         <v>78</v>
       </c>
-      <c r="X4" s="61">
+      <c r="X4" s="54">
         <v>52.8</v>
       </c>
-      <c r="Y4" s="61">
+      <c r="Y4" s="54">
         <v>49.5</v>
       </c>
-      <c r="Z4" s="61">
+      <c r="Z4" s="54">
         <v>48.3</v>
       </c>
     </row>
@@ -1173,76 +1179,76 @@
       <c r="B5" s="6">
         <v>3</v>
       </c>
-      <c r="C5" s="61">
+      <c r="C5" s="54">
         <v>5</v>
       </c>
-      <c r="D5" s="61">
+      <c r="D5" s="54">
         <v>6</v>
       </c>
-      <c r="E5" s="61">
+      <c r="E5" s="54">
         <v>5</v>
       </c>
-      <c r="F5" s="61">
+      <c r="F5" s="54">
         <v>6</v>
       </c>
-      <c r="G5" s="61">
+      <c r="G5" s="54">
         <v>6</v>
       </c>
-      <c r="H5" s="61">
+      <c r="H5" s="54">
         <v>6</v>
       </c>
-      <c r="I5" s="61">
+      <c r="I5" s="54">
         <v>9.6000000000000014</v>
       </c>
-      <c r="J5" s="61">
+      <c r="J5" s="54">
         <v>11</v>
       </c>
-      <c r="K5" s="61">
+      <c r="K5" s="54">
         <v>23</v>
       </c>
-      <c r="L5" s="61">
+      <c r="L5" s="54">
         <v>25</v>
       </c>
-      <c r="M5" s="61">
+      <c r="M5" s="54">
         <v>24</v>
       </c>
-      <c r="N5" s="61">
+      <c r="N5" s="54">
         <v>25</v>
       </c>
-      <c r="O5" s="61">
+      <c r="O5" s="54">
         <v>27</v>
       </c>
-      <c r="P5" s="61">
+      <c r="P5" s="54">
         <v>23</v>
       </c>
-      <c r="Q5" s="61">
+      <c r="Q5" s="54">
         <v>21</v>
       </c>
-      <c r="R5" s="61">
+      <c r="R5" s="54">
         <v>21</v>
       </c>
-      <c r="S5" s="61">
+      <c r="S5" s="54">
         <v>17</v>
       </c>
-      <c r="T5" s="61">
+      <c r="T5" s="54">
         <v>34.5</v>
       </c>
-      <c r="U5" s="61">
+      <c r="U5" s="54">
         <v>30</v>
       </c>
-      <c r="V5" s="61">
+      <c r="V5" s="54">
         <v>31</v>
       </c>
-      <c r="W5" s="61">
+      <c r="W5" s="54">
         <v>28</v>
       </c>
-      <c r="X5" s="61">
+      <c r="X5" s="54">
         <v>7</v>
       </c>
-      <c r="Y5" s="61">
+      <c r="Y5" s="54">
         <v>6</v>
       </c>
-      <c r="Z5" s="61">
+      <c r="Z5" s="54">
         <v>5</v>
       </c>
     </row>
@@ -1250,76 +1256,76 @@
       <c r="B6" s="7">
         <v>4</v>
       </c>
-      <c r="C6" s="61">
+      <c r="C6" s="54">
         <v>17.2</v>
       </c>
-      <c r="D6" s="61">
+      <c r="D6" s="54">
         <v>18.399999999999999</v>
       </c>
-      <c r="E6" s="61">
+      <c r="E6" s="54">
         <v>18.399999999999999</v>
       </c>
-      <c r="F6" s="61">
+      <c r="F6" s="54">
         <v>22.3</v>
       </c>
-      <c r="G6" s="61">
+      <c r="G6" s="54">
         <v>21.2</v>
       </c>
-      <c r="H6" s="61">
+      <c r="H6" s="54">
         <v>21</v>
       </c>
-      <c r="I6" s="61">
+      <c r="I6" s="54">
         <v>28.8</v>
       </c>
-      <c r="J6" s="61">
+      <c r="J6" s="54">
         <v>20.5</v>
       </c>
-      <c r="K6" s="61">
+      <c r="K6" s="54">
         <v>37.700000000000003</v>
       </c>
-      <c r="L6" s="61">
+      <c r="L6" s="54">
         <v>38.299999999999997</v>
       </c>
-      <c r="M6" s="61">
+      <c r="M6" s="54">
         <v>42</v>
       </c>
-      <c r="N6" s="61">
+      <c r="N6" s="54">
         <v>40.799999999999997</v>
       </c>
-      <c r="O6" s="61">
+      <c r="O6" s="54">
         <v>38.200000000000003</v>
       </c>
-      <c r="P6" s="61">
+      <c r="P6" s="54">
         <v>39.299999999999997</v>
       </c>
-      <c r="Q6" s="61">
+      <c r="Q6" s="54">
         <v>43.5</v>
       </c>
-      <c r="R6" s="61">
+      <c r="R6" s="54">
         <v>44.9</v>
       </c>
-      <c r="S6" s="61">
+      <c r="S6" s="54">
         <v>39.9</v>
       </c>
-      <c r="T6" s="61">
+      <c r="T6" s="54">
         <v>45.24</v>
       </c>
-      <c r="U6" s="61">
+      <c r="U6" s="54">
         <v>29.8</v>
       </c>
-      <c r="V6" s="61">
+      <c r="V6" s="54">
         <v>20</v>
       </c>
-      <c r="W6" s="61">
+      <c r="W6" s="54">
         <v>17.5</v>
       </c>
-      <c r="X6" s="61">
+      <c r="X6" s="54">
         <v>16.7</v>
       </c>
-      <c r="Y6" s="61">
+      <c r="Y6" s="54">
         <v>13.1</v>
       </c>
-      <c r="Z6" s="61">
+      <c r="Z6" s="54">
         <v>17.399999999999999</v>
       </c>
     </row>
@@ -1327,76 +1333,76 @@
       <c r="B7" s="6">
         <v>5</v>
       </c>
-      <c r="C7" s="61">
-        <v>0</v>
-      </c>
-      <c r="D7" s="61">
-        <v>0</v>
-      </c>
-      <c r="E7" s="61">
-        <v>0</v>
-      </c>
-      <c r="F7" s="61">
-        <v>0</v>
-      </c>
-      <c r="G7" s="61">
-        <v>0</v>
-      </c>
-      <c r="H7" s="61">
-        <v>0</v>
-      </c>
-      <c r="I7" s="61">
-        <v>0</v>
-      </c>
-      <c r="J7" s="61">
-        <v>0</v>
-      </c>
-      <c r="K7" s="61">
-        <v>0</v>
-      </c>
-      <c r="L7" s="61">
-        <v>0</v>
-      </c>
-      <c r="M7" s="61">
-        <v>0</v>
-      </c>
-      <c r="N7" s="61">
-        <v>0</v>
-      </c>
-      <c r="O7" s="61">
-        <v>0</v>
-      </c>
-      <c r="P7" s="61">
-        <v>0</v>
-      </c>
-      <c r="Q7" s="61">
-        <v>0</v>
-      </c>
-      <c r="R7" s="61">
-        <v>0</v>
-      </c>
-      <c r="S7" s="61">
-        <v>0</v>
-      </c>
-      <c r="T7" s="61">
-        <v>0</v>
-      </c>
-      <c r="U7" s="61">
-        <v>0</v>
-      </c>
-      <c r="V7" s="61">
-        <v>0</v>
-      </c>
-      <c r="W7" s="61">
-        <v>0</v>
-      </c>
-      <c r="X7" s="61">
-        <v>0</v>
-      </c>
-      <c r="Y7" s="61">
-        <v>0</v>
-      </c>
-      <c r="Z7" s="61">
+      <c r="C7" s="54">
+        <v>0</v>
+      </c>
+      <c r="D7" s="54">
+        <v>0</v>
+      </c>
+      <c r="E7" s="54">
+        <v>0</v>
+      </c>
+      <c r="F7" s="54">
+        <v>0</v>
+      </c>
+      <c r="G7" s="54">
+        <v>0</v>
+      </c>
+      <c r="H7" s="54">
+        <v>0</v>
+      </c>
+      <c r="I7" s="54">
+        <v>0</v>
+      </c>
+      <c r="J7" s="54">
+        <v>0</v>
+      </c>
+      <c r="K7" s="54">
+        <v>0</v>
+      </c>
+      <c r="L7" s="54">
+        <v>0</v>
+      </c>
+      <c r="M7" s="54">
+        <v>0</v>
+      </c>
+      <c r="N7" s="54">
+        <v>0</v>
+      </c>
+      <c r="O7" s="54">
+        <v>0</v>
+      </c>
+      <c r="P7" s="54">
+        <v>0</v>
+      </c>
+      <c r="Q7" s="54">
+        <v>0</v>
+      </c>
+      <c r="R7" s="54">
+        <v>0</v>
+      </c>
+      <c r="S7" s="54">
+        <v>0</v>
+      </c>
+      <c r="T7" s="54">
+        <v>0</v>
+      </c>
+      <c r="U7" s="54">
+        <v>0</v>
+      </c>
+      <c r="V7" s="54">
+        <v>0</v>
+      </c>
+      <c r="W7" s="54">
+        <v>0</v>
+      </c>
+      <c r="X7" s="54">
+        <v>0</v>
+      </c>
+      <c r="Y7" s="54">
+        <v>0</v>
+      </c>
+      <c r="Z7" s="54">
         <v>0</v>
       </c>
     </row>
@@ -1404,76 +1410,76 @@
       <c r="B8" s="7">
         <v>6</v>
       </c>
-      <c r="C8" s="61">
+      <c r="C8" s="54">
         <v>3.7250000000000001</v>
       </c>
-      <c r="D8" s="61">
+      <c r="D8" s="54">
         <v>3.7559999999999998</v>
       </c>
-      <c r="E8" s="61">
+      <c r="E8" s="54">
         <v>3.9430000000000001</v>
       </c>
-      <c r="F8" s="61">
+      <c r="F8" s="54">
         <v>3.7389999999999999</v>
       </c>
-      <c r="G8" s="61">
+      <c r="G8" s="54">
         <v>3.895</v>
       </c>
-      <c r="H8" s="61">
+      <c r="H8" s="54">
         <v>3.7589999999999999</v>
       </c>
-      <c r="I8" s="61">
+      <c r="I8" s="54">
         <v>5.7968000000000011</v>
       </c>
-      <c r="J8" s="61">
+      <c r="J8" s="54">
         <v>3.82</v>
       </c>
-      <c r="K8" s="61">
+      <c r="K8" s="54">
         <v>15.278</v>
       </c>
-      <c r="L8" s="61">
+      <c r="L8" s="54">
         <v>22.006</v>
       </c>
-      <c r="M8" s="61">
+      <c r="M8" s="54">
         <v>21.306000000000001</v>
       </c>
-      <c r="N8" s="61">
+      <c r="N8" s="54">
         <v>14.446</v>
       </c>
-      <c r="O8" s="61">
+      <c r="O8" s="54">
         <v>13.196999999999999</v>
       </c>
-      <c r="P8" s="61">
+      <c r="P8" s="54">
         <v>15.722</v>
       </c>
-      <c r="Q8" s="61">
+      <c r="Q8" s="54">
         <v>16.175999999999998</v>
       </c>
-      <c r="R8" s="61">
+      <c r="R8" s="54">
         <v>24.818000000000001</v>
       </c>
-      <c r="S8" s="61">
+      <c r="S8" s="54">
         <v>21.86</v>
       </c>
-      <c r="T8" s="61">
+      <c r="T8" s="54">
         <v>26.444800000000001</v>
       </c>
-      <c r="U8" s="61">
+      <c r="U8" s="54">
         <v>26.175999999999998</v>
       </c>
-      <c r="V8" s="61">
+      <c r="V8" s="54">
         <v>20.838000000000001</v>
       </c>
-      <c r="W8" s="61">
+      <c r="W8" s="54">
         <v>16.806000000000001</v>
       </c>
-      <c r="X8" s="61">
+      <c r="X8" s="54">
         <v>4.4710000000000001</v>
       </c>
-      <c r="Y8" s="61">
+      <c r="Y8" s="54">
         <v>3.36</v>
       </c>
-      <c r="Z8" s="61">
+      <c r="Z8" s="54">
         <v>3.238</v>
       </c>
     </row>
@@ -1481,76 +1487,76 @@
       <c r="B9" s="6">
         <v>7</v>
       </c>
-      <c r="C9" s="61">
+      <c r="C9" s="54">
         <v>6</v>
       </c>
-      <c r="D9" s="61">
+      <c r="D9" s="54">
         <v>6</v>
       </c>
-      <c r="E9" s="61">
+      <c r="E9" s="54">
         <v>6</v>
       </c>
-      <c r="F9" s="61">
+      <c r="F9" s="54">
         <v>6</v>
       </c>
-      <c r="G9" s="61">
+      <c r="G9" s="54">
         <v>6</v>
       </c>
-      <c r="H9" s="61">
+      <c r="H9" s="54">
         <v>6</v>
       </c>
-      <c r="I9" s="61">
+      <c r="I9" s="54">
         <v>9.6000000000000014</v>
       </c>
-      <c r="J9" s="61">
+      <c r="J9" s="54">
         <v>17</v>
       </c>
-      <c r="K9" s="61">
-        <v>22</v>
-      </c>
-      <c r="L9" s="61">
+      <c r="K9" s="54">
+        <v>22</v>
+      </c>
+      <c r="L9" s="54">
         <v>27</v>
       </c>
-      <c r="M9" s="61">
+      <c r="M9" s="54">
         <v>30</v>
       </c>
-      <c r="N9" s="61">
+      <c r="N9" s="54">
         <v>33</v>
       </c>
-      <c r="O9" s="61">
+      <c r="O9" s="54">
         <v>33</v>
       </c>
-      <c r="P9" s="61">
+      <c r="P9" s="54">
         <v>32</v>
       </c>
-      <c r="Q9" s="61">
+      <c r="Q9" s="54">
         <v>20</v>
       </c>
-      <c r="R9" s="61">
+      <c r="R9" s="54">
         <v>23</v>
       </c>
-      <c r="S9" s="61">
+      <c r="S9" s="54">
         <v>27</v>
       </c>
-      <c r="T9" s="61">
+      <c r="T9" s="54">
         <v>26.4</v>
       </c>
-      <c r="U9" s="61">
+      <c r="U9" s="54">
         <v>24</v>
       </c>
-      <c r="V9" s="61">
-        <v>22</v>
-      </c>
-      <c r="W9" s="61">
+      <c r="V9" s="54">
+        <v>22</v>
+      </c>
+      <c r="W9" s="54">
         <v>21</v>
       </c>
-      <c r="X9" s="61">
+      <c r="X9" s="54">
         <v>6</v>
       </c>
-      <c r="Y9" s="61">
+      <c r="Y9" s="54">
         <v>6</v>
       </c>
-      <c r="Z9" s="61">
+      <c r="Z9" s="54">
         <v>6</v>
       </c>
     </row>
@@ -1558,76 +1564,76 @@
       <c r="B10" s="7">
         <v>8</v>
       </c>
-      <c r="C10" s="61">
+      <c r="C10" s="54">
         <v>23.675000000000001</v>
       </c>
-      <c r="D10" s="61">
+      <c r="D10" s="54">
         <v>20.654</v>
       </c>
-      <c r="E10" s="61">
+      <c r="E10" s="54">
         <v>23.811</v>
       </c>
-      <c r="F10" s="61">
+      <c r="F10" s="54">
         <v>20.562999999999999</v>
       </c>
-      <c r="G10" s="61">
+      <c r="G10" s="54">
         <v>22.475000000000001</v>
       </c>
-      <c r="H10" s="61">
+      <c r="H10" s="54">
         <v>19.798999999999999</v>
       </c>
-      <c r="I10" s="61">
+      <c r="I10" s="54">
         <v>42.800000000000004</v>
       </c>
-      <c r="J10" s="61">
+      <c r="J10" s="54">
         <v>28.559000000000001</v>
       </c>
-      <c r="K10" s="61">
+      <c r="K10" s="54">
         <v>35.484000000000002</v>
       </c>
-      <c r="L10" s="61">
+      <c r="L10" s="54">
         <v>37.094999999999999</v>
       </c>
-      <c r="M10" s="61">
+      <c r="M10" s="54">
         <v>39.68</v>
       </c>
-      <c r="N10" s="61">
+      <c r="N10" s="54">
         <v>39.232999999999997</v>
       </c>
-      <c r="O10" s="61">
+      <c r="O10" s="54">
         <v>39.654000000000003</v>
       </c>
-      <c r="P10" s="61">
+      <c r="P10" s="54">
         <v>37.860999999999997</v>
       </c>
-      <c r="Q10" s="61">
+      <c r="Q10" s="54">
         <v>36.348999999999997</v>
       </c>
-      <c r="R10" s="61">
+      <c r="R10" s="54">
         <v>37.350999999999999</v>
       </c>
-      <c r="S10" s="61">
+      <c r="S10" s="54">
         <v>33.853000000000002</v>
       </c>
-      <c r="T10" s="61">
+      <c r="T10" s="54">
         <v>42.580800000000004</v>
       </c>
-      <c r="U10" s="61">
+      <c r="U10" s="54">
         <v>43.957999999999998</v>
       </c>
-      <c r="V10" s="61">
+      <c r="V10" s="54">
         <v>43.92</v>
       </c>
-      <c r="W10" s="61">
+      <c r="W10" s="54">
         <v>43.769999999999897</v>
       </c>
-      <c r="X10" s="61">
+      <c r="X10" s="54">
         <v>29.481999999999999</v>
       </c>
-      <c r="Y10" s="61">
+      <c r="Y10" s="54">
         <v>24.21</v>
       </c>
-      <c r="Z10" s="61">
+      <c r="Z10" s="54">
         <v>24.244</v>
       </c>
     </row>
@@ -1635,76 +1641,76 @@
       <c r="B11" s="6">
         <v>9</v>
       </c>
-      <c r="C11" s="61">
-        <v>0</v>
-      </c>
-      <c r="D11" s="61">
-        <v>0</v>
-      </c>
-      <c r="E11" s="61">
-        <v>0</v>
-      </c>
-      <c r="F11" s="61">
-        <v>0</v>
-      </c>
-      <c r="G11" s="61">
-        <v>0</v>
-      </c>
-      <c r="H11" s="61">
-        <v>0</v>
-      </c>
-      <c r="I11" s="61">
-        <v>0</v>
-      </c>
-      <c r="J11" s="61">
-        <v>0</v>
-      </c>
-      <c r="K11" s="61">
-        <v>0</v>
-      </c>
-      <c r="L11" s="61">
-        <v>0</v>
-      </c>
-      <c r="M11" s="61">
-        <v>0</v>
-      </c>
-      <c r="N11" s="61">
-        <v>0</v>
-      </c>
-      <c r="O11" s="61">
-        <v>0</v>
-      </c>
-      <c r="P11" s="61">
-        <v>0</v>
-      </c>
-      <c r="Q11" s="61">
-        <v>0</v>
-      </c>
-      <c r="R11" s="61">
-        <v>0</v>
-      </c>
-      <c r="S11" s="61">
-        <v>0</v>
-      </c>
-      <c r="T11" s="61">
-        <v>0</v>
-      </c>
-      <c r="U11" s="61">
-        <v>0</v>
-      </c>
-      <c r="V11" s="61">
-        <v>0</v>
-      </c>
-      <c r="W11" s="61">
-        <v>0</v>
-      </c>
-      <c r="X11" s="61">
-        <v>0</v>
-      </c>
-      <c r="Y11" s="61">
-        <v>0</v>
-      </c>
-      <c r="Z11" s="61">
+      <c r="C11" s="54">
+        <v>0</v>
+      </c>
+      <c r="D11" s="54">
+        <v>0</v>
+      </c>
+      <c r="E11" s="54">
+        <v>0</v>
+      </c>
+      <c r="F11" s="54">
+        <v>0</v>
+      </c>
+      <c r="G11" s="54">
+        <v>0</v>
+      </c>
+      <c r="H11" s="54">
+        <v>0</v>
+      </c>
+      <c r="I11" s="54">
+        <v>0</v>
+      </c>
+      <c r="J11" s="54">
+        <v>0</v>
+      </c>
+      <c r="K11" s="54">
+        <v>0</v>
+      </c>
+      <c r="L11" s="54">
+        <v>0</v>
+      </c>
+      <c r="M11" s="54">
+        <v>0</v>
+      </c>
+      <c r="N11" s="54">
+        <v>0</v>
+      </c>
+      <c r="O11" s="54">
+        <v>0</v>
+      </c>
+      <c r="P11" s="54">
+        <v>0</v>
+      </c>
+      <c r="Q11" s="54">
+        <v>0</v>
+      </c>
+      <c r="R11" s="54">
+        <v>0</v>
+      </c>
+      <c r="S11" s="54">
+        <v>0</v>
+      </c>
+      <c r="T11" s="54">
+        <v>0</v>
+      </c>
+      <c r="U11" s="54">
+        <v>0</v>
+      </c>
+      <c r="V11" s="54">
+        <v>0</v>
+      </c>
+      <c r="W11" s="54">
+        <v>0</v>
+      </c>
+      <c r="X11" s="54">
+        <v>0</v>
+      </c>
+      <c r="Y11" s="54">
+        <v>0</v>
+      </c>
+      <c r="Z11" s="54">
         <v>0</v>
       </c>
     </row>
@@ -1712,76 +1718,76 @@
       <c r="B12" s="7">
         <v>10</v>
       </c>
-      <c r="C12" s="61">
-        <v>0</v>
-      </c>
-      <c r="D12" s="61">
-        <v>0</v>
-      </c>
-      <c r="E12" s="61">
-        <v>0</v>
-      </c>
-      <c r="F12" s="61">
-        <v>0</v>
-      </c>
-      <c r="G12" s="61">
-        <v>0</v>
-      </c>
-      <c r="H12" s="61">
-        <v>0</v>
-      </c>
-      <c r="I12" s="61">
-        <v>0</v>
-      </c>
-      <c r="J12" s="61">
-        <v>0</v>
-      </c>
-      <c r="K12" s="61">
-        <v>0</v>
-      </c>
-      <c r="L12" s="61">
-        <v>0</v>
-      </c>
-      <c r="M12" s="61">
-        <v>0</v>
-      </c>
-      <c r="N12" s="61">
-        <v>0</v>
-      </c>
-      <c r="O12" s="61">
-        <v>0</v>
-      </c>
-      <c r="P12" s="61">
-        <v>0</v>
-      </c>
-      <c r="Q12" s="61">
-        <v>0</v>
-      </c>
-      <c r="R12" s="61">
-        <v>0</v>
-      </c>
-      <c r="S12" s="61">
-        <v>0</v>
-      </c>
-      <c r="T12" s="61">
-        <v>0</v>
-      </c>
-      <c r="U12" s="61">
-        <v>0</v>
-      </c>
-      <c r="V12" s="61">
-        <v>0</v>
-      </c>
-      <c r="W12" s="61">
-        <v>0</v>
-      </c>
-      <c r="X12" s="61">
-        <v>0</v>
-      </c>
-      <c r="Y12" s="61">
-        <v>0</v>
-      </c>
-      <c r="Z12" s="61">
+      <c r="C12" s="54">
+        <v>0</v>
+      </c>
+      <c r="D12" s="54">
+        <v>0</v>
+      </c>
+      <c r="E12" s="54">
+        <v>0</v>
+      </c>
+      <c r="F12" s="54">
+        <v>0</v>
+      </c>
+      <c r="G12" s="54">
+        <v>0</v>
+      </c>
+      <c r="H12" s="54">
+        <v>0</v>
+      </c>
+      <c r="I12" s="54">
+        <v>0</v>
+      </c>
+      <c r="J12" s="54">
+        <v>0</v>
+      </c>
+      <c r="K12" s="54">
+        <v>0</v>
+      </c>
+      <c r="L12" s="54">
+        <v>0</v>
+      </c>
+      <c r="M12" s="54">
+        <v>0</v>
+      </c>
+      <c r="N12" s="54">
+        <v>0</v>
+      </c>
+      <c r="O12" s="54">
+        <v>0</v>
+      </c>
+      <c r="P12" s="54">
+        <v>0</v>
+      </c>
+      <c r="Q12" s="54">
+        <v>0</v>
+      </c>
+      <c r="R12" s="54">
+        <v>0</v>
+      </c>
+      <c r="S12" s="54">
+        <v>0</v>
+      </c>
+      <c r="T12" s="54">
+        <v>0</v>
+      </c>
+      <c r="U12" s="54">
+        <v>0</v>
+      </c>
+      <c r="V12" s="54">
+        <v>0</v>
+      </c>
+      <c r="W12" s="54">
+        <v>0</v>
+      </c>
+      <c r="X12" s="54">
+        <v>0</v>
+      </c>
+      <c r="Y12" s="54">
+        <v>0</v>
+      </c>
+      <c r="Z12" s="54">
         <v>0</v>
       </c>
     </row>
@@ -1789,76 +1795,76 @@
       <c r="B13" s="6">
         <v>11</v>
       </c>
-      <c r="C13" s="61">
+      <c r="C13" s="54">
         <v>25.347000000000001</v>
       </c>
-      <c r="D13" s="61">
+      <c r="D13" s="54">
         <v>25.552</v>
       </c>
-      <c r="E13" s="61">
+      <c r="E13" s="54">
         <v>24.72</v>
       </c>
-      <c r="F13" s="61">
+      <c r="F13" s="54">
         <v>24.783999999999999</v>
       </c>
-      <c r="G13" s="61">
+      <c r="G13" s="54">
         <v>25.861999999999998</v>
       </c>
-      <c r="H13" s="61">
+      <c r="H13" s="54">
         <v>25.306000000000001</v>
       </c>
-      <c r="I13" s="61">
+      <c r="I13" s="54">
         <v>40.2592</v>
       </c>
-      <c r="J13" s="61">
+      <c r="J13" s="54">
         <v>33.139000000000003</v>
       </c>
-      <c r="K13" s="61">
+      <c r="K13" s="54">
         <v>36.621000000000002</v>
       </c>
-      <c r="L13" s="61">
+      <c r="L13" s="54">
         <v>44.304000000000002</v>
       </c>
-      <c r="M13" s="61">
+      <c r="M13" s="54">
         <v>53.628999999999998</v>
       </c>
-      <c r="N13" s="61">
+      <c r="N13" s="54">
         <v>57.616999999999997</v>
       </c>
-      <c r="O13" s="61">
+      <c r="O13" s="54">
         <v>55.176000000000002</v>
       </c>
-      <c r="P13" s="61">
+      <c r="P13" s="54">
         <v>58.177</v>
       </c>
-      <c r="Q13" s="61">
+      <c r="Q13" s="54">
         <v>58.219000000000001</v>
       </c>
-      <c r="R13" s="61">
+      <c r="R13" s="54">
         <v>54.584000000000003</v>
       </c>
-      <c r="S13" s="61">
+      <c r="S13" s="54">
         <v>51.578000000000003</v>
       </c>
-      <c r="T13" s="61">
+      <c r="T13" s="54">
         <v>65.9178</v>
       </c>
-      <c r="U13" s="61">
+      <c r="U13" s="54">
         <v>63.375999999999998</v>
       </c>
-      <c r="V13" s="61">
+      <c r="V13" s="54">
         <v>69.558000000000007</v>
       </c>
-      <c r="W13" s="61">
+      <c r="W13" s="54">
         <v>68.349000000000004</v>
       </c>
-      <c r="X13" s="61">
+      <c r="X13" s="54">
         <v>26.768000000000001</v>
       </c>
-      <c r="Y13" s="61">
+      <c r="Y13" s="54">
         <v>26.358000000000001</v>
       </c>
-      <c r="Z13" s="61">
+      <c r="Z13" s="54">
         <v>25.446000000000002</v>
       </c>
     </row>
@@ -1866,76 +1872,76 @@
       <c r="B14" s="7">
         <v>12</v>
       </c>
-      <c r="C14" s="61">
+      <c r="C14" s="54">
         <v>13.183999999999999</v>
       </c>
-      <c r="D14" s="61">
+      <c r="D14" s="54">
         <v>13.337999999999999</v>
       </c>
-      <c r="E14" s="61">
+      <c r="E14" s="54">
         <v>12.992000000000001</v>
       </c>
-      <c r="F14" s="61">
+      <c r="F14" s="54">
         <v>13.183999999999999</v>
       </c>
-      <c r="G14" s="61">
+      <c r="G14" s="54">
         <v>13.247999999999999</v>
       </c>
-      <c r="H14" s="61">
+      <c r="H14" s="54">
         <v>13.504</v>
       </c>
-      <c r="I14" s="61">
+      <c r="I14" s="54">
         <v>21.401600000000002</v>
       </c>
-      <c r="J14" s="61">
+      <c r="J14" s="54">
         <v>13.491</v>
       </c>
-      <c r="K14" s="61">
+      <c r="K14" s="54">
         <v>20.172999999999998</v>
       </c>
-      <c r="L14" s="61">
+      <c r="L14" s="54">
         <v>32.064</v>
       </c>
-      <c r="M14" s="61">
+      <c r="M14" s="54">
         <v>40.524999999999999</v>
       </c>
-      <c r="N14" s="61">
+      <c r="N14" s="54">
         <v>44.274999999999999</v>
       </c>
-      <c r="O14" s="61">
+      <c r="O14" s="54">
         <v>43.622</v>
       </c>
-      <c r="P14" s="61">
+      <c r="P14" s="54">
         <v>41.088000000000001</v>
       </c>
-      <c r="Q14" s="61">
+      <c r="Q14" s="54">
         <v>44.762</v>
       </c>
-      <c r="R14" s="61">
+      <c r="R14" s="54">
         <v>44.351999999999997</v>
       </c>
-      <c r="S14" s="61">
+      <c r="S14" s="54">
         <v>40.448</v>
       </c>
-      <c r="T14" s="61">
+      <c r="T14" s="54">
         <v>54.467100000000002</v>
       </c>
-      <c r="U14" s="61">
+      <c r="U14" s="54">
         <v>53.268000000000001</v>
       </c>
-      <c r="V14" s="61">
+      <c r="V14" s="54">
         <v>53.36</v>
       </c>
-      <c r="W14" s="61">
+      <c r="W14" s="54">
         <v>51.453000000000003</v>
       </c>
-      <c r="X14" s="61">
+      <c r="X14" s="54">
         <v>19.315000000000001</v>
       </c>
-      <c r="Y14" s="61">
+      <c r="Y14" s="54">
         <v>16.55</v>
       </c>
-      <c r="Z14" s="61">
+      <c r="Z14" s="54">
         <v>16.754999999999999</v>
       </c>
     </row>
@@ -1943,76 +1949,76 @@
       <c r="B15" s="6">
         <v>13</v>
       </c>
-      <c r="C15" s="61">
+      <c r="C15" s="54">
         <v>35.29</v>
       </c>
-      <c r="D15" s="61">
+      <c r="D15" s="54">
         <v>35.283000000000001</v>
       </c>
-      <c r="E15" s="61">
+      <c r="E15" s="54">
         <v>35.066000000000003</v>
       </c>
-      <c r="F15" s="61">
+      <c r="F15" s="54">
         <v>34.362000000000002</v>
       </c>
-      <c r="G15" s="61">
+      <c r="G15" s="54">
         <v>37.843000000000004</v>
       </c>
-      <c r="H15" s="61">
+      <c r="H15" s="54">
         <v>35.731000000000002</v>
       </c>
-      <c r="I15" s="61">
+      <c r="I15" s="54">
         <v>56.81280000000001</v>
       </c>
-      <c r="J15" s="61">
+      <c r="J15" s="54">
         <v>40.051000000000002</v>
       </c>
-      <c r="K15" s="61">
+      <c r="K15" s="54">
         <v>50.094999999999999</v>
       </c>
-      <c r="L15" s="61">
+      <c r="L15" s="54">
         <v>69.704999999999998</v>
       </c>
-      <c r="M15" s="61">
+      <c r="M15" s="54">
         <v>76.09</v>
       </c>
-      <c r="N15" s="61">
+      <c r="N15" s="54">
         <v>79.25</v>
       </c>
-      <c r="O15" s="61">
+      <c r="O15" s="54">
         <v>79.834999999999994</v>
       </c>
-      <c r="P15" s="61">
+      <c r="P15" s="54">
         <v>76.680000000000007</v>
       </c>
-      <c r="Q15" s="61">
+      <c r="Q15" s="54">
         <v>75.89</v>
       </c>
-      <c r="R15" s="61">
+      <c r="R15" s="54">
         <v>74.709999999999994</v>
       </c>
-      <c r="S15" s="61">
+      <c r="S15" s="54">
         <v>72.704999999999998</v>
       </c>
-      <c r="T15" s="61">
+      <c r="T15" s="54">
         <v>95.180499999999995</v>
       </c>
-      <c r="U15" s="61">
+      <c r="U15" s="54">
         <v>95.152000000000001</v>
       </c>
-      <c r="V15" s="61">
+      <c r="V15" s="54">
         <v>92.885999999999996</v>
       </c>
-      <c r="W15" s="61">
+      <c r="W15" s="54">
         <v>95.835999999999999</v>
       </c>
-      <c r="X15" s="61">
+      <c r="X15" s="54">
         <v>36.985999999999997</v>
       </c>
-      <c r="Y15" s="61">
+      <c r="Y15" s="54">
         <v>36.991999999999997</v>
       </c>
-      <c r="Z15" s="61">
+      <c r="Z15" s="54">
         <v>34.981999999999999</v>
       </c>
     </row>
@@ -2020,76 +2026,76 @@
       <c r="B16" s="7">
         <v>14</v>
       </c>
-      <c r="C16" s="61">
+      <c r="C16" s="54">
         <v>45</v>
       </c>
-      <c r="D16" s="61">
+      <c r="D16" s="54">
         <v>45</v>
       </c>
-      <c r="E16" s="61">
+      <c r="E16" s="54">
         <v>52</v>
       </c>
-      <c r="F16" s="61">
+      <c r="F16" s="54">
         <v>47</v>
       </c>
-      <c r="G16" s="61">
+      <c r="G16" s="54">
         <v>46</v>
       </c>
-      <c r="H16" s="61">
+      <c r="H16" s="54">
         <v>48</v>
       </c>
-      <c r="I16" s="61">
+      <c r="I16" s="54">
         <v>75.2</v>
       </c>
-      <c r="J16" s="61">
+      <c r="J16" s="54">
         <v>62</v>
       </c>
-      <c r="K16" s="61">
+      <c r="K16" s="54">
         <v>60</v>
       </c>
-      <c r="L16" s="61">
+      <c r="L16" s="54">
         <v>62</v>
       </c>
-      <c r="M16" s="61">
+      <c r="M16" s="54">
         <v>68</v>
       </c>
-      <c r="N16" s="61">
+      <c r="N16" s="54">
         <v>62</v>
       </c>
-      <c r="O16" s="61">
+      <c r="O16" s="54">
         <v>76</v>
       </c>
-      <c r="P16" s="61">
+      <c r="P16" s="54">
         <v>82</v>
       </c>
-      <c r="Q16" s="61">
+      <c r="Q16" s="54">
         <v>82</v>
       </c>
-      <c r="R16" s="61">
+      <c r="R16" s="54">
         <v>66</v>
       </c>
-      <c r="S16" s="61">
+      <c r="S16" s="54">
         <v>75</v>
       </c>
-      <c r="T16" s="61">
+      <c r="T16" s="54">
         <v>102</v>
       </c>
-      <c r="U16" s="61">
+      <c r="U16" s="54">
         <v>100</v>
       </c>
-      <c r="V16" s="61">
+      <c r="V16" s="54">
         <v>97</v>
       </c>
-      <c r="W16" s="61">
+      <c r="W16" s="54">
         <v>98</v>
       </c>
-      <c r="X16" s="61">
+      <c r="X16" s="54">
         <v>48</v>
       </c>
-      <c r="Y16" s="61">
+      <c r="Y16" s="54">
         <v>48</v>
       </c>
-      <c r="Z16" s="61">
+      <c r="Z16" s="54">
         <v>50</v>
       </c>
     </row>
@@ -2097,76 +2103,76 @@
       <c r="B17" s="6">
         <v>15</v>
       </c>
-      <c r="C17" s="61">
+      <c r="C17" s="54">
         <v>12.898999999999999</v>
       </c>
-      <c r="D17" s="61">
+      <c r="D17" s="54">
         <v>13.391</v>
       </c>
-      <c r="E17" s="61">
+      <c r="E17" s="54">
         <v>13.13</v>
       </c>
-      <c r="F17" s="61">
+      <c r="F17" s="54">
         <v>13.082000000000001</v>
       </c>
-      <c r="G17" s="61">
+      <c r="G17" s="54">
         <v>13.225</v>
       </c>
-      <c r="H17" s="61">
+      <c r="H17" s="54">
         <v>12.996</v>
       </c>
-      <c r="I17" s="61">
+      <c r="I17" s="54">
         <v>21.547200000000004</v>
       </c>
-      <c r="J17" s="61">
+      <c r="J17" s="54">
         <v>20.986000000000001</v>
       </c>
-      <c r="K17" s="61">
+      <c r="K17" s="54">
         <v>26.523</v>
       </c>
-      <c r="L17" s="61">
+      <c r="L17" s="54">
         <v>35.148000000000003</v>
       </c>
-      <c r="M17" s="61">
+      <c r="M17" s="54">
         <v>48.595999999999997</v>
       </c>
-      <c r="N17" s="61">
+      <c r="N17" s="54">
         <v>55.664999999999999</v>
       </c>
-      <c r="O17" s="61">
+      <c r="O17" s="54">
         <v>57.247</v>
       </c>
-      <c r="P17" s="61">
+      <c r="P17" s="54">
         <v>50.24</v>
       </c>
-      <c r="Q17" s="61">
+      <c r="Q17" s="54">
         <v>50.064</v>
       </c>
-      <c r="R17" s="61">
+      <c r="R17" s="54">
         <v>50.204999999999998</v>
       </c>
-      <c r="S17" s="61">
+      <c r="S17" s="54">
         <v>45.692999999999998</v>
       </c>
-      <c r="T17" s="61">
+      <c r="T17" s="54">
         <v>63.655199999999994</v>
       </c>
-      <c r="U17" s="61">
+      <c r="U17" s="54">
         <v>67.051000000000002</v>
       </c>
-      <c r="V17" s="61">
+      <c r="V17" s="54">
         <v>66.697999999999993</v>
       </c>
-      <c r="W17" s="61">
+      <c r="W17" s="54">
         <v>63.057000000000002</v>
       </c>
-      <c r="X17" s="61">
+      <c r="X17" s="54">
         <v>11.282999999999999</v>
       </c>
-      <c r="Y17" s="61">
+      <c r="Y17" s="54">
         <v>9.8279999999999994</v>
       </c>
-      <c r="Z17" s="61">
+      <c r="Z17" s="54">
         <v>9.2119999999999997</v>
       </c>
     </row>
@@ -2174,76 +2180,76 @@
       <c r="B18" s="7">
         <v>16</v>
       </c>
-      <c r="C18" s="61">
+      <c r="C18" s="54">
         <v>98</v>
       </c>
-      <c r="D18" s="61">
+      <c r="D18" s="54">
         <v>92</v>
       </c>
-      <c r="E18" s="61">
+      <c r="E18" s="54">
         <v>90</v>
       </c>
-      <c r="F18" s="61">
+      <c r="F18" s="54">
         <v>91</v>
       </c>
-      <c r="G18" s="61">
+      <c r="G18" s="54">
         <v>90</v>
       </c>
-      <c r="H18" s="61">
+      <c r="H18" s="54">
         <v>97</v>
       </c>
-      <c r="I18" s="61">
+      <c r="I18" s="54">
         <v>254.4</v>
       </c>
-      <c r="J18" s="61">
+      <c r="J18" s="54">
         <v>206</v>
       </c>
-      <c r="K18" s="61">
+      <c r="K18" s="54">
         <v>240</v>
       </c>
-      <c r="L18" s="61">
+      <c r="L18" s="54">
         <v>291</v>
       </c>
-      <c r="M18" s="61">
+      <c r="M18" s="54">
         <v>318</v>
       </c>
-      <c r="N18" s="61">
+      <c r="N18" s="54">
         <v>323</v>
       </c>
-      <c r="O18" s="61">
+      <c r="O18" s="54">
         <v>322</v>
       </c>
-      <c r="P18" s="61">
+      <c r="P18" s="54">
         <v>308</v>
       </c>
-      <c r="Q18" s="61">
+      <c r="Q18" s="54">
         <v>303</v>
       </c>
-      <c r="R18" s="61">
+      <c r="R18" s="54">
         <v>299</v>
       </c>
-      <c r="S18" s="61">
+      <c r="S18" s="54">
         <v>289</v>
       </c>
-      <c r="T18" s="61">
+      <c r="T18" s="54">
         <v>408</v>
       </c>
-      <c r="U18" s="61">
+      <c r="U18" s="54">
         <v>436</v>
       </c>
-      <c r="V18" s="61">
+      <c r="V18" s="54">
         <v>429</v>
       </c>
-      <c r="W18" s="61">
+      <c r="W18" s="54">
         <v>395</v>
       </c>
-      <c r="X18" s="61">
+      <c r="X18" s="54">
         <v>191</v>
       </c>
-      <c r="Y18" s="61">
+      <c r="Y18" s="54">
         <v>186</v>
       </c>
-      <c r="Z18" s="61">
+      <c r="Z18" s="54">
         <v>179</v>
       </c>
     </row>
@@ -2251,76 +2257,76 @@
       <c r="B19" s="6">
         <v>17</v>
       </c>
-      <c r="C19" s="61">
-        <v>0</v>
-      </c>
-      <c r="D19" s="61">
-        <v>0</v>
-      </c>
-      <c r="E19" s="61">
-        <v>0</v>
-      </c>
-      <c r="F19" s="61">
-        <v>0</v>
-      </c>
-      <c r="G19" s="61">
-        <v>0</v>
-      </c>
-      <c r="H19" s="61">
-        <v>0</v>
-      </c>
-      <c r="I19" s="61">
-        <v>0</v>
-      </c>
-      <c r="J19" s="61">
-        <v>0</v>
-      </c>
-      <c r="K19" s="61">
-        <v>0</v>
-      </c>
-      <c r="L19" s="61">
-        <v>0</v>
-      </c>
-      <c r="M19" s="61">
-        <v>0</v>
-      </c>
-      <c r="N19" s="61">
-        <v>0</v>
-      </c>
-      <c r="O19" s="61">
-        <v>0</v>
-      </c>
-      <c r="P19" s="61">
-        <v>0</v>
-      </c>
-      <c r="Q19" s="61">
-        <v>0</v>
-      </c>
-      <c r="R19" s="61">
-        <v>0</v>
-      </c>
-      <c r="S19" s="61">
-        <v>0</v>
-      </c>
-      <c r="T19" s="61">
-        <v>0</v>
-      </c>
-      <c r="U19" s="61">
-        <v>0</v>
-      </c>
-      <c r="V19" s="61">
-        <v>0</v>
-      </c>
-      <c r="W19" s="61">
-        <v>0</v>
-      </c>
-      <c r="X19" s="61">
-        <v>0</v>
-      </c>
-      <c r="Y19" s="61">
-        <v>0</v>
-      </c>
-      <c r="Z19" s="61">
+      <c r="C19" s="54">
+        <v>0</v>
+      </c>
+      <c r="D19" s="54">
+        <v>0</v>
+      </c>
+      <c r="E19" s="54">
+        <v>0</v>
+      </c>
+      <c r="F19" s="54">
+        <v>0</v>
+      </c>
+      <c r="G19" s="54">
+        <v>0</v>
+      </c>
+      <c r="H19" s="54">
+        <v>0</v>
+      </c>
+      <c r="I19" s="54">
+        <v>0</v>
+      </c>
+      <c r="J19" s="54">
+        <v>0</v>
+      </c>
+      <c r="K19" s="54">
+        <v>0</v>
+      </c>
+      <c r="L19" s="54">
+        <v>0</v>
+      </c>
+      <c r="M19" s="54">
+        <v>0</v>
+      </c>
+      <c r="N19" s="54">
+        <v>0</v>
+      </c>
+      <c r="O19" s="54">
+        <v>0</v>
+      </c>
+      <c r="P19" s="54">
+        <v>0</v>
+      </c>
+      <c r="Q19" s="54">
+        <v>0</v>
+      </c>
+      <c r="R19" s="54">
+        <v>0</v>
+      </c>
+      <c r="S19" s="54">
+        <v>0</v>
+      </c>
+      <c r="T19" s="54">
+        <v>0</v>
+      </c>
+      <c r="U19" s="54">
+        <v>0</v>
+      </c>
+      <c r="V19" s="54">
+        <v>0</v>
+      </c>
+      <c r="W19" s="54">
+        <v>0</v>
+      </c>
+      <c r="X19" s="54">
+        <v>0</v>
+      </c>
+      <c r="Y19" s="54">
+        <v>0</v>
+      </c>
+      <c r="Z19" s="54">
         <v>0</v>
       </c>
     </row>
@@ -2328,76 +2334,76 @@
       <c r="B20" s="7">
         <v>18</v>
       </c>
-      <c r="C20" s="61">
+      <c r="C20" s="54">
         <v>16.492999999999999</v>
       </c>
-      <c r="D20" s="61">
+      <c r="D20" s="54">
         <v>17.914000000000001</v>
       </c>
-      <c r="E20" s="61">
+      <c r="E20" s="54">
         <v>16.55</v>
       </c>
-      <c r="F20" s="61">
+      <c r="F20" s="54">
         <v>16.23</v>
       </c>
-      <c r="G20" s="61">
+      <c r="G20" s="54">
         <v>17.062000000000001</v>
       </c>
-      <c r="H20" s="61">
+      <c r="H20" s="54">
         <v>16.306999999999999</v>
       </c>
-      <c r="I20" s="61">
+      <c r="I20" s="54">
         <v>28.406400000000005</v>
       </c>
-      <c r="J20" s="61">
+      <c r="J20" s="54">
         <v>20.742000000000001</v>
       </c>
-      <c r="K20" s="61">
+      <c r="K20" s="54">
         <v>22.885999999999999</v>
       </c>
-      <c r="L20" s="61">
+      <c r="L20" s="54">
         <v>28.082999999999998</v>
       </c>
-      <c r="M20" s="61">
+      <c r="M20" s="54">
         <v>31.545999999999999</v>
       </c>
-      <c r="N20" s="61">
+      <c r="N20" s="54">
         <v>30.617999999999999</v>
       </c>
-      <c r="O20" s="61">
+      <c r="O20" s="54">
         <v>31.891999999999999</v>
       </c>
-      <c r="P20" s="61">
+      <c r="P20" s="54">
         <v>28.826000000000001</v>
       </c>
-      <c r="Q20" s="61">
+      <c r="Q20" s="54">
         <v>29.478000000000002</v>
       </c>
-      <c r="R20" s="61">
+      <c r="R20" s="54">
         <v>29.216000000000001</v>
       </c>
-      <c r="S20" s="61">
+      <c r="S20" s="54">
         <v>31.667000000000002</v>
       </c>
-      <c r="T20" s="61">
+      <c r="T20" s="54">
         <v>43.483399999999996</v>
       </c>
-      <c r="U20" s="61">
+      <c r="U20" s="54">
         <v>43.04</v>
       </c>
-      <c r="V20" s="61">
+      <c r="V20" s="54">
         <v>41.555</v>
       </c>
-      <c r="W20" s="61">
+      <c r="W20" s="54">
         <v>40.07</v>
       </c>
-      <c r="X20" s="61">
+      <c r="X20" s="54">
         <v>20.652999999999999</v>
       </c>
-      <c r="Y20" s="61">
+      <c r="Y20" s="54">
         <v>18.931000000000001</v>
       </c>
-      <c r="Z20" s="61">
+      <c r="Z20" s="54">
         <v>18.292000000000002</v>
       </c>
     </row>
@@ -2405,76 +2411,76 @@
       <c r="B21" s="6">
         <v>19</v>
       </c>
-      <c r="C21" s="61">
+      <c r="C21" s="54">
         <v>34</v>
       </c>
-      <c r="D21" s="61">
+      <c r="D21" s="54">
         <v>34</v>
       </c>
-      <c r="E21" s="61">
+      <c r="E21" s="54">
         <v>34</v>
       </c>
-      <c r="F21" s="61">
+      <c r="F21" s="54">
         <v>35</v>
       </c>
-      <c r="G21" s="61">
+      <c r="G21" s="54">
         <v>34</v>
       </c>
-      <c r="H21" s="61">
+      <c r="H21" s="54">
         <v>34</v>
       </c>
-      <c r="I21" s="61">
+      <c r="I21" s="54">
         <v>57.6</v>
       </c>
-      <c r="J21" s="61">
+      <c r="J21" s="54">
         <v>44</v>
       </c>
-      <c r="K21" s="61">
+      <c r="K21" s="54">
         <v>74</v>
       </c>
-      <c r="L21" s="61">
+      <c r="L21" s="54">
         <v>60</v>
       </c>
-      <c r="M21" s="61">
+      <c r="M21" s="54">
         <v>66</v>
       </c>
-      <c r="N21" s="61">
+      <c r="N21" s="54">
         <v>65</v>
       </c>
-      <c r="O21" s="61">
+      <c r="O21" s="54">
         <v>69</v>
       </c>
-      <c r="P21" s="61">
+      <c r="P21" s="54">
         <v>70</v>
       </c>
-      <c r="Q21" s="61">
+      <c r="Q21" s="54">
         <v>76</v>
       </c>
-      <c r="R21" s="61">
+      <c r="R21" s="54">
         <v>80</v>
       </c>
-      <c r="S21" s="61">
+      <c r="S21" s="54">
         <v>93</v>
       </c>
-      <c r="T21" s="61">
+      <c r="T21" s="54">
         <v>100</v>
       </c>
-      <c r="U21" s="61">
+      <c r="U21" s="54">
         <v>108.8</v>
       </c>
-      <c r="V21" s="61">
+      <c r="V21" s="54">
         <v>103.4</v>
       </c>
-      <c r="W21" s="61">
+      <c r="W21" s="54">
         <v>97</v>
       </c>
-      <c r="X21" s="61">
+      <c r="X21" s="54">
         <v>41</v>
       </c>
-      <c r="Y21" s="61">
+      <c r="Y21" s="54">
         <v>38</v>
       </c>
-      <c r="Z21" s="61">
+      <c r="Z21" s="54">
         <v>40</v>
       </c>
     </row>
@@ -2482,76 +2488,76 @@
       <c r="B22" s="7">
         <v>20</v>
       </c>
-      <c r="C22" s="61">
+      <c r="C22" s="54">
         <v>31.617999999999999</v>
       </c>
-      <c r="D22" s="61">
+      <c r="D22" s="54">
         <v>30.722999999999999</v>
       </c>
-      <c r="E22" s="61">
+      <c r="E22" s="54">
         <v>30.815000000000001</v>
       </c>
-      <c r="F22" s="61">
+      <c r="F22" s="54">
         <v>30.852</v>
       </c>
-      <c r="G22" s="61">
+      <c r="G22" s="54">
         <v>31.236999999999998</v>
       </c>
-      <c r="H22" s="61">
+      <c r="H22" s="54">
         <v>32.924999999999997</v>
       </c>
-      <c r="I22" s="61">
+      <c r="I22" s="54">
         <v>56.476800000000004</v>
       </c>
-      <c r="J22" s="61">
+      <c r="J22" s="54">
         <v>41.997</v>
       </c>
-      <c r="K22" s="61">
+      <c r="K22" s="54">
         <v>42.552999999999997</v>
       </c>
-      <c r="L22" s="61">
+      <c r="L22" s="54">
         <v>52.878999999999998</v>
       </c>
-      <c r="M22" s="61">
+      <c r="M22" s="54">
         <v>60.825000000000003</v>
       </c>
-      <c r="N22" s="61">
+      <c r="N22" s="54">
         <v>60.029000000000003</v>
       </c>
-      <c r="O22" s="61">
+      <c r="O22" s="54">
         <v>58.927</v>
       </c>
-      <c r="P22" s="61">
+      <c r="P22" s="54">
         <v>56.993000000000002</v>
       </c>
-      <c r="Q22" s="61">
+      <c r="Q22" s="54">
         <v>56.582000000000001</v>
       </c>
-      <c r="R22" s="61">
+      <c r="R22" s="54">
         <v>49.71</v>
       </c>
-      <c r="S22" s="61">
+      <c r="S22" s="54">
         <v>46.195</v>
       </c>
-      <c r="T22" s="61">
+      <c r="T22" s="54">
         <v>71.063599999999994</v>
       </c>
-      <c r="U22" s="61">
+      <c r="U22" s="54">
         <v>76.432000000000002</v>
       </c>
-      <c r="V22" s="61">
+      <c r="V22" s="54">
         <v>64.299000000000007</v>
       </c>
-      <c r="W22" s="61">
+      <c r="W22" s="54">
         <v>57.567999999999998</v>
       </c>
-      <c r="X22" s="61">
+      <c r="X22" s="54">
         <v>36.878</v>
       </c>
-      <c r="Y22" s="61">
+      <c r="Y22" s="54">
         <v>34.994999999999997</v>
       </c>
-      <c r="Z22" s="61">
+      <c r="Z22" s="54">
         <v>33.369999999999997</v>
       </c>
     </row>
@@ -2559,76 +2565,76 @@
       <c r="B23" s="6">
         <v>21</v>
       </c>
-      <c r="C23" s="61">
-        <v>0</v>
-      </c>
-      <c r="D23" s="61">
-        <v>0</v>
-      </c>
-      <c r="E23" s="61">
-        <v>0</v>
-      </c>
-      <c r="F23" s="61">
-        <v>0</v>
-      </c>
-      <c r="G23" s="61">
-        <v>0</v>
-      </c>
-      <c r="H23" s="61">
-        <v>0</v>
-      </c>
-      <c r="I23" s="61">
-        <v>0</v>
-      </c>
-      <c r="J23" s="61">
-        <v>0</v>
-      </c>
-      <c r="K23" s="61">
-        <v>0</v>
-      </c>
-      <c r="L23" s="61">
-        <v>0</v>
-      </c>
-      <c r="M23" s="61">
-        <v>0</v>
-      </c>
-      <c r="N23" s="61">
-        <v>0</v>
-      </c>
-      <c r="O23" s="61">
-        <v>0</v>
-      </c>
-      <c r="P23" s="61">
-        <v>0</v>
-      </c>
-      <c r="Q23" s="61">
-        <v>0</v>
-      </c>
-      <c r="R23" s="61">
-        <v>0</v>
-      </c>
-      <c r="S23" s="61">
-        <v>0</v>
-      </c>
-      <c r="T23" s="61">
-        <v>0</v>
-      </c>
-      <c r="U23" s="61">
-        <v>0</v>
-      </c>
-      <c r="V23" s="61">
-        <v>0</v>
-      </c>
-      <c r="W23" s="61">
-        <v>0</v>
-      </c>
-      <c r="X23" s="61">
-        <v>0</v>
-      </c>
-      <c r="Y23" s="61">
-        <v>0</v>
-      </c>
-      <c r="Z23" s="61">
+      <c r="C23" s="54">
+        <v>0</v>
+      </c>
+      <c r="D23" s="54">
+        <v>0</v>
+      </c>
+      <c r="E23" s="54">
+        <v>0</v>
+      </c>
+      <c r="F23" s="54">
+        <v>0</v>
+      </c>
+      <c r="G23" s="54">
+        <v>0</v>
+      </c>
+      <c r="H23" s="54">
+        <v>0</v>
+      </c>
+      <c r="I23" s="54">
+        <v>0</v>
+      </c>
+      <c r="J23" s="54">
+        <v>0</v>
+      </c>
+      <c r="K23" s="54">
+        <v>0</v>
+      </c>
+      <c r="L23" s="54">
+        <v>0</v>
+      </c>
+      <c r="M23" s="54">
+        <v>0</v>
+      </c>
+      <c r="N23" s="54">
+        <v>0</v>
+      </c>
+      <c r="O23" s="54">
+        <v>0</v>
+      </c>
+      <c r="P23" s="54">
+        <v>0</v>
+      </c>
+      <c r="Q23" s="54">
+        <v>0</v>
+      </c>
+      <c r="R23" s="54">
+        <v>0</v>
+      </c>
+      <c r="S23" s="54">
+        <v>0</v>
+      </c>
+      <c r="T23" s="54">
+        <v>0</v>
+      </c>
+      <c r="U23" s="54">
+        <v>0</v>
+      </c>
+      <c r="V23" s="54">
+        <v>0</v>
+      </c>
+      <c r="W23" s="54">
+        <v>0</v>
+      </c>
+      <c r="X23" s="54">
+        <v>0</v>
+      </c>
+      <c r="Y23" s="54">
+        <v>0</v>
+      </c>
+      <c r="Z23" s="54">
         <v>0</v>
       </c>
     </row>
@@ -2636,76 +2642,76 @@
       <c r="B24" s="7">
         <v>22</v>
       </c>
-      <c r="C24" s="61">
-        <v>0</v>
-      </c>
-      <c r="D24" s="61">
-        <v>0</v>
-      </c>
-      <c r="E24" s="61">
-        <v>0</v>
-      </c>
-      <c r="F24" s="61">
-        <v>0</v>
-      </c>
-      <c r="G24" s="61">
-        <v>0</v>
-      </c>
-      <c r="H24" s="61">
-        <v>0</v>
-      </c>
-      <c r="I24" s="61">
-        <v>0</v>
-      </c>
-      <c r="J24" s="61">
-        <v>0</v>
-      </c>
-      <c r="K24" s="61">
-        <v>0</v>
-      </c>
-      <c r="L24" s="61">
-        <v>0</v>
-      </c>
-      <c r="M24" s="61">
-        <v>0</v>
-      </c>
-      <c r="N24" s="61">
-        <v>0</v>
-      </c>
-      <c r="O24" s="61">
-        <v>0</v>
-      </c>
-      <c r="P24" s="61">
-        <v>0</v>
-      </c>
-      <c r="Q24" s="61">
-        <v>0</v>
-      </c>
-      <c r="R24" s="61">
-        <v>0</v>
-      </c>
-      <c r="S24" s="61">
-        <v>0</v>
-      </c>
-      <c r="T24" s="61">
-        <v>0</v>
-      </c>
-      <c r="U24" s="61">
-        <v>0</v>
-      </c>
-      <c r="V24" s="61">
-        <v>0</v>
-      </c>
-      <c r="W24" s="61">
-        <v>0</v>
-      </c>
-      <c r="X24" s="61">
-        <v>0</v>
-      </c>
-      <c r="Y24" s="61">
-        <v>0</v>
-      </c>
-      <c r="Z24" s="61">
+      <c r="C24" s="54">
+        <v>0</v>
+      </c>
+      <c r="D24" s="54">
+        <v>0</v>
+      </c>
+      <c r="E24" s="54">
+        <v>0</v>
+      </c>
+      <c r="F24" s="54">
+        <v>0</v>
+      </c>
+      <c r="G24" s="54">
+        <v>0</v>
+      </c>
+      <c r="H24" s="54">
+        <v>0</v>
+      </c>
+      <c r="I24" s="54">
+        <v>0</v>
+      </c>
+      <c r="J24" s="54">
+        <v>0</v>
+      </c>
+      <c r="K24" s="54">
+        <v>0</v>
+      </c>
+      <c r="L24" s="54">
+        <v>0</v>
+      </c>
+      <c r="M24" s="54">
+        <v>0</v>
+      </c>
+      <c r="N24" s="54">
+        <v>0</v>
+      </c>
+      <c r="O24" s="54">
+        <v>0</v>
+      </c>
+      <c r="P24" s="54">
+        <v>0</v>
+      </c>
+      <c r="Q24" s="54">
+        <v>0</v>
+      </c>
+      <c r="R24" s="54">
+        <v>0</v>
+      </c>
+      <c r="S24" s="54">
+        <v>0</v>
+      </c>
+      <c r="T24" s="54">
+        <v>0</v>
+      </c>
+      <c r="U24" s="54">
+        <v>0</v>
+      </c>
+      <c r="V24" s="54">
+        <v>0</v>
+      </c>
+      <c r="W24" s="54">
+        <v>0</v>
+      </c>
+      <c r="X24" s="54">
+        <v>0</v>
+      </c>
+      <c r="Y24" s="54">
+        <v>0</v>
+      </c>
+      <c r="Z24" s="54">
         <v>0</v>
       </c>
     </row>
@@ -2713,76 +2719,76 @@
       <c r="B25" s="6">
         <v>23</v>
       </c>
-      <c r="C25" s="61">
+      <c r="C25" s="54">
         <v>3.7759999999999998</v>
       </c>
-      <c r="D25" s="61">
+      <c r="D25" s="54">
         <v>3.7429999999999999</v>
       </c>
-      <c r="E25" s="61">
+      <c r="E25" s="54">
         <v>3.6789999999999998</v>
       </c>
-      <c r="F25" s="61">
+      <c r="F25" s="54">
         <v>3.7169999999999899</v>
       </c>
-      <c r="G25" s="61">
+      <c r="G25" s="54">
         <v>3.7530000000000001</v>
       </c>
-      <c r="H25" s="61">
+      <c r="H25" s="54">
         <v>3.7570000000000001</v>
       </c>
-      <c r="I25" s="61">
+      <c r="I25" s="54">
         <v>6.0128000000000004</v>
       </c>
-      <c r="J25" s="61">
+      <c r="J25" s="54">
         <v>4.6999999999999904</v>
       </c>
-      <c r="K25" s="61">
+      <c r="K25" s="54">
         <v>1.702</v>
       </c>
-      <c r="L25" s="61">
+      <c r="L25" s="54">
         <v>1.0860000000000001</v>
       </c>
-      <c r="M25" s="61">
+      <c r="M25" s="54">
         <v>1.0349999999999999</v>
       </c>
-      <c r="N25" s="61">
+      <c r="N25" s="54">
         <v>1.0249999999999999</v>
       </c>
-      <c r="O25" s="61">
+      <c r="O25" s="54">
         <v>1.22</v>
       </c>
-      <c r="P25" s="61">
+      <c r="P25" s="54">
         <v>1.018</v>
       </c>
-      <c r="Q25" s="61">
+      <c r="Q25" s="54">
         <v>0.8</v>
       </c>
-      <c r="R25" s="61">
+      <c r="R25" s="54">
         <v>0.41699999999999998</v>
       </c>
-      <c r="S25" s="61">
+      <c r="S25" s="54">
         <v>1.6479999999999999</v>
       </c>
-      <c r="T25" s="61">
+      <c r="T25" s="54">
         <v>3.0636000000000001</v>
       </c>
-      <c r="U25" s="61">
+      <c r="U25" s="54">
         <v>3.9169999999999998</v>
       </c>
-      <c r="V25" s="61">
+      <c r="V25" s="54">
         <v>3.9679999999999902</v>
       </c>
-      <c r="W25" s="61">
+      <c r="W25" s="54">
         <v>3.9289999999999998</v>
       </c>
-      <c r="X25" s="61">
+      <c r="X25" s="54">
         <v>3.98599999999999</v>
       </c>
-      <c r="Y25" s="61">
+      <c r="Y25" s="54">
         <v>3.9159999999999999</v>
       </c>
-      <c r="Z25" s="61">
+      <c r="Z25" s="54">
         <v>3.944</v>
       </c>
     </row>
@@ -2790,76 +2796,76 @@
       <c r="B26" s="7">
         <v>24</v>
       </c>
-      <c r="C26" s="61">
+      <c r="C26" s="54">
         <v>16.748999999999999</v>
       </c>
-      <c r="D26" s="61">
+      <c r="D26" s="54">
         <v>16.358000000000001</v>
       </c>
-      <c r="E26" s="61">
+      <c r="E26" s="54">
         <v>17.152000000000001</v>
       </c>
-      <c r="F26" s="61">
+      <c r="F26" s="54">
         <v>16.262</v>
       </c>
-      <c r="G26" s="61">
+      <c r="G26" s="54">
         <v>16.262</v>
       </c>
-      <c r="H26" s="61">
+      <c r="H26" s="54">
         <v>15.162000000000001</v>
       </c>
-      <c r="I26" s="61">
+      <c r="I26" s="54">
         <v>26.819200000000002</v>
       </c>
-      <c r="J26" s="61">
+      <c r="J26" s="54">
         <v>22.725999999999999</v>
       </c>
-      <c r="K26" s="61">
+      <c r="K26" s="54">
         <v>31.956</v>
       </c>
-      <c r="L26" s="61">
+      <c r="L26" s="54">
         <v>34.283999999999999</v>
       </c>
-      <c r="M26" s="61">
+      <c r="M26" s="54">
         <v>39.628</v>
       </c>
-      <c r="N26" s="61">
+      <c r="N26" s="54">
         <v>39.994</v>
       </c>
-      <c r="O26" s="61">
+      <c r="O26" s="54">
         <v>37.19</v>
       </c>
-      <c r="P26" s="61">
+      <c r="P26" s="54">
         <v>35.718000000000004</v>
       </c>
-      <c r="Q26" s="61">
+      <c r="Q26" s="54">
         <v>44.25</v>
       </c>
-      <c r="R26" s="61">
+      <c r="R26" s="54">
         <v>45.012</v>
       </c>
-      <c r="S26" s="61">
+      <c r="S26" s="54">
         <v>37.542000000000002</v>
       </c>
-      <c r="T26" s="61">
+      <c r="T26" s="54">
         <v>60.716399999999993</v>
       </c>
-      <c r="U26" s="61">
+      <c r="U26" s="54">
         <v>65.522999999999996</v>
       </c>
-      <c r="V26" s="61">
+      <c r="V26" s="54">
         <v>65.203000000000003</v>
       </c>
-      <c r="W26" s="61">
+      <c r="W26" s="54">
         <v>64.364999999999995</v>
       </c>
-      <c r="X26" s="61">
+      <c r="X26" s="54">
         <v>24.992000000000001</v>
       </c>
-      <c r="Y26" s="61">
+      <c r="Y26" s="54">
         <v>23.622</v>
       </c>
-      <c r="Z26" s="61">
+      <c r="Z26" s="54">
         <v>22.783999999999999</v>
       </c>
     </row>
@@ -2867,76 +2873,76 @@
       <c r="B27" s="6">
         <v>25</v>
       </c>
-      <c r="C27" s="61">
+      <c r="C27" s="54">
         <v>6.38</v>
       </c>
-      <c r="D27" s="61">
+      <c r="D27" s="54">
         <v>6.5220000000000002</v>
       </c>
-      <c r="E27" s="61">
+      <c r="E27" s="54">
         <v>6.9660000000000002</v>
       </c>
-      <c r="F27" s="61">
+      <c r="F27" s="54">
         <v>6.383</v>
       </c>
-      <c r="G27" s="61">
+      <c r="G27" s="54">
         <v>6.819</v>
       </c>
-      <c r="H27" s="61">
+      <c r="H27" s="54">
         <v>7.3259999999999996</v>
       </c>
-      <c r="I27" s="61">
+      <c r="I27" s="54">
         <v>10.473600000000001</v>
       </c>
-      <c r="J27" s="61">
+      <c r="J27" s="54">
         <v>6.5190000000000001</v>
       </c>
-      <c r="K27" s="61">
+      <c r="K27" s="54">
         <v>9.3490000000000002</v>
       </c>
-      <c r="L27" s="61">
+      <c r="L27" s="54">
         <v>14.715999999999999</v>
       </c>
-      <c r="M27" s="61">
+      <c r="M27" s="54">
         <v>21.486999999999998</v>
       </c>
-      <c r="N27" s="61">
+      <c r="N27" s="54">
         <v>27.184000000000001</v>
       </c>
-      <c r="O27" s="61">
+      <c r="O27" s="54">
         <v>27.388999999999999</v>
       </c>
-      <c r="P27" s="61">
+      <c r="P27" s="54">
         <v>25.375</v>
       </c>
-      <c r="Q27" s="61">
+      <c r="Q27" s="54">
         <v>27.244</v>
       </c>
-      <c r="R27" s="61">
+      <c r="R27" s="54">
         <v>28.068999999999999</v>
       </c>
-      <c r="S27" s="61">
+      <c r="S27" s="54">
         <v>25.295999999999999</v>
       </c>
-      <c r="T27" s="61">
+      <c r="T27" s="54">
         <v>39.265800000000006</v>
       </c>
-      <c r="U27" s="61">
+      <c r="U27" s="54">
         <v>46.593000000000004</v>
       </c>
-      <c r="V27" s="61">
+      <c r="V27" s="54">
         <v>38.203000000000003</v>
       </c>
-      <c r="W27" s="61">
+      <c r="W27" s="54">
         <v>35.380000000000003</v>
       </c>
-      <c r="X27" s="61">
+      <c r="X27" s="54">
         <v>5.306</v>
       </c>
-      <c r="Y27" s="61">
+      <c r="Y27" s="54">
         <v>5.1420000000000003</v>
       </c>
-      <c r="Z27" s="61">
+      <c r="Z27" s="54">
         <v>5.2510000000000003</v>
       </c>
     </row>
@@ -2944,76 +2950,76 @@
       <c r="B28" s="7">
         <v>26</v>
       </c>
-      <c r="C28" s="61">
+      <c r="C28" s="54">
         <v>77.081639600000003</v>
       </c>
-      <c r="D28" s="61">
+      <c r="D28" s="54">
         <v>76.205639599999998</v>
       </c>
-      <c r="E28" s="61">
+      <c r="E28" s="54">
         <v>77.573806099999999</v>
       </c>
-      <c r="F28" s="61">
+      <c r="F28" s="54">
         <v>75.894639600000005</v>
       </c>
-      <c r="G28" s="61">
+      <c r="G28" s="54">
         <v>76.521139499999904</v>
       </c>
-      <c r="H28" s="61">
+      <c r="H28" s="54">
         <v>78.041639599999996</v>
       </c>
-      <c r="I28" s="61">
+      <c r="I28" s="54">
         <v>138.90155632000003</v>
       </c>
-      <c r="J28" s="61">
+      <c r="J28" s="54">
         <v>107.0398029</v>
       </c>
-      <c r="K28" s="61">
+      <c r="K28" s="54">
         <v>141.36430200000001</v>
       </c>
-      <c r="L28" s="61">
+      <c r="L28" s="54">
         <v>174.7566344</v>
       </c>
-      <c r="M28" s="61">
+      <c r="M28" s="54">
         <v>176.8601353</v>
       </c>
-      <c r="N28" s="61">
+      <c r="N28" s="54">
         <v>176.50713210000001</v>
       </c>
-      <c r="O28" s="61">
+      <c r="O28" s="54">
         <v>176.68196620000001</v>
       </c>
-      <c r="P28" s="61">
+      <c r="P28" s="54">
         <v>177.60013069999999</v>
       </c>
-      <c r="Q28" s="61">
+      <c r="Q28" s="54">
         <v>173.07829939999999</v>
       </c>
-      <c r="R28" s="61">
+      <c r="R28" s="54">
         <v>172.9864657</v>
       </c>
-      <c r="S28" s="61">
+      <c r="S28" s="54">
         <v>171.86096659999899</v>
       </c>
-      <c r="T28" s="61">
+      <c r="T28" s="54">
         <v>254.45574360000003</v>
       </c>
-      <c r="U28" s="61">
+      <c r="U28" s="54">
         <v>213.27413530000001</v>
       </c>
-      <c r="V28" s="61">
+      <c r="V28" s="54">
         <v>201.42347029999999</v>
       </c>
-      <c r="W28" s="61">
+      <c r="W28" s="54">
         <v>193.4893036</v>
       </c>
-      <c r="X28" s="61">
+      <c r="X28" s="54">
         <v>90.646970199999998</v>
       </c>
-      <c r="Y28" s="61">
+      <c r="Y28" s="54">
         <v>86.497136900000001</v>
       </c>
-      <c r="Z28" s="61">
+      <c r="Z28" s="54">
         <v>84.372804500000001</v>
       </c>
     </row>
@@ -3021,76 +3027,76 @@
       <c r="B29" s="6">
         <v>27</v>
       </c>
-      <c r="C29" s="61">
+      <c r="C29" s="54">
         <v>20.623999999999999</v>
       </c>
-      <c r="D29" s="61">
+      <c r="D29" s="54">
         <v>20.085999999999999</v>
       </c>
-      <c r="E29" s="61">
+      <c r="E29" s="54">
         <v>19.088000000000001</v>
       </c>
-      <c r="F29" s="61">
+      <c r="F29" s="54">
         <v>19.175000000000001</v>
       </c>
-      <c r="G29" s="61">
+      <c r="G29" s="54">
         <v>20.492000000000001</v>
       </c>
-      <c r="H29" s="61">
+      <c r="H29" s="54">
         <v>18.806000000000001</v>
       </c>
-      <c r="I29" s="61">
+      <c r="I29" s="54">
         <v>53.350400000000008</v>
       </c>
-      <c r="J29" s="61">
+      <c r="J29" s="54">
         <v>52.994999999999997</v>
       </c>
-      <c r="K29" s="61">
+      <c r="K29" s="54">
         <v>58.415999999999997</v>
       </c>
-      <c r="L29" s="61">
+      <c r="L29" s="54">
         <v>64.850999999999999</v>
       </c>
-      <c r="M29" s="61">
+      <c r="M29" s="54">
         <v>67.192999999999998</v>
       </c>
-      <c r="N29" s="61">
+      <c r="N29" s="54">
         <v>71.822999999999993</v>
       </c>
-      <c r="O29" s="61">
+      <c r="O29" s="54">
         <v>77.346000000000004</v>
       </c>
-      <c r="P29" s="61">
+      <c r="P29" s="54">
         <v>76.403000000000006</v>
       </c>
-      <c r="Q29" s="61">
+      <c r="Q29" s="54">
         <v>73.195999999999998</v>
       </c>
-      <c r="R29" s="61">
+      <c r="R29" s="54">
         <v>69.915000000000006</v>
       </c>
-      <c r="S29" s="61">
+      <c r="S29" s="54">
         <v>65.506</v>
       </c>
-      <c r="T29" s="61">
+      <c r="T29" s="54">
         <v>93.465599999999995</v>
       </c>
-      <c r="U29" s="61">
+      <c r="U29" s="54">
         <v>93.906999999999996</v>
       </c>
-      <c r="V29" s="61">
+      <c r="V29" s="54">
         <v>91.227999999999994</v>
       </c>
-      <c r="W29" s="61">
+      <c r="W29" s="54">
         <v>89.983999999999995</v>
       </c>
-      <c r="X29" s="61">
+      <c r="X29" s="54">
         <v>24.771000000000001</v>
       </c>
-      <c r="Y29" s="61">
+      <c r="Y29" s="54">
         <v>20.452000000000002</v>
       </c>
-      <c r="Z29" s="61">
+      <c r="Z29" s="54">
         <v>20.364999999999998</v>
       </c>
     </row>
@@ -3098,76 +3104,76 @@
       <c r="B30" s="7">
         <v>28</v>
       </c>
-      <c r="C30" s="61">
-        <v>0</v>
-      </c>
-      <c r="D30" s="61">
-        <v>0</v>
-      </c>
-      <c r="E30" s="61">
-        <v>0</v>
-      </c>
-      <c r="F30" s="61">
-        <v>0</v>
-      </c>
-      <c r="G30" s="61">
-        <v>0</v>
-      </c>
-      <c r="H30" s="61">
-        <v>0</v>
-      </c>
-      <c r="I30" s="61">
-        <v>0</v>
-      </c>
-      <c r="J30" s="61">
-        <v>0</v>
-      </c>
-      <c r="K30" s="61">
-        <v>0</v>
-      </c>
-      <c r="L30" s="61">
-        <v>0</v>
-      </c>
-      <c r="M30" s="61">
-        <v>0</v>
-      </c>
-      <c r="N30" s="61">
-        <v>0</v>
-      </c>
-      <c r="O30" s="61">
-        <v>0</v>
-      </c>
-      <c r="P30" s="61">
-        <v>0</v>
-      </c>
-      <c r="Q30" s="61">
-        <v>0</v>
-      </c>
-      <c r="R30" s="61">
-        <v>0</v>
-      </c>
-      <c r="S30" s="61">
-        <v>0</v>
-      </c>
-      <c r="T30" s="61">
-        <v>0</v>
-      </c>
-      <c r="U30" s="61">
-        <v>0</v>
-      </c>
-      <c r="V30" s="61">
-        <v>0</v>
-      </c>
-      <c r="W30" s="61">
-        <v>0</v>
-      </c>
-      <c r="X30" s="61">
-        <v>0</v>
-      </c>
-      <c r="Y30" s="61">
-        <v>0</v>
-      </c>
-      <c r="Z30" s="61">
+      <c r="C30" s="54">
+        <v>0</v>
+      </c>
+      <c r="D30" s="54">
+        <v>0</v>
+      </c>
+      <c r="E30" s="54">
+        <v>0</v>
+      </c>
+      <c r="F30" s="54">
+        <v>0</v>
+      </c>
+      <c r="G30" s="54">
+        <v>0</v>
+      </c>
+      <c r="H30" s="54">
+        <v>0</v>
+      </c>
+      <c r="I30" s="54">
+        <v>0</v>
+      </c>
+      <c r="J30" s="54">
+        <v>0</v>
+      </c>
+      <c r="K30" s="54">
+        <v>0</v>
+      </c>
+      <c r="L30" s="54">
+        <v>0</v>
+      </c>
+      <c r="M30" s="54">
+        <v>0</v>
+      </c>
+      <c r="N30" s="54">
+        <v>0</v>
+      </c>
+      <c r="O30" s="54">
+        <v>0</v>
+      </c>
+      <c r="P30" s="54">
+        <v>0</v>
+      </c>
+      <c r="Q30" s="54">
+        <v>0</v>
+      </c>
+      <c r="R30" s="54">
+        <v>0</v>
+      </c>
+      <c r="S30" s="54">
+        <v>0</v>
+      </c>
+      <c r="T30" s="54">
+        <v>0</v>
+      </c>
+      <c r="U30" s="54">
+        <v>0</v>
+      </c>
+      <c r="V30" s="54">
+        <v>0</v>
+      </c>
+      <c r="W30" s="54">
+        <v>0</v>
+      </c>
+      <c r="X30" s="54">
+        <v>0</v>
+      </c>
+      <c r="Y30" s="54">
+        <v>0</v>
+      </c>
+      <c r="Z30" s="54">
         <v>0</v>
       </c>
     </row>
@@ -3175,76 +3181,76 @@
       <c r="B31" s="6">
         <v>29</v>
       </c>
-      <c r="C31" s="61">
+      <c r="C31" s="54">
         <v>40.029000000000003</v>
       </c>
-      <c r="D31" s="61">
+      <c r="D31" s="54">
         <v>39.034999999999997</v>
       </c>
-      <c r="E31" s="61">
+      <c r="E31" s="54">
         <v>37.847999999999999</v>
       </c>
-      <c r="F31" s="61">
+      <c r="F31" s="54">
         <v>37.956000000000003</v>
       </c>
-      <c r="G31" s="61">
+      <c r="G31" s="54">
         <v>39.93</v>
       </c>
-      <c r="H31" s="61">
+      <c r="H31" s="54">
         <v>38.511000000000003</v>
       </c>
-      <c r="I31" s="61">
+      <c r="I31" s="54">
         <v>64.102400000000003</v>
       </c>
-      <c r="J31" s="61">
+      <c r="J31" s="54">
         <v>58.801000000000002</v>
       </c>
-      <c r="K31" s="61">
+      <c r="K31" s="54">
         <v>76.986000000000004</v>
       </c>
-      <c r="L31" s="61">
+      <c r="L31" s="54">
         <v>93.853999999999999</v>
       </c>
-      <c r="M31" s="61">
+      <c r="M31" s="54">
         <v>103.98</v>
       </c>
-      <c r="N31" s="61">
+      <c r="N31" s="54">
         <v>104.878</v>
       </c>
-      <c r="O31" s="61">
+      <c r="O31" s="54">
         <v>107.895</v>
       </c>
-      <c r="P31" s="61">
+      <c r="P31" s="54">
         <v>104.22</v>
       </c>
-      <c r="Q31" s="61">
+      <c r="Q31" s="54">
         <v>101.08</v>
       </c>
-      <c r="R31" s="61">
+      <c r="R31" s="54">
         <v>98.18</v>
       </c>
-      <c r="S31" s="61">
+      <c r="S31" s="54">
         <v>88.63</v>
       </c>
-      <c r="T31" s="61">
+      <c r="T31" s="54">
         <v>123.17760000000001</v>
       </c>
-      <c r="U31" s="61">
+      <c r="U31" s="54">
         <v>121.849</v>
       </c>
-      <c r="V31" s="61">
+      <c r="V31" s="54">
         <v>128.57</v>
       </c>
-      <c r="W31" s="61">
+      <c r="W31" s="54">
         <v>118.848</v>
       </c>
-      <c r="X31" s="61">
+      <c r="X31" s="54">
         <v>45.923999999999999</v>
       </c>
-      <c r="Y31" s="61">
+      <c r="Y31" s="54">
         <v>43.6</v>
       </c>
-      <c r="Z31" s="61">
+      <c r="Z31" s="54">
         <v>41.851999999999997</v>
       </c>
     </row>
@@ -3252,76 +3258,76 @@
       <c r="B32" s="7">
         <v>30</v>
       </c>
-      <c r="C32" s="61">
-        <v>0</v>
-      </c>
-      <c r="D32" s="61">
-        <v>0</v>
-      </c>
-      <c r="E32" s="61">
-        <v>0</v>
-      </c>
-      <c r="F32" s="61">
-        <v>0</v>
-      </c>
-      <c r="G32" s="61">
-        <v>0</v>
-      </c>
-      <c r="H32" s="61">
-        <v>0</v>
-      </c>
-      <c r="I32" s="61">
-        <v>0</v>
-      </c>
-      <c r="J32" s="61">
-        <v>0</v>
-      </c>
-      <c r="K32" s="61">
-        <v>0</v>
-      </c>
-      <c r="L32" s="61">
-        <v>0</v>
-      </c>
-      <c r="M32" s="61">
-        <v>0</v>
-      </c>
-      <c r="N32" s="61">
-        <v>0</v>
-      </c>
-      <c r="O32" s="61">
-        <v>0</v>
-      </c>
-      <c r="P32" s="61">
-        <v>0</v>
-      </c>
-      <c r="Q32" s="61">
-        <v>0</v>
-      </c>
-      <c r="R32" s="61">
-        <v>0</v>
-      </c>
-      <c r="S32" s="61">
-        <v>0</v>
-      </c>
-      <c r="T32" s="61">
-        <v>0</v>
-      </c>
-      <c r="U32" s="61">
-        <v>0</v>
-      </c>
-      <c r="V32" s="61">
-        <v>0</v>
-      </c>
-      <c r="W32" s="61">
-        <v>0</v>
-      </c>
-      <c r="X32" s="61">
-        <v>0</v>
-      </c>
-      <c r="Y32" s="61">
-        <v>0</v>
-      </c>
-      <c r="Z32" s="61">
+      <c r="C32" s="54">
+        <v>0</v>
+      </c>
+      <c r="D32" s="54">
+        <v>0</v>
+      </c>
+      <c r="E32" s="54">
+        <v>0</v>
+      </c>
+      <c r="F32" s="54">
+        <v>0</v>
+      </c>
+      <c r="G32" s="54">
+        <v>0</v>
+      </c>
+      <c r="H32" s="54">
+        <v>0</v>
+      </c>
+      <c r="I32" s="54">
+        <v>0</v>
+      </c>
+      <c r="J32" s="54">
+        <v>0</v>
+      </c>
+      <c r="K32" s="54">
+        <v>0</v>
+      </c>
+      <c r="L32" s="54">
+        <v>0</v>
+      </c>
+      <c r="M32" s="54">
+        <v>0</v>
+      </c>
+      <c r="N32" s="54">
+        <v>0</v>
+      </c>
+      <c r="O32" s="54">
+        <v>0</v>
+      </c>
+      <c r="P32" s="54">
+        <v>0</v>
+      </c>
+      <c r="Q32" s="54">
+        <v>0</v>
+      </c>
+      <c r="R32" s="54">
+        <v>0</v>
+      </c>
+      <c r="S32" s="54">
+        <v>0</v>
+      </c>
+      <c r="T32" s="54">
+        <v>0</v>
+      </c>
+      <c r="U32" s="54">
+        <v>0</v>
+      </c>
+      <c r="V32" s="54">
+        <v>0</v>
+      </c>
+      <c r="W32" s="54">
+        <v>0</v>
+      </c>
+      <c r="X32" s="54">
+        <v>0</v>
+      </c>
+      <c r="Y32" s="54">
+        <v>0</v>
+      </c>
+      <c r="Z32" s="54">
         <v>0</v>
       </c>
     </row>
@@ -3329,76 +3335,76 @@
       <c r="B33" s="6">
         <v>31</v>
       </c>
-      <c r="C33" s="61">
+      <c r="C33" s="54">
         <v>506.14800000000002</v>
       </c>
-      <c r="D33" s="61">
+      <c r="D33" s="54">
         <v>494.697</v>
       </c>
-      <c r="E33" s="61">
+      <c r="E33" s="54">
         <v>500.779</v>
       </c>
-      <c r="F33" s="61">
+      <c r="F33" s="54">
         <v>497.77699999999999</v>
       </c>
-      <c r="G33" s="61">
+      <c r="G33" s="54">
         <v>501.40800000000002</v>
       </c>
-      <c r="H33" s="61">
+      <c r="H33" s="54">
         <v>508.61700000000002</v>
       </c>
-      <c r="I33" s="61">
+      <c r="I33" s="54">
         <v>831.36640000000011</v>
       </c>
-      <c r="J33" s="61">
+      <c r="J33" s="54">
         <v>593.13</v>
       </c>
-      <c r="K33" s="61">
+      <c r="K33" s="54">
         <v>699.33799999999997</v>
       </c>
-      <c r="L33" s="61">
+      <c r="L33" s="54">
         <v>796.60400000000004</v>
       </c>
-      <c r="M33" s="61">
+      <c r="M33" s="54">
         <v>877.86599999999999</v>
       </c>
-      <c r="N33" s="61">
+      <c r="N33" s="54">
         <v>893.30700000000002</v>
       </c>
-      <c r="O33" s="61">
+      <c r="O33" s="54">
         <v>896.11</v>
       </c>
-      <c r="P33" s="61">
+      <c r="P33" s="54">
         <v>873.53300000000002</v>
       </c>
-      <c r="Q33" s="61">
+      <c r="Q33" s="54">
         <v>868.63400000000001</v>
       </c>
-      <c r="R33" s="61">
+      <c r="R33" s="54">
         <v>862.76599999999996</v>
       </c>
-      <c r="S33" s="61">
+      <c r="S33" s="54">
         <v>787.52700000000004</v>
       </c>
-      <c r="T33" s="61">
+      <c r="T33" s="54">
         <v>1678.4111999999998</v>
       </c>
-      <c r="U33" s="61">
+      <c r="U33" s="54">
         <v>1572.9659999999999</v>
       </c>
-      <c r="V33" s="61">
+      <c r="V33" s="54">
         <v>1539.982</v>
       </c>
-      <c r="W33" s="61">
+      <c r="W33" s="54">
         <v>1521.2629999999999</v>
       </c>
-      <c r="X33" s="61">
+      <c r="X33" s="54">
         <v>509.49599999999998</v>
       </c>
-      <c r="Y33" s="61">
+      <c r="Y33" s="54">
         <v>503.91399999999999</v>
       </c>
-      <c r="Z33" s="61">
+      <c r="Z33" s="54">
         <v>499.52600000000001</v>
       </c>
     </row>
@@ -3406,76 +3412,76 @@
       <c r="B34" s="7">
         <v>32</v>
       </c>
-      <c r="C34" s="61">
+      <c r="C34" s="54">
         <v>16.690999999999999</v>
       </c>
-      <c r="D34" s="61">
+      <c r="D34" s="54">
         <v>15.164999999999999</v>
       </c>
-      <c r="E34" s="61">
+      <c r="E34" s="54">
         <v>16.762</v>
       </c>
-      <c r="F34" s="61">
+      <c r="F34" s="54">
         <v>14.853999999999999</v>
       </c>
-      <c r="G34" s="61">
+      <c r="G34" s="54">
         <v>16.309999999999999</v>
       </c>
-      <c r="H34" s="61">
+      <c r="H34" s="54">
         <v>14.26</v>
       </c>
-      <c r="I34" s="61">
+      <c r="I34" s="54">
         <v>31.145600000000002</v>
       </c>
-      <c r="J34" s="61">
+      <c r="J34" s="54">
         <v>26.259</v>
       </c>
-      <c r="K34" s="61">
+      <c r="K34" s="54">
         <v>41.033999999999999</v>
       </c>
-      <c r="L34" s="61">
+      <c r="L34" s="54">
         <v>37.875999999999998</v>
       </c>
-      <c r="M34" s="61">
+      <c r="M34" s="54">
         <v>51.1</v>
       </c>
-      <c r="N34" s="61">
+      <c r="N34" s="54">
         <v>57.341999999999999</v>
       </c>
-      <c r="O34" s="61">
+      <c r="O34" s="54">
         <v>79.995000000000005</v>
       </c>
-      <c r="P34" s="61">
+      <c r="P34" s="54">
         <v>75.28</v>
       </c>
-      <c r="Q34" s="61">
+      <c r="Q34" s="54">
         <v>70.260000000000005</v>
       </c>
-      <c r="R34" s="61">
+      <c r="R34" s="54">
         <v>74.97</v>
       </c>
-      <c r="S34" s="61">
+      <c r="S34" s="54">
         <v>61.26</v>
       </c>
-      <c r="T34" s="61">
+      <c r="T34" s="54">
         <v>102.58499999999999</v>
       </c>
-      <c r="U34" s="61">
+      <c r="U34" s="54">
         <v>103.541</v>
       </c>
-      <c r="V34" s="61">
+      <c r="V34" s="54">
         <v>97.37</v>
       </c>
-      <c r="W34" s="61">
+      <c r="W34" s="54">
         <v>96.111999999999995</v>
       </c>
-      <c r="X34" s="61">
+      <c r="X34" s="54">
         <v>25.716000000000001</v>
       </c>
-      <c r="Y34" s="61">
+      <c r="Y34" s="54">
         <v>18.66</v>
       </c>
-      <c r="Z34" s="61">
+      <c r="Z34" s="54">
         <v>19.068000000000001</v>
       </c>
     </row>
@@ -3483,76 +3489,76 @@
       <c r="B35" s="6">
         <v>33</v>
       </c>
-      <c r="C35" s="61">
+      <c r="C35" s="54">
         <v>118</v>
       </c>
-      <c r="D35" s="61">
+      <c r="D35" s="54">
         <v>117</v>
       </c>
-      <c r="E35" s="61">
+      <c r="E35" s="54">
         <v>116</v>
       </c>
-      <c r="F35" s="61">
+      <c r="F35" s="54">
         <v>116</v>
       </c>
-      <c r="G35" s="61">
+      <c r="G35" s="54">
         <v>115</v>
       </c>
-      <c r="H35" s="61">
+      <c r="H35" s="54">
         <v>114</v>
       </c>
-      <c r="I35" s="61">
+      <c r="I35" s="54">
         <v>182.4</v>
       </c>
-      <c r="J35" s="61">
+      <c r="J35" s="54">
         <v>120</v>
       </c>
-      <c r="K35" s="61">
+      <c r="K35" s="54">
         <v>135</v>
       </c>
-      <c r="L35" s="61">
+      <c r="L35" s="54">
         <v>157</v>
       </c>
-      <c r="M35" s="61">
+      <c r="M35" s="54">
         <v>174</v>
       </c>
-      <c r="N35" s="61">
+      <c r="N35" s="54">
         <v>178</v>
       </c>
-      <c r="O35" s="61">
+      <c r="O35" s="54">
         <v>178</v>
       </c>
-      <c r="P35" s="61">
+      <c r="P35" s="54">
         <v>177</v>
       </c>
-      <c r="Q35" s="61">
+      <c r="Q35" s="54">
         <v>180</v>
       </c>
-      <c r="R35" s="61">
+      <c r="R35" s="54">
         <v>182</v>
       </c>
-      <c r="S35" s="61">
+      <c r="S35" s="54">
         <v>171</v>
       </c>
-      <c r="T35" s="61">
+      <c r="T35" s="54">
         <v>216</v>
       </c>
-      <c r="U35" s="61">
+      <c r="U35" s="54">
         <v>178</v>
       </c>
-      <c r="V35" s="61">
+      <c r="V35" s="54">
         <v>171</v>
       </c>
-      <c r="W35" s="61">
+      <c r="W35" s="54">
         <v>172</v>
       </c>
-      <c r="X35" s="61">
+      <c r="X35" s="54">
         <v>131</v>
       </c>
-      <c r="Y35" s="61">
+      <c r="Y35" s="54">
         <v>127</v>
       </c>
-      <c r="Z35" s="61">
+      <c r="Z35" s="54">
         <v>127</v>
       </c>
     </row>
@@ -3560,76 +3566,76 @@
       <c r="B36" s="7">
         <v>34</v>
       </c>
-      <c r="C36" s="61">
+      <c r="C36" s="54">
         <v>99.894999999999996</v>
       </c>
-      <c r="D36" s="61">
+      <c r="D36" s="54">
         <v>80.106999999999999</v>
       </c>
-      <c r="E36" s="61">
+      <c r="E36" s="54">
         <v>67.613</v>
       </c>
-      <c r="F36" s="61">
+      <c r="F36" s="54">
         <v>45.598999999999997</v>
       </c>
-      <c r="G36" s="61">
+      <c r="G36" s="54">
         <v>41.491</v>
       </c>
-      <c r="H36" s="61">
+      <c r="H36" s="54">
         <v>42.502000000000002</v>
       </c>
-      <c r="I36" s="61">
+      <c r="I36" s="54">
         <v>82.678400000000011</v>
       </c>
-      <c r="J36" s="61">
+      <c r="J36" s="54">
         <v>55.398000000000003</v>
       </c>
-      <c r="K36" s="61">
+      <c r="K36" s="54">
         <v>84.432000000000002</v>
       </c>
-      <c r="L36" s="61">
+      <c r="L36" s="54">
         <v>101.02</v>
       </c>
-      <c r="M36" s="61">
+      <c r="M36" s="54">
         <v>104.41</v>
       </c>
-      <c r="N36" s="61">
+      <c r="N36" s="54">
         <v>108.95</v>
       </c>
-      <c r="O36" s="61">
+      <c r="O36" s="54">
         <v>117.32599999999999</v>
       </c>
-      <c r="P36" s="61">
+      <c r="P36" s="54">
         <v>108.941</v>
       </c>
-      <c r="Q36" s="61">
+      <c r="Q36" s="54">
         <v>107.072</v>
       </c>
-      <c r="R36" s="61">
+      <c r="R36" s="54">
         <v>95.1</v>
       </c>
-      <c r="S36" s="61">
+      <c r="S36" s="54">
         <v>92.683999999999997</v>
       </c>
-      <c r="T36" s="61">
+      <c r="T36" s="54">
         <v>135.09120000000001</v>
       </c>
-      <c r="U36" s="61">
+      <c r="U36" s="54">
         <v>105.667</v>
       </c>
-      <c r="V36" s="61">
+      <c r="V36" s="54">
         <v>102.72499999999999</v>
       </c>
-      <c r="W36" s="61">
+      <c r="W36" s="54">
         <v>108.17400000000001</v>
       </c>
-      <c r="X36" s="61">
+      <c r="X36" s="54">
         <v>120.72</v>
       </c>
-      <c r="Y36" s="61">
+      <c r="Y36" s="54">
         <v>116.45399999999999</v>
       </c>
-      <c r="Z36" s="61">
+      <c r="Z36" s="54">
         <v>113.819</v>
       </c>
     </row>
@@ -3637,76 +3643,76 @@
       <c r="B37" s="6">
         <v>35</v>
       </c>
-      <c r="C37" s="61">
-        <v>0</v>
-      </c>
-      <c r="D37" s="61">
-        <v>0</v>
-      </c>
-      <c r="E37" s="61">
-        <v>0</v>
-      </c>
-      <c r="F37" s="61">
-        <v>0</v>
-      </c>
-      <c r="G37" s="61">
-        <v>0</v>
-      </c>
-      <c r="H37" s="61">
-        <v>0</v>
-      </c>
-      <c r="I37" s="61">
-        <v>0</v>
-      </c>
-      <c r="J37" s="61">
-        <v>0</v>
-      </c>
-      <c r="K37" s="61">
-        <v>0</v>
-      </c>
-      <c r="L37" s="61">
-        <v>0</v>
-      </c>
-      <c r="M37" s="61">
-        <v>0</v>
-      </c>
-      <c r="N37" s="61">
-        <v>0</v>
-      </c>
-      <c r="O37" s="61">
-        <v>0</v>
-      </c>
-      <c r="P37" s="61">
-        <v>0</v>
-      </c>
-      <c r="Q37" s="61">
-        <v>0</v>
-      </c>
-      <c r="R37" s="61">
-        <v>0</v>
-      </c>
-      <c r="S37" s="61">
-        <v>0</v>
-      </c>
-      <c r="T37" s="61">
-        <v>0</v>
-      </c>
-      <c r="U37" s="61">
-        <v>0</v>
-      </c>
-      <c r="V37" s="61">
-        <v>0</v>
-      </c>
-      <c r="W37" s="61">
-        <v>0</v>
-      </c>
-      <c r="X37" s="61">
-        <v>0</v>
-      </c>
-      <c r="Y37" s="61">
-        <v>0</v>
-      </c>
-      <c r="Z37" s="61">
+      <c r="C37" s="54">
+        <v>0</v>
+      </c>
+      <c r="D37" s="54">
+        <v>0</v>
+      </c>
+      <c r="E37" s="54">
+        <v>0</v>
+      </c>
+      <c r="F37" s="54">
+        <v>0</v>
+      </c>
+      <c r="G37" s="54">
+        <v>0</v>
+      </c>
+      <c r="H37" s="54">
+        <v>0</v>
+      </c>
+      <c r="I37" s="54">
+        <v>0</v>
+      </c>
+      <c r="J37" s="54">
+        <v>0</v>
+      </c>
+      <c r="K37" s="54">
+        <v>0</v>
+      </c>
+      <c r="L37" s="54">
+        <v>0</v>
+      </c>
+      <c r="M37" s="54">
+        <v>0</v>
+      </c>
+      <c r="N37" s="54">
+        <v>0</v>
+      </c>
+      <c r="O37" s="54">
+        <v>0</v>
+      </c>
+      <c r="P37" s="54">
+        <v>0</v>
+      </c>
+      <c r="Q37" s="54">
+        <v>0</v>
+      </c>
+      <c r="R37" s="54">
+        <v>0</v>
+      </c>
+      <c r="S37" s="54">
+        <v>0</v>
+      </c>
+      <c r="T37" s="54">
+        <v>0</v>
+      </c>
+      <c r="U37" s="54">
+        <v>0</v>
+      </c>
+      <c r="V37" s="54">
+        <v>0</v>
+      </c>
+      <c r="W37" s="54">
+        <v>0</v>
+      </c>
+      <c r="X37" s="54">
+        <v>0</v>
+      </c>
+      <c r="Y37" s="54">
+        <v>0</v>
+      </c>
+      <c r="Z37" s="54">
         <v>0</v>
       </c>
     </row>
@@ -3714,76 +3720,76 @@
       <c r="B38" s="7">
         <v>36</v>
       </c>
-      <c r="C38" s="61">
+      <c r="C38" s="54">
         <v>0.96899999999999997</v>
       </c>
-      <c r="D38" s="61">
+      <c r="D38" s="54">
         <v>0.90600000000000003</v>
       </c>
-      <c r="E38" s="61">
+      <c r="E38" s="54">
         <v>0.84899999999999998</v>
       </c>
-      <c r="F38" s="61">
+      <c r="F38" s="54">
         <v>0.85199999999999998</v>
       </c>
-      <c r="G38" s="61">
+      <c r="G38" s="54">
         <v>1.091</v>
       </c>
-      <c r="H38" s="61">
+      <c r="H38" s="54">
         <v>0.85499999999999998</v>
       </c>
-      <c r="I38" s="61">
+      <c r="I38" s="54">
         <v>1.9648000000000001</v>
       </c>
-      <c r="J38" s="61">
+      <c r="J38" s="54">
         <v>1.36</v>
       </c>
-      <c r="K38" s="61">
+      <c r="K38" s="54">
         <v>3.121</v>
       </c>
-      <c r="L38" s="61">
+      <c r="L38" s="54">
         <v>5.806</v>
       </c>
-      <c r="M38" s="61">
+      <c r="M38" s="54">
         <v>7.1559999999999997</v>
       </c>
-      <c r="N38" s="61">
+      <c r="N38" s="54">
         <v>7.0659999999999998</v>
       </c>
-      <c r="O38" s="61">
+      <c r="O38" s="54">
         <v>6.91</v>
       </c>
-      <c r="P38" s="61">
+      <c r="P38" s="54">
         <v>7.0880000000000001</v>
       </c>
-      <c r="Q38" s="61">
+      <c r="Q38" s="54">
         <v>6.9249999999999998</v>
       </c>
-      <c r="R38" s="61">
+      <c r="R38" s="54">
         <v>6.952</v>
       </c>
-      <c r="S38" s="61">
+      <c r="S38" s="54">
         <v>6.6790000000000003</v>
       </c>
-      <c r="T38" s="61">
+      <c r="T38" s="54">
         <v>10.923500000000001</v>
       </c>
-      <c r="U38" s="61">
+      <c r="U38" s="54">
         <v>11.63</v>
       </c>
-      <c r="V38" s="61">
+      <c r="V38" s="54">
         <v>10.836</v>
       </c>
-      <c r="W38" s="61">
+      <c r="W38" s="54">
         <v>6.3019999999999996</v>
       </c>
-      <c r="X38" s="61">
+      <c r="X38" s="54">
         <v>1.3129999999999999</v>
       </c>
-      <c r="Y38" s="61">
+      <c r="Y38" s="54">
         <v>1.2809999999999999</v>
       </c>
-      <c r="Z38" s="61">
+      <c r="Z38" s="54">
         <v>0.81299999999999994</v>
       </c>
     </row>
@@ -3791,76 +3797,76 @@
       <c r="B39" s="6">
         <v>37</v>
       </c>
-      <c r="C39" s="61">
+      <c r="C39" s="54">
         <v>12.79</v>
       </c>
-      <c r="D39" s="61">
+      <c r="D39" s="54">
         <v>12.586</v>
       </c>
-      <c r="E39" s="61">
+      <c r="E39" s="54">
         <v>11.808</v>
       </c>
-      <c r="F39" s="61">
+      <c r="F39" s="54">
         <v>12.016</v>
       </c>
-      <c r="G39" s="61">
+      <c r="G39" s="54">
         <v>12.204000000000001</v>
       </c>
-      <c r="H39" s="61">
+      <c r="H39" s="54">
         <v>11.8</v>
       </c>
-      <c r="I39" s="61">
+      <c r="I39" s="54">
         <v>19.033600000000003</v>
       </c>
-      <c r="J39" s="61">
+      <c r="J39" s="54">
         <v>12.353999999999999</v>
       </c>
-      <c r="K39" s="61">
+      <c r="K39" s="54">
         <v>12.52</v>
       </c>
-      <c r="L39" s="61">
+      <c r="L39" s="54">
         <v>12.579000000000001</v>
       </c>
-      <c r="M39" s="61">
+      <c r="M39" s="54">
         <v>12.308</v>
       </c>
-      <c r="N39" s="61">
+      <c r="N39" s="54">
         <v>14.196</v>
       </c>
-      <c r="O39" s="61">
+      <c r="O39" s="54">
         <v>12.574</v>
       </c>
-      <c r="P39" s="61">
+      <c r="P39" s="54">
         <v>13.568</v>
       </c>
-      <c r="Q39" s="61">
+      <c r="Q39" s="54">
         <v>15.1</v>
       </c>
-      <c r="R39" s="61">
+      <c r="R39" s="54">
         <v>15.92</v>
       </c>
-      <c r="S39" s="61">
+      <c r="S39" s="54">
         <v>14.545999999999999</v>
       </c>
-      <c r="T39" s="61">
+      <c r="T39" s="54">
         <v>20.032</v>
       </c>
-      <c r="U39" s="61">
+      <c r="U39" s="54">
         <v>16.931000000000001</v>
       </c>
-      <c r="V39" s="61">
+      <c r="V39" s="54">
         <v>17.257999999999999</v>
       </c>
-      <c r="W39" s="61">
+      <c r="W39" s="54">
         <v>15.586</v>
       </c>
-      <c r="X39" s="61">
+      <c r="X39" s="54">
         <v>16.45</v>
       </c>
-      <c r="Y39" s="61">
+      <c r="Y39" s="54">
         <v>15.144</v>
       </c>
-      <c r="Z39" s="61">
+      <c r="Z39" s="54">
         <v>15.302</v>
       </c>
     </row>
@@ -3868,76 +3874,76 @@
       <c r="B40" s="7">
         <v>38</v>
       </c>
-      <c r="C40" s="61">
-        <v>0</v>
-      </c>
-      <c r="D40" s="61">
-        <v>0</v>
-      </c>
-      <c r="E40" s="61">
-        <v>0</v>
-      </c>
-      <c r="F40" s="61">
-        <v>0</v>
-      </c>
-      <c r="G40" s="61">
-        <v>0</v>
-      </c>
-      <c r="H40" s="61">
-        <v>0</v>
-      </c>
-      <c r="I40" s="61">
-        <v>0</v>
-      </c>
-      <c r="J40" s="61">
-        <v>0</v>
-      </c>
-      <c r="K40" s="61">
-        <v>0</v>
-      </c>
-      <c r="L40" s="61">
-        <v>0</v>
-      </c>
-      <c r="M40" s="61">
-        <v>0</v>
-      </c>
-      <c r="N40" s="61">
-        <v>0</v>
-      </c>
-      <c r="O40" s="61">
-        <v>0</v>
-      </c>
-      <c r="P40" s="61">
-        <v>0</v>
-      </c>
-      <c r="Q40" s="61">
-        <v>0</v>
-      </c>
-      <c r="R40" s="61">
-        <v>0</v>
-      </c>
-      <c r="S40" s="61">
-        <v>0</v>
-      </c>
-      <c r="T40" s="61">
-        <v>0</v>
-      </c>
-      <c r="U40" s="61">
-        <v>0</v>
-      </c>
-      <c r="V40" s="61">
-        <v>0</v>
-      </c>
-      <c r="W40" s="61">
-        <v>0</v>
-      </c>
-      <c r="X40" s="61">
-        <v>0</v>
-      </c>
-      <c r="Y40" s="61">
-        <v>0</v>
-      </c>
-      <c r="Z40" s="61">
+      <c r="C40" s="54">
+        <v>0</v>
+      </c>
+      <c r="D40" s="54">
+        <v>0</v>
+      </c>
+      <c r="E40" s="54">
+        <v>0</v>
+      </c>
+      <c r="F40" s="54">
+        <v>0</v>
+      </c>
+      <c r="G40" s="54">
+        <v>0</v>
+      </c>
+      <c r="H40" s="54">
+        <v>0</v>
+      </c>
+      <c r="I40" s="54">
+        <v>0</v>
+      </c>
+      <c r="J40" s="54">
+        <v>0</v>
+      </c>
+      <c r="K40" s="54">
+        <v>0</v>
+      </c>
+      <c r="L40" s="54">
+        <v>0</v>
+      </c>
+      <c r="M40" s="54">
+        <v>0</v>
+      </c>
+      <c r="N40" s="54">
+        <v>0</v>
+      </c>
+      <c r="O40" s="54">
+        <v>0</v>
+      </c>
+      <c r="P40" s="54">
+        <v>0</v>
+      </c>
+      <c r="Q40" s="54">
+        <v>0</v>
+      </c>
+      <c r="R40" s="54">
+        <v>0</v>
+      </c>
+      <c r="S40" s="54">
+        <v>0</v>
+      </c>
+      <c r="T40" s="54">
+        <v>0</v>
+      </c>
+      <c r="U40" s="54">
+        <v>0</v>
+      </c>
+      <c r="V40" s="54">
+        <v>0</v>
+      </c>
+      <c r="W40" s="54">
+        <v>0</v>
+      </c>
+      <c r="X40" s="54">
+        <v>0</v>
+      </c>
+      <c r="Y40" s="54">
+        <v>0</v>
+      </c>
+      <c r="Z40" s="54">
         <v>0</v>
       </c>
     </row>
@@ -3945,76 +3951,76 @@
       <c r="B41" s="6">
         <v>39</v>
       </c>
-      <c r="C41" s="61">
-        <v>0</v>
-      </c>
-      <c r="D41" s="61">
-        <v>0</v>
-      </c>
-      <c r="E41" s="61">
-        <v>0</v>
-      </c>
-      <c r="F41" s="61">
-        <v>0</v>
-      </c>
-      <c r="G41" s="61">
-        <v>0</v>
-      </c>
-      <c r="H41" s="61">
-        <v>0</v>
-      </c>
-      <c r="I41" s="61">
-        <v>0</v>
-      </c>
-      <c r="J41" s="61">
-        <v>0</v>
-      </c>
-      <c r="K41" s="61">
-        <v>0</v>
-      </c>
-      <c r="L41" s="61">
-        <v>0</v>
-      </c>
-      <c r="M41" s="61">
-        <v>0</v>
-      </c>
-      <c r="N41" s="61">
-        <v>0</v>
-      </c>
-      <c r="O41" s="61">
-        <v>0</v>
-      </c>
-      <c r="P41" s="61">
-        <v>0</v>
-      </c>
-      <c r="Q41" s="61">
-        <v>0</v>
-      </c>
-      <c r="R41" s="61">
-        <v>0</v>
-      </c>
-      <c r="S41" s="61">
-        <v>0</v>
-      </c>
-      <c r="T41" s="61">
-        <v>0</v>
-      </c>
-      <c r="U41" s="61">
-        <v>0</v>
-      </c>
-      <c r="V41" s="61">
-        <v>0</v>
-      </c>
-      <c r="W41" s="61">
-        <v>0</v>
-      </c>
-      <c r="X41" s="61">
-        <v>0</v>
-      </c>
-      <c r="Y41" s="61">
-        <v>0</v>
-      </c>
-      <c r="Z41" s="61">
+      <c r="C41" s="54">
+        <v>0</v>
+      </c>
+      <c r="D41" s="54">
+        <v>0</v>
+      </c>
+      <c r="E41" s="54">
+        <v>0</v>
+      </c>
+      <c r="F41" s="54">
+        <v>0</v>
+      </c>
+      <c r="G41" s="54">
+        <v>0</v>
+      </c>
+      <c r="H41" s="54">
+        <v>0</v>
+      </c>
+      <c r="I41" s="54">
+        <v>0</v>
+      </c>
+      <c r="J41" s="54">
+        <v>0</v>
+      </c>
+      <c r="K41" s="54">
+        <v>0</v>
+      </c>
+      <c r="L41" s="54">
+        <v>0</v>
+      </c>
+      <c r="M41" s="54">
+        <v>0</v>
+      </c>
+      <c r="N41" s="54">
+        <v>0</v>
+      </c>
+      <c r="O41" s="54">
+        <v>0</v>
+      </c>
+      <c r="P41" s="54">
+        <v>0</v>
+      </c>
+      <c r="Q41" s="54">
+        <v>0</v>
+      </c>
+      <c r="R41" s="54">
+        <v>0</v>
+      </c>
+      <c r="S41" s="54">
+        <v>0</v>
+      </c>
+      <c r="T41" s="54">
+        <v>0</v>
+      </c>
+      <c r="U41" s="54">
+        <v>0</v>
+      </c>
+      <c r="V41" s="54">
+        <v>0</v>
+      </c>
+      <c r="W41" s="54">
+        <v>0</v>
+      </c>
+      <c r="X41" s="54">
+        <v>0</v>
+      </c>
+      <c r="Y41" s="54">
+        <v>0</v>
+      </c>
+      <c r="Z41" s="54">
         <v>0</v>
       </c>
     </row>
@@ -10278,8 +10284,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F55E9F5A-A300-40CA-B4B1-E8AE734BE43C}">
   <dimension ref="A2:IE70"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A37" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I72" sqref="I72"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A13" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C58" sqref="C58"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.90625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -10913,7 +10919,7 @@
       <c r="B7" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="C7" s="51">
+      <c r="C7" s="50">
         <v>44.050118013838031</v>
       </c>
       <c r="D7" s="8">
@@ -10934,7 +10940,7 @@
       <c r="I7" s="8">
         <v>0</v>
       </c>
-      <c r="J7" s="51">
+      <c r="J7" s="50">
         <v>24.050118013837999</v>
       </c>
       <c r="K7" s="8">
@@ -10949,7 +10955,7 @@
       <c r="N7" s="8">
         <v>0</v>
       </c>
-      <c r="O7" s="51">
+      <c r="O7" s="50">
         <v>46.050118013838002</v>
       </c>
       <c r="P7" s="8">
@@ -10976,7 +10982,7 @@
       <c r="W7" s="8">
         <v>0</v>
       </c>
-      <c r="X7" s="51">
+      <c r="X7" s="50">
         <v>43.048574146662993</v>
       </c>
       <c r="Y7" s="8">
@@ -10985,7 +10991,7 @@
       <c r="Z7" s="8">
         <v>0</v>
       </c>
-      <c r="AA7" s="51">
+      <c r="AA7" s="50">
         <v>21.53890400112974</v>
       </c>
       <c r="AB7" s="8">
@@ -10997,13 +11003,13 @@
       <c r="AD7" s="8">
         <v>0</v>
       </c>
-      <c r="AE7" s="51">
+      <c r="AE7" s="50">
         <v>30.669693785989409</v>
       </c>
       <c r="AF7" s="8">
         <v>0</v>
       </c>
-      <c r="AG7" s="51">
+      <c r="AG7" s="50">
         <v>47.739594241691677</v>
       </c>
       <c r="AH7" s="8">
@@ -11012,7 +11018,7 @@
       <c r="AI7" s="8">
         <v>0</v>
       </c>
-      <c r="AJ7" s="51">
+      <c r="AJ7" s="50">
         <v>42.932830908731688</v>
       </c>
       <c r="AK7" s="8">
@@ -11528,7 +11534,7 @@
       <c r="B12" s="17" t="s">
         <v>28</v>
       </c>
-      <c r="C12" s="51">
+      <c r="C12" s="50">
         <v>29.837081686948991</v>
       </c>
       <c r="D12" s="8">
@@ -11549,7 +11555,7 @@
       <c r="I12" s="8">
         <v>0</v>
       </c>
-      <c r="J12" s="51">
+      <c r="J12" s="50">
         <v>36.837081686948999</v>
       </c>
       <c r="K12" s="8">
@@ -11564,7 +11570,7 @@
       <c r="N12" s="8">
         <v>0</v>
       </c>
-      <c r="O12" s="51">
+      <c r="O12" s="50">
         <v>32.837081686948999</v>
       </c>
       <c r="P12" s="8">
@@ -11651,7 +11657,7 @@
       <c r="B13" s="11" t="s">
         <v>29</v>
       </c>
-      <c r="C13" s="51">
+      <c r="C13" s="50">
         <v>62.395077773155222</v>
       </c>
       <c r="D13" s="8">
@@ -11672,7 +11678,7 @@
       <c r="I13" s="8">
         <v>0</v>
       </c>
-      <c r="J13" s="51">
+      <c r="J13" s="50">
         <v>64.395077773155194</v>
       </c>
       <c r="K13" s="8">
@@ -11687,7 +11693,7 @@
       <c r="N13" s="8">
         <v>0</v>
       </c>
-      <c r="O13" s="51">
+      <c r="O13" s="50">
         <v>52.395077773155201</v>
       </c>
       <c r="P13" s="8">
@@ -13380,7 +13386,7 @@
         <v>4</v>
       </c>
       <c r="C27" s="13">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D27" s="13">
         <v>0</v>
@@ -13406,7 +13412,7 @@
       <c r="K27" s="13">
         <v>0</v>
       </c>
-      <c r="L27" s="13">
+      <c r="L27" s="33">
         <v>1</v>
       </c>
       <c r="M27" s="13">
@@ -13422,7 +13428,7 @@
         <v>0</v>
       </c>
       <c r="Q27" s="13">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R27" s="13">
         <v>0</v>
@@ -13433,7 +13439,7 @@
       <c r="T27" s="13">
         <v>0</v>
       </c>
-      <c r="U27" s="13">
+      <c r="U27" s="33">
         <v>1</v>
       </c>
       <c r="V27" s="13">
@@ -13452,7 +13458,7 @@
         <v>0</v>
       </c>
       <c r="AA27" s="13">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB27" s="13">
         <v>0</v>
@@ -13467,7 +13473,7 @@
         <v>0</v>
       </c>
       <c r="AF27" s="13">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AG27" s="13">
         <v>0</v>
@@ -13481,20 +13487,20 @@
       <c r="AJ27" s="13">
         <v>0</v>
       </c>
-      <c r="AK27" s="13">
+      <c r="AK27" s="33">
         <v>1</v>
       </c>
       <c r="AL27" s="13">
         <v>0</v>
       </c>
       <c r="AM27" s="13">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AN27" s="13">
         <v>0</v>
       </c>
       <c r="AO27" s="13">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28" spans="1:41" x14ac:dyDescent="0.35">
@@ -13503,7 +13509,7 @@
         <v>3</v>
       </c>
       <c r="C28" s="8">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D28" s="8">
         <v>0</v>
@@ -13529,8 +13535,8 @@
       <c r="K28" s="8">
         <v>0</v>
       </c>
-      <c r="L28" s="8">
-        <v>100</v>
+      <c r="L28" s="61">
+        <v>15</v>
       </c>
       <c r="M28" s="8">
         <v>0</v>
@@ -13545,7 +13551,7 @@
         <v>0</v>
       </c>
       <c r="Q28" s="8">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="R28" s="8">
         <v>0</v>
@@ -13556,8 +13562,8 @@
       <c r="T28" s="8">
         <v>0</v>
       </c>
-      <c r="U28" s="8">
-        <v>100</v>
+      <c r="U28" s="61">
+        <v>20</v>
       </c>
       <c r="V28" s="8">
         <v>0</v>
@@ -13575,7 +13581,7 @@
         <v>0</v>
       </c>
       <c r="AA28" s="8">
-        <v>120</v>
+        <v>0</v>
       </c>
       <c r="AB28" s="8">
         <v>0</v>
@@ -13590,7 +13596,7 @@
         <v>0</v>
       </c>
       <c r="AF28" s="8">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="AG28" s="8">
         <v>0</v>
@@ -13604,20 +13610,20 @@
       <c r="AJ28" s="8">
         <v>0</v>
       </c>
-      <c r="AK28" s="8">
-        <v>100</v>
+      <c r="AK28" s="61">
+        <v>20</v>
       </c>
       <c r="AL28" s="8">
         <v>0</v>
       </c>
       <c r="AM28" s="8">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="AN28" s="8">
         <v>0</v>
       </c>
       <c r="AO28" s="8">
-        <v>100</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29" spans="1:41" x14ac:dyDescent="0.35">
@@ -13626,7 +13632,7 @@
         <v>10</v>
       </c>
       <c r="C29" s="8">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="D29" s="8">
         <v>0</v>
@@ -13652,8 +13658,8 @@
       <c r="K29" s="8">
         <v>0</v>
       </c>
-      <c r="L29" s="8">
-        <v>50</v>
+      <c r="L29" s="61">
+        <v>2</v>
       </c>
       <c r="M29" s="8">
         <v>0</v>
@@ -13668,7 +13674,7 @@
         <v>0</v>
       </c>
       <c r="Q29" s="8">
-        <v>70</v>
+        <v>0</v>
       </c>
       <c r="R29" s="8">
         <v>0</v>
@@ -13679,8 +13685,8 @@
       <c r="T29" s="8">
         <v>0</v>
       </c>
-      <c r="U29" s="8">
-        <v>50</v>
+      <c r="U29" s="61">
+        <v>2</v>
       </c>
       <c r="V29" s="8">
         <v>0</v>
@@ -13698,7 +13704,7 @@
         <v>0</v>
       </c>
       <c r="AA29" s="8">
-        <v>60</v>
+        <v>0</v>
       </c>
       <c r="AB29" s="8">
         <v>0</v>
@@ -13713,7 +13719,7 @@
         <v>0</v>
       </c>
       <c r="AF29" s="8">
-        <v>80</v>
+        <v>0</v>
       </c>
       <c r="AG29" s="8">
         <v>0</v>
@@ -13727,20 +13733,20 @@
       <c r="AJ29" s="8">
         <v>0</v>
       </c>
-      <c r="AK29" s="8">
-        <v>50</v>
+      <c r="AK29" s="61">
+        <v>2</v>
       </c>
       <c r="AL29" s="8">
         <v>0</v>
       </c>
       <c r="AM29" s="8">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="AN29" s="8">
         <v>0</v>
       </c>
       <c r="AO29" s="8">
-        <v>50</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30" spans="1:41" x14ac:dyDescent="0.35">
@@ -13749,7 +13755,7 @@
         <v>5</v>
       </c>
       <c r="C30" s="8">
-        <v>250</v>
+        <v>0</v>
       </c>
       <c r="D30" s="8">
         <v>0</v>
@@ -13775,8 +13781,8 @@
       <c r="K30" s="8">
         <v>0</v>
       </c>
-      <c r="L30" s="8">
-        <v>250</v>
+      <c r="L30" s="61">
+        <v>50</v>
       </c>
       <c r="M30" s="8">
         <v>0</v>
@@ -13791,7 +13797,7 @@
         <v>0</v>
       </c>
       <c r="Q30" s="8">
-        <v>250</v>
+        <v>0</v>
       </c>
       <c r="R30" s="8">
         <v>0</v>
@@ -13802,8 +13808,8 @@
       <c r="T30" s="8">
         <v>0</v>
       </c>
-      <c r="U30" s="8">
-        <v>250</v>
+      <c r="U30" s="61">
+        <v>75</v>
       </c>
       <c r="V30" s="8">
         <v>0</v>
@@ -13821,7 +13827,7 @@
         <v>0</v>
       </c>
       <c r="AA30" s="8">
-        <v>250</v>
+        <v>0</v>
       </c>
       <c r="AB30" s="8">
         <v>0</v>
@@ -13836,7 +13842,7 @@
         <v>0</v>
       </c>
       <c r="AF30" s="8">
-        <v>250</v>
+        <v>0</v>
       </c>
       <c r="AG30" s="8">
         <v>0</v>
@@ -13850,20 +13856,20 @@
       <c r="AJ30" s="8">
         <v>0</v>
       </c>
-      <c r="AK30" s="8">
-        <v>250</v>
+      <c r="AK30" s="61">
+        <v>75</v>
       </c>
       <c r="AL30" s="8">
         <v>0</v>
       </c>
       <c r="AM30" s="8">
-        <v>250</v>
+        <v>0</v>
       </c>
       <c r="AN30" s="8">
         <v>0</v>
       </c>
       <c r="AO30" s="8">
-        <v>250</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31" spans="1:41" x14ac:dyDescent="0.35">
@@ -13872,7 +13878,7 @@
         <v>8</v>
       </c>
       <c r="C31" s="8">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="D31" s="8">
         <v>0</v>
@@ -13898,8 +13904,8 @@
       <c r="K31" s="8">
         <v>0</v>
       </c>
-      <c r="L31" s="8">
-        <v>15</v>
+      <c r="L31" s="61">
+        <v>5</v>
       </c>
       <c r="M31" s="8">
         <v>0</v>
@@ -13914,7 +13920,7 @@
         <v>0</v>
       </c>
       <c r="Q31" s="8">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="R31" s="8">
         <v>0</v>
@@ -13925,8 +13931,8 @@
       <c r="T31" s="8">
         <v>0</v>
       </c>
-      <c r="U31" s="8">
-        <v>15</v>
+      <c r="U31" s="61">
+        <v>7.5</v>
       </c>
       <c r="V31" s="8">
         <v>0</v>
@@ -13944,7 +13950,7 @@
         <v>0</v>
       </c>
       <c r="AA31" s="8">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="AB31" s="8">
         <v>0</v>
@@ -13959,7 +13965,7 @@
         <v>0</v>
       </c>
       <c r="AF31" s="8">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="AG31" s="8">
         <v>0</v>
@@ -13973,20 +13979,20 @@
       <c r="AJ31" s="8">
         <v>0</v>
       </c>
-      <c r="AK31" s="8">
-        <v>15</v>
+      <c r="AK31" s="61">
+        <v>7.5</v>
       </c>
       <c r="AL31" s="8">
         <v>0</v>
       </c>
       <c r="AM31" s="8">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="AN31" s="8">
         <v>0</v>
       </c>
       <c r="AO31" s="8">
-        <v>15</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32" spans="1:41" x14ac:dyDescent="0.35">
@@ -13995,7 +14001,7 @@
         <v>6</v>
       </c>
       <c r="C32" s="8">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D32" s="8">
         <v>0</v>
@@ -14021,8 +14027,8 @@
       <c r="K32" s="8">
         <v>0</v>
       </c>
-      <c r="L32" s="8">
-        <v>50</v>
+      <c r="L32" s="61">
+        <v>25</v>
       </c>
       <c r="M32" s="8">
         <v>0</v>
@@ -14037,7 +14043,7 @@
         <v>0</v>
       </c>
       <c r="Q32" s="8">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="R32" s="8">
         <v>0</v>
@@ -14048,8 +14054,8 @@
       <c r="T32" s="8">
         <v>0</v>
       </c>
-      <c r="U32" s="8">
-        <v>150</v>
+      <c r="U32" s="61">
+        <v>25</v>
       </c>
       <c r="V32" s="8">
         <v>0</v>
@@ -14067,7 +14073,7 @@
         <v>0</v>
       </c>
       <c r="AA32" s="8">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="AB32" s="8">
         <v>0</v>
@@ -14082,7 +14088,7 @@
         <v>0</v>
       </c>
       <c r="AF32" s="8">
-        <v>120</v>
+        <v>0</v>
       </c>
       <c r="AG32" s="8">
         <v>0</v>
@@ -14096,20 +14102,20 @@
       <c r="AJ32" s="8">
         <v>0</v>
       </c>
-      <c r="AK32" s="8">
-        <v>100</v>
+      <c r="AK32" s="61">
+        <v>25</v>
       </c>
       <c r="AL32" s="8">
         <v>0</v>
       </c>
       <c r="AM32" s="8">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="AN32" s="8">
         <v>0</v>
       </c>
       <c r="AO32" s="8">
-        <v>100</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33" spans="1:239" x14ac:dyDescent="0.35">
@@ -14118,121 +14124,121 @@
         <v>7</v>
       </c>
       <c r="C33" s="15">
+        <v>0</v>
+      </c>
+      <c r="D33" s="15">
+        <v>0</v>
+      </c>
+      <c r="E33" s="15">
+        <v>0</v>
+      </c>
+      <c r="F33" s="15">
+        <v>0</v>
+      </c>
+      <c r="G33" s="15">
+        <v>0</v>
+      </c>
+      <c r="H33" s="15">
+        <v>0</v>
+      </c>
+      <c r="I33" s="15">
+        <v>0</v>
+      </c>
+      <c r="J33" s="15">
+        <v>0</v>
+      </c>
+      <c r="K33" s="15">
+        <v>0</v>
+      </c>
+      <c r="L33" s="62">
         <v>0.9</v>
       </c>
-      <c r="D33" s="15">
-        <v>0</v>
-      </c>
-      <c r="E33" s="15">
-        <v>0</v>
-      </c>
-      <c r="F33" s="15">
-        <v>0</v>
-      </c>
-      <c r="G33" s="15">
-        <v>0</v>
-      </c>
-      <c r="H33" s="15">
-        <v>0</v>
-      </c>
-      <c r="I33" s="15">
-        <v>0</v>
-      </c>
-      <c r="J33" s="15">
-        <v>0</v>
-      </c>
-      <c r="K33" s="15">
-        <v>0</v>
-      </c>
-      <c r="L33" s="15">
+      <c r="M33" s="15">
+        <v>0</v>
+      </c>
+      <c r="N33" s="15">
+        <v>0</v>
+      </c>
+      <c r="O33" s="15">
+        <v>0</v>
+      </c>
+      <c r="P33" s="15">
+        <v>0</v>
+      </c>
+      <c r="Q33" s="15">
+        <v>0</v>
+      </c>
+      <c r="R33" s="15">
+        <v>0</v>
+      </c>
+      <c r="S33" s="15">
+        <v>0</v>
+      </c>
+      <c r="T33" s="15">
+        <v>0</v>
+      </c>
+      <c r="U33" s="62">
         <v>0.9</v>
       </c>
-      <c r="M33" s="15">
-        <v>0</v>
-      </c>
-      <c r="N33" s="15">
-        <v>0</v>
-      </c>
-      <c r="O33" s="15">
-        <v>0</v>
-      </c>
-      <c r="P33" s="15">
-        <v>0</v>
-      </c>
-      <c r="Q33" s="15">
+      <c r="V33" s="15">
+        <v>0</v>
+      </c>
+      <c r="W33" s="15">
+        <v>0</v>
+      </c>
+      <c r="X33" s="15">
+        <v>0</v>
+      </c>
+      <c r="Y33" s="15">
+        <v>0</v>
+      </c>
+      <c r="Z33" s="15">
+        <v>0</v>
+      </c>
+      <c r="AA33" s="15">
+        <v>0</v>
+      </c>
+      <c r="AB33" s="15">
+        <v>0</v>
+      </c>
+      <c r="AC33" s="15">
+        <v>0</v>
+      </c>
+      <c r="AD33" s="15">
+        <v>0</v>
+      </c>
+      <c r="AE33" s="15">
+        <v>0</v>
+      </c>
+      <c r="AF33" s="15">
+        <v>0</v>
+      </c>
+      <c r="AG33" s="15">
+        <v>0</v>
+      </c>
+      <c r="AH33" s="15">
+        <v>0</v>
+      </c>
+      <c r="AI33" s="15">
+        <v>0</v>
+      </c>
+      <c r="AJ33" s="15">
+        <v>0</v>
+      </c>
+      <c r="AK33" s="62">
         <v>0.9</v>
       </c>
-      <c r="R33" s="15">
-        <v>0</v>
-      </c>
-      <c r="S33" s="15">
-        <v>0</v>
-      </c>
-      <c r="T33" s="15">
-        <v>0</v>
-      </c>
-      <c r="U33" s="15">
-        <v>0.9</v>
-      </c>
-      <c r="V33" s="15">
-        <v>0</v>
-      </c>
-      <c r="W33" s="15">
-        <v>0</v>
-      </c>
-      <c r="X33" s="15">
-        <v>0</v>
-      </c>
-      <c r="Y33" s="15">
-        <v>0</v>
-      </c>
-      <c r="Z33" s="15">
-        <v>0</v>
-      </c>
-      <c r="AA33" s="15">
-        <v>0.9</v>
-      </c>
-      <c r="AB33" s="15">
-        <v>0</v>
-      </c>
-      <c r="AC33" s="15">
-        <v>0</v>
-      </c>
-      <c r="AD33" s="15">
-        <v>0</v>
-      </c>
-      <c r="AE33" s="15">
-        <v>0</v>
-      </c>
-      <c r="AF33" s="15">
-        <v>0.9</v>
-      </c>
-      <c r="AG33" s="15">
-        <v>0</v>
-      </c>
-      <c r="AH33" s="15">
-        <v>0</v>
-      </c>
-      <c r="AI33" s="15">
-        <v>0</v>
-      </c>
-      <c r="AJ33" s="15">
-        <v>0</v>
-      </c>
-      <c r="AK33" s="15">
-        <v>0.9</v>
-      </c>
       <c r="AL33" s="15">
         <v>0</v>
       </c>
       <c r="AM33" s="15">
-        <v>0.9</v>
+        <v>0</v>
       </c>
       <c r="AN33" s="15">
         <v>0</v>
       </c>
       <c r="AO33" s="15">
-        <v>0.9</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34" spans="1:239" x14ac:dyDescent="0.35">
@@ -16983,121 +16989,121 @@
       <c r="B53" s="31" t="s">
         <v>59</v>
       </c>
-      <c r="C53" s="52">
+      <c r="C53" s="51">
         <v>22.955041157975529</v>
       </c>
-      <c r="D53" s="52">
+      <c r="D53" s="51">
         <v>47.961000898190363</v>
       </c>
-      <c r="E53" s="52">
+      <c r="E53" s="51">
         <v>38.468537074614979</v>
       </c>
-      <c r="F53" s="52">
+      <c r="F53" s="51">
         <v>32.681778214151393</v>
       </c>
-      <c r="G53" s="52">
+      <c r="G53" s="51">
         <v>13.471208995201749</v>
       </c>
-      <c r="H53" s="52">
+      <c r="H53" s="51">
         <v>13.470162182591199</v>
       </c>
-      <c r="I53" s="52">
+      <c r="I53" s="51">
         <v>9.2208287680998566</v>
       </c>
-      <c r="J53" s="52">
+      <c r="J53" s="51">
         <v>44.292044726632191</v>
       </c>
-      <c r="K53" s="52">
+      <c r="K53" s="51">
         <v>32.788391509655263</v>
       </c>
-      <c r="L53" s="52">
+      <c r="L53" s="51">
         <v>37.430349876348373</v>
       </c>
-      <c r="M53" s="52">
+      <c r="M53" s="51">
         <v>7.5933670524378263</v>
       </c>
-      <c r="N53" s="52">
+      <c r="N53" s="51">
         <v>48.794087583830553</v>
       </c>
-      <c r="O53" s="52">
+      <c r="O53" s="51">
         <v>42.828010610738303</v>
       </c>
-      <c r="P53" s="52">
+      <c r="P53" s="51">
         <v>15.915517403437191</v>
       </c>
-      <c r="Q53" s="52">
+      <c r="Q53" s="51">
         <v>14.591203576788169</v>
       </c>
-      <c r="R53" s="52">
+      <c r="R53" s="51">
         <v>14.65975572763903</v>
       </c>
-      <c r="S53" s="52">
+      <c r="S53" s="51">
         <v>19.904113344443939</v>
       </c>
-      <c r="T53" s="52">
+      <c r="T53" s="51">
         <v>29.47442913283912</v>
       </c>
-      <c r="U53" s="52">
+      <c r="U53" s="51">
         <v>25.44641380906782</v>
       </c>
-      <c r="V53" s="52">
+      <c r="V53" s="51">
         <v>19.339344684595019</v>
       </c>
-      <c r="W53" s="52">
+      <c r="W53" s="51">
         <v>33.254415630951272</v>
       </c>
-      <c r="X53" s="52">
+      <c r="X53" s="51">
         <v>12.754033552298621</v>
       </c>
-      <c r="Y53" s="52">
+      <c r="Y53" s="51">
         <v>19.379077746428472</v>
       </c>
-      <c r="Z53" s="52">
+      <c r="Z53" s="51">
         <v>22.600103998946221</v>
       </c>
-      <c r="AA53" s="52">
+      <c r="AA53" s="51">
         <v>26.49343731501936</v>
       </c>
-      <c r="AB53" s="52">
+      <c r="AB53" s="51">
         <v>40.776636724456793</v>
       </c>
-      <c r="AC53" s="52">
+      <c r="AC53" s="51">
         <v>15.36584214567281</v>
       </c>
-      <c r="AD53" s="52">
+      <c r="AD53" s="51">
         <v>29.01777462715074</v>
       </c>
-      <c r="AE53" s="52">
+      <c r="AE53" s="51">
         <v>32.41079228861264</v>
       </c>
-      <c r="AF53" s="52">
+      <c r="AF53" s="51">
         <v>8.715947912047902</v>
       </c>
-      <c r="AG53" s="52">
+      <c r="AG53" s="51">
         <v>33.067446572522428</v>
       </c>
-      <c r="AH53" s="52">
+      <c r="AH53" s="51">
         <v>14.100746968028449</v>
       </c>
-      <c r="AI53" s="52">
+      <c r="AI53" s="51">
         <v>9.5232391355611306</v>
       </c>
-      <c r="AJ53" s="52">
+      <c r="AJ53" s="51">
         <v>47.881632316794658</v>
       </c>
-      <c r="AK53" s="52">
+      <c r="AK53" s="51">
         <v>48.608430235435883</v>
       </c>
-      <c r="AL53" s="52">
+      <c r="AL53" s="51">
         <v>41.784444908254407</v>
       </c>
-      <c r="AM53" s="52">
+      <c r="AM53" s="51">
         <v>19.92023758212429</v>
       </c>
-      <c r="AN53" s="52">
+      <c r="AN53" s="51">
         <v>10.93896974787706</v>
       </c>
-      <c r="AO53" s="52">
+      <c r="AO53" s="51">
         <v>36.395713350627609</v>
       </c>
     </row>
@@ -17106,121 +17112,121 @@
       <c r="B54" s="31" t="s">
         <v>60</v>
       </c>
-      <c r="C54" s="52">
+      <c r="C54" s="51">
         <v>1.864472730592764</v>
       </c>
-      <c r="D54" s="52">
+      <c r="D54" s="51">
         <v>0.87831852801881438</v>
       </c>
-      <c r="E54" s="52">
+      <c r="E54" s="51">
         <v>2.0350484213449369</v>
       </c>
-      <c r="F54" s="52">
+      <c r="F54" s="51">
         <v>0.60660441545717703</v>
       </c>
-      <c r="G54" s="52">
+      <c r="G54" s="51">
         <v>3.3188932464442251</v>
       </c>
-      <c r="H54" s="52">
+      <c r="H54" s="51">
         <v>1.302217942960052</v>
       </c>
-      <c r="I54" s="52">
+      <c r="I54" s="51">
         <v>2.5538190814973438</v>
       </c>
-      <c r="J54" s="52">
+      <c r="J54" s="51">
         <v>1.4663043358771739</v>
       </c>
-      <c r="K54" s="52">
+      <c r="K54" s="51">
         <v>2.112210865651214</v>
       </c>
-      <c r="L54" s="52">
+      <c r="L54" s="51">
         <v>2.194801865964167</v>
       </c>
-      <c r="M54" s="52">
+      <c r="M54" s="51">
         <v>1.0730488121291339</v>
       </c>
-      <c r="N54" s="52">
+      <c r="N54" s="51">
         <v>3.505712346070132</v>
       </c>
-      <c r="O54" s="52">
+      <c r="O54" s="51">
         <v>2.9029117524194552</v>
       </c>
-      <c r="P54" s="52">
+      <c r="P54" s="51">
         <v>3.4124467188489862</v>
       </c>
-      <c r="Q54" s="52">
+      <c r="Q54" s="51">
         <v>3.273964786325712</v>
       </c>
-      <c r="R54" s="52">
+      <c r="R54" s="51">
         <v>2.3534899343143638</v>
       </c>
-      <c r="S54" s="52">
+      <c r="S54" s="51">
         <v>3.3578101285716619</v>
       </c>
-      <c r="T54" s="52">
+      <c r="T54" s="51">
         <v>0.77432675636095039</v>
       </c>
-      <c r="U54" s="52">
+      <c r="U54" s="51">
         <v>1.1075468734993501</v>
       </c>
-      <c r="V54" s="52">
+      <c r="V54" s="51">
         <v>0.64020459562266807</v>
       </c>
-      <c r="W54" s="52">
+      <c r="W54" s="51">
         <v>1.508524025366119</v>
       </c>
-      <c r="X54" s="52">
+      <c r="X54" s="51">
         <v>1.704899598037394</v>
       </c>
-      <c r="Y54" s="52">
+      <c r="Y54" s="51">
         <v>1.3411819984990769</v>
       </c>
-      <c r="Z54" s="52">
+      <c r="Z54" s="51">
         <v>3.0690862783709809</v>
       </c>
-      <c r="AA54" s="52">
+      <c r="AA54" s="51">
         <v>1.605935312750127</v>
       </c>
-      <c r="AB54" s="52">
+      <c r="AB54" s="51">
         <v>1.3708969800308799</v>
       </c>
-      <c r="AC54" s="52">
+      <c r="AC54" s="51">
         <v>2.1823578577905698</v>
       </c>
-      <c r="AD54" s="52">
+      <c r="AD54" s="51">
         <v>0.93686509742176427</v>
       </c>
-      <c r="AE54" s="52">
+      <c r="AE54" s="51">
         <v>2.9868106403375232</v>
       </c>
-      <c r="AF54" s="52">
+      <c r="AF54" s="51">
         <v>0.73110699540728952</v>
       </c>
-      <c r="AG54" s="52">
+      <c r="AG54" s="51">
         <v>3.5593495034616041</v>
       </c>
-      <c r="AH54" s="52">
+      <c r="AH54" s="51">
         <v>2.8939587848196382</v>
       </c>
-      <c r="AI54" s="52">
+      <c r="AI54" s="51">
         <v>1.1160186127559339</v>
       </c>
-      <c r="AJ54" s="52">
+      <c r="AJ54" s="51">
         <v>0.51711856308316739</v>
       </c>
-      <c r="AK54" s="52">
+      <c r="AK54" s="51">
         <v>3.0279304282099861</v>
       </c>
-      <c r="AL54" s="52">
+      <c r="AL54" s="51">
         <v>2.6912577659276131</v>
       </c>
-      <c r="AM54" s="52">
+      <c r="AM54" s="51">
         <v>2.7599222209270611</v>
       </c>
-      <c r="AN54" s="52">
+      <c r="AN54" s="51">
         <v>2.8909380747264319</v>
       </c>
-      <c r="AO54" s="52">
+      <c r="AO54" s="51">
         <v>0.72953842037568006</v>
       </c>
     </row>
@@ -17229,121 +17235,121 @@
       <c r="B55" s="31" t="s">
         <v>61</v>
       </c>
-      <c r="C55" s="48">
-        <v>16</v>
-      </c>
-      <c r="D55" s="48">
-        <v>16</v>
-      </c>
-      <c r="E55" s="48">
-        <v>16</v>
-      </c>
-      <c r="F55" s="48">
-        <v>16</v>
-      </c>
-      <c r="G55" s="48">
-        <v>16</v>
-      </c>
-      <c r="H55" s="48">
-        <v>16</v>
-      </c>
-      <c r="I55" s="48">
-        <v>16</v>
-      </c>
-      <c r="J55" s="48">
-        <v>16</v>
-      </c>
-      <c r="K55" s="48">
-        <v>16</v>
-      </c>
-      <c r="L55" s="48">
-        <v>16</v>
-      </c>
-      <c r="M55" s="48">
-        <v>16</v>
-      </c>
-      <c r="N55" s="48">
-        <v>16</v>
-      </c>
-      <c r="O55" s="48">
-        <v>16</v>
-      </c>
-      <c r="P55" s="48">
-        <v>16</v>
-      </c>
-      <c r="Q55" s="48">
-        <v>16</v>
-      </c>
-      <c r="R55" s="48">
-        <v>16</v>
-      </c>
-      <c r="S55" s="48">
-        <v>16</v>
-      </c>
-      <c r="T55" s="48">
-        <v>16</v>
-      </c>
-      <c r="U55" s="48">
-        <v>16</v>
-      </c>
-      <c r="V55" s="48">
-        <v>16</v>
-      </c>
-      <c r="W55" s="48">
-        <v>16</v>
-      </c>
-      <c r="X55" s="48">
-        <v>16</v>
-      </c>
-      <c r="Y55" s="48">
-        <v>16</v>
-      </c>
-      <c r="Z55" s="48">
-        <v>16</v>
-      </c>
-      <c r="AA55" s="48">
-        <v>16</v>
-      </c>
-      <c r="AB55" s="48">
-        <v>16</v>
-      </c>
-      <c r="AC55" s="48">
-        <v>16</v>
-      </c>
-      <c r="AD55" s="48">
-        <v>16</v>
-      </c>
-      <c r="AE55" s="48">
-        <v>16</v>
-      </c>
-      <c r="AF55" s="48">
-        <v>16</v>
-      </c>
-      <c r="AG55" s="48">
-        <v>16</v>
-      </c>
-      <c r="AH55" s="48">
-        <v>16</v>
-      </c>
-      <c r="AI55" s="48">
-        <v>16</v>
-      </c>
-      <c r="AJ55" s="48">
-        <v>16</v>
-      </c>
-      <c r="AK55" s="48">
-        <v>16</v>
-      </c>
-      <c r="AL55" s="48">
-        <v>16</v>
-      </c>
-      <c r="AM55" s="48">
-        <v>16</v>
-      </c>
-      <c r="AN55" s="48">
-        <v>16</v>
-      </c>
-      <c r="AO55" s="48">
+      <c r="C55" s="47">
+        <v>16</v>
+      </c>
+      <c r="D55" s="47">
+        <v>16</v>
+      </c>
+      <c r="E55" s="47">
+        <v>16</v>
+      </c>
+      <c r="F55" s="47">
+        <v>16</v>
+      </c>
+      <c r="G55" s="47">
+        <v>16</v>
+      </c>
+      <c r="H55" s="47">
+        <v>16</v>
+      </c>
+      <c r="I55" s="47">
+        <v>16</v>
+      </c>
+      <c r="J55" s="47">
+        <v>16</v>
+      </c>
+      <c r="K55" s="47">
+        <v>16</v>
+      </c>
+      <c r="L55" s="47">
+        <v>16</v>
+      </c>
+      <c r="M55" s="47">
+        <v>16</v>
+      </c>
+      <c r="N55" s="47">
+        <v>16</v>
+      </c>
+      <c r="O55" s="47">
+        <v>16</v>
+      </c>
+      <c r="P55" s="47">
+        <v>16</v>
+      </c>
+      <c r="Q55" s="47">
+        <v>16</v>
+      </c>
+      <c r="R55" s="47">
+        <v>16</v>
+      </c>
+      <c r="S55" s="47">
+        <v>16</v>
+      </c>
+      <c r="T55" s="47">
+        <v>16</v>
+      </c>
+      <c r="U55" s="47">
+        <v>16</v>
+      </c>
+      <c r="V55" s="47">
+        <v>16</v>
+      </c>
+      <c r="W55" s="47">
+        <v>16</v>
+      </c>
+      <c r="X55" s="47">
+        <v>16</v>
+      </c>
+      <c r="Y55" s="47">
+        <v>16</v>
+      </c>
+      <c r="Z55" s="47">
+        <v>16</v>
+      </c>
+      <c r="AA55" s="47">
+        <v>16</v>
+      </c>
+      <c r="AB55" s="47">
+        <v>16</v>
+      </c>
+      <c r="AC55" s="47">
+        <v>16</v>
+      </c>
+      <c r="AD55" s="47">
+        <v>16</v>
+      </c>
+      <c r="AE55" s="47">
+        <v>16</v>
+      </c>
+      <c r="AF55" s="47">
+        <v>16</v>
+      </c>
+      <c r="AG55" s="47">
+        <v>16</v>
+      </c>
+      <c r="AH55" s="47">
+        <v>16</v>
+      </c>
+      <c r="AI55" s="47">
+        <v>16</v>
+      </c>
+      <c r="AJ55" s="47">
+        <v>16</v>
+      </c>
+      <c r="AK55" s="47">
+        <v>16</v>
+      </c>
+      <c r="AL55" s="47">
+        <v>16</v>
+      </c>
+      <c r="AM55" s="47">
+        <v>16</v>
+      </c>
+      <c r="AN55" s="47">
+        <v>16</v>
+      </c>
+      <c r="AO55" s="47">
         <v>16</v>
       </c>
     </row>
@@ -17352,121 +17358,121 @@
       <c r="B56" s="32" t="s">
         <v>62</v>
       </c>
-      <c r="C56" s="48">
+      <c r="C56" s="47">
         <v>0.35</v>
       </c>
-      <c r="D56" s="48">
+      <c r="D56" s="47">
         <v>0.35</v>
       </c>
-      <c r="E56" s="48">
+      <c r="E56" s="47">
         <v>0.35</v>
       </c>
-      <c r="F56" s="48">
+      <c r="F56" s="47">
         <v>0.35</v>
       </c>
-      <c r="G56" s="48">
+      <c r="G56" s="47">
         <v>0.35</v>
       </c>
-      <c r="H56" s="48">
+      <c r="H56" s="47">
         <v>0.35</v>
       </c>
-      <c r="I56" s="48">
+      <c r="I56" s="47">
         <v>0.35</v>
       </c>
-      <c r="J56" s="48">
+      <c r="J56" s="47">
         <v>0.35</v>
       </c>
-      <c r="K56" s="48">
+      <c r="K56" s="47">
         <v>0.35</v>
       </c>
-      <c r="L56" s="48">
+      <c r="L56" s="47">
         <v>0.35</v>
       </c>
-      <c r="M56" s="48">
+      <c r="M56" s="47">
         <v>0.35</v>
       </c>
-      <c r="N56" s="48">
+      <c r="N56" s="47">
         <v>0.35</v>
       </c>
-      <c r="O56" s="48">
+      <c r="O56" s="47">
         <v>0.35</v>
       </c>
-      <c r="P56" s="48">
+      <c r="P56" s="47">
         <v>0.35</v>
       </c>
-      <c r="Q56" s="48">
+      <c r="Q56" s="47">
         <v>0.35</v>
       </c>
-      <c r="R56" s="48">
+      <c r="R56" s="47">
         <v>0.35</v>
       </c>
-      <c r="S56" s="48">
+      <c r="S56" s="47">
         <v>0.35</v>
       </c>
-      <c r="T56" s="48">
+      <c r="T56" s="47">
         <v>0.35</v>
       </c>
-      <c r="U56" s="48">
+      <c r="U56" s="47">
         <v>0.35</v>
       </c>
-      <c r="V56" s="48">
+      <c r="V56" s="47">
         <v>0.35</v>
       </c>
-      <c r="W56" s="48">
+      <c r="W56" s="47">
         <v>0.35</v>
       </c>
-      <c r="X56" s="48">
+      <c r="X56" s="47">
         <v>0.35</v>
       </c>
-      <c r="Y56" s="48">
+      <c r="Y56" s="47">
         <v>0.35</v>
       </c>
-      <c r="Z56" s="48">
+      <c r="Z56" s="47">
         <v>0.35</v>
       </c>
-      <c r="AA56" s="48">
+      <c r="AA56" s="47">
         <v>0.35</v>
       </c>
-      <c r="AB56" s="48">
+      <c r="AB56" s="47">
         <v>0.35</v>
       </c>
-      <c r="AC56" s="48">
+      <c r="AC56" s="47">
         <v>0.35</v>
       </c>
-      <c r="AD56" s="48">
+      <c r="AD56" s="47">
         <v>0.35</v>
       </c>
-      <c r="AE56" s="48">
+      <c r="AE56" s="47">
         <v>0.35</v>
       </c>
-      <c r="AF56" s="48">
+      <c r="AF56" s="47">
         <v>0.35</v>
       </c>
-      <c r="AG56" s="48">
+      <c r="AG56" s="47">
         <v>0.35</v>
       </c>
-      <c r="AH56" s="48">
+      <c r="AH56" s="47">
         <v>0.35</v>
       </c>
-      <c r="AI56" s="48">
+      <c r="AI56" s="47">
         <v>0.35</v>
       </c>
-      <c r="AJ56" s="48">
+      <c r="AJ56" s="47">
         <v>0.35</v>
       </c>
-      <c r="AK56" s="48">
+      <c r="AK56" s="47">
         <v>0.35</v>
       </c>
-      <c r="AL56" s="48">
+      <c r="AL56" s="47">
         <v>0.35</v>
       </c>
-      <c r="AM56" s="48">
+      <c r="AM56" s="47">
         <v>0.35</v>
       </c>
-      <c r="AN56" s="48">
+      <c r="AN56" s="47">
         <v>0.35</v>
       </c>
-      <c r="AO56" s="48">
+      <c r="AO56" s="47">
         <v>0.35</v>
       </c>
     </row>
@@ -17475,121 +17481,121 @@
       <c r="B57" s="32" t="s">
         <v>63</v>
       </c>
-      <c r="C57" s="48">
+      <c r="C57" s="47">
         <v>0.5</v>
       </c>
-      <c r="D57" s="48">
+      <c r="D57" s="47">
         <v>0.5</v>
       </c>
-      <c r="E57" s="48">
+      <c r="E57" s="47">
         <v>0.5</v>
       </c>
-      <c r="F57" s="48">
+      <c r="F57" s="47">
         <v>0.5</v>
       </c>
-      <c r="G57" s="48">
+      <c r="G57" s="47">
         <v>0.5</v>
       </c>
-      <c r="H57" s="48">
+      <c r="H57" s="47">
         <v>0.5</v>
       </c>
-      <c r="I57" s="48">
+      <c r="I57" s="47">
         <v>0.5</v>
       </c>
-      <c r="J57" s="48">
+      <c r="J57" s="47">
         <v>0.5</v>
       </c>
-      <c r="K57" s="48">
+      <c r="K57" s="47">
         <v>0.5</v>
       </c>
-      <c r="L57" s="48">
+      <c r="L57" s="47">
         <v>0.5</v>
       </c>
-      <c r="M57" s="48">
+      <c r="M57" s="47">
         <v>0.5</v>
       </c>
-      <c r="N57" s="48">
+      <c r="N57" s="47">
         <v>0.5</v>
       </c>
-      <c r="O57" s="48">
+      <c r="O57" s="47">
         <v>0.5</v>
       </c>
-      <c r="P57" s="48">
+      <c r="P57" s="47">
         <v>0.5</v>
       </c>
-      <c r="Q57" s="48">
+      <c r="Q57" s="47">
         <v>0.5</v>
       </c>
-      <c r="R57" s="48">
+      <c r="R57" s="47">
         <v>0.5</v>
       </c>
-      <c r="S57" s="48">
+      <c r="S57" s="47">
         <v>0.5</v>
       </c>
-      <c r="T57" s="48">
+      <c r="T57" s="47">
         <v>0.5</v>
       </c>
-      <c r="U57" s="48">
+      <c r="U57" s="47">
         <v>0.5</v>
       </c>
-      <c r="V57" s="48">
+      <c r="V57" s="47">
         <v>0.5</v>
       </c>
-      <c r="W57" s="48">
+      <c r="W57" s="47">
         <v>0.5</v>
       </c>
-      <c r="X57" s="48">
+      <c r="X57" s="47">
         <v>0.5</v>
       </c>
-      <c r="Y57" s="48">
+      <c r="Y57" s="47">
         <v>0.5</v>
       </c>
-      <c r="Z57" s="48">
+      <c r="Z57" s="47">
         <v>0.5</v>
       </c>
-      <c r="AA57" s="48">
+      <c r="AA57" s="47">
         <v>0.5</v>
       </c>
-      <c r="AB57" s="48">
+      <c r="AB57" s="47">
         <v>0.5</v>
       </c>
-      <c r="AC57" s="48">
+      <c r="AC57" s="47">
         <v>0.5</v>
       </c>
-      <c r="AD57" s="48">
+      <c r="AD57" s="47">
         <v>0.5</v>
       </c>
-      <c r="AE57" s="48">
+      <c r="AE57" s="47">
         <v>0.5</v>
       </c>
-      <c r="AF57" s="48">
+      <c r="AF57" s="47">
         <v>0.5</v>
       </c>
-      <c r="AG57" s="48">
+      <c r="AG57" s="47">
         <v>0.5</v>
       </c>
-      <c r="AH57" s="48">
+      <c r="AH57" s="47">
         <v>0.5</v>
       </c>
-      <c r="AI57" s="48">
+      <c r="AI57" s="47">
         <v>0.5</v>
       </c>
-      <c r="AJ57" s="48">
+      <c r="AJ57" s="47">
         <v>0.5</v>
       </c>
-      <c r="AK57" s="48">
+      <c r="AK57" s="47">
         <v>0.5</v>
       </c>
-      <c r="AL57" s="48">
+      <c r="AL57" s="47">
         <v>0.5</v>
       </c>
-      <c r="AM57" s="48">
+      <c r="AM57" s="47">
         <v>0.5</v>
       </c>
-      <c r="AN57" s="48">
+      <c r="AN57" s="47">
         <v>0.5</v>
       </c>
-      <c r="AO57" s="48">
+      <c r="AO57" s="47">
         <v>0.5</v>
       </c>
     </row>
@@ -17598,122 +17604,122 @@
       <c r="B58" s="17" t="s">
         <v>46</v>
       </c>
-      <c r="C58" s="47">
-        <v>50</v>
-      </c>
-      <c r="D58" s="47">
-        <v>50</v>
-      </c>
-      <c r="E58" s="47">
-        <v>50</v>
-      </c>
-      <c r="F58" s="47">
-        <v>50</v>
-      </c>
-      <c r="G58" s="47">
-        <v>50</v>
-      </c>
-      <c r="H58" s="47">
-        <v>50</v>
-      </c>
-      <c r="I58" s="47">
-        <v>50</v>
-      </c>
-      <c r="J58" s="47">
-        <v>50</v>
-      </c>
-      <c r="K58" s="47">
-        <v>50</v>
-      </c>
-      <c r="L58" s="47">
-        <v>50</v>
-      </c>
-      <c r="M58" s="47">
-        <v>50</v>
-      </c>
-      <c r="N58" s="47">
-        <v>50</v>
-      </c>
-      <c r="O58" s="47">
-        <v>50</v>
-      </c>
-      <c r="P58" s="47">
-        <v>50</v>
-      </c>
-      <c r="Q58" s="47">
-        <v>50</v>
-      </c>
-      <c r="R58" s="47">
-        <v>50</v>
-      </c>
-      <c r="S58" s="47">
-        <v>50</v>
-      </c>
-      <c r="T58" s="47">
-        <v>50</v>
-      </c>
-      <c r="U58" s="47">
-        <v>50</v>
-      </c>
-      <c r="V58" s="47">
-        <v>50</v>
-      </c>
-      <c r="W58" s="47">
-        <v>50</v>
-      </c>
-      <c r="X58" s="47">
-        <v>50</v>
-      </c>
-      <c r="Y58" s="47">
-        <v>50</v>
-      </c>
-      <c r="Z58" s="47">
-        <v>50</v>
-      </c>
-      <c r="AA58" s="47">
-        <v>50</v>
-      </c>
-      <c r="AB58" s="47">
-        <v>50</v>
-      </c>
-      <c r="AC58" s="47">
-        <v>50</v>
-      </c>
-      <c r="AD58" s="47">
-        <v>50</v>
-      </c>
-      <c r="AE58" s="47">
-        <v>50</v>
-      </c>
-      <c r="AF58" s="47">
-        <v>50</v>
-      </c>
-      <c r="AG58" s="47">
-        <v>50</v>
-      </c>
-      <c r="AH58" s="47">
-        <v>50</v>
-      </c>
-      <c r="AI58" s="47">
-        <v>50</v>
-      </c>
-      <c r="AJ58" s="47">
-        <v>50</v>
-      </c>
-      <c r="AK58" s="47">
-        <v>50</v>
-      </c>
-      <c r="AL58" s="47">
-        <v>50</v>
-      </c>
-      <c r="AM58" s="47">
-        <v>50</v>
-      </c>
-      <c r="AN58" s="47">
-        <v>50</v>
-      </c>
-      <c r="AO58" s="47">
-        <v>50</v>
+      <c r="C58" s="63">
+        <v>28.642165487</v>
+      </c>
+      <c r="D58" s="63">
+        <v>13.709839065000001</v>
+      </c>
+      <c r="E58" s="63">
+        <v>17.116117564</v>
+      </c>
+      <c r="F58" s="63">
+        <v>20.047835054</v>
+      </c>
+      <c r="G58" s="63">
+        <v>48.813144185000013</v>
+      </c>
+      <c r="H58" s="63">
+        <v>48.597325439000002</v>
+      </c>
+      <c r="I58" s="63">
+        <v>71.115404463999994</v>
+      </c>
+      <c r="J58" s="63">
+        <v>14.86170413</v>
+      </c>
+      <c r="K58" s="63">
+        <v>20.076718505999999</v>
+      </c>
+      <c r="L58" s="63">
+        <v>17.593506775000002</v>
+      </c>
+      <c r="M58" s="63">
+        <v>85.343995515999993</v>
+      </c>
+      <c r="N58" s="63">
+        <v>13.5071625</v>
+      </c>
+      <c r="O58" s="63">
+        <v>15.383693883999999</v>
+      </c>
+      <c r="P58" s="63">
+        <v>41.343083131999997</v>
+      </c>
+      <c r="Q58" s="63">
+        <v>45.075177836000002</v>
+      </c>
+      <c r="R58" s="63">
+        <v>44.822247808000007</v>
+      </c>
+      <c r="S58" s="63">
+        <v>33.070377391999997</v>
+      </c>
+      <c r="T58" s="63">
+        <v>22.249291466999999</v>
+      </c>
+      <c r="U58" s="63">
+        <v>25.794705144000002</v>
+      </c>
+      <c r="V58" s="63">
+        <v>33.737642405999999</v>
+      </c>
+      <c r="W58" s="63">
+        <v>19.780558303999999</v>
+      </c>
+      <c r="X58" s="63">
+        <v>51.402821756000002</v>
+      </c>
+      <c r="Y58" s="63">
+        <v>33.864090234000003</v>
+      </c>
+      <c r="Z58" s="63">
+        <v>29.129919520000001</v>
+      </c>
+      <c r="AA58" s="63">
+        <v>24.819653352</v>
+      </c>
+      <c r="AB58" s="63">
+        <v>16.137710160000001</v>
+      </c>
+      <c r="AC58" s="63">
+        <v>42.757859105000009</v>
+      </c>
+      <c r="AD58" s="63">
+        <v>22.620722240999999</v>
+      </c>
+      <c r="AE58" s="63">
+        <v>20.323116593000002</v>
+      </c>
+      <c r="AF58" s="63">
+        <v>74.025039647</v>
+      </c>
+      <c r="AG58" s="63">
+        <v>19.924262202000001</v>
+      </c>
+      <c r="AH58" s="63">
+        <v>46.626702238999997</v>
+      </c>
+      <c r="AI58" s="63">
+        <v>68.383762524999995</v>
+      </c>
+      <c r="AJ58" s="63">
+        <v>13.702268788</v>
+      </c>
+      <c r="AK58" s="63">
+        <v>13.557096163000001</v>
+      </c>
+      <c r="AL58" s="63">
+        <v>15.766890009000001</v>
+      </c>
+      <c r="AM58" s="63">
+        <v>33.032526019999999</v>
+      </c>
+      <c r="AN58" s="63">
+        <v>60.047136006000002</v>
+      </c>
+      <c r="AO58" s="63">
+        <v>18.033061254</v>
       </c>
     </row>
     <row r="59" spans="1:41" x14ac:dyDescent="0.35">
@@ -17721,121 +17727,121 @@
       <c r="B59" s="17" t="s">
         <v>47</v>
       </c>
-      <c r="C59" s="48">
-        <v>0</v>
-      </c>
-      <c r="D59" s="48">
-        <v>0</v>
-      </c>
-      <c r="E59" s="48">
-        <v>0</v>
-      </c>
-      <c r="F59" s="48">
-        <v>0</v>
-      </c>
-      <c r="G59" s="48">
-        <v>0</v>
-      </c>
-      <c r="H59" s="48">
-        <v>0</v>
-      </c>
-      <c r="I59" s="48">
-        <v>0</v>
-      </c>
-      <c r="J59" s="48">
-        <v>0</v>
-      </c>
-      <c r="K59" s="48">
-        <v>0</v>
-      </c>
-      <c r="L59" s="48">
-        <v>0</v>
-      </c>
-      <c r="M59" s="48">
-        <v>0</v>
-      </c>
-      <c r="N59" s="48">
-        <v>0</v>
-      </c>
-      <c r="O59" s="48">
-        <v>0</v>
-      </c>
-      <c r="P59" s="48">
-        <v>0</v>
-      </c>
-      <c r="Q59" s="48">
-        <v>0</v>
-      </c>
-      <c r="R59" s="48">
-        <v>0</v>
-      </c>
-      <c r="S59" s="48">
-        <v>0</v>
-      </c>
-      <c r="T59" s="48">
-        <v>0</v>
-      </c>
-      <c r="U59" s="48">
-        <v>0</v>
-      </c>
-      <c r="V59" s="48">
-        <v>0</v>
-      </c>
-      <c r="W59" s="48">
-        <v>0</v>
-      </c>
-      <c r="X59" s="48">
-        <v>0</v>
-      </c>
-      <c r="Y59" s="48">
-        <v>0</v>
-      </c>
-      <c r="Z59" s="48">
-        <v>0</v>
-      </c>
-      <c r="AA59" s="48">
-        <v>0</v>
-      </c>
-      <c r="AB59" s="48">
-        <v>0</v>
-      </c>
-      <c r="AC59" s="48">
-        <v>0</v>
-      </c>
-      <c r="AD59" s="48">
-        <v>0</v>
-      </c>
-      <c r="AE59" s="48">
-        <v>0</v>
-      </c>
-      <c r="AF59" s="48">
-        <v>0</v>
-      </c>
-      <c r="AG59" s="48">
-        <v>0</v>
-      </c>
-      <c r="AH59" s="48">
-        <v>0</v>
-      </c>
-      <c r="AI59" s="48">
-        <v>0</v>
-      </c>
-      <c r="AJ59" s="48">
-        <v>0</v>
-      </c>
-      <c r="AK59" s="48">
-        <v>0</v>
-      </c>
-      <c r="AL59" s="48">
-        <v>0</v>
-      </c>
-      <c r="AM59" s="48">
-        <v>0</v>
-      </c>
-      <c r="AN59" s="48">
-        <v>0</v>
-      </c>
-      <c r="AO59" s="48">
+      <c r="C59" s="47">
+        <v>0</v>
+      </c>
+      <c r="D59" s="47">
+        <v>0</v>
+      </c>
+      <c r="E59" s="47">
+        <v>0</v>
+      </c>
+      <c r="F59" s="47">
+        <v>0</v>
+      </c>
+      <c r="G59" s="47">
+        <v>0</v>
+      </c>
+      <c r="H59" s="47">
+        <v>0</v>
+      </c>
+      <c r="I59" s="47">
+        <v>0</v>
+      </c>
+      <c r="J59" s="47">
+        <v>0</v>
+      </c>
+      <c r="K59" s="47">
+        <v>0</v>
+      </c>
+      <c r="L59" s="47">
+        <v>0</v>
+      </c>
+      <c r="M59" s="47">
+        <v>0</v>
+      </c>
+      <c r="N59" s="47">
+        <v>0</v>
+      </c>
+      <c r="O59" s="47">
+        <v>0</v>
+      </c>
+      <c r="P59" s="47">
+        <v>0</v>
+      </c>
+      <c r="Q59" s="47">
+        <v>0</v>
+      </c>
+      <c r="R59" s="47">
+        <v>0</v>
+      </c>
+      <c r="S59" s="47">
+        <v>0</v>
+      </c>
+      <c r="T59" s="47">
+        <v>0</v>
+      </c>
+      <c r="U59" s="47">
+        <v>0</v>
+      </c>
+      <c r="V59" s="47">
+        <v>0</v>
+      </c>
+      <c r="W59" s="47">
+        <v>0</v>
+      </c>
+      <c r="X59" s="47">
+        <v>0</v>
+      </c>
+      <c r="Y59" s="47">
+        <v>0</v>
+      </c>
+      <c r="Z59" s="47">
+        <v>0</v>
+      </c>
+      <c r="AA59" s="47">
+        <v>0</v>
+      </c>
+      <c r="AB59" s="47">
+        <v>0</v>
+      </c>
+      <c r="AC59" s="47">
+        <v>0</v>
+      </c>
+      <c r="AD59" s="47">
+        <v>0</v>
+      </c>
+      <c r="AE59" s="47">
+        <v>0</v>
+      </c>
+      <c r="AF59" s="47">
+        <v>0</v>
+      </c>
+      <c r="AG59" s="47">
+        <v>0</v>
+      </c>
+      <c r="AH59" s="47">
+        <v>0</v>
+      </c>
+      <c r="AI59" s="47">
+        <v>0</v>
+      </c>
+      <c r="AJ59" s="47">
+        <v>0</v>
+      </c>
+      <c r="AK59" s="47">
+        <v>0</v>
+      </c>
+      <c r="AL59" s="47">
+        <v>0</v>
+      </c>
+      <c r="AM59" s="47">
+        <v>0</v>
+      </c>
+      <c r="AN59" s="47">
+        <v>0</v>
+      </c>
+      <c r="AO59" s="47">
         <v>0</v>
       </c>
     </row>
@@ -17844,121 +17850,121 @@
       <c r="B60" s="18" t="s">
         <v>48</v>
       </c>
-      <c r="C60" s="53">
+      <c r="C60" s="52">
         <v>4.6716931457088542</v>
       </c>
-      <c r="D60" s="54">
+      <c r="D60" s="53">
         <v>4.6231738119050254</v>
       </c>
-      <c r="E60" s="54">
+      <c r="E60" s="53">
         <v>4.7726206851751183</v>
       </c>
-      <c r="F60" s="54">
+      <c r="F60" s="53">
         <v>4.7246596253655113</v>
       </c>
-      <c r="G60" s="54">
+      <c r="G60" s="53">
         <v>4.6661796049705293</v>
       </c>
-      <c r="H60" s="54">
+      <c r="H60" s="53">
         <v>4.6127116700572044</v>
       </c>
-      <c r="I60" s="54">
+      <c r="I60" s="53">
         <v>4.6621964643431317</v>
       </c>
-      <c r="J60" s="54">
+      <c r="J60" s="53">
         <v>4.6650366644053491</v>
       </c>
-      <c r="K60" s="54">
+      <c r="K60" s="53">
         <v>4.7459212356676126</v>
       </c>
-      <c r="L60" s="54">
+      <c r="L60" s="53">
         <v>4.7275114942710426</v>
       </c>
-      <c r="M60" s="54">
+      <c r="M60" s="53">
         <v>4.777442548515265</v>
       </c>
-      <c r="N60" s="54">
+      <c r="N60" s="53">
         <v>4.6944429850323894</v>
       </c>
-      <c r="O60" s="54">
+      <c r="O60" s="53">
         <v>4.6239188491876604</v>
       </c>
-      <c r="P60" s="54">
+      <c r="P60" s="53">
         <v>4.7426489574445991</v>
       </c>
-      <c r="Q60" s="54">
+      <c r="Q60" s="53">
         <v>4.752157009723379</v>
       </c>
-      <c r="R60" s="54">
+      <c r="R60" s="53">
         <v>4.7122554395138989</v>
       </c>
-      <c r="S60" s="54">
+      <c r="S60" s="53">
         <v>4.7541934359909117</v>
       </c>
-      <c r="T60" s="54">
+      <c r="T60" s="53">
         <v>4.6987591192728777</v>
       </c>
-      <c r="U60" s="54">
+      <c r="U60" s="53">
         <v>4.7045465658763987</v>
       </c>
-      <c r="V60" s="54">
+      <c r="V60" s="53">
         <v>4.6855082036717093</v>
       </c>
-      <c r="W60" s="54">
+      <c r="W60" s="53">
         <v>4.6050838253488191</v>
       </c>
-      <c r="X60" s="54">
+      <c r="X60" s="53">
         <v>4.6215782853986607</v>
       </c>
-      <c r="Y60" s="54">
+      <c r="Y60" s="53">
         <v>4.6062858371373467</v>
       </c>
-      <c r="Z60" s="54">
+      <c r="Z60" s="53">
         <v>4.7272820822527546</v>
       </c>
-      <c r="AA60" s="54">
+      <c r="AA60" s="53">
         <v>4.6628711962152654</v>
       </c>
-      <c r="AB60" s="54">
+      <c r="AB60" s="53">
         <v>4.7017141382329406</v>
       </c>
-      <c r="AC60" s="54">
+      <c r="AC60" s="53">
         <v>4.7815132947852188</v>
       </c>
-      <c r="AD60" s="54">
+      <c r="AD60" s="53">
         <v>4.6498584458297749</v>
       </c>
-      <c r="AE60" s="54">
+      <c r="AE60" s="53">
         <v>4.6820765846071257</v>
       </c>
-      <c r="AF60" s="54">
+      <c r="AF60" s="53">
         <v>4.7511102277086099</v>
       </c>
-      <c r="AG60" s="54">
+      <c r="AG60" s="53">
         <v>4.645759633098324</v>
       </c>
-      <c r="AH60" s="54">
+      <c r="AH60" s="53">
         <v>4.615395981965758</v>
       </c>
-      <c r="AI60" s="54">
+      <c r="AI60" s="53">
         <v>4.657950290582753</v>
       </c>
-      <c r="AJ60" s="54">
+      <c r="AJ60" s="53">
         <v>4.6322442574508003</v>
       </c>
-      <c r="AK60" s="54">
+      <c r="AK60" s="53">
         <v>4.7859395304685144</v>
       </c>
-      <c r="AL60" s="54">
+      <c r="AL60" s="53">
         <v>4.7616240759128834</v>
       </c>
-      <c r="AM60" s="54">
+      <c r="AM60" s="53">
         <v>4.7266807513020854</v>
       </c>
-      <c r="AN60" s="54">
+      <c r="AN60" s="53">
         <v>4.7742921180375433</v>
       </c>
-      <c r="AO60" s="54">
+      <c r="AO60" s="53">
         <v>4.7607344153798223</v>
       </c>
     </row>
@@ -25403,7 +25409,7 @@
       </c>
     </row>
     <row r="41" spans="1:25" ht="23.5" x14ac:dyDescent="0.55000000000000004">
-      <c r="A41" s="49">
+      <c r="A41" s="48">
         <v>39</v>
       </c>
       <c r="B41" s="30">
@@ -31953,7 +31959,7 @@
       </c>
     </row>
     <row r="41" spans="1:25" x14ac:dyDescent="0.45">
-      <c r="A41" s="50">
+      <c r="A41" s="49">
         <v>39</v>
       </c>
       <c r="B41" s="44">
@@ -32035,18 +32041,18 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
   <Edit>DocumentLibraryForm</Edit>
   <New>DocumentLibraryForm</New>
 </FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
@@ -32261,14 +32267,6 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{00860459-9AB3-404C-9E09-2F98C31A67E6}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{47108D9C-9F22-4BF8-A049-F9C9D73243DC}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
@@ -32281,6 +32279,14 @@
     <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
     <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
     <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{00860459-9AB3-404C-9E09-2F98C31A67E6}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>

--- a/Input Data - Resources 1.xlsx
+++ b/Input Data - Resources 1.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28526"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28827"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hugo.serrano\PycharmProjects1\CRETE_VALLEY_T.4.3\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B1756455-D92F-4386-BDD0-A1E0EF9BAFED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CDE619BC-2635-4EB3-A886-B0FD24037D39}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="38640" windowHeight="21120" tabRatio="907" activeTab="3" xr2:uid="{A643D732-D500-40EC-92C3-BB1380872BE9}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="907" activeTab="3" xr2:uid="{A643D732-D500-40EC-92C3-BB1380872BE9}"/>
   </bookViews>
   <sheets>
     <sheet name="Electrical load" sheetId="1" r:id="rId1"/>
@@ -589,6 +589,15 @@
     <xf numFmtId="0" fontId="13" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -605,15 +614,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -932,8 +932,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{293146E6-8E2D-4ADC-82E7-CE7DA50FFBD7}">
   <dimension ref="A2:Z43"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="W27" sqref="W27"/>
+    <sheetView showGridLines="0" topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C18" sqref="C18:Z18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.90625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1180,76 +1180,76 @@
         <v>3</v>
       </c>
       <c r="C5" s="54">
-        <v>5</v>
+        <v>25.347000000000001</v>
       </c>
       <c r="D5" s="54">
-        <v>6</v>
+        <v>25.552</v>
       </c>
       <c r="E5" s="54">
-        <v>5</v>
+        <v>24.72</v>
       </c>
       <c r="F5" s="54">
-        <v>6</v>
+        <v>24.783999999999999</v>
       </c>
       <c r="G5" s="54">
-        <v>6</v>
+        <v>25.861999999999998</v>
       </c>
       <c r="H5" s="54">
-        <v>6</v>
+        <v>25.306000000000001</v>
       </c>
       <c r="I5" s="54">
-        <v>9.6000000000000014</v>
+        <v>40.2592</v>
       </c>
       <c r="J5" s="54">
-        <v>11</v>
+        <v>33.139000000000003</v>
       </c>
       <c r="K5" s="54">
-        <v>23</v>
+        <v>36.621000000000002</v>
       </c>
       <c r="L5" s="54">
-        <v>25</v>
+        <v>44.304000000000002</v>
       </c>
       <c r="M5" s="54">
-        <v>24</v>
+        <v>53.628999999999998</v>
       </c>
       <c r="N5" s="54">
-        <v>25</v>
+        <v>57.616999999999997</v>
       </c>
       <c r="O5" s="54">
-        <v>27</v>
+        <v>55.176000000000002</v>
       </c>
       <c r="P5" s="54">
-        <v>23</v>
+        <v>58.177</v>
       </c>
       <c r="Q5" s="54">
-        <v>21</v>
+        <v>58.219000000000001</v>
       </c>
       <c r="R5" s="54">
-        <v>21</v>
+        <v>54.584000000000003</v>
       </c>
       <c r="S5" s="54">
-        <v>17</v>
+        <v>51.578000000000003</v>
       </c>
       <c r="T5" s="54">
-        <v>34.5</v>
+        <v>65.9178</v>
       </c>
       <c r="U5" s="54">
-        <v>30</v>
+        <v>63.375999999999998</v>
       </c>
       <c r="V5" s="54">
-        <v>31</v>
+        <v>69.558000000000007</v>
       </c>
       <c r="W5" s="54">
-        <v>28</v>
+        <v>68.349000000000004</v>
       </c>
       <c r="X5" s="54">
-        <v>7</v>
+        <v>26.768000000000001</v>
       </c>
       <c r="Y5" s="54">
-        <v>6</v>
+        <v>26.358000000000001</v>
       </c>
       <c r="Z5" s="54">
-        <v>5</v>
+        <v>25.446000000000002</v>
       </c>
     </row>
     <row r="6" spans="1:26" x14ac:dyDescent="0.35">
@@ -1719,76 +1719,76 @@
         <v>10</v>
       </c>
       <c r="C12" s="54">
-        <v>0</v>
+        <v>25.347000000000001</v>
       </c>
       <c r="D12" s="54">
-        <v>0</v>
+        <v>25.552</v>
       </c>
       <c r="E12" s="54">
-        <v>0</v>
+        <v>24.72</v>
       </c>
       <c r="F12" s="54">
-        <v>0</v>
+        <v>24.783999999999999</v>
       </c>
       <c r="G12" s="54">
-        <v>0</v>
+        <v>25.861999999999998</v>
       </c>
       <c r="H12" s="54">
-        <v>0</v>
+        <v>25.306000000000001</v>
       </c>
       <c r="I12" s="54">
-        <v>0</v>
+        <v>40.2592</v>
       </c>
       <c r="J12" s="54">
-        <v>0</v>
+        <v>33.139000000000003</v>
       </c>
       <c r="K12" s="54">
-        <v>0</v>
+        <v>36.621000000000002</v>
       </c>
       <c r="L12" s="54">
-        <v>0</v>
+        <v>44.304000000000002</v>
       </c>
       <c r="M12" s="54">
-        <v>0</v>
+        <v>53.628999999999998</v>
       </c>
       <c r="N12" s="54">
-        <v>0</v>
+        <v>57.616999999999997</v>
       </c>
       <c r="O12" s="54">
-        <v>0</v>
+        <v>55.176000000000002</v>
       </c>
       <c r="P12" s="54">
-        <v>0</v>
+        <v>58.177</v>
       </c>
       <c r="Q12" s="54">
-        <v>0</v>
+        <v>58.219000000000001</v>
       </c>
       <c r="R12" s="54">
-        <v>0</v>
+        <v>54.584000000000003</v>
       </c>
       <c r="S12" s="54">
-        <v>0</v>
+        <v>51.578000000000003</v>
       </c>
       <c r="T12" s="54">
-        <v>0</v>
+        <v>65.9178</v>
       </c>
       <c r="U12" s="54">
-        <v>0</v>
+        <v>63.375999999999998</v>
       </c>
       <c r="V12" s="54">
-        <v>0</v>
+        <v>69.558000000000007</v>
       </c>
       <c r="W12" s="54">
-        <v>0</v>
+        <v>68.349000000000004</v>
       </c>
       <c r="X12" s="54">
-        <v>0</v>
+        <v>26.768000000000001</v>
       </c>
       <c r="Y12" s="54">
-        <v>0</v>
+        <v>26.358000000000001</v>
       </c>
       <c r="Z12" s="54">
-        <v>0</v>
+        <v>25.446000000000002</v>
       </c>
     </row>
     <row r="13" spans="1:26" x14ac:dyDescent="0.35">
@@ -2181,76 +2181,76 @@
         <v>16</v>
       </c>
       <c r="C18" s="54">
-        <v>98</v>
+        <v>77.081639600000003</v>
       </c>
       <c r="D18" s="54">
-        <v>92</v>
+        <v>76.205639599999998</v>
       </c>
       <c r="E18" s="54">
-        <v>90</v>
+        <v>77.573806099999999</v>
       </c>
       <c r="F18" s="54">
-        <v>91</v>
+        <v>75.894639600000005</v>
       </c>
       <c r="G18" s="54">
-        <v>90</v>
+        <v>76.521139499999904</v>
       </c>
       <c r="H18" s="54">
-        <v>97</v>
+        <v>78.041639599999996</v>
       </c>
       <c r="I18" s="54">
-        <v>254.4</v>
+        <v>138.90155632000003</v>
       </c>
       <c r="J18" s="54">
-        <v>206</v>
+        <v>107.0398029</v>
       </c>
       <c r="K18" s="54">
-        <v>240</v>
+        <v>141.36430200000001</v>
       </c>
       <c r="L18" s="54">
-        <v>291</v>
+        <v>174.7566344</v>
       </c>
       <c r="M18" s="54">
-        <v>318</v>
+        <v>176.8601353</v>
       </c>
       <c r="N18" s="54">
-        <v>323</v>
+        <v>176.50713210000001</v>
       </c>
       <c r="O18" s="54">
-        <v>322</v>
+        <v>176.68196620000001</v>
       </c>
       <c r="P18" s="54">
-        <v>308</v>
+        <v>177.60013069999999</v>
       </c>
       <c r="Q18" s="54">
-        <v>303</v>
+        <v>173.07829939999999</v>
       </c>
       <c r="R18" s="54">
-        <v>299</v>
+        <v>172.9864657</v>
       </c>
       <c r="S18" s="54">
-        <v>289</v>
+        <v>171.86096659999899</v>
       </c>
       <c r="T18" s="54">
-        <v>408</v>
+        <v>254.45574360000003</v>
       </c>
       <c r="U18" s="54">
-        <v>436</v>
+        <v>213.27413530000001</v>
       </c>
       <c r="V18" s="54">
-        <v>429</v>
+        <v>201.42347029999999</v>
       </c>
       <c r="W18" s="54">
-        <v>395</v>
+        <v>193.4893036</v>
       </c>
       <c r="X18" s="54">
-        <v>191</v>
+        <v>90.646970199999998</v>
       </c>
       <c r="Y18" s="54">
-        <v>186</v>
+        <v>86.497136900000001</v>
       </c>
       <c r="Z18" s="54">
-        <v>179</v>
+        <v>84.372804500000001</v>
       </c>
     </row>
     <row r="19" spans="2:26" x14ac:dyDescent="0.35">
@@ -2258,76 +2258,76 @@
         <v>17</v>
       </c>
       <c r="C19" s="54">
-        <v>0</v>
+        <v>77.081639600000003</v>
       </c>
       <c r="D19" s="54">
-        <v>0</v>
+        <v>76.205639599999998</v>
       </c>
       <c r="E19" s="54">
-        <v>0</v>
+        <v>77.573806099999999</v>
       </c>
       <c r="F19" s="54">
-        <v>0</v>
+        <v>75.894639600000005</v>
       </c>
       <c r="G19" s="54">
-        <v>0</v>
+        <v>76.521139499999904</v>
       </c>
       <c r="H19" s="54">
-        <v>0</v>
+        <v>78.041639599999996</v>
       </c>
       <c r="I19" s="54">
-        <v>0</v>
+        <v>138.90155632000003</v>
       </c>
       <c r="J19" s="54">
-        <v>0</v>
+        <v>107.0398029</v>
       </c>
       <c r="K19" s="54">
-        <v>0</v>
+        <v>141.36430200000001</v>
       </c>
       <c r="L19" s="54">
-        <v>0</v>
+        <v>174.7566344</v>
       </c>
       <c r="M19" s="54">
-        <v>0</v>
+        <v>176.8601353</v>
       </c>
       <c r="N19" s="54">
-        <v>0</v>
+        <v>176.50713210000001</v>
       </c>
       <c r="O19" s="54">
-        <v>0</v>
+        <v>176.68196620000001</v>
       </c>
       <c r="P19" s="54">
-        <v>0</v>
+        <v>177.60013069999999</v>
       </c>
       <c r="Q19" s="54">
-        <v>0</v>
+        <v>173.07829939999999</v>
       </c>
       <c r="R19" s="54">
-        <v>0</v>
+        <v>172.9864657</v>
       </c>
       <c r="S19" s="54">
-        <v>0</v>
+        <v>171.86096659999899</v>
       </c>
       <c r="T19" s="54">
-        <v>0</v>
+        <v>254.45574360000003</v>
       </c>
       <c r="U19" s="54">
-        <v>0</v>
+        <v>213.27413530000001</v>
       </c>
       <c r="V19" s="54">
-        <v>0</v>
+        <v>201.42347029999999</v>
       </c>
       <c r="W19" s="54">
-        <v>0</v>
+        <v>193.4893036</v>
       </c>
       <c r="X19" s="54">
-        <v>0</v>
+        <v>90.646970199999998</v>
       </c>
       <c r="Y19" s="54">
-        <v>0</v>
+        <v>86.497136900000001</v>
       </c>
       <c r="Z19" s="54">
-        <v>0</v>
+        <v>84.372804500000001</v>
       </c>
     </row>
     <row r="20" spans="2:26" x14ac:dyDescent="0.35">
@@ -2566,76 +2566,76 @@
         <v>21</v>
       </c>
       <c r="C23" s="54">
-        <v>0</v>
+        <v>506.14800000000002</v>
       </c>
       <c r="D23" s="54">
-        <v>0</v>
+        <v>494.697</v>
       </c>
       <c r="E23" s="54">
-        <v>0</v>
+        <v>500.779</v>
       </c>
       <c r="F23" s="54">
-        <v>0</v>
+        <v>497.77699999999999</v>
       </c>
       <c r="G23" s="54">
-        <v>0</v>
+        <v>501.40800000000002</v>
       </c>
       <c r="H23" s="54">
-        <v>0</v>
+        <v>508.61700000000002</v>
       </c>
       <c r="I23" s="54">
-        <v>0</v>
+        <v>831.36640000000011</v>
       </c>
       <c r="J23" s="54">
-        <v>0</v>
+        <v>593.13</v>
       </c>
       <c r="K23" s="54">
-        <v>0</v>
+        <v>699.33799999999997</v>
       </c>
       <c r="L23" s="54">
-        <v>0</v>
+        <v>796.60400000000004</v>
       </c>
       <c r="M23" s="54">
-        <v>0</v>
+        <v>877.86599999999999</v>
       </c>
       <c r="N23" s="54">
-        <v>0</v>
+        <v>893.30700000000002</v>
       </c>
       <c r="O23" s="54">
-        <v>0</v>
+        <v>896.11</v>
       </c>
       <c r="P23" s="54">
-        <v>0</v>
+        <v>873.53300000000002</v>
       </c>
       <c r="Q23" s="54">
-        <v>0</v>
+        <v>868.63400000000001</v>
       </c>
       <c r="R23" s="54">
-        <v>0</v>
+        <v>862.76599999999996</v>
       </c>
       <c r="S23" s="54">
-        <v>0</v>
+        <v>787.52700000000004</v>
       </c>
       <c r="T23" s="54">
-        <v>0</v>
+        <v>1678.4111999999998</v>
       </c>
       <c r="U23" s="54">
-        <v>0</v>
+        <v>1572.9659999999999</v>
       </c>
       <c r="V23" s="54">
-        <v>0</v>
+        <v>1539.982</v>
       </c>
       <c r="W23" s="54">
-        <v>0</v>
+        <v>1521.2629999999999</v>
       </c>
       <c r="X23" s="54">
-        <v>0</v>
+        <v>509.49599999999998</v>
       </c>
       <c r="Y23" s="54">
-        <v>0</v>
+        <v>503.91399999999999</v>
       </c>
       <c r="Z23" s="54">
-        <v>0</v>
+        <v>499.52600000000001</v>
       </c>
     </row>
     <row r="24" spans="2:26" x14ac:dyDescent="0.35">
@@ -3336,76 +3336,76 @@
         <v>31</v>
       </c>
       <c r="C33" s="54">
-        <v>506.14800000000002</v>
+        <v>0</v>
       </c>
       <c r="D33" s="54">
-        <v>494.697</v>
+        <v>0</v>
       </c>
       <c r="E33" s="54">
-        <v>500.779</v>
+        <v>0</v>
       </c>
       <c r="F33" s="54">
-        <v>497.77699999999999</v>
+        <v>0</v>
       </c>
       <c r="G33" s="54">
-        <v>501.40800000000002</v>
+        <v>0</v>
       </c>
       <c r="H33" s="54">
-        <v>508.61700000000002</v>
+        <v>0</v>
       </c>
       <c r="I33" s="54">
-        <v>831.36640000000011</v>
+        <v>0</v>
       </c>
       <c r="J33" s="54">
-        <v>593.13</v>
+        <v>0</v>
       </c>
       <c r="K33" s="54">
-        <v>699.33799999999997</v>
+        <v>0</v>
       </c>
       <c r="L33" s="54">
-        <v>796.60400000000004</v>
+        <v>0</v>
       </c>
       <c r="M33" s="54">
-        <v>877.86599999999999</v>
+        <v>0</v>
       </c>
       <c r="N33" s="54">
-        <v>893.30700000000002</v>
+        <v>0</v>
       </c>
       <c r="O33" s="54">
-        <v>896.11</v>
+        <v>0</v>
       </c>
       <c r="P33" s="54">
-        <v>873.53300000000002</v>
+        <v>0</v>
       </c>
       <c r="Q33" s="54">
-        <v>868.63400000000001</v>
+        <v>0</v>
       </c>
       <c r="R33" s="54">
-        <v>862.76599999999996</v>
+        <v>0</v>
       </c>
       <c r="S33" s="54">
-        <v>787.52700000000004</v>
+        <v>0</v>
       </c>
       <c r="T33" s="54">
-        <v>1678.4111999999998</v>
+        <v>0</v>
       </c>
       <c r="U33" s="54">
-        <v>1572.9659999999999</v>
+        <v>0</v>
       </c>
       <c r="V33" s="54">
-        <v>1539.982</v>
+        <v>0</v>
       </c>
       <c r="W33" s="54">
-        <v>1521.2629999999999</v>
+        <v>0</v>
       </c>
       <c r="X33" s="54">
-        <v>509.49599999999998</v>
+        <v>0</v>
       </c>
       <c r="Y33" s="54">
-        <v>503.91399999999999</v>
+        <v>0</v>
       </c>
       <c r="Z33" s="54">
-        <v>499.52600000000001</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34" spans="2:26" x14ac:dyDescent="0.35">
@@ -3567,76 +3567,76 @@
         <v>34</v>
       </c>
       <c r="C36" s="54">
-        <v>99.894999999999996</v>
+        <v>77.081639600000003</v>
       </c>
       <c r="D36" s="54">
-        <v>80.106999999999999</v>
+        <v>76.205639599999998</v>
       </c>
       <c r="E36" s="54">
-        <v>67.613</v>
+        <v>77.573806099999999</v>
       </c>
       <c r="F36" s="54">
-        <v>45.598999999999997</v>
+        <v>75.894639600000005</v>
       </c>
       <c r="G36" s="54">
-        <v>41.491</v>
+        <v>76.521139499999904</v>
       </c>
       <c r="H36" s="54">
-        <v>42.502000000000002</v>
+        <v>78.041639599999996</v>
       </c>
       <c r="I36" s="54">
-        <v>82.678400000000011</v>
+        <v>138.90155632000003</v>
       </c>
       <c r="J36" s="54">
-        <v>55.398000000000003</v>
+        <v>107.0398029</v>
       </c>
       <c r="K36" s="54">
-        <v>84.432000000000002</v>
+        <v>141.36430200000001</v>
       </c>
       <c r="L36" s="54">
-        <v>101.02</v>
+        <v>174.7566344</v>
       </c>
       <c r="M36" s="54">
-        <v>104.41</v>
+        <v>176.8601353</v>
       </c>
       <c r="N36" s="54">
-        <v>108.95</v>
+        <v>176.50713210000001</v>
       </c>
       <c r="O36" s="54">
-        <v>117.32599999999999</v>
+        <v>176.68196620000001</v>
       </c>
       <c r="P36" s="54">
-        <v>108.941</v>
+        <v>177.60013069999999</v>
       </c>
       <c r="Q36" s="54">
-        <v>107.072</v>
+        <v>173.07829939999999</v>
       </c>
       <c r="R36" s="54">
-        <v>95.1</v>
+        <v>172.9864657</v>
       </c>
       <c r="S36" s="54">
-        <v>92.683999999999997</v>
+        <v>171.86096659999899</v>
       </c>
       <c r="T36" s="54">
-        <v>135.09120000000001</v>
+        <v>254.45574360000003</v>
       </c>
       <c r="U36" s="54">
-        <v>105.667</v>
+        <v>213.27413530000001</v>
       </c>
       <c r="V36" s="54">
-        <v>102.72499999999999</v>
+        <v>201.42347029999999</v>
       </c>
       <c r="W36" s="54">
-        <v>108.17400000000001</v>
+        <v>193.4893036</v>
       </c>
       <c r="X36" s="54">
-        <v>120.72</v>
+        <v>90.646970199999998</v>
       </c>
       <c r="Y36" s="54">
-        <v>116.45399999999999</v>
+        <v>86.497136900000001</v>
       </c>
       <c r="Z36" s="54">
-        <v>113.819</v>
+        <v>84.372804500000001</v>
       </c>
     </row>
     <row r="37" spans="2:26" x14ac:dyDescent="0.35">
@@ -3875,76 +3875,76 @@
         <v>38</v>
       </c>
       <c r="C40" s="54">
-        <v>0</v>
+        <v>77.081639600000003</v>
       </c>
       <c r="D40" s="54">
-        <v>0</v>
+        <v>76.205639599999998</v>
       </c>
       <c r="E40" s="54">
-        <v>0</v>
+        <v>77.573806099999999</v>
       </c>
       <c r="F40" s="54">
-        <v>0</v>
+        <v>75.894639600000005</v>
       </c>
       <c r="G40" s="54">
-        <v>0</v>
+        <v>76.521139499999904</v>
       </c>
       <c r="H40" s="54">
-        <v>0</v>
+        <v>78.041639599999996</v>
       </c>
       <c r="I40" s="54">
-        <v>0</v>
+        <v>138.90155632000003</v>
       </c>
       <c r="J40" s="54">
-        <v>0</v>
+        <v>107.0398029</v>
       </c>
       <c r="K40" s="54">
-        <v>0</v>
+        <v>141.36430200000001</v>
       </c>
       <c r="L40" s="54">
-        <v>0</v>
+        <v>174.7566344</v>
       </c>
       <c r="M40" s="54">
-        <v>0</v>
+        <v>176.8601353</v>
       </c>
       <c r="N40" s="54">
-        <v>0</v>
+        <v>176.50713210000001</v>
       </c>
       <c r="O40" s="54">
-        <v>0</v>
+        <v>176.68196620000001</v>
       </c>
       <c r="P40" s="54">
-        <v>0</v>
+        <v>177.60013069999999</v>
       </c>
       <c r="Q40" s="54">
-        <v>0</v>
+        <v>173.07829939999999</v>
       </c>
       <c r="R40" s="54">
-        <v>0</v>
+        <v>172.9864657</v>
       </c>
       <c r="S40" s="54">
-        <v>0</v>
+        <v>171.86096659999899</v>
       </c>
       <c r="T40" s="54">
-        <v>0</v>
+        <v>254.45574360000003</v>
       </c>
       <c r="U40" s="54">
-        <v>0</v>
+        <v>213.27413530000001</v>
       </c>
       <c r="V40" s="54">
-        <v>0</v>
+        <v>201.42347029999999</v>
       </c>
       <c r="W40" s="54">
-        <v>0</v>
+        <v>193.4893036</v>
       </c>
       <c r="X40" s="54">
-        <v>0</v>
+        <v>90.646970199999998</v>
       </c>
       <c r="Y40" s="54">
-        <v>0</v>
+        <v>86.497136900000001</v>
       </c>
       <c r="Z40" s="54">
-        <v>0</v>
+        <v>84.372804500000001</v>
       </c>
     </row>
     <row r="41" spans="2:26" x14ac:dyDescent="0.35">
@@ -4038,7 +4038,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A6FD6103-A9EE-4309-90E6-57003CAE8224}">
   <dimension ref="B2:Z41"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="A10" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="K27" sqref="K27"/>
     </sheetView>
   </sheetViews>
@@ -10284,8 +10284,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F55E9F5A-A300-40CA-B4B1-E8AE734BE43C}">
   <dimension ref="A2:IE70"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A13" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C58" sqref="C58"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="AH61" sqref="AH61:AH66"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.90625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -10421,7 +10421,7 @@
       </c>
     </row>
     <row r="3" spans="1:41" x14ac:dyDescent="0.35">
-      <c r="A3" s="58" t="s">
+      <c r="A3" s="61" t="s">
         <v>57</v>
       </c>
       <c r="B3" s="11" t="s">
@@ -10455,10 +10455,10 @@
         <v>0</v>
       </c>
       <c r="L3" s="13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M3" s="13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N3" s="13">
         <v>0</v>
@@ -10476,10 +10476,10 @@
         <v>0</v>
       </c>
       <c r="S3" s="13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T3" s="13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U3" s="13">
         <v>0</v>
@@ -10491,7 +10491,7 @@
         <v>0</v>
       </c>
       <c r="X3" s="13">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y3" s="13">
         <v>0</v>
@@ -10518,7 +10518,7 @@
         <v>0</v>
       </c>
       <c r="AG3" s="13">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AH3" s="13">
         <v>0</v>
@@ -10546,7 +10546,7 @@
       </c>
     </row>
     <row r="4" spans="1:41" x14ac:dyDescent="0.35">
-      <c r="A4" s="59"/>
+      <c r="A4" s="62"/>
       <c r="B4" s="11" t="s">
         <v>21</v>
       </c>
@@ -10578,10 +10578,10 @@
         <v>0</v>
       </c>
       <c r="L4" s="8">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="M4" s="8">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="N4" s="8">
         <v>0</v>
@@ -10599,10 +10599,10 @@
         <v>0</v>
       </c>
       <c r="S4" s="8">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="T4" s="8">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="U4" s="8">
         <v>0</v>
@@ -10614,7 +10614,7 @@
         <v>0</v>
       </c>
       <c r="X4" s="8">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="Y4" s="8">
         <v>0</v>
@@ -10641,7 +10641,7 @@
         <v>0</v>
       </c>
       <c r="AG4" s="8">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="AH4" s="8">
         <v>0</v>
@@ -10669,7 +10669,7 @@
       </c>
     </row>
     <row r="5" spans="1:41" x14ac:dyDescent="0.35">
-      <c r="A5" s="59"/>
+      <c r="A5" s="62"/>
       <c r="B5" s="11" t="s">
         <v>22</v>
       </c>
@@ -10701,10 +10701,10 @@
         <v>0</v>
       </c>
       <c r="L5" s="8">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="M5" s="8">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="N5" s="8">
         <v>0</v>
@@ -10722,10 +10722,10 @@
         <v>0</v>
       </c>
       <c r="S5" s="8">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="T5" s="8">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="U5" s="8">
         <v>0</v>
@@ -10737,7 +10737,7 @@
         <v>0</v>
       </c>
       <c r="X5" s="8">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="Y5" s="8">
         <v>0</v>
@@ -10764,7 +10764,7 @@
         <v>0</v>
       </c>
       <c r="AG5" s="8">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="AH5" s="8">
         <v>0</v>
@@ -10792,7 +10792,7 @@
       </c>
     </row>
     <row r="6" spans="1:41" x14ac:dyDescent="0.35">
-      <c r="A6" s="59"/>
+      <c r="A6" s="62"/>
       <c r="B6" s="11" t="s">
         <v>10</v>
       </c>
@@ -10915,7 +10915,7 @@
       </c>
     </row>
     <row r="7" spans="1:41" x14ac:dyDescent="0.35">
-      <c r="A7" s="59"/>
+      <c r="A7" s="62"/>
       <c r="B7" s="11" t="s">
         <v>23</v>
       </c>
@@ -10946,11 +10946,11 @@
       <c r="K7" s="8">
         <v>0</v>
       </c>
-      <c r="L7" s="8">
-        <v>0</v>
-      </c>
-      <c r="M7" s="8">
-        <v>0</v>
+      <c r="L7" s="50">
+        <v>43.048574146662993</v>
+      </c>
+      <c r="M7" s="50">
+        <v>43.048574146662993</v>
       </c>
       <c r="N7" s="8">
         <v>0</v>
@@ -10967,11 +10967,11 @@
       <c r="R7" s="8">
         <v>0</v>
       </c>
-      <c r="S7" s="8">
-        <v>0</v>
-      </c>
-      <c r="T7" s="8">
-        <v>0</v>
+      <c r="S7" s="50">
+        <v>43.048574146662993</v>
+      </c>
+      <c r="T7" s="50">
+        <v>43.048574146662993</v>
       </c>
       <c r="U7" s="8">
         <v>0</v>
@@ -10982,8 +10982,8 @@
       <c r="W7" s="8">
         <v>0</v>
       </c>
-      <c r="X7" s="50">
-        <v>43.048574146662993</v>
+      <c r="X7" s="8">
+        <v>0</v>
       </c>
       <c r="Y7" s="8">
         <v>0</v>
@@ -11010,7 +11010,7 @@
         <v>0</v>
       </c>
       <c r="AG7" s="50">
-        <v>47.739594241691677</v>
+        <v>0</v>
       </c>
       <c r="AH7" s="8">
         <v>0</v>
@@ -11038,7 +11038,7 @@
       </c>
     </row>
     <row r="8" spans="1:41" x14ac:dyDescent="0.35">
-      <c r="A8" s="59"/>
+      <c r="A8" s="62"/>
       <c r="B8" s="11" t="s">
         <v>24</v>
       </c>
@@ -11070,10 +11070,10 @@
         <v>0</v>
       </c>
       <c r="L8" s="8">
-        <v>0</v>
+        <v>90</v>
       </c>
       <c r="M8" s="8">
-        <v>0</v>
+        <v>90</v>
       </c>
       <c r="N8" s="8">
         <v>0</v>
@@ -11091,10 +11091,10 @@
         <v>0</v>
       </c>
       <c r="S8" s="8">
-        <v>0</v>
+        <v>90</v>
       </c>
       <c r="T8" s="8">
-        <v>0</v>
+        <v>90</v>
       </c>
       <c r="U8" s="8">
         <v>0</v>
@@ -11106,7 +11106,7 @@
         <v>0</v>
       </c>
       <c r="X8" s="8">
-        <v>90</v>
+        <v>0</v>
       </c>
       <c r="Y8" s="8">
         <v>0</v>
@@ -11133,7 +11133,7 @@
         <v>0</v>
       </c>
       <c r="AG8" s="8">
-        <v>82</v>
+        <v>0</v>
       </c>
       <c r="AH8" s="8">
         <v>0</v>
@@ -11161,7 +11161,7 @@
       </c>
     </row>
     <row r="9" spans="1:41" x14ac:dyDescent="0.35">
-      <c r="A9" s="59"/>
+      <c r="A9" s="62"/>
       <c r="B9" s="11" t="s">
         <v>25</v>
       </c>
@@ -11193,10 +11193,10 @@
         <v>0</v>
       </c>
       <c r="L9" s="8">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="M9" s="8">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="N9" s="8">
         <v>0</v>
@@ -11214,10 +11214,10 @@
         <v>0</v>
       </c>
       <c r="S9" s="8">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="T9" s="8">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="U9" s="8">
         <v>0</v>
@@ -11229,7 +11229,7 @@
         <v>0</v>
       </c>
       <c r="X9" s="8">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="Y9" s="8">
         <v>0</v>
@@ -11256,7 +11256,7 @@
         <v>0</v>
       </c>
       <c r="AG9" s="8">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="AH9" s="8">
         <v>0</v>
@@ -11284,7 +11284,7 @@
       </c>
     </row>
     <row r="10" spans="1:41" x14ac:dyDescent="0.35">
-      <c r="A10" s="59"/>
+      <c r="A10" s="62"/>
       <c r="B10" s="11" t="s">
         <v>26</v>
       </c>
@@ -11316,10 +11316,10 @@
         <v>0</v>
       </c>
       <c r="L10" s="8">
-        <v>0</v>
+        <v>0.9</v>
       </c>
       <c r="M10" s="8">
-        <v>0</v>
+        <v>0.9</v>
       </c>
       <c r="N10" s="8">
         <v>0</v>
@@ -11337,10 +11337,10 @@
         <v>0</v>
       </c>
       <c r="S10" s="8">
-        <v>0</v>
+        <v>0.9</v>
       </c>
       <c r="T10" s="8">
-        <v>0</v>
+        <v>0.9</v>
       </c>
       <c r="U10" s="8">
         <v>0</v>
@@ -11352,7 +11352,7 @@
         <v>0</v>
       </c>
       <c r="X10" s="8">
-        <v>0.9</v>
+        <v>0</v>
       </c>
       <c r="Y10" s="8">
         <v>0</v>
@@ -11379,7 +11379,7 @@
         <v>0</v>
       </c>
       <c r="AG10" s="8">
-        <v>0.9</v>
+        <v>0</v>
       </c>
       <c r="AH10" s="8">
         <v>0</v>
@@ -11407,7 +11407,7 @@
       </c>
     </row>
     <row r="11" spans="1:41" x14ac:dyDescent="0.35">
-      <c r="A11" s="59"/>
+      <c r="A11" s="62"/>
       <c r="B11" s="17" t="s">
         <v>27</v>
       </c>
@@ -11439,10 +11439,10 @@
         <v>0</v>
       </c>
       <c r="L11" s="8">
-        <v>0</v>
+        <v>0.9</v>
       </c>
       <c r="M11" s="8">
-        <v>0</v>
+        <v>0.9</v>
       </c>
       <c r="N11" s="8">
         <v>0</v>
@@ -11460,10 +11460,10 @@
         <v>0</v>
       </c>
       <c r="S11" s="8">
-        <v>0</v>
+        <v>0.9</v>
       </c>
       <c r="T11" s="8">
-        <v>0</v>
+        <v>0.9</v>
       </c>
       <c r="U11" s="8">
         <v>0</v>
@@ -11475,7 +11475,7 @@
         <v>0</v>
       </c>
       <c r="X11" s="8">
-        <v>0.9</v>
+        <v>0</v>
       </c>
       <c r="Y11" s="8">
         <v>0</v>
@@ -11502,7 +11502,7 @@
         <v>0</v>
       </c>
       <c r="AG11" s="8">
-        <v>0.9</v>
+        <v>0</v>
       </c>
       <c r="AH11" s="8">
         <v>0</v>
@@ -11530,7 +11530,7 @@
       </c>
     </row>
     <row r="12" spans="1:41" x14ac:dyDescent="0.35">
-      <c r="A12" s="59"/>
+      <c r="A12" s="62"/>
       <c r="B12" s="17" t="s">
         <v>28</v>
       </c>
@@ -11562,10 +11562,10 @@
         <v>0</v>
       </c>
       <c r="L12" s="8">
-        <v>0</v>
+        <v>26.8</v>
       </c>
       <c r="M12" s="8">
-        <v>0</v>
+        <v>26.8</v>
       </c>
       <c r="N12" s="8">
         <v>0</v>
@@ -11583,10 +11583,10 @@
         <v>0</v>
       </c>
       <c r="S12" s="8">
-        <v>0</v>
+        <v>26.8</v>
       </c>
       <c r="T12" s="8">
-        <v>0</v>
+        <v>26.8</v>
       </c>
       <c r="U12" s="8">
         <v>0</v>
@@ -11598,7 +11598,7 @@
         <v>0</v>
       </c>
       <c r="X12" s="8">
-        <v>26.8</v>
+        <v>0</v>
       </c>
       <c r="Y12" s="8">
         <v>0</v>
@@ -11625,7 +11625,7 @@
         <v>0</v>
       </c>
       <c r="AG12" s="8">
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="AH12" s="8">
         <v>0</v>
@@ -11653,7 +11653,7 @@
       </c>
     </row>
     <row r="13" spans="1:41" x14ac:dyDescent="0.35">
-      <c r="A13" s="59"/>
+      <c r="A13" s="62"/>
       <c r="B13" s="11" t="s">
         <v>29</v>
       </c>
@@ -11685,10 +11685,10 @@
         <v>0</v>
       </c>
       <c r="L13" s="8">
-        <v>0</v>
+        <v>56</v>
       </c>
       <c r="M13" s="8">
-        <v>0</v>
+        <v>56</v>
       </c>
       <c r="N13" s="8">
         <v>0</v>
@@ -11706,10 +11706,10 @@
         <v>0</v>
       </c>
       <c r="S13" s="8">
-        <v>0</v>
+        <v>56</v>
       </c>
       <c r="T13" s="8">
-        <v>0</v>
+        <v>56</v>
       </c>
       <c r="U13" s="8">
         <v>0</v>
@@ -11721,7 +11721,7 @@
         <v>0</v>
       </c>
       <c r="X13" s="8">
-        <v>56</v>
+        <v>0</v>
       </c>
       <c r="Y13" s="8">
         <v>0</v>
@@ -11748,7 +11748,7 @@
         <v>0</v>
       </c>
       <c r="AG13" s="8">
-        <v>55</v>
+        <v>0</v>
       </c>
       <c r="AH13" s="8">
         <v>0</v>
@@ -11776,7 +11776,7 @@
       </c>
     </row>
     <row r="14" spans="1:41" x14ac:dyDescent="0.35">
-      <c r="A14" s="59"/>
+      <c r="A14" s="62"/>
       <c r="B14" s="17" t="s">
         <v>30</v>
       </c>
@@ -11808,10 +11808,10 @@
         <v>0</v>
       </c>
       <c r="L14" s="8">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="M14" s="8">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="N14" s="8">
         <v>0</v>
@@ -11829,10 +11829,10 @@
         <v>0</v>
       </c>
       <c r="S14" s="8">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="T14" s="8">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="U14" s="8">
         <v>0</v>
@@ -11844,7 +11844,7 @@
         <v>0</v>
       </c>
       <c r="X14" s="8">
-        <v>17</v>
+        <v>0</v>
       </c>
       <c r="Y14" s="8">
         <v>0</v>
@@ -11871,7 +11871,7 @@
         <v>0</v>
       </c>
       <c r="AG14" s="8">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="AH14" s="8">
         <v>0</v>
@@ -11899,7 +11899,7 @@
       </c>
     </row>
     <row r="15" spans="1:41" x14ac:dyDescent="0.35">
-      <c r="A15" s="59"/>
+      <c r="A15" s="62"/>
       <c r="B15" s="11" t="s">
         <v>31</v>
       </c>
@@ -11930,11 +11930,11 @@
       <c r="K15" s="15">
         <v>0</v>
       </c>
-      <c r="L15" s="15">
-        <v>0</v>
-      </c>
-      <c r="M15" s="15">
-        <v>0</v>
+      <c r="L15" s="8">
+        <v>24</v>
+      </c>
+      <c r="M15" s="8">
+        <v>24</v>
       </c>
       <c r="N15" s="15">
         <v>0</v>
@@ -11951,11 +11951,11 @@
       <c r="R15" s="15">
         <v>0</v>
       </c>
-      <c r="S15" s="15">
-        <v>0</v>
-      </c>
-      <c r="T15" s="15">
-        <v>0</v>
+      <c r="S15" s="8">
+        <v>24</v>
+      </c>
+      <c r="T15" s="8">
+        <v>24</v>
       </c>
       <c r="U15" s="15">
         <v>0</v>
@@ -11966,8 +11966,8 @@
       <c r="W15" s="15">
         <v>0</v>
       </c>
-      <c r="X15" s="8">
-        <v>24</v>
+      <c r="X15" s="15">
+        <v>0</v>
       </c>
       <c r="Y15" s="15">
         <v>0</v>
@@ -11994,7 +11994,7 @@
         <v>0</v>
       </c>
       <c r="AG15" s="8">
-        <v>17</v>
+        <v>0</v>
       </c>
       <c r="AH15" s="8">
         <v>0</v>
@@ -12022,7 +12022,7 @@
       </c>
     </row>
     <row r="16" spans="1:41" x14ac:dyDescent="0.35">
-      <c r="A16" s="58" t="s">
+      <c r="A16" s="61" t="s">
         <v>12</v>
       </c>
       <c r="B16" s="12" t="s">
@@ -12147,7 +12147,7 @@
       </c>
     </row>
     <row r="17" spans="1:41" x14ac:dyDescent="0.35">
-      <c r="A17" s="59"/>
+      <c r="A17" s="62"/>
       <c r="B17" s="11" t="s">
         <v>13</v>
       </c>
@@ -12270,7 +12270,7 @@
       </c>
     </row>
     <row r="18" spans="1:41" x14ac:dyDescent="0.35">
-      <c r="A18" s="59"/>
+      <c r="A18" s="62"/>
       <c r="B18" s="11" t="s">
         <v>14</v>
       </c>
@@ -12393,7 +12393,7 @@
       </c>
     </row>
     <row r="19" spans="1:41" x14ac:dyDescent="0.35">
-      <c r="A19" s="59"/>
+      <c r="A19" s="62"/>
       <c r="B19" s="11" t="s">
         <v>15</v>
       </c>
@@ -12516,7 +12516,7 @@
       </c>
     </row>
     <row r="20" spans="1:41" x14ac:dyDescent="0.35">
-      <c r="A20" s="59"/>
+      <c r="A20" s="62"/>
       <c r="B20" s="17" t="s">
         <v>16</v>
       </c>
@@ -12639,7 +12639,7 @@
       </c>
     </row>
     <row r="21" spans="1:41" x14ac:dyDescent="0.35">
-      <c r="A21" s="59"/>
+      <c r="A21" s="62"/>
       <c r="B21" s="17" t="s">
         <v>17</v>
       </c>
@@ -12762,7 +12762,7 @@
       </c>
     </row>
     <row r="22" spans="1:41" x14ac:dyDescent="0.35">
-      <c r="A22" s="59"/>
+      <c r="A22" s="62"/>
       <c r="B22" s="17" t="s">
         <v>19</v>
       </c>
@@ -12885,7 +12885,7 @@
       </c>
     </row>
     <row r="23" spans="1:41" x14ac:dyDescent="0.35">
-      <c r="A23" s="59"/>
+      <c r="A23" s="62"/>
       <c r="B23" s="17" t="s">
         <v>20</v>
       </c>
@@ -13008,7 +13008,7 @@
       </c>
     </row>
     <row r="24" spans="1:41" x14ac:dyDescent="0.35">
-      <c r="A24" s="60"/>
+      <c r="A24" s="63"/>
       <c r="B24" s="16" t="s">
         <v>18</v>
       </c>
@@ -13131,7 +13131,7 @@
       </c>
     </row>
     <row r="25" spans="1:41" x14ac:dyDescent="0.35">
-      <c r="A25" s="58" t="s">
+      <c r="A25" s="61" t="s">
         <v>1</v>
       </c>
       <c r="B25" s="11" t="s">
@@ -13141,7 +13141,7 @@
         <v>1</v>
       </c>
       <c r="D25" s="13">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E25" s="13">
         <v>0</v>
@@ -13168,10 +13168,10 @@
         <v>0</v>
       </c>
       <c r="M25" s="13">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N25" s="13">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O25" s="13">
         <v>0</v>
@@ -13183,7 +13183,7 @@
         <v>0</v>
       </c>
       <c r="R25" s="13">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S25" s="13">
         <v>0</v>
@@ -13198,7 +13198,7 @@
         <v>0</v>
       </c>
       <c r="W25" s="13">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X25" s="13">
         <v>0</v>
@@ -13207,7 +13207,7 @@
         <v>0</v>
       </c>
       <c r="Z25" s="13">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AA25" s="13">
         <v>0</v>
@@ -13225,16 +13225,16 @@
         <v>0</v>
       </c>
       <c r="AF25" s="13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AG25" s="13">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AH25" s="13">
         <v>0</v>
       </c>
       <c r="AI25" s="13">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AJ25" s="13">
         <v>1</v>
@@ -13252,11 +13252,11 @@
         <v>1</v>
       </c>
       <c r="AO25" s="13">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="26" spans="1:41" x14ac:dyDescent="0.35">
-      <c r="A26" s="60"/>
+      <c r="A26" s="63"/>
       <c r="B26" s="14" t="s">
         <v>3</v>
       </c>
@@ -13264,7 +13264,7 @@
         <v>9</v>
       </c>
       <c r="D26" s="15">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="E26" s="15">
         <v>0</v>
@@ -13291,10 +13291,10 @@
         <v>0</v>
       </c>
       <c r="M26" s="15">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="N26" s="15">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="O26" s="15">
         <v>0</v>
@@ -13306,7 +13306,7 @@
         <v>0</v>
       </c>
       <c r="R26" s="15">
-        <v>17</v>
+        <v>0</v>
       </c>
       <c r="S26" s="15">
         <v>0</v>
@@ -13321,65 +13321,65 @@
         <v>0</v>
       </c>
       <c r="W26" s="15">
+        <v>0</v>
+      </c>
+      <c r="X26" s="15">
+        <v>0</v>
+      </c>
+      <c r="Y26" s="15">
+        <v>0</v>
+      </c>
+      <c r="Z26" s="15">
+        <v>0</v>
+      </c>
+      <c r="AA26" s="15">
+        <v>0</v>
+      </c>
+      <c r="AB26" s="15">
+        <v>0</v>
+      </c>
+      <c r="AC26" s="15">
+        <v>0</v>
+      </c>
+      <c r="AD26" s="15">
+        <v>0</v>
+      </c>
+      <c r="AE26" s="15">
+        <v>0</v>
+      </c>
+      <c r="AF26" s="15">
+        <v>9</v>
+      </c>
+      <c r="AG26" s="15">
+        <v>0</v>
+      </c>
+      <c r="AH26" s="15">
+        <v>0</v>
+      </c>
+      <c r="AI26" s="15">
+        <v>0</v>
+      </c>
+      <c r="AJ26" s="15">
+        <v>19</v>
+      </c>
+      <c r="AK26" s="15">
+        <v>0</v>
+      </c>
+      <c r="AL26" s="15">
+        <v>0</v>
+      </c>
+      <c r="AM26" s="15">
+        <v>0</v>
+      </c>
+      <c r="AN26" s="15">
         <v>20</v>
       </c>
-      <c r="X26" s="15">
-        <v>0</v>
-      </c>
-      <c r="Y26" s="15">
-        <v>0</v>
-      </c>
-      <c r="Z26" s="15">
-        <v>18</v>
-      </c>
-      <c r="AA26" s="15">
-        <v>0</v>
-      </c>
-      <c r="AB26" s="15">
-        <v>0</v>
-      </c>
-      <c r="AC26" s="15">
-        <v>0</v>
-      </c>
-      <c r="AD26" s="15">
-        <v>0</v>
-      </c>
-      <c r="AE26" s="15">
-        <v>0</v>
-      </c>
-      <c r="AF26" s="15">
-        <v>0</v>
-      </c>
-      <c r="AG26" s="15">
-        <v>9</v>
-      </c>
-      <c r="AH26" s="15">
-        <v>0</v>
-      </c>
-      <c r="AI26" s="15">
-        <v>12</v>
-      </c>
-      <c r="AJ26" s="15">
-        <v>19</v>
-      </c>
-      <c r="AK26" s="15">
-        <v>0</v>
-      </c>
-      <c r="AL26" s="15">
-        <v>0</v>
-      </c>
-      <c r="AM26" s="15">
-        <v>0</v>
-      </c>
-      <c r="AN26" s="15">
-        <v>19</v>
-      </c>
       <c r="AO26" s="15">
-        <v>0</v>
+        <v>20</v>
       </c>
     </row>
     <row r="27" spans="1:41" x14ac:dyDescent="0.35">
-      <c r="A27" s="58" t="s">
+      <c r="A27" s="61" t="s">
         <v>2</v>
       </c>
       <c r="B27" s="12" t="s">
@@ -13504,7 +13504,7 @@
       </c>
     </row>
     <row r="28" spans="1:41" x14ac:dyDescent="0.35">
-      <c r="A28" s="59"/>
+      <c r="A28" s="62"/>
       <c r="B28" s="11" t="s">
         <v>3</v>
       </c>
@@ -13535,7 +13535,7 @@
       <c r="K28" s="8">
         <v>0</v>
       </c>
-      <c r="L28" s="61">
+      <c r="L28" s="55">
         <v>15</v>
       </c>
       <c r="M28" s="8">
@@ -13562,7 +13562,7 @@
       <c r="T28" s="8">
         <v>0</v>
       </c>
-      <c r="U28" s="61">
+      <c r="U28" s="55">
         <v>20</v>
       </c>
       <c r="V28" s="8">
@@ -13610,7 +13610,7 @@
       <c r="AJ28" s="8">
         <v>0</v>
       </c>
-      <c r="AK28" s="61">
+      <c r="AK28" s="55">
         <v>20</v>
       </c>
       <c r="AL28" s="8">
@@ -13627,7 +13627,7 @@
       </c>
     </row>
     <row r="29" spans="1:41" x14ac:dyDescent="0.35">
-      <c r="A29" s="59"/>
+      <c r="A29" s="62"/>
       <c r="B29" s="11" t="s">
         <v>10</v>
       </c>
@@ -13658,7 +13658,7 @@
       <c r="K29" s="8">
         <v>0</v>
       </c>
-      <c r="L29" s="61">
+      <c r="L29" s="55">
         <v>2</v>
       </c>
       <c r="M29" s="8">
@@ -13685,7 +13685,7 @@
       <c r="T29" s="8">
         <v>0</v>
       </c>
-      <c r="U29" s="61">
+      <c r="U29" s="55">
         <v>2</v>
       </c>
       <c r="V29" s="8">
@@ -13733,7 +13733,7 @@
       <c r="AJ29" s="8">
         <v>0</v>
       </c>
-      <c r="AK29" s="61">
+      <c r="AK29" s="55">
         <v>2</v>
       </c>
       <c r="AL29" s="8">
@@ -13750,7 +13750,7 @@
       </c>
     </row>
     <row r="30" spans="1:41" x14ac:dyDescent="0.35">
-      <c r="A30" s="59"/>
+      <c r="A30" s="62"/>
       <c r="B30" s="11" t="s">
         <v>5</v>
       </c>
@@ -13781,7 +13781,7 @@
       <c r="K30" s="8">
         <v>0</v>
       </c>
-      <c r="L30" s="61">
+      <c r="L30" s="55">
         <v>50</v>
       </c>
       <c r="M30" s="8">
@@ -13808,7 +13808,7 @@
       <c r="T30" s="8">
         <v>0</v>
       </c>
-      <c r="U30" s="61">
+      <c r="U30" s="55">
         <v>75</v>
       </c>
       <c r="V30" s="8">
@@ -13856,7 +13856,7 @@
       <c r="AJ30" s="8">
         <v>0</v>
       </c>
-      <c r="AK30" s="61">
+      <c r="AK30" s="55">
         <v>75</v>
       </c>
       <c r="AL30" s="8">
@@ -13873,7 +13873,7 @@
       </c>
     </row>
     <row r="31" spans="1:41" x14ac:dyDescent="0.35">
-      <c r="A31" s="59"/>
+      <c r="A31" s="62"/>
       <c r="B31" s="11" t="s">
         <v>8</v>
       </c>
@@ -13904,7 +13904,7 @@
       <c r="K31" s="8">
         <v>0</v>
       </c>
-      <c r="L31" s="61">
+      <c r="L31" s="55">
         <v>5</v>
       </c>
       <c r="M31" s="8">
@@ -13931,7 +13931,7 @@
       <c r="T31" s="8">
         <v>0</v>
       </c>
-      <c r="U31" s="61">
+      <c r="U31" s="55">
         <v>7.5</v>
       </c>
       <c r="V31" s="8">
@@ -13979,7 +13979,7 @@
       <c r="AJ31" s="8">
         <v>0</v>
       </c>
-      <c r="AK31" s="61">
+      <c r="AK31" s="55">
         <v>7.5</v>
       </c>
       <c r="AL31" s="8">
@@ -13996,7 +13996,7 @@
       </c>
     </row>
     <row r="32" spans="1:41" x14ac:dyDescent="0.35">
-      <c r="A32" s="59"/>
+      <c r="A32" s="62"/>
       <c r="B32" s="11" t="s">
         <v>6</v>
       </c>
@@ -14027,7 +14027,7 @@
       <c r="K32" s="8">
         <v>0</v>
       </c>
-      <c r="L32" s="61">
+      <c r="L32" s="55">
         <v>25</v>
       </c>
       <c r="M32" s="8">
@@ -14054,7 +14054,7 @@
       <c r="T32" s="8">
         <v>0</v>
       </c>
-      <c r="U32" s="61">
+      <c r="U32" s="55">
         <v>25</v>
       </c>
       <c r="V32" s="8">
@@ -14102,7 +14102,7 @@
       <c r="AJ32" s="8">
         <v>0</v>
       </c>
-      <c r="AK32" s="61">
+      <c r="AK32" s="55">
         <v>25</v>
       </c>
       <c r="AL32" s="8">
@@ -14119,7 +14119,7 @@
       </c>
     </row>
     <row r="33" spans="1:239" x14ac:dyDescent="0.35">
-      <c r="A33" s="60"/>
+      <c r="A33" s="63"/>
       <c r="B33" s="14" t="s">
         <v>7</v>
       </c>
@@ -14150,7 +14150,7 @@
       <c r="K33" s="15">
         <v>0</v>
       </c>
-      <c r="L33" s="62">
+      <c r="L33" s="56">
         <v>0.9</v>
       </c>
       <c r="M33" s="15">
@@ -14177,7 +14177,7 @@
       <c r="T33" s="15">
         <v>0</v>
       </c>
-      <c r="U33" s="62">
+      <c r="U33" s="56">
         <v>0.9</v>
       </c>
       <c r="V33" s="15">
@@ -14225,7 +14225,7 @@
       <c r="AJ33" s="15">
         <v>0</v>
       </c>
-      <c r="AK33" s="62">
+      <c r="AK33" s="56">
         <v>0.9</v>
       </c>
       <c r="AL33" s="15">
@@ -14242,7 +14242,7 @@
       </c>
     </row>
     <row r="34" spans="1:239" x14ac:dyDescent="0.35">
-      <c r="A34" s="58" t="s">
+      <c r="A34" s="61" t="s">
         <v>32</v>
       </c>
       <c r="B34" s="12" t="s">
@@ -14367,7 +14367,7 @@
       </c>
     </row>
     <row r="35" spans="1:239" x14ac:dyDescent="0.35">
-      <c r="A35" s="59"/>
+      <c r="A35" s="62"/>
       <c r="B35" s="11" t="s">
         <v>3</v>
       </c>
@@ -14490,7 +14490,7 @@
       </c>
     </row>
     <row r="36" spans="1:239" x14ac:dyDescent="0.35">
-      <c r="A36" s="59"/>
+      <c r="A36" s="62"/>
       <c r="B36" s="11" t="s">
         <v>33</v>
       </c>
@@ -14613,7 +14613,7 @@
       </c>
     </row>
     <row r="37" spans="1:239" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A37" s="60"/>
+      <c r="A37" s="63"/>
       <c r="B37" s="14" t="s">
         <v>7</v>
       </c>
@@ -14736,7 +14736,7 @@
       </c>
     </row>
     <row r="38" spans="1:239" s="20" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A38" s="58" t="s">
+      <c r="A38" s="61" t="s">
         <v>34</v>
       </c>
       <c r="B38" s="11" t="s">
@@ -14779,7 +14779,7 @@
         <v>0</v>
       </c>
       <c r="O38" s="8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P38" s="8">
         <v>0</v>
@@ -15059,7 +15059,7 @@
       <c r="IE38" s="10"/>
     </row>
     <row r="39" spans="1:239" x14ac:dyDescent="0.35">
-      <c r="A39" s="59"/>
+      <c r="A39" s="62"/>
       <c r="B39" s="11" t="s">
         <v>3</v>
       </c>
@@ -15100,7 +15100,7 @@
         <v>0</v>
       </c>
       <c r="O39" s="8">
-        <v>0</v>
+        <v>250</v>
       </c>
       <c r="P39" s="8">
         <v>0</v>
@@ -15182,7 +15182,7 @@
       </c>
     </row>
     <row r="40" spans="1:239" s="19" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A40" s="60"/>
+      <c r="A40" s="63"/>
       <c r="B40" s="14" t="s">
         <v>7</v>
       </c>
@@ -15223,7 +15223,7 @@
         <v>0</v>
       </c>
       <c r="O40" s="8">
-        <v>0</v>
+        <v>0.6</v>
       </c>
       <c r="P40" s="8">
         <v>0</v>
@@ -15503,7 +15503,7 @@
       <c r="IE40" s="10"/>
     </row>
     <row r="41" spans="1:239" x14ac:dyDescent="0.35">
-      <c r="A41" s="58" t="s">
+      <c r="A41" s="61" t="s">
         <v>35</v>
       </c>
       <c r="B41" s="12" t="s">
@@ -15543,7 +15543,7 @@
         <v>0</v>
       </c>
       <c r="N41" s="13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O41" s="13">
         <v>0</v>
@@ -15555,13 +15555,13 @@
         <v>0</v>
       </c>
       <c r="R41" s="13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S41" s="13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T41" s="13">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U41" s="13">
         <v>0</v>
@@ -15570,7 +15570,7 @@
         <v>0</v>
       </c>
       <c r="W41" s="13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X41" s="13">
         <v>0</v>
@@ -15609,7 +15609,7 @@
         <v>0</v>
       </c>
       <c r="AJ41" s="13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AK41" s="13">
         <v>0</v>
@@ -15628,7 +15628,7 @@
       </c>
     </row>
     <row r="42" spans="1:239" x14ac:dyDescent="0.35">
-      <c r="A42" s="59"/>
+      <c r="A42" s="62"/>
       <c r="B42" s="11" t="s">
         <v>36</v>
       </c>
@@ -15666,7 +15666,7 @@
         <v>0</v>
       </c>
       <c r="N42" s="8">
-        <v>0</v>
+        <v>150</v>
       </c>
       <c r="O42" s="8">
         <v>0</v>
@@ -15678,23 +15678,23 @@
         <v>0</v>
       </c>
       <c r="R42" s="8">
-        <v>0</v>
+        <v>150</v>
       </c>
       <c r="S42" s="8">
-        <v>0</v>
+        <v>150</v>
       </c>
       <c r="T42" s="8">
+        <v>0</v>
+      </c>
+      <c r="U42" s="8">
+        <v>0</v>
+      </c>
+      <c r="V42" s="8">
+        <v>0</v>
+      </c>
+      <c r="W42" s="8">
         <v>150</v>
       </c>
-      <c r="U42" s="8">
-        <v>0</v>
-      </c>
-      <c r="V42" s="8">
-        <v>0</v>
-      </c>
-      <c r="W42" s="8">
-        <v>0</v>
-      </c>
       <c r="X42" s="8">
         <v>0</v>
       </c>
@@ -15732,7 +15732,7 @@
         <v>0</v>
       </c>
       <c r="AJ42" s="8">
-        <v>0</v>
+        <v>150</v>
       </c>
       <c r="AK42" s="8">
         <v>0</v>
@@ -15751,7 +15751,7 @@
       </c>
     </row>
     <row r="43" spans="1:239" x14ac:dyDescent="0.35">
-      <c r="A43" s="59"/>
+      <c r="A43" s="62"/>
       <c r="B43" s="17" t="s">
         <v>37</v>
       </c>
@@ -15789,7 +15789,7 @@
         <v>0</v>
       </c>
       <c r="N43" s="8">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="O43" s="8">
         <v>0</v>
@@ -15801,23 +15801,23 @@
         <v>0</v>
       </c>
       <c r="R43" s="8">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="S43" s="8">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="T43" s="8">
+        <v>0</v>
+      </c>
+      <c r="U43" s="8">
+        <v>0</v>
+      </c>
+      <c r="V43" s="8">
+        <v>0</v>
+      </c>
+      <c r="W43" s="8">
         <v>3</v>
       </c>
-      <c r="U43" s="8">
-        <v>0</v>
-      </c>
-      <c r="V43" s="8">
-        <v>0</v>
-      </c>
-      <c r="W43" s="8">
-        <v>0</v>
-      </c>
       <c r="X43" s="8">
         <v>0</v>
       </c>
@@ -15855,7 +15855,7 @@
         <v>0</v>
       </c>
       <c r="AJ43" s="8">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AK43" s="8">
         <v>0</v>
@@ -15874,7 +15874,7 @@
       </c>
     </row>
     <row r="44" spans="1:239" x14ac:dyDescent="0.35">
-      <c r="A44" s="59"/>
+      <c r="A44" s="62"/>
       <c r="B44" s="17" t="s">
         <v>38</v>
       </c>
@@ -15912,7 +15912,7 @@
         <v>0</v>
       </c>
       <c r="N44" s="8">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="O44" s="8">
         <v>0</v>
@@ -15924,23 +15924,23 @@
         <v>0</v>
       </c>
       <c r="R44" s="8">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="S44" s="8">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="T44" s="8">
+        <v>0</v>
+      </c>
+      <c r="U44" s="8">
+        <v>0</v>
+      </c>
+      <c r="V44" s="8">
+        <v>0</v>
+      </c>
+      <c r="W44" s="8">
         <v>10</v>
       </c>
-      <c r="U44" s="8">
-        <v>0</v>
-      </c>
-      <c r="V44" s="8">
-        <v>0</v>
-      </c>
-      <c r="W44" s="8">
-        <v>0</v>
-      </c>
       <c r="X44" s="8">
         <v>0</v>
       </c>
@@ -15978,7 +15978,7 @@
         <v>0</v>
       </c>
       <c r="AJ44" s="8">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="AK44" s="8">
         <v>0</v>
@@ -15997,7 +15997,7 @@
       </c>
     </row>
     <row r="45" spans="1:239" x14ac:dyDescent="0.35">
-      <c r="A45" s="60"/>
+      <c r="A45" s="63"/>
       <c r="B45" s="14" t="s">
         <v>39</v>
       </c>
@@ -16035,7 +16035,7 @@
         <v>0</v>
       </c>
       <c r="N45" s="15">
-        <v>0</v>
+        <v>27</v>
       </c>
       <c r="O45" s="15">
         <v>0</v>
@@ -16047,23 +16047,23 @@
         <v>0</v>
       </c>
       <c r="R45" s="15">
-        <v>0</v>
+        <v>26</v>
       </c>
       <c r="S45" s="15">
-        <v>0</v>
+        <v>27</v>
       </c>
       <c r="T45" s="15">
+        <v>0</v>
+      </c>
+      <c r="U45" s="15">
+        <v>0</v>
+      </c>
+      <c r="V45" s="15">
+        <v>0</v>
+      </c>
+      <c r="W45" s="15">
         <v>26</v>
       </c>
-      <c r="U45" s="15">
-        <v>0</v>
-      </c>
-      <c r="V45" s="15">
-        <v>0</v>
-      </c>
-      <c r="W45" s="15">
-        <v>0</v>
-      </c>
       <c r="X45" s="15">
         <v>0</v>
       </c>
@@ -16101,7 +16101,7 @@
         <v>0</v>
       </c>
       <c r="AJ45" s="15">
-        <v>0</v>
+        <v>27</v>
       </c>
       <c r="AK45" s="15">
         <v>0</v>
@@ -16120,7 +16120,7 @@
       </c>
     </row>
     <row r="46" spans="1:239" x14ac:dyDescent="0.35">
-      <c r="A46" s="58" t="s">
+      <c r="A46" s="61" t="s">
         <v>40</v>
       </c>
       <c r="B46" s="12" t="s">
@@ -16169,7 +16169,7 @@
         <v>0</v>
       </c>
       <c r="Q46" s="13">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R46" s="13">
         <v>0</v>
@@ -16187,7 +16187,7 @@
         <v>0</v>
       </c>
       <c r="W46" s="13">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X46" s="13">
         <v>0</v>
@@ -16214,7 +16214,7 @@
         <v>0</v>
       </c>
       <c r="AF46" s="13">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AG46" s="13">
         <v>0</v>
@@ -16245,7 +16245,7 @@
       </c>
     </row>
     <row r="47" spans="1:239" x14ac:dyDescent="0.35">
-      <c r="A47" s="59"/>
+      <c r="A47" s="62"/>
       <c r="B47" s="11" t="s">
         <v>44</v>
       </c>
@@ -16292,7 +16292,7 @@
         <v>0</v>
       </c>
       <c r="Q47" s="8">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="R47" s="8">
         <v>0</v>
@@ -16310,7 +16310,7 @@
         <v>0</v>
       </c>
       <c r="W47" s="8">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="X47" s="8">
         <v>0</v>
@@ -16337,7 +16337,7 @@
         <v>0</v>
       </c>
       <c r="AF47" s="8">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="AG47" s="8">
         <v>0</v>
@@ -16368,7 +16368,7 @@
       </c>
     </row>
     <row r="48" spans="1:239" x14ac:dyDescent="0.35">
-      <c r="A48" s="59"/>
+      <c r="A48" s="62"/>
       <c r="B48" s="11" t="s">
         <v>45</v>
       </c>
@@ -16415,7 +16415,7 @@
         <v>0</v>
       </c>
       <c r="Q48" s="8">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="R48" s="8">
         <v>0</v>
@@ -16433,7 +16433,7 @@
         <v>0</v>
       </c>
       <c r="W48" s="8">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="X48" s="8">
         <v>0</v>
@@ -16460,7 +16460,7 @@
         <v>0</v>
       </c>
       <c r="AF48" s="8">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="AG48" s="8">
         <v>0</v>
@@ -16491,7 +16491,7 @@
       </c>
     </row>
     <row r="49" spans="1:41" x14ac:dyDescent="0.35">
-      <c r="A49" s="59"/>
+      <c r="A49" s="62"/>
       <c r="B49" s="17" t="s">
         <v>41</v>
       </c>
@@ -16538,7 +16538,7 @@
         <v>0</v>
       </c>
       <c r="Q49" s="8">
-        <v>0.85</v>
+        <v>0</v>
       </c>
       <c r="R49" s="8">
         <v>0</v>
@@ -16556,7 +16556,7 @@
         <v>0</v>
       </c>
       <c r="W49" s="8">
-        <v>0.85</v>
+        <v>0</v>
       </c>
       <c r="X49" s="8">
         <v>0</v>
@@ -16583,7 +16583,7 @@
         <v>0</v>
       </c>
       <c r="AF49" s="8">
-        <v>0.85</v>
+        <v>0</v>
       </c>
       <c r="AG49" s="8">
         <v>0</v>
@@ -16614,7 +16614,7 @@
       </c>
     </row>
     <row r="50" spans="1:41" x14ac:dyDescent="0.35">
-      <c r="A50" s="59"/>
+      <c r="A50" s="62"/>
       <c r="B50" s="17" t="s">
         <v>42</v>
       </c>
@@ -16661,7 +16661,7 @@
         <v>0</v>
       </c>
       <c r="Q50" s="8">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="R50" s="8">
         <v>0</v>
@@ -16679,7 +16679,7 @@
         <v>0</v>
       </c>
       <c r="W50" s="8">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="X50" s="8">
         <v>0</v>
@@ -16706,7 +16706,7 @@
         <v>0</v>
       </c>
       <c r="AF50" s="8">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="AG50" s="8">
         <v>0</v>
@@ -16737,7 +16737,7 @@
       </c>
     </row>
     <row r="51" spans="1:41" x14ac:dyDescent="0.35">
-      <c r="A51" s="60"/>
+      <c r="A51" s="63"/>
       <c r="B51" s="17" t="s">
         <v>43</v>
       </c>
@@ -16784,7 +16784,7 @@
         <v>0</v>
       </c>
       <c r="Q51" s="15">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="R51" s="15">
         <v>0</v>
@@ -16802,7 +16802,7 @@
         <v>0</v>
       </c>
       <c r="W51" s="15">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="X51" s="15">
         <v>0</v>
@@ -16829,7 +16829,7 @@
         <v>0</v>
       </c>
       <c r="AF51" s="15">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="AG51" s="15">
         <v>0</v>
@@ -16860,7 +16860,7 @@
       </c>
     </row>
     <row r="52" spans="1:41" x14ac:dyDescent="0.35">
-      <c r="A52" s="58" t="s">
+      <c r="A52" s="61" t="s">
         <v>64</v>
       </c>
       <c r="B52" s="12" t="s">
@@ -16985,7 +16985,7 @@
       </c>
     </row>
     <row r="53" spans="1:41" x14ac:dyDescent="0.35">
-      <c r="A53" s="59"/>
+      <c r="A53" s="62"/>
       <c r="B53" s="31" t="s">
         <v>59</v>
       </c>
@@ -17080,7 +17080,7 @@
         <v>8.715947912047902</v>
       </c>
       <c r="AG53" s="51">
-        <v>33.067446572522428</v>
+        <v>8.715947912047902</v>
       </c>
       <c r="AH53" s="51">
         <v>14.100746968028449</v>
@@ -17108,7 +17108,7 @@
       </c>
     </row>
     <row r="54" spans="1:41" x14ac:dyDescent="0.35">
-      <c r="A54" s="59"/>
+      <c r="A54" s="62"/>
       <c r="B54" s="31" t="s">
         <v>60</v>
       </c>
@@ -17203,7 +17203,7 @@
         <v>0.73110699540728952</v>
       </c>
       <c r="AG54" s="51">
-        <v>3.5593495034616041</v>
+        <v>0.73110699540728952</v>
       </c>
       <c r="AH54" s="51">
         <v>2.8939587848196382</v>
@@ -17231,7 +17231,7 @@
       </c>
     </row>
     <row r="55" spans="1:41" x14ac:dyDescent="0.35">
-      <c r="A55" s="59"/>
+      <c r="A55" s="62"/>
       <c r="B55" s="31" t="s">
         <v>61</v>
       </c>
@@ -17354,7 +17354,7 @@
       </c>
     </row>
     <row r="56" spans="1:41" x14ac:dyDescent="0.35">
-      <c r="A56" s="59"/>
+      <c r="A56" s="62"/>
       <c r="B56" s="32" t="s">
         <v>62</v>
       </c>
@@ -17477,7 +17477,7 @@
       </c>
     </row>
     <row r="57" spans="1:41" x14ac:dyDescent="0.35">
-      <c r="A57" s="59"/>
+      <c r="A57" s="62"/>
       <c r="B57" s="32" t="s">
         <v>63</v>
       </c>
@@ -17600,130 +17600,130 @@
       </c>
     </row>
     <row r="58" spans="1:41" x14ac:dyDescent="0.35">
-      <c r="A58" s="59"/>
+      <c r="A58" s="62"/>
       <c r="B58" s="17" t="s">
         <v>46</v>
       </c>
-      <c r="C58" s="63">
+      <c r="C58" s="57">
         <v>28.642165487</v>
       </c>
-      <c r="D58" s="63">
+      <c r="D58" s="57">
         <v>13.709839065000001</v>
       </c>
-      <c r="E58" s="63">
+      <c r="E58" s="57">
         <v>17.116117564</v>
       </c>
-      <c r="F58" s="63">
+      <c r="F58" s="57">
         <v>20.047835054</v>
       </c>
-      <c r="G58" s="63">
+      <c r="G58" s="57">
         <v>48.813144185000013</v>
       </c>
-      <c r="H58" s="63">
+      <c r="H58" s="57">
         <v>48.597325439000002</v>
       </c>
-      <c r="I58" s="63">
+      <c r="I58" s="57">
         <v>71.115404463999994</v>
       </c>
-      <c r="J58" s="63">
+      <c r="J58" s="57">
         <v>14.86170413</v>
       </c>
-      <c r="K58" s="63">
+      <c r="K58" s="57">
         <v>20.076718505999999</v>
       </c>
-      <c r="L58" s="63">
+      <c r="L58" s="57">
         <v>17.593506775000002</v>
       </c>
-      <c r="M58" s="63">
+      <c r="M58" s="57">
         <v>85.343995515999993</v>
       </c>
-      <c r="N58" s="63">
+      <c r="N58" s="57">
         <v>13.5071625</v>
       </c>
-      <c r="O58" s="63">
+      <c r="O58" s="57">
         <v>15.383693883999999</v>
       </c>
-      <c r="P58" s="63">
+      <c r="P58" s="57">
         <v>41.343083131999997</v>
       </c>
-      <c r="Q58" s="63">
+      <c r="Q58" s="57">
         <v>45.075177836000002</v>
       </c>
-      <c r="R58" s="63">
+      <c r="R58" s="57">
         <v>44.822247808000007</v>
       </c>
-      <c r="S58" s="63">
+      <c r="S58" s="57">
         <v>33.070377391999997</v>
       </c>
-      <c r="T58" s="63">
+      <c r="T58" s="57">
         <v>22.249291466999999</v>
       </c>
-      <c r="U58" s="63">
+      <c r="U58" s="57">
         <v>25.794705144000002</v>
       </c>
-      <c r="V58" s="63">
+      <c r="V58" s="57">
         <v>33.737642405999999</v>
       </c>
-      <c r="W58" s="63">
+      <c r="W58" s="57">
         <v>19.780558303999999</v>
       </c>
-      <c r="X58" s="63">
+      <c r="X58" s="57">
         <v>51.402821756000002</v>
       </c>
-      <c r="Y58" s="63">
+      <c r="Y58" s="57">
         <v>33.864090234000003</v>
       </c>
-      <c r="Z58" s="63">
+      <c r="Z58" s="57">
         <v>29.129919520000001</v>
       </c>
-      <c r="AA58" s="63">
+      <c r="AA58" s="57">
         <v>24.819653352</v>
       </c>
-      <c r="AB58" s="63">
+      <c r="AB58" s="57">
         <v>16.137710160000001</v>
       </c>
-      <c r="AC58" s="63">
+      <c r="AC58" s="57">
         <v>42.757859105000009</v>
       </c>
-      <c r="AD58" s="63">
+      <c r="AD58" s="57">
         <v>22.620722240999999</v>
       </c>
-      <c r="AE58" s="63">
+      <c r="AE58" s="57">
         <v>20.323116593000002</v>
       </c>
-      <c r="AF58" s="63">
+      <c r="AF58" s="57">
         <v>74.025039647</v>
       </c>
-      <c r="AG58" s="63">
-        <v>19.924262202000001</v>
-      </c>
-      <c r="AH58" s="63">
+      <c r="AG58" s="57">
+        <v>74.025039647</v>
+      </c>
+      <c r="AH58" s="57">
         <v>46.626702238999997</v>
       </c>
-      <c r="AI58" s="63">
+      <c r="AI58" s="57">
         <v>68.383762524999995</v>
       </c>
-      <c r="AJ58" s="63">
+      <c r="AJ58" s="57">
         <v>13.702268788</v>
       </c>
-      <c r="AK58" s="63">
+      <c r="AK58" s="57">
         <v>13.557096163000001</v>
       </c>
-      <c r="AL58" s="63">
+      <c r="AL58" s="57">
         <v>15.766890009000001</v>
       </c>
-      <c r="AM58" s="63">
+      <c r="AM58" s="57">
         <v>33.032526019999999</v>
       </c>
-      <c r="AN58" s="63">
+      <c r="AN58" s="57">
         <v>60.047136006000002</v>
       </c>
-      <c r="AO58" s="63">
+      <c r="AO58" s="57">
         <v>18.033061254</v>
       </c>
     </row>
     <row r="59" spans="1:41" x14ac:dyDescent="0.35">
-      <c r="A59" s="59"/>
+      <c r="A59" s="62"/>
       <c r="B59" s="17" t="s">
         <v>47</v>
       </c>
@@ -17846,7 +17846,7 @@
       </c>
     </row>
     <row r="60" spans="1:41" x14ac:dyDescent="0.35">
-      <c r="A60" s="60"/>
+      <c r="A60" s="63"/>
       <c r="B60" s="18" t="s">
         <v>48</v>
       </c>
@@ -17941,7 +17941,7 @@
         <v>4.7511102277086099</v>
       </c>
       <c r="AG60" s="53">
-        <v>4.645759633098324</v>
+        <v>4.7511102277086099</v>
       </c>
       <c r="AH60" s="53">
         <v>4.615395981965758</v>
@@ -17969,7 +17969,7 @@
       </c>
     </row>
     <row r="61" spans="1:41" x14ac:dyDescent="0.35">
-      <c r="A61" s="55" t="s">
+      <c r="A61" s="58" t="s">
         <v>11</v>
       </c>
       <c r="B61" s="12" t="s">
@@ -18030,7 +18030,7 @@
         <v>0</v>
       </c>
       <c r="U61" s="8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V61" s="8">
         <v>0</v>
@@ -18090,11 +18090,11 @@
         <v>0</v>
       </c>
       <c r="AO61" s="8">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="62" spans="1:41" x14ac:dyDescent="0.35">
-      <c r="A62" s="56"/>
+      <c r="A62" s="59"/>
       <c r="B62" s="17" t="s">
         <v>49</v>
       </c>
@@ -18153,71 +18153,71 @@
         <v>0</v>
       </c>
       <c r="U62" s="8">
+        <v>0</v>
+      </c>
+      <c r="V62" s="8">
+        <v>0</v>
+      </c>
+      <c r="W62" s="8">
+        <v>0</v>
+      </c>
+      <c r="X62" s="8">
+        <v>0</v>
+      </c>
+      <c r="Y62" s="8">
+        <v>0</v>
+      </c>
+      <c r="Z62" s="8">
+        <v>0</v>
+      </c>
+      <c r="AA62" s="8">
+        <v>0</v>
+      </c>
+      <c r="AB62" s="8">
+        <v>0</v>
+      </c>
+      <c r="AC62" s="8">
+        <v>0</v>
+      </c>
+      <c r="AD62" s="8">
+        <v>0</v>
+      </c>
+      <c r="AE62" s="8">
+        <v>0</v>
+      </c>
+      <c r="AF62" s="8">
+        <v>0</v>
+      </c>
+      <c r="AG62" s="8">
+        <v>0</v>
+      </c>
+      <c r="AH62" s="8">
+        <v>0</v>
+      </c>
+      <c r="AI62" s="8">
+        <v>0</v>
+      </c>
+      <c r="AJ62" s="8">
+        <v>0</v>
+      </c>
+      <c r="AK62" s="8">
+        <v>0</v>
+      </c>
+      <c r="AL62" s="8">
+        <v>0</v>
+      </c>
+      <c r="AM62" s="8">
+        <v>0</v>
+      </c>
+      <c r="AN62" s="8">
+        <v>0</v>
+      </c>
+      <c r="AO62" s="8">
         <v>200</v>
       </c>
-      <c r="V62" s="8">
-        <v>0</v>
-      </c>
-      <c r="W62" s="8">
-        <v>0</v>
-      </c>
-      <c r="X62" s="8">
-        <v>0</v>
-      </c>
-      <c r="Y62" s="8">
-        <v>0</v>
-      </c>
-      <c r="Z62" s="8">
-        <v>0</v>
-      </c>
-      <c r="AA62" s="8">
-        <v>0</v>
-      </c>
-      <c r="AB62" s="8">
-        <v>0</v>
-      </c>
-      <c r="AC62" s="8">
-        <v>0</v>
-      </c>
-      <c r="AD62" s="8">
-        <v>0</v>
-      </c>
-      <c r="AE62" s="8">
-        <v>0</v>
-      </c>
-      <c r="AF62" s="8">
-        <v>0</v>
-      </c>
-      <c r="AG62" s="8">
-        <v>0</v>
-      </c>
-      <c r="AH62" s="8">
-        <v>0</v>
-      </c>
-      <c r="AI62" s="8">
-        <v>0</v>
-      </c>
-      <c r="AJ62" s="8">
-        <v>0</v>
-      </c>
-      <c r="AK62" s="8">
-        <v>0</v>
-      </c>
-      <c r="AL62" s="8">
-        <v>0</v>
-      </c>
-      <c r="AM62" s="8">
-        <v>0</v>
-      </c>
-      <c r="AN62" s="8">
-        <v>0</v>
-      </c>
-      <c r="AO62" s="8">
-        <v>0</v>
-      </c>
     </row>
     <row r="63" spans="1:41" x14ac:dyDescent="0.35">
-      <c r="A63" s="56"/>
+      <c r="A63" s="59"/>
       <c r="B63" s="17" t="s">
         <v>50</v>
       </c>
@@ -18340,7 +18340,7 @@
       </c>
     </row>
     <row r="64" spans="1:41" x14ac:dyDescent="0.35">
-      <c r="A64" s="56"/>
+      <c r="A64" s="59"/>
       <c r="B64" s="17" t="s">
         <v>51</v>
       </c>
@@ -18399,71 +18399,71 @@
         <v>0</v>
       </c>
       <c r="U64" s="8">
+        <v>0</v>
+      </c>
+      <c r="V64" s="8">
+        <v>0</v>
+      </c>
+      <c r="W64" s="8">
+        <v>0</v>
+      </c>
+      <c r="X64" s="8">
+        <v>0</v>
+      </c>
+      <c r="Y64" s="8">
+        <v>0</v>
+      </c>
+      <c r="Z64" s="8">
+        <v>0</v>
+      </c>
+      <c r="AA64" s="8">
+        <v>0</v>
+      </c>
+      <c r="AB64" s="8">
+        <v>0</v>
+      </c>
+      <c r="AC64" s="8">
+        <v>0</v>
+      </c>
+      <c r="AD64" s="8">
+        <v>0</v>
+      </c>
+      <c r="AE64" s="8">
+        <v>0</v>
+      </c>
+      <c r="AF64" s="8">
+        <v>0</v>
+      </c>
+      <c r="AG64" s="8">
+        <v>0</v>
+      </c>
+      <c r="AH64" s="8">
+        <v>0</v>
+      </c>
+      <c r="AI64" s="8">
+        <v>0</v>
+      </c>
+      <c r="AJ64" s="8">
+        <v>0</v>
+      </c>
+      <c r="AK64" s="8">
+        <v>0</v>
+      </c>
+      <c r="AL64" s="8">
+        <v>0</v>
+      </c>
+      <c r="AM64" s="8">
+        <v>0</v>
+      </c>
+      <c r="AN64" s="8">
+        <v>0</v>
+      </c>
+      <c r="AO64" s="8">
         <v>0.45</v>
       </c>
-      <c r="V64" s="8">
-        <v>0</v>
-      </c>
-      <c r="W64" s="8">
-        <v>0</v>
-      </c>
-      <c r="X64" s="8">
-        <v>0</v>
-      </c>
-      <c r="Y64" s="8">
-        <v>0</v>
-      </c>
-      <c r="Z64" s="8">
-        <v>0</v>
-      </c>
-      <c r="AA64" s="8">
-        <v>0</v>
-      </c>
-      <c r="AB64" s="8">
-        <v>0</v>
-      </c>
-      <c r="AC64" s="8">
-        <v>0</v>
-      </c>
-      <c r="AD64" s="8">
-        <v>0</v>
-      </c>
-      <c r="AE64" s="8">
-        <v>0</v>
-      </c>
-      <c r="AF64" s="8">
-        <v>0</v>
-      </c>
-      <c r="AG64" s="8">
-        <v>0</v>
-      </c>
-      <c r="AH64" s="8">
-        <v>0</v>
-      </c>
-      <c r="AI64" s="8">
-        <v>0</v>
-      </c>
-      <c r="AJ64" s="8">
-        <v>0</v>
-      </c>
-      <c r="AK64" s="8">
-        <v>0</v>
-      </c>
-      <c r="AL64" s="8">
-        <v>0</v>
-      </c>
-      <c r="AM64" s="8">
-        <v>0</v>
-      </c>
-      <c r="AN64" s="8">
-        <v>0</v>
-      </c>
-      <c r="AO64" s="8">
-        <v>0</v>
-      </c>
     </row>
     <row r="65" spans="1:41" x14ac:dyDescent="0.35">
-      <c r="A65" s="56"/>
+      <c r="A65" s="59"/>
       <c r="B65" s="17" t="s">
         <v>52</v>
       </c>
@@ -18522,71 +18522,71 @@
         <v>0</v>
       </c>
       <c r="U65" s="8">
+        <v>0</v>
+      </c>
+      <c r="V65" s="8">
+        <v>0</v>
+      </c>
+      <c r="W65" s="8">
+        <v>0</v>
+      </c>
+      <c r="X65" s="8">
+        <v>0</v>
+      </c>
+      <c r="Y65" s="8">
+        <v>0</v>
+      </c>
+      <c r="Z65" s="8">
+        <v>0</v>
+      </c>
+      <c r="AA65" s="8">
+        <v>0</v>
+      </c>
+      <c r="AB65" s="8">
+        <v>0</v>
+      </c>
+      <c r="AC65" s="8">
+        <v>0</v>
+      </c>
+      <c r="AD65" s="8">
+        <v>0</v>
+      </c>
+      <c r="AE65" s="8">
+        <v>0</v>
+      </c>
+      <c r="AF65" s="8">
+        <v>0</v>
+      </c>
+      <c r="AG65" s="8">
+        <v>0</v>
+      </c>
+      <c r="AH65" s="8">
+        <v>0</v>
+      </c>
+      <c r="AI65" s="8">
+        <v>0</v>
+      </c>
+      <c r="AJ65" s="8">
+        <v>0</v>
+      </c>
+      <c r="AK65" s="8">
+        <v>0</v>
+      </c>
+      <c r="AL65" s="8">
+        <v>0</v>
+      </c>
+      <c r="AM65" s="8">
+        <v>0</v>
+      </c>
+      <c r="AN65" s="8">
+        <v>0</v>
+      </c>
+      <c r="AO65" s="8">
         <v>0.35</v>
       </c>
-      <c r="V65" s="8">
-        <v>0</v>
-      </c>
-      <c r="W65" s="8">
-        <v>0</v>
-      </c>
-      <c r="X65" s="8">
-        <v>0</v>
-      </c>
-      <c r="Y65" s="8">
-        <v>0</v>
-      </c>
-      <c r="Z65" s="8">
-        <v>0</v>
-      </c>
-      <c r="AA65" s="8">
-        <v>0</v>
-      </c>
-      <c r="AB65" s="8">
-        <v>0</v>
-      </c>
-      <c r="AC65" s="8">
-        <v>0</v>
-      </c>
-      <c r="AD65" s="8">
-        <v>0</v>
-      </c>
-      <c r="AE65" s="8">
-        <v>0</v>
-      </c>
-      <c r="AF65" s="8">
-        <v>0</v>
-      </c>
-      <c r="AG65" s="8">
-        <v>0</v>
-      </c>
-      <c r="AH65" s="8">
-        <v>0</v>
-      </c>
-      <c r="AI65" s="8">
-        <v>0</v>
-      </c>
-      <c r="AJ65" s="8">
-        <v>0</v>
-      </c>
-      <c r="AK65" s="8">
-        <v>0</v>
-      </c>
-      <c r="AL65" s="8">
-        <v>0</v>
-      </c>
-      <c r="AM65" s="8">
-        <v>0</v>
-      </c>
-      <c r="AN65" s="8">
-        <v>0</v>
-      </c>
-      <c r="AO65" s="8">
-        <v>0</v>
-      </c>
     </row>
     <row r="66" spans="1:41" x14ac:dyDescent="0.35">
-      <c r="A66" s="57"/>
+      <c r="A66" s="60"/>
       <c r="B66" s="18" t="s">
         <v>53</v>
       </c>
@@ -18645,71 +18645,71 @@
         <v>0</v>
       </c>
       <c r="U66" s="15">
+        <v>0</v>
+      </c>
+      <c r="V66" s="15">
+        <v>0</v>
+      </c>
+      <c r="W66" s="15">
+        <v>0</v>
+      </c>
+      <c r="X66" s="15">
+        <v>0</v>
+      </c>
+      <c r="Y66" s="15">
+        <v>0</v>
+      </c>
+      <c r="Z66" s="15">
+        <v>0</v>
+      </c>
+      <c r="AA66" s="15">
+        <v>0</v>
+      </c>
+      <c r="AB66" s="15">
+        <v>0</v>
+      </c>
+      <c r="AC66" s="15">
+        <v>0</v>
+      </c>
+      <c r="AD66" s="15">
+        <v>0</v>
+      </c>
+      <c r="AE66" s="15">
+        <v>0</v>
+      </c>
+      <c r="AF66" s="15">
+        <v>0</v>
+      </c>
+      <c r="AG66" s="15">
+        <v>0</v>
+      </c>
+      <c r="AH66" s="15">
+        <v>0</v>
+      </c>
+      <c r="AI66" s="15">
+        <v>0</v>
+      </c>
+      <c r="AJ66" s="15">
+        <v>0</v>
+      </c>
+      <c r="AK66" s="15">
+        <v>0</v>
+      </c>
+      <c r="AL66" s="15">
+        <v>0</v>
+      </c>
+      <c r="AM66" s="15">
+        <v>0</v>
+      </c>
+      <c r="AN66" s="15">
+        <v>0</v>
+      </c>
+      <c r="AO66" s="15">
         <v>0.37</v>
       </c>
-      <c r="V66" s="15">
-        <v>0</v>
-      </c>
-      <c r="W66" s="15">
-        <v>0</v>
-      </c>
-      <c r="X66" s="15">
-        <v>0</v>
-      </c>
-      <c r="Y66" s="15">
-        <v>0</v>
-      </c>
-      <c r="Z66" s="15">
-        <v>0</v>
-      </c>
-      <c r="AA66" s="15">
-        <v>0</v>
-      </c>
-      <c r="AB66" s="15">
-        <v>0</v>
-      </c>
-      <c r="AC66" s="15">
-        <v>0</v>
-      </c>
-      <c r="AD66" s="15">
-        <v>0</v>
-      </c>
-      <c r="AE66" s="15">
-        <v>0</v>
-      </c>
-      <c r="AF66" s="15">
-        <v>0</v>
-      </c>
-      <c r="AG66" s="15">
-        <v>0</v>
-      </c>
-      <c r="AH66" s="15">
-        <v>0</v>
-      </c>
-      <c r="AI66" s="15">
-        <v>0</v>
-      </c>
-      <c r="AJ66" s="15">
-        <v>0</v>
-      </c>
-      <c r="AK66" s="15">
-        <v>0</v>
-      </c>
-      <c r="AL66" s="15">
-        <v>0</v>
-      </c>
-      <c r="AM66" s="15">
-        <v>0</v>
-      </c>
-      <c r="AN66" s="15">
-        <v>0</v>
-      </c>
-      <c r="AO66" s="15">
-        <v>0</v>
-      </c>
     </row>
     <row r="67" spans="1:41" x14ac:dyDescent="0.35">
-      <c r="A67" s="55" t="s">
+      <c r="A67" s="58" t="s">
         <v>54</v>
       </c>
       <c r="B67" s="11" t="s">
@@ -18834,7 +18834,7 @@
       </c>
     </row>
     <row r="68" spans="1:41" x14ac:dyDescent="0.35">
-      <c r="A68" s="56"/>
+      <c r="A68" s="59"/>
       <c r="B68" s="17" t="s">
         <v>55</v>
       </c>
@@ -18957,7 +18957,7 @@
       </c>
     </row>
     <row r="69" spans="1:41" x14ac:dyDescent="0.35">
-      <c r="A69" s="57"/>
+      <c r="A69" s="60"/>
       <c r="B69" s="18" t="s">
         <v>56</v>
       </c>
@@ -19113,7 +19113,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F5A29F17-D94C-4A81-8A6D-42D62B17E419}">
   <dimension ref="A1:AO41"/>
   <sheetViews>
-    <sheetView topLeftCell="A17" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="A32" sqref="A32:Y33"/>
     </sheetView>
   </sheetViews>

--- a/Input Data - Resources 1.xlsx
+++ b/Input Data - Resources 1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hugo.serrano\PycharmProjects1\CRETE_VALLEY_T.4.3\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CDE619BC-2635-4EB3-A886-B0FD24037D39}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BD41B1B7-9192-4F91-A70D-8BF3E9599FF7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="907" activeTab="3" xr2:uid="{A643D732-D500-40EC-92C3-BB1380872BE9}"/>
   </bookViews>
@@ -932,8 +932,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{293146E6-8E2D-4ADC-82E7-CE7DA50FFBD7}">
   <dimension ref="A2:Z43"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C18" sqref="C18:Z18"/>
+    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D12" sqref="D12:Z12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.90625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2181,76 +2181,76 @@
         <v>16</v>
       </c>
       <c r="C18" s="54">
-        <v>77.081639600000003</v>
+        <v>0</v>
       </c>
       <c r="D18" s="54">
-        <v>76.205639599999998</v>
+        <v>0</v>
       </c>
       <c r="E18" s="54">
-        <v>77.573806099999999</v>
+        <v>0</v>
       </c>
       <c r="F18" s="54">
-        <v>75.894639600000005</v>
+        <v>0</v>
       </c>
       <c r="G18" s="54">
-        <v>76.521139499999904</v>
+        <v>0</v>
       </c>
       <c r="H18" s="54">
-        <v>78.041639599999996</v>
+        <v>0</v>
       </c>
       <c r="I18" s="54">
-        <v>138.90155632000003</v>
+        <v>0</v>
       </c>
       <c r="J18" s="54">
-        <v>107.0398029</v>
+        <v>0</v>
       </c>
       <c r="K18" s="54">
-        <v>141.36430200000001</v>
+        <v>0</v>
       </c>
       <c r="L18" s="54">
-        <v>174.7566344</v>
+        <v>0</v>
       </c>
       <c r="M18" s="54">
-        <v>176.8601353</v>
+        <v>0</v>
       </c>
       <c r="N18" s="54">
-        <v>176.50713210000001</v>
+        <v>0</v>
       </c>
       <c r="O18" s="54">
-        <v>176.68196620000001</v>
+        <v>0</v>
       </c>
       <c r="P18" s="54">
-        <v>177.60013069999999</v>
+        <v>0</v>
       </c>
       <c r="Q18" s="54">
-        <v>173.07829939999999</v>
+        <v>0</v>
       </c>
       <c r="R18" s="54">
-        <v>172.9864657</v>
+        <v>0</v>
       </c>
       <c r="S18" s="54">
-        <v>171.86096659999899</v>
+        <v>0</v>
       </c>
       <c r="T18" s="54">
-        <v>254.45574360000003</v>
+        <v>0</v>
       </c>
       <c r="U18" s="54">
-        <v>213.27413530000001</v>
+        <v>0</v>
       </c>
       <c r="V18" s="54">
-        <v>201.42347029999999</v>
+        <v>0</v>
       </c>
       <c r="W18" s="54">
-        <v>193.4893036</v>
+        <v>0</v>
       </c>
       <c r="X18" s="54">
-        <v>90.646970199999998</v>
+        <v>0</v>
       </c>
       <c r="Y18" s="54">
-        <v>86.497136900000001</v>
+        <v>0</v>
       </c>
       <c r="Z18" s="54">
-        <v>84.372804500000001</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19" spans="2:26" x14ac:dyDescent="0.35">
@@ -2258,76 +2258,76 @@
         <v>17</v>
       </c>
       <c r="C19" s="54">
-        <v>77.081639600000003</v>
+        <v>0</v>
       </c>
       <c r="D19" s="54">
-        <v>76.205639599999998</v>
+        <v>0</v>
       </c>
       <c r="E19" s="54">
-        <v>77.573806099999999</v>
+        <v>0</v>
       </c>
       <c r="F19" s="54">
-        <v>75.894639600000005</v>
+        <v>0</v>
       </c>
       <c r="G19" s="54">
-        <v>76.521139499999904</v>
+        <v>0</v>
       </c>
       <c r="H19" s="54">
-        <v>78.041639599999996</v>
+        <v>0</v>
       </c>
       <c r="I19" s="54">
-        <v>138.90155632000003</v>
+        <v>0</v>
       </c>
       <c r="J19" s="54">
-        <v>107.0398029</v>
+        <v>0</v>
       </c>
       <c r="K19" s="54">
-        <v>141.36430200000001</v>
+        <v>0</v>
       </c>
       <c r="L19" s="54">
-        <v>174.7566344</v>
+        <v>0</v>
       </c>
       <c r="M19" s="54">
-        <v>176.8601353</v>
+        <v>0</v>
       </c>
       <c r="N19" s="54">
-        <v>176.50713210000001</v>
+        <v>0</v>
       </c>
       <c r="O19" s="54">
-        <v>176.68196620000001</v>
+        <v>0</v>
       </c>
       <c r="P19" s="54">
-        <v>177.60013069999999</v>
+        <v>0</v>
       </c>
       <c r="Q19" s="54">
-        <v>173.07829939999999</v>
+        <v>0</v>
       </c>
       <c r="R19" s="54">
-        <v>172.9864657</v>
+        <v>0</v>
       </c>
       <c r="S19" s="54">
-        <v>171.86096659999899</v>
+        <v>0</v>
       </c>
       <c r="T19" s="54">
-        <v>254.45574360000003</v>
+        <v>0</v>
       </c>
       <c r="U19" s="54">
-        <v>213.27413530000001</v>
+        <v>0</v>
       </c>
       <c r="V19" s="54">
-        <v>201.42347029999999</v>
+        <v>0</v>
       </c>
       <c r="W19" s="54">
-        <v>193.4893036</v>
+        <v>0</v>
       </c>
       <c r="X19" s="54">
-        <v>90.646970199999998</v>
+        <v>0</v>
       </c>
       <c r="Y19" s="54">
-        <v>86.497136900000001</v>
+        <v>0</v>
       </c>
       <c r="Z19" s="54">
-        <v>84.372804500000001</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20" spans="2:26" x14ac:dyDescent="0.35">
@@ -3567,76 +3567,76 @@
         <v>34</v>
       </c>
       <c r="C36" s="54">
-        <v>77.081639600000003</v>
+        <v>0</v>
       </c>
       <c r="D36" s="54">
-        <v>76.205639599999998</v>
+        <v>0</v>
       </c>
       <c r="E36" s="54">
-        <v>77.573806099999999</v>
+        <v>0</v>
       </c>
       <c r="F36" s="54">
-        <v>75.894639600000005</v>
+        <v>0</v>
       </c>
       <c r="G36" s="54">
-        <v>76.521139499999904</v>
+        <v>0</v>
       </c>
       <c r="H36" s="54">
-        <v>78.041639599999996</v>
+        <v>0</v>
       </c>
       <c r="I36" s="54">
-        <v>138.90155632000003</v>
+        <v>0</v>
       </c>
       <c r="J36" s="54">
-        <v>107.0398029</v>
+        <v>0</v>
       </c>
       <c r="K36" s="54">
-        <v>141.36430200000001</v>
+        <v>0</v>
       </c>
       <c r="L36" s="54">
-        <v>174.7566344</v>
+        <v>0</v>
       </c>
       <c r="M36" s="54">
-        <v>176.8601353</v>
+        <v>0</v>
       </c>
       <c r="N36" s="54">
-        <v>176.50713210000001</v>
+        <v>0</v>
       </c>
       <c r="O36" s="54">
-        <v>176.68196620000001</v>
+        <v>0</v>
       </c>
       <c r="P36" s="54">
-        <v>177.60013069999999</v>
+        <v>0</v>
       </c>
       <c r="Q36" s="54">
-        <v>173.07829939999999</v>
+        <v>0</v>
       </c>
       <c r="R36" s="54">
-        <v>172.9864657</v>
+        <v>0</v>
       </c>
       <c r="S36" s="54">
-        <v>171.86096659999899</v>
+        <v>0</v>
       </c>
       <c r="T36" s="54">
-        <v>254.45574360000003</v>
+        <v>0</v>
       </c>
       <c r="U36" s="54">
-        <v>213.27413530000001</v>
+        <v>0</v>
       </c>
       <c r="V36" s="54">
-        <v>201.42347029999999</v>
+        <v>0</v>
       </c>
       <c r="W36" s="54">
-        <v>193.4893036</v>
+        <v>0</v>
       </c>
       <c r="X36" s="54">
-        <v>90.646970199999998</v>
+        <v>0</v>
       </c>
       <c r="Y36" s="54">
-        <v>86.497136900000001</v>
+        <v>0</v>
       </c>
       <c r="Z36" s="54">
-        <v>84.372804500000001</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37" spans="2:26" x14ac:dyDescent="0.35">
@@ -3875,76 +3875,76 @@
         <v>38</v>
       </c>
       <c r="C40" s="54">
-        <v>77.081639600000003</v>
+        <v>0</v>
       </c>
       <c r="D40" s="54">
-        <v>76.205639599999998</v>
+        <v>0</v>
       </c>
       <c r="E40" s="54">
-        <v>77.573806099999999</v>
+        <v>0</v>
       </c>
       <c r="F40" s="54">
-        <v>75.894639600000005</v>
+        <v>0</v>
       </c>
       <c r="G40" s="54">
-        <v>76.521139499999904</v>
+        <v>0</v>
       </c>
       <c r="H40" s="54">
-        <v>78.041639599999996</v>
+        <v>0</v>
       </c>
       <c r="I40" s="54">
-        <v>138.90155632000003</v>
+        <v>0</v>
       </c>
       <c r="J40" s="54">
-        <v>107.0398029</v>
+        <v>0</v>
       </c>
       <c r="K40" s="54">
-        <v>141.36430200000001</v>
+        <v>0</v>
       </c>
       <c r="L40" s="54">
-        <v>174.7566344</v>
+        <v>0</v>
       </c>
       <c r="M40" s="54">
-        <v>176.8601353</v>
+        <v>0</v>
       </c>
       <c r="N40" s="54">
-        <v>176.50713210000001</v>
+        <v>0</v>
       </c>
       <c r="O40" s="54">
-        <v>176.68196620000001</v>
+        <v>0</v>
       </c>
       <c r="P40" s="54">
-        <v>177.60013069999999</v>
+        <v>0</v>
       </c>
       <c r="Q40" s="54">
-        <v>173.07829939999999</v>
+        <v>0</v>
       </c>
       <c r="R40" s="54">
-        <v>172.9864657</v>
+        <v>0</v>
       </c>
       <c r="S40" s="54">
-        <v>171.86096659999899</v>
+        <v>0</v>
       </c>
       <c r="T40" s="54">
-        <v>254.45574360000003</v>
+        <v>0</v>
       </c>
       <c r="U40" s="54">
-        <v>213.27413530000001</v>
+        <v>0</v>
       </c>
       <c r="V40" s="54">
-        <v>201.42347029999999</v>
+        <v>0</v>
       </c>
       <c r="W40" s="54">
-        <v>193.4893036</v>
+        <v>0</v>
       </c>
       <c r="X40" s="54">
-        <v>90.646970199999998</v>
+        <v>0</v>
       </c>
       <c r="Y40" s="54">
-        <v>86.497136900000001</v>
+        <v>0</v>
       </c>
       <c r="Z40" s="54">
-        <v>84.372804500000001</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41" spans="2:26" x14ac:dyDescent="0.35">
@@ -10285,7 +10285,7 @@
   <dimension ref="A2:IE70"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="AH61" sqref="AH61:AH66"/>
+      <selection activeCell="L3" sqref="L3:L15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.90625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -13162,16 +13162,16 @@
         <v>1</v>
       </c>
       <c r="K25" s="13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L25" s="13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M25" s="13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N25" s="13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O25" s="13">
         <v>0</v>
@@ -13183,10 +13183,10 @@
         <v>0</v>
       </c>
       <c r="R25" s="13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S25" s="13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T25" s="13">
         <v>0</v>
@@ -13198,7 +13198,7 @@
         <v>0</v>
       </c>
       <c r="W25" s="13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X25" s="13">
         <v>0</v>
@@ -13207,7 +13207,7 @@
         <v>0</v>
       </c>
       <c r="Z25" s="13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA25" s="13">
         <v>0</v>
@@ -13285,16 +13285,16 @@
         <v>10</v>
       </c>
       <c r="K26" s="15">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="L26" s="15">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="M26" s="15">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="N26" s="15">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="O26" s="15">
         <v>0</v>
@@ -13306,10 +13306,10 @@
         <v>0</v>
       </c>
       <c r="R26" s="15">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="S26" s="15">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="T26" s="15">
         <v>0</v>
@@ -13321,7 +13321,7 @@
         <v>0</v>
       </c>
       <c r="W26" s="15">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="X26" s="15">
         <v>0</v>
@@ -13330,7 +13330,7 @@
         <v>0</v>
       </c>
       <c r="Z26" s="15">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="AA26" s="15">
         <v>0</v>
@@ -16169,7 +16169,7 @@
         <v>0</v>
       </c>
       <c r="Q46" s="13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R46" s="13">
         <v>0</v>
@@ -16187,7 +16187,7 @@
         <v>0</v>
       </c>
       <c r="W46" s="13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X46" s="13">
         <v>0</v>
@@ -16214,7 +16214,7 @@
         <v>0</v>
       </c>
       <c r="AF46" s="13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AG46" s="13">
         <v>0</v>
@@ -16292,7 +16292,7 @@
         <v>0</v>
       </c>
       <c r="Q47" s="8">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="R47" s="8">
         <v>0</v>
@@ -16310,7 +16310,7 @@
         <v>0</v>
       </c>
       <c r="W47" s="8">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="X47" s="8">
         <v>0</v>
@@ -16337,7 +16337,7 @@
         <v>0</v>
       </c>
       <c r="AF47" s="8">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="AG47" s="8">
         <v>0</v>
@@ -16415,7 +16415,7 @@
         <v>0</v>
       </c>
       <c r="Q48" s="8">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="R48" s="8">
         <v>0</v>
@@ -16433,7 +16433,7 @@
         <v>0</v>
       </c>
       <c r="W48" s="8">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="X48" s="8">
         <v>0</v>
@@ -16460,7 +16460,7 @@
         <v>0</v>
       </c>
       <c r="AF48" s="8">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="AG48" s="8">
         <v>0</v>
@@ -16538,7 +16538,7 @@
         <v>0</v>
       </c>
       <c r="Q49" s="8">
-        <v>0</v>
+        <v>0.85</v>
       </c>
       <c r="R49" s="8">
         <v>0</v>
@@ -16556,7 +16556,7 @@
         <v>0</v>
       </c>
       <c r="W49" s="8">
-        <v>0</v>
+        <v>0.85</v>
       </c>
       <c r="X49" s="8">
         <v>0</v>
@@ -16583,7 +16583,7 @@
         <v>0</v>
       </c>
       <c r="AF49" s="8">
-        <v>0</v>
+        <v>0.85</v>
       </c>
       <c r="AG49" s="8">
         <v>0</v>
@@ -16661,7 +16661,7 @@
         <v>0</v>
       </c>
       <c r="Q50" s="8">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="R50" s="8">
         <v>0</v>
@@ -16679,7 +16679,7 @@
         <v>0</v>
       </c>
       <c r="W50" s="8">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="X50" s="8">
         <v>0</v>
@@ -16706,7 +16706,7 @@
         <v>0</v>
       </c>
       <c r="AF50" s="8">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="AG50" s="8">
         <v>0</v>
@@ -16784,7 +16784,7 @@
         <v>0</v>
       </c>
       <c r="Q51" s="15">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="R51" s="15">
         <v>0</v>
@@ -16802,7 +16802,7 @@
         <v>0</v>
       </c>
       <c r="W51" s="15">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="X51" s="15">
         <v>0</v>
@@ -16829,7 +16829,7 @@
         <v>0</v>
       </c>
       <c r="AF51" s="15">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="AG51" s="15">
         <v>0</v>
@@ -18009,7 +18009,7 @@
         <v>0</v>
       </c>
       <c r="N61" s="8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O61" s="8">
         <v>0</v>
@@ -18030,7 +18030,7 @@
         <v>0</v>
       </c>
       <c r="U61" s="8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V61" s="8">
         <v>0</v>
@@ -18069,7 +18069,7 @@
         <v>0</v>
       </c>
       <c r="AH61" s="8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AI61" s="8">
         <v>0</v>
@@ -18132,7 +18132,7 @@
         <v>0</v>
       </c>
       <c r="N62" s="8">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="O62" s="8">
         <v>0</v>
@@ -18153,7 +18153,7 @@
         <v>0</v>
       </c>
       <c r="U62" s="8">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="V62" s="8">
         <v>0</v>
@@ -18192,7 +18192,7 @@
         <v>0</v>
       </c>
       <c r="AH62" s="8">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="AI62" s="8">
         <v>0</v>
@@ -18378,7 +18378,7 @@
         <v>0</v>
       </c>
       <c r="N64" s="8">
-        <v>0</v>
+        <v>0.45</v>
       </c>
       <c r="O64" s="8">
         <v>0</v>
@@ -18399,7 +18399,7 @@
         <v>0</v>
       </c>
       <c r="U64" s="8">
-        <v>0</v>
+        <v>0.45</v>
       </c>
       <c r="V64" s="8">
         <v>0</v>
@@ -18438,7 +18438,7 @@
         <v>0</v>
       </c>
       <c r="AH64" s="8">
-        <v>0</v>
+        <v>0.45</v>
       </c>
       <c r="AI64" s="8">
         <v>0</v>
@@ -18501,7 +18501,7 @@
         <v>0</v>
       </c>
       <c r="N65" s="8">
-        <v>0</v>
+        <v>0.35</v>
       </c>
       <c r="O65" s="8">
         <v>0</v>
@@ -18522,7 +18522,7 @@
         <v>0</v>
       </c>
       <c r="U65" s="8">
-        <v>0</v>
+        <v>0.35</v>
       </c>
       <c r="V65" s="8">
         <v>0</v>
@@ -18561,7 +18561,7 @@
         <v>0</v>
       </c>
       <c r="AH65" s="8">
-        <v>0</v>
+        <v>0.35</v>
       </c>
       <c r="AI65" s="8">
         <v>0</v>
@@ -18624,7 +18624,7 @@
         <v>0</v>
       </c>
       <c r="N66" s="15">
-        <v>0</v>
+        <v>0.37</v>
       </c>
       <c r="O66" s="15">
         <v>0</v>
@@ -18645,7 +18645,7 @@
         <v>0</v>
       </c>
       <c r="U66" s="15">
-        <v>0</v>
+        <v>0.37</v>
       </c>
       <c r="V66" s="15">
         <v>0</v>
@@ -18684,7 +18684,7 @@
         <v>0</v>
       </c>
       <c r="AH66" s="15">
-        <v>0</v>
+        <v>0.37</v>
       </c>
       <c r="AI66" s="15">
         <v>0</v>
@@ -32041,21 +32041,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101006EB96E01841F534A9C78DC9E98988F27" ma:contentTypeVersion="11" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="e9cd0784f49f37c1a173dce4a7ba0add">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="768b940a-12b3-4bec-8bc4-e76c6f92f4e8" xmlns:ns4="825cedbc-969e-4d8d-87a7-78044fba72ff" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="d0f00a3aa6de0fd555e3fea5893c31c9" ns3:_="" ns4:_="">
     <xsd:import namespace="768b940a-12b3-4bec-8bc4-e76c6f92f4e8"/>
@@ -32266,32 +32251,22 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{47108D9C-9F22-4BF8-A049-F9C9D73243DC}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="825cedbc-969e-4d8d-87a7-78044fba72ff"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="768b940a-12b3-4bec-8bc4-e76c6f92f4e8"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{00860459-9AB3-404C-9E09-2F98C31A67E6}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BD02C117-BEF2-48D5-9623-486F204F6E0B}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -32308,4 +32283,29 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{00860459-9AB3-404C-9E09-2F98C31A67E6}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{47108D9C-9F22-4BF8-A049-F9C9D73243DC}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="825cedbc-969e-4d8d-87a7-78044fba72ff"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="768b940a-12b3-4bec-8bc4-e76c6f92f4e8"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/Input Data - Resources 1.xlsx
+++ b/Input Data - Resources 1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hugo.serrano\PycharmProjects1\CRETE_VALLEY_T.4.3\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BD41B1B7-9192-4F91-A70D-8BF3E9599FF7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CDE619BC-2635-4EB3-A886-B0FD24037D39}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="907" activeTab="3" xr2:uid="{A643D732-D500-40EC-92C3-BB1380872BE9}"/>
   </bookViews>
@@ -932,8 +932,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{293146E6-8E2D-4ADC-82E7-CE7DA50FFBD7}">
   <dimension ref="A2:Z43"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12:Z12"/>
+    <sheetView showGridLines="0" topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C18" sqref="C18:Z18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.90625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2181,76 +2181,76 @@
         <v>16</v>
       </c>
       <c r="C18" s="54">
-        <v>0</v>
+        <v>77.081639600000003</v>
       </c>
       <c r="D18" s="54">
-        <v>0</v>
+        <v>76.205639599999998</v>
       </c>
       <c r="E18" s="54">
-        <v>0</v>
+        <v>77.573806099999999</v>
       </c>
       <c r="F18" s="54">
-        <v>0</v>
+        <v>75.894639600000005</v>
       </c>
       <c r="G18" s="54">
-        <v>0</v>
+        <v>76.521139499999904</v>
       </c>
       <c r="H18" s="54">
-        <v>0</v>
+        <v>78.041639599999996</v>
       </c>
       <c r="I18" s="54">
-        <v>0</v>
+        <v>138.90155632000003</v>
       </c>
       <c r="J18" s="54">
-        <v>0</v>
+        <v>107.0398029</v>
       </c>
       <c r="K18" s="54">
-        <v>0</v>
+        <v>141.36430200000001</v>
       </c>
       <c r="L18" s="54">
-        <v>0</v>
+        <v>174.7566344</v>
       </c>
       <c r="M18" s="54">
-        <v>0</v>
+        <v>176.8601353</v>
       </c>
       <c r="N18" s="54">
-        <v>0</v>
+        <v>176.50713210000001</v>
       </c>
       <c r="O18" s="54">
-        <v>0</v>
+        <v>176.68196620000001</v>
       </c>
       <c r="P18" s="54">
-        <v>0</v>
+        <v>177.60013069999999</v>
       </c>
       <c r="Q18" s="54">
-        <v>0</v>
+        <v>173.07829939999999</v>
       </c>
       <c r="R18" s="54">
-        <v>0</v>
+        <v>172.9864657</v>
       </c>
       <c r="S18" s="54">
-        <v>0</v>
+        <v>171.86096659999899</v>
       </c>
       <c r="T18" s="54">
-        <v>0</v>
+        <v>254.45574360000003</v>
       </c>
       <c r="U18" s="54">
-        <v>0</v>
+        <v>213.27413530000001</v>
       </c>
       <c r="V18" s="54">
-        <v>0</v>
+        <v>201.42347029999999</v>
       </c>
       <c r="W18" s="54">
-        <v>0</v>
+        <v>193.4893036</v>
       </c>
       <c r="X18" s="54">
-        <v>0</v>
+        <v>90.646970199999998</v>
       </c>
       <c r="Y18" s="54">
-        <v>0</v>
+        <v>86.497136900000001</v>
       </c>
       <c r="Z18" s="54">
-        <v>0</v>
+        <v>84.372804500000001</v>
       </c>
     </row>
     <row r="19" spans="2:26" x14ac:dyDescent="0.35">
@@ -2258,76 +2258,76 @@
         <v>17</v>
       </c>
       <c r="C19" s="54">
-        <v>0</v>
+        <v>77.081639600000003</v>
       </c>
       <c r="D19" s="54">
-        <v>0</v>
+        <v>76.205639599999998</v>
       </c>
       <c r="E19" s="54">
-        <v>0</v>
+        <v>77.573806099999999</v>
       </c>
       <c r="F19" s="54">
-        <v>0</v>
+        <v>75.894639600000005</v>
       </c>
       <c r="G19" s="54">
-        <v>0</v>
+        <v>76.521139499999904</v>
       </c>
       <c r="H19" s="54">
-        <v>0</v>
+        <v>78.041639599999996</v>
       </c>
       <c r="I19" s="54">
-        <v>0</v>
+        <v>138.90155632000003</v>
       </c>
       <c r="J19" s="54">
-        <v>0</v>
+        <v>107.0398029</v>
       </c>
       <c r="K19" s="54">
-        <v>0</v>
+        <v>141.36430200000001</v>
       </c>
       <c r="L19" s="54">
-        <v>0</v>
+        <v>174.7566344</v>
       </c>
       <c r="M19" s="54">
-        <v>0</v>
+        <v>176.8601353</v>
       </c>
       <c r="N19" s="54">
-        <v>0</v>
+        <v>176.50713210000001</v>
       </c>
       <c r="O19" s="54">
-        <v>0</v>
+        <v>176.68196620000001</v>
       </c>
       <c r="P19" s="54">
-        <v>0</v>
+        <v>177.60013069999999</v>
       </c>
       <c r="Q19" s="54">
-        <v>0</v>
+        <v>173.07829939999999</v>
       </c>
       <c r="R19" s="54">
-        <v>0</v>
+        <v>172.9864657</v>
       </c>
       <c r="S19" s="54">
-        <v>0</v>
+        <v>171.86096659999899</v>
       </c>
       <c r="T19" s="54">
-        <v>0</v>
+        <v>254.45574360000003</v>
       </c>
       <c r="U19" s="54">
-        <v>0</v>
+        <v>213.27413530000001</v>
       </c>
       <c r="V19" s="54">
-        <v>0</v>
+        <v>201.42347029999999</v>
       </c>
       <c r="W19" s="54">
-        <v>0</v>
+        <v>193.4893036</v>
       </c>
       <c r="X19" s="54">
-        <v>0</v>
+        <v>90.646970199999998</v>
       </c>
       <c r="Y19" s="54">
-        <v>0</v>
+        <v>86.497136900000001</v>
       </c>
       <c r="Z19" s="54">
-        <v>0</v>
+        <v>84.372804500000001</v>
       </c>
     </row>
     <row r="20" spans="2:26" x14ac:dyDescent="0.35">
@@ -3567,76 +3567,76 @@
         <v>34</v>
       </c>
       <c r="C36" s="54">
-        <v>0</v>
+        <v>77.081639600000003</v>
       </c>
       <c r="D36" s="54">
-        <v>0</v>
+        <v>76.205639599999998</v>
       </c>
       <c r="E36" s="54">
-        <v>0</v>
+        <v>77.573806099999999</v>
       </c>
       <c r="F36" s="54">
-        <v>0</v>
+        <v>75.894639600000005</v>
       </c>
       <c r="G36" s="54">
-        <v>0</v>
+        <v>76.521139499999904</v>
       </c>
       <c r="H36" s="54">
-        <v>0</v>
+        <v>78.041639599999996</v>
       </c>
       <c r="I36" s="54">
-        <v>0</v>
+        <v>138.90155632000003</v>
       </c>
       <c r="J36" s="54">
-        <v>0</v>
+        <v>107.0398029</v>
       </c>
       <c r="K36" s="54">
-        <v>0</v>
+        <v>141.36430200000001</v>
       </c>
       <c r="L36" s="54">
-        <v>0</v>
+        <v>174.7566344</v>
       </c>
       <c r="M36" s="54">
-        <v>0</v>
+        <v>176.8601353</v>
       </c>
       <c r="N36" s="54">
-        <v>0</v>
+        <v>176.50713210000001</v>
       </c>
       <c r="O36" s="54">
-        <v>0</v>
+        <v>176.68196620000001</v>
       </c>
       <c r="P36" s="54">
-        <v>0</v>
+        <v>177.60013069999999</v>
       </c>
       <c r="Q36" s="54">
-        <v>0</v>
+        <v>173.07829939999999</v>
       </c>
       <c r="R36" s="54">
-        <v>0</v>
+        <v>172.9864657</v>
       </c>
       <c r="S36" s="54">
-        <v>0</v>
+        <v>171.86096659999899</v>
       </c>
       <c r="T36" s="54">
-        <v>0</v>
+        <v>254.45574360000003</v>
       </c>
       <c r="U36" s="54">
-        <v>0</v>
+        <v>213.27413530000001</v>
       </c>
       <c r="V36" s="54">
-        <v>0</v>
+        <v>201.42347029999999</v>
       </c>
       <c r="W36" s="54">
-        <v>0</v>
+        <v>193.4893036</v>
       </c>
       <c r="X36" s="54">
-        <v>0</v>
+        <v>90.646970199999998</v>
       </c>
       <c r="Y36" s="54">
-        <v>0</v>
+        <v>86.497136900000001</v>
       </c>
       <c r="Z36" s="54">
-        <v>0</v>
+        <v>84.372804500000001</v>
       </c>
     </row>
     <row r="37" spans="2:26" x14ac:dyDescent="0.35">
@@ -3875,76 +3875,76 @@
         <v>38</v>
       </c>
       <c r="C40" s="54">
-        <v>0</v>
+        <v>77.081639600000003</v>
       </c>
       <c r="D40" s="54">
-        <v>0</v>
+        <v>76.205639599999998</v>
       </c>
       <c r="E40" s="54">
-        <v>0</v>
+        <v>77.573806099999999</v>
       </c>
       <c r="F40" s="54">
-        <v>0</v>
+        <v>75.894639600000005</v>
       </c>
       <c r="G40" s="54">
-        <v>0</v>
+        <v>76.521139499999904</v>
       </c>
       <c r="H40" s="54">
-        <v>0</v>
+        <v>78.041639599999996</v>
       </c>
       <c r="I40" s="54">
-        <v>0</v>
+        <v>138.90155632000003</v>
       </c>
       <c r="J40" s="54">
-        <v>0</v>
+        <v>107.0398029</v>
       </c>
       <c r="K40" s="54">
-        <v>0</v>
+        <v>141.36430200000001</v>
       </c>
       <c r="L40" s="54">
-        <v>0</v>
+        <v>174.7566344</v>
       </c>
       <c r="M40" s="54">
-        <v>0</v>
+        <v>176.8601353</v>
       </c>
       <c r="N40" s="54">
-        <v>0</v>
+        <v>176.50713210000001</v>
       </c>
       <c r="O40" s="54">
-        <v>0</v>
+        <v>176.68196620000001</v>
       </c>
       <c r="P40" s="54">
-        <v>0</v>
+        <v>177.60013069999999</v>
       </c>
       <c r="Q40" s="54">
-        <v>0</v>
+        <v>173.07829939999999</v>
       </c>
       <c r="R40" s="54">
-        <v>0</v>
+        <v>172.9864657</v>
       </c>
       <c r="S40" s="54">
-        <v>0</v>
+        <v>171.86096659999899</v>
       </c>
       <c r="T40" s="54">
-        <v>0</v>
+        <v>254.45574360000003</v>
       </c>
       <c r="U40" s="54">
-        <v>0</v>
+        <v>213.27413530000001</v>
       </c>
       <c r="V40" s="54">
-        <v>0</v>
+        <v>201.42347029999999</v>
       </c>
       <c r="W40" s="54">
-        <v>0</v>
+        <v>193.4893036</v>
       </c>
       <c r="X40" s="54">
-        <v>0</v>
+        <v>90.646970199999998</v>
       </c>
       <c r="Y40" s="54">
-        <v>0</v>
+        <v>86.497136900000001</v>
       </c>
       <c r="Z40" s="54">
-        <v>0</v>
+        <v>84.372804500000001</v>
       </c>
     </row>
     <row r="41" spans="2:26" x14ac:dyDescent="0.35">
@@ -10285,7 +10285,7 @@
   <dimension ref="A2:IE70"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="L3" sqref="L3:L15"/>
+      <selection activeCell="AH61" sqref="AH61:AH66"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.90625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -13162,16 +13162,16 @@
         <v>1</v>
       </c>
       <c r="K25" s="13">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L25" s="13">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M25" s="13">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N25" s="13">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O25" s="13">
         <v>0</v>
@@ -13183,10 +13183,10 @@
         <v>0</v>
       </c>
       <c r="R25" s="13">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S25" s="13">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T25" s="13">
         <v>0</v>
@@ -13198,7 +13198,7 @@
         <v>0</v>
       </c>
       <c r="W25" s="13">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X25" s="13">
         <v>0</v>
@@ -13207,7 +13207,7 @@
         <v>0</v>
       </c>
       <c r="Z25" s="13">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AA25" s="13">
         <v>0</v>
@@ -13285,16 +13285,16 @@
         <v>10</v>
       </c>
       <c r="K26" s="15">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="L26" s="15">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="M26" s="15">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="N26" s="15">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="O26" s="15">
         <v>0</v>
@@ -13306,10 +13306,10 @@
         <v>0</v>
       </c>
       <c r="R26" s="15">
-        <v>17</v>
+        <v>0</v>
       </c>
       <c r="S26" s="15">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="T26" s="15">
         <v>0</v>
@@ -13321,7 +13321,7 @@
         <v>0</v>
       </c>
       <c r="W26" s="15">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="X26" s="15">
         <v>0</v>
@@ -13330,7 +13330,7 @@
         <v>0</v>
       </c>
       <c r="Z26" s="15">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="AA26" s="15">
         <v>0</v>
@@ -16169,7 +16169,7 @@
         <v>0</v>
       </c>
       <c r="Q46" s="13">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R46" s="13">
         <v>0</v>
@@ -16187,7 +16187,7 @@
         <v>0</v>
       </c>
       <c r="W46" s="13">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X46" s="13">
         <v>0</v>
@@ -16214,7 +16214,7 @@
         <v>0</v>
       </c>
       <c r="AF46" s="13">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AG46" s="13">
         <v>0</v>
@@ -16292,7 +16292,7 @@
         <v>0</v>
       </c>
       <c r="Q47" s="8">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="R47" s="8">
         <v>0</v>
@@ -16310,7 +16310,7 @@
         <v>0</v>
       </c>
       <c r="W47" s="8">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="X47" s="8">
         <v>0</v>
@@ -16337,7 +16337,7 @@
         <v>0</v>
       </c>
       <c r="AF47" s="8">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="AG47" s="8">
         <v>0</v>
@@ -16415,7 +16415,7 @@
         <v>0</v>
       </c>
       <c r="Q48" s="8">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="R48" s="8">
         <v>0</v>
@@ -16433,7 +16433,7 @@
         <v>0</v>
       </c>
       <c r="W48" s="8">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="X48" s="8">
         <v>0</v>
@@ -16460,7 +16460,7 @@
         <v>0</v>
       </c>
       <c r="AF48" s="8">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="AG48" s="8">
         <v>0</v>
@@ -16538,7 +16538,7 @@
         <v>0</v>
       </c>
       <c r="Q49" s="8">
-        <v>0.85</v>
+        <v>0</v>
       </c>
       <c r="R49" s="8">
         <v>0</v>
@@ -16556,7 +16556,7 @@
         <v>0</v>
       </c>
       <c r="W49" s="8">
-        <v>0.85</v>
+        <v>0</v>
       </c>
       <c r="X49" s="8">
         <v>0</v>
@@ -16583,7 +16583,7 @@
         <v>0</v>
       </c>
       <c r="AF49" s="8">
-        <v>0.85</v>
+        <v>0</v>
       </c>
       <c r="AG49" s="8">
         <v>0</v>
@@ -16661,7 +16661,7 @@
         <v>0</v>
       </c>
       <c r="Q50" s="8">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="R50" s="8">
         <v>0</v>
@@ -16679,7 +16679,7 @@
         <v>0</v>
       </c>
       <c r="W50" s="8">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="X50" s="8">
         <v>0</v>
@@ -16706,7 +16706,7 @@
         <v>0</v>
       </c>
       <c r="AF50" s="8">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="AG50" s="8">
         <v>0</v>
@@ -16784,7 +16784,7 @@
         <v>0</v>
       </c>
       <c r="Q51" s="15">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="R51" s="15">
         <v>0</v>
@@ -16802,7 +16802,7 @@
         <v>0</v>
       </c>
       <c r="W51" s="15">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="X51" s="15">
         <v>0</v>
@@ -16829,7 +16829,7 @@
         <v>0</v>
       </c>
       <c r="AF51" s="15">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="AG51" s="15">
         <v>0</v>
@@ -18009,7 +18009,7 @@
         <v>0</v>
       </c>
       <c r="N61" s="8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O61" s="8">
         <v>0</v>
@@ -18030,7 +18030,7 @@
         <v>0</v>
       </c>
       <c r="U61" s="8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V61" s="8">
         <v>0</v>
@@ -18069,7 +18069,7 @@
         <v>0</v>
       </c>
       <c r="AH61" s="8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AI61" s="8">
         <v>0</v>
@@ -18132,7 +18132,7 @@
         <v>0</v>
       </c>
       <c r="N62" s="8">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="O62" s="8">
         <v>0</v>
@@ -18153,7 +18153,7 @@
         <v>0</v>
       </c>
       <c r="U62" s="8">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="V62" s="8">
         <v>0</v>
@@ -18192,7 +18192,7 @@
         <v>0</v>
       </c>
       <c r="AH62" s="8">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="AI62" s="8">
         <v>0</v>
@@ -18378,7 +18378,7 @@
         <v>0</v>
       </c>
       <c r="N64" s="8">
-        <v>0.45</v>
+        <v>0</v>
       </c>
       <c r="O64" s="8">
         <v>0</v>
@@ -18399,7 +18399,7 @@
         <v>0</v>
       </c>
       <c r="U64" s="8">
-        <v>0.45</v>
+        <v>0</v>
       </c>
       <c r="V64" s="8">
         <v>0</v>
@@ -18438,7 +18438,7 @@
         <v>0</v>
       </c>
       <c r="AH64" s="8">
-        <v>0.45</v>
+        <v>0</v>
       </c>
       <c r="AI64" s="8">
         <v>0</v>
@@ -18501,7 +18501,7 @@
         <v>0</v>
       </c>
       <c r="N65" s="8">
-        <v>0.35</v>
+        <v>0</v>
       </c>
       <c r="O65" s="8">
         <v>0</v>
@@ -18522,7 +18522,7 @@
         <v>0</v>
       </c>
       <c r="U65" s="8">
-        <v>0.35</v>
+        <v>0</v>
       </c>
       <c r="V65" s="8">
         <v>0</v>
@@ -18561,7 +18561,7 @@
         <v>0</v>
       </c>
       <c r="AH65" s="8">
-        <v>0.35</v>
+        <v>0</v>
       </c>
       <c r="AI65" s="8">
         <v>0</v>
@@ -18624,7 +18624,7 @@
         <v>0</v>
       </c>
       <c r="N66" s="15">
-        <v>0.37</v>
+        <v>0</v>
       </c>
       <c r="O66" s="15">
         <v>0</v>
@@ -18645,7 +18645,7 @@
         <v>0</v>
       </c>
       <c r="U66" s="15">
-        <v>0.37</v>
+        <v>0</v>
       </c>
       <c r="V66" s="15">
         <v>0</v>
@@ -18684,7 +18684,7 @@
         <v>0</v>
       </c>
       <c r="AH66" s="15">
-        <v>0.37</v>
+        <v>0</v>
       </c>
       <c r="AI66" s="15">
         <v>0</v>
@@ -32041,6 +32041,21 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101006EB96E01841F534A9C78DC9E98988F27" ma:contentTypeVersion="11" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="e9cd0784f49f37c1a173dce4a7ba0add">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="768b940a-12b3-4bec-8bc4-e76c6f92f4e8" xmlns:ns4="825cedbc-969e-4d8d-87a7-78044fba72ff" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="d0f00a3aa6de0fd555e3fea5893c31c9" ns3:_="" ns4:_="">
     <xsd:import namespace="768b940a-12b3-4bec-8bc4-e76c6f92f4e8"/>
@@ -32251,22 +32266,32 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{47108D9C-9F22-4BF8-A049-F9C9D73243DC}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="825cedbc-969e-4d8d-87a7-78044fba72ff"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="768b940a-12b3-4bec-8bc4-e76c6f92f4e8"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{00860459-9AB3-404C-9E09-2F98C31A67E6}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BD02C117-BEF2-48D5-9623-486F204F6E0B}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -32283,29 +32308,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{00860459-9AB3-404C-9E09-2F98C31A67E6}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{47108D9C-9F22-4BF8-A049-F9C9D73243DC}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="825cedbc-969e-4d8d-87a7-78044fba72ff"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="768b940a-12b3-4bec-8bc4-e76c6f92f4e8"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>